--- a/BTI.xlsx
+++ b/BTI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA32E17-83D3-4E45-AA07-5B7038AB73EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D9265D-DC74-4AAF-9E41-215CD5280831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{398237C1-CA6F-4F70-A6D1-46181DBC5386}"/>
+    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{398237C1-CA6F-4F70-A6D1-46181DBC5386}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Oscar Settje:</t>
         </r>
@@ -62,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Increase in amount receivables in respect of the Quebec Class Action</t>
@@ -77,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Oscar Settje:</t>
         </r>
@@ -86,7 +86,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Increase in amount receivables in respect of the Quebec Class Action
@@ -127,7 +127,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Oscar Settje:</t>
         </r>
@@ -136,7 +136,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Acquistion of RAI</t>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="387">
   <si>
     <t>IR</t>
   </si>
@@ -1349,7 +1349,7 @@
     <numFmt numFmtId="172" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="173" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1447,19 +1447,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1694,7 +1681,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1859,6 +1846,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2492,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A3225F-ECB2-4048-8E18-3B54811707AA}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -3285,11 +3273,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0570F6-5B7C-4679-A452-2E0FF744AECA}">
   <dimension ref="A1:AP210"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3394,9 +3382,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" t="s">
         <v>235</v>
       </c>
@@ -8072,100 +8058,100 @@
       </c>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58">
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106">
         <f t="shared" si="66"/>
         <v>0.12550607287449389</v>
       </c>
-      <c r="F60" s="58">
+      <c r="F60" s="106">
         <f t="shared" si="69"/>
         <v>-9.0909090909090939E-2</v>
       </c>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58">
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106">
         <f>K29/J29-1</f>
         <v>-6.2057118316512727E-2</v>
       </c>
-      <c r="L60" s="58">
+      <c r="L60" s="106">
         <f>L29/K29-1</f>
         <v>0.12568681318681318</v>
       </c>
-      <c r="M60" s="58">
+      <c r="M60" s="106">
         <f>M29/L29-1</f>
         <v>0.37563555013219441</v>
       </c>
-      <c r="N60" s="58">
+      <c r="N60" s="106">
         <f>N29/M29-1</f>
         <v>0.20697811945594324</v>
       </c>
-      <c r="O60" s="58">
+      <c r="O60" s="106">
         <f t="shared" si="73"/>
         <v>5.6549077249714141E-2</v>
       </c>
-      <c r="P60" s="58">
+      <c r="P60" s="106">
         <f t="shared" si="73"/>
         <v>-3.9030799551725837E-3</v>
       </c>
-      <c r="Q60" s="58">
+      <c r="Q60" s="106">
         <f t="shared" si="73"/>
         <v>-3.5692116697703113E-3</v>
       </c>
-      <c r="R60" s="58">
+      <c r="R60" s="106">
         <f t="shared" si="73"/>
         <v>7.6740383117894329E-2</v>
       </c>
-      <c r="S60" s="58">
+      <c r="S60" s="106">
         <f t="shared" si="73"/>
         <v>-1.3451455433013959E-2</v>
       </c>
-      <c r="T60" s="58">
+      <c r="T60" s="106">
         <f t="shared" si="73"/>
         <v>-5.190045083018735E-2</v>
       </c>
-      <c r="U60" s="58">
+      <c r="U60" s="106">
         <f t="shared" ref="U60:AC60" si="74">U29/T29-1</f>
         <v>2.0666486256626371E-4</v>
       </c>
-      <c r="V60" s="58">
+      <c r="V60" s="106">
         <f t="shared" si="74"/>
         <v>6.5032132146281008E-4</v>
       </c>
-      <c r="W60" s="58">
+      <c r="W60" s="106">
         <f t="shared" si="74"/>
         <v>1.1089420414018836E-3</v>
       </c>
-      <c r="X60" s="58">
+      <c r="X60" s="106">
         <f t="shared" si="74"/>
         <v>1.5826168384620587E-3</v>
       </c>
-      <c r="Y60" s="58">
+      <c r="Y60" s="106">
         <f t="shared" si="74"/>
         <v>2.0713969538483923E-3</v>
       </c>
-      <c r="Z60" s="58">
+      <c r="Z60" s="106">
         <f t="shared" si="74"/>
         <v>2.5752922422408453E-3</v>
       </c>
-      <c r="AA60" s="58">
+      <c r="AA60" s="106">
         <f t="shared" si="74"/>
         <v>3.0942684570276491E-3</v>
       </c>
-      <c r="AB60" s="58">
+      <c r="AB60" s="106">
         <f t="shared" si="74"/>
         <v>-1.1021390747152027E-2</v>
       </c>
-      <c r="AC60" s="58">
+      <c r="AC60" s="106">
         <f t="shared" si="74"/>
         <v>-7.0654739659491428E-3</v>
       </c>
-      <c r="AD60" s="58">
+      <c r="AD60" s="106">
         <f t="shared" ref="AD60" si="75">AD29/AC29-1</f>
         <v>-6.5992798357306093E-3</v>
       </c>
@@ -18029,14 +18015,14 @@
       </c>
       <c r="E4" s="60">
         <f ca="1">+TODAY()</f>
-        <v>45758</v>
+        <v>45795</v>
       </c>
       <c r="G4" t="s">
         <v>153</v>
       </c>
       <c r="J4" s="64">
         <f ca="1">V62</f>
-        <v>42.100551097958885</v>
+        <v>42.078659766442186</v>
       </c>
       <c r="L4" t="s">
         <v>370</v>
@@ -18058,7 +18044,7 @@
       </c>
       <c r="J5" s="65">
         <f ca="1">J4/J3-1</f>
-        <v>9.3804912911376492E-2</v>
+        <v>9.3236159169711286E-2</v>
       </c>
       <c r="L5" t="s">
         <v>155</v>
@@ -19660,43 +19646,43 @@
       <c r="L52" s="93"/>
       <c r="M52" s="93">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>6418.4650323824044</v>
+        <v>5543.4826673742</v>
       </c>
       <c r="N52" s="93">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>8280.5542166092873</v>
+        <v>8338.336250047767</v>
       </c>
       <c r="O52" s="93">
         <f t="shared" ref="O52:U52" ca="1" si="19">O51/(1+$E$18)^O53</f>
-        <v>7718.2598865857899</v>
+        <v>7772.1182080443978</v>
       </c>
       <c r="P52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>7196.9037019034495</v>
+        <v>7247.1239793726527</v>
       </c>
       <c r="Q52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>6713.4173034297746</v>
+        <v>6760.2637937691725</v>
       </c>
       <c r="R52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>6264.9638253178355</v>
+        <v>6308.6809896254208</v>
       </c>
       <c r="S52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>5848.9204320783028</v>
+        <v>5889.7344292027301</v>
       </c>
       <c r="T52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>5383.1225465918778</v>
+        <v>5420.6861877267556</v>
       </c>
       <c r="U52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>4973.7223353197114</v>
+        <v>5008.4291656568284</v>
       </c>
       <c r="V52" s="94">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>4597.1255683990994</v>
+        <v>4629.2044916650466</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -19705,43 +19691,43 @@
       </c>
       <c r="M53" s="21">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.72222222222222221</v>
+        <v>0.61944444444444446</v>
       </c>
       <c r="N53" s="21">
         <f ca="1">M53+1</f>
-        <v>1.7222222222222223</v>
+        <v>1.6194444444444445</v>
       </c>
       <c r="O53" s="21">
         <f ca="1">N53+1</f>
-        <v>2.7222222222222223</v>
+        <v>2.6194444444444445</v>
       </c>
       <c r="P53" s="21">
         <f t="shared" ref="P53:V53" ca="1" si="20">O53+1</f>
-        <v>3.7222222222222223</v>
+        <v>3.6194444444444445</v>
       </c>
       <c r="Q53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>4.7222222222222223</v>
+        <v>4.6194444444444445</v>
       </c>
       <c r="R53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>5.7222222222222223</v>
+        <v>5.6194444444444445</v>
       </c>
       <c r="S53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>6.7222222222222223</v>
+        <v>6.6194444444444445</v>
       </c>
       <c r="T53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>7.7222222222222223</v>
+        <v>7.6194444444444445</v>
       </c>
       <c r="U53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>8.7222222222222214</v>
+        <v>8.6194444444444436</v>
       </c>
       <c r="V53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>9.7222222222222214</v>
+        <v>9.6194444444444436</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -19754,7 +19740,7 @@
       <c r="Q54" s="20"/>
       <c r="V54" s="78">
         <f ca="1">SUM(M52:V52)</f>
-        <v>63395.454848617534</v>
+        <v>62918.060162484981</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -19798,7 +19784,7 @@
       <c r="U56" s="46"/>
       <c r="V56" s="95">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>61468.165282263442</v>
+        <v>61897.09256041803</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -19826,7 +19812,7 @@
       <c r="U57" s="48"/>
       <c r="V57" s="96">
         <f ca="1">V54+V56</f>
-        <v>124863.62013088097</v>
+        <v>124815.152722903</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
@@ -19880,7 +19866,7 @@
       <c r="Q60" s="20"/>
       <c r="V60" s="97">
         <f ca="1">V57+V58-V59</f>
-        <v>93210.620130880969</v>
+        <v>93162.152722903003</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -19917,7 +19903,7 @@
       </c>
       <c r="V62" s="97">
         <f ca="1">V60/V61</f>
-        <v>42.100551097958885</v>
+        <v>42.078659766442186</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -19978,7 +19964,7 @@
       </c>
       <c r="C69" s="50">
         <f ca="1">+J4</f>
-        <v>42.100551097958885</v>
+        <v>42.078659766442186</v>
       </c>
       <c r="D69" s="98">
         <v>-5.0000000000000001E-3</v>
@@ -20006,7 +19992,7 @@
       </c>
       <c r="N69" s="50">
         <f ca="1">+J4</f>
-        <v>42.100551097958885</v>
+        <v>42.078659766442186</v>
       </c>
       <c r="O69" s="98">
         <f t="shared" ref="O69:P69" si="21">+P69-1%</f>
@@ -20044,25 +20030,25 @@
       </c>
       <c r="D70" s="52">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>75.709740999526105</v>
+        <v>75.650474088447169</v>
       </c>
       <c r="E70" s="52">
-        <v>79.77198499007315</v>
+        <v>79.729126104891151</v>
       </c>
       <c r="F70" s="52">
-        <v>84.956038261068628</v>
+        <v>84.934118561351497</v>
       </c>
       <c r="G70" s="99">
-        <v>91.822805452736858</v>
+        <v>91.828621677836466</v>
       </c>
       <c r="H70" s="52">
-        <v>101.38191491748137</v>
+        <v>101.42634185036076</v>
       </c>
       <c r="I70" s="52">
-        <v>115.65262336010946</v>
+        <v>115.75469187095393</v>
       </c>
       <c r="J70" s="52">
-        <v>139.34652975850463</v>
+        <v>139.54430158768477</v>
       </c>
       <c r="M70" s="104"/>
       <c r="N70" s="51">
@@ -20071,25 +20057,25 @@
       </c>
       <c r="O70" s="52">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>87.247117983830705</v>
+        <v>87.234452306154211</v>
       </c>
       <c r="P70" s="52">
-        <v>89.208126899076206</v>
+        <v>89.203382036875212</v>
       </c>
       <c r="Q70" s="52">
-        <v>90.67888358551032</v>
+        <v>90.680079334915916</v>
       </c>
       <c r="R70" s="99">
-        <v>91.822805452736858</v>
+        <v>91.828621677836466</v>
       </c>
       <c r="S70" s="52">
-        <v>92.737942946518089</v>
+        <v>92.747455552172923</v>
       </c>
       <c r="T70" s="52">
-        <v>93.486691805066357</v>
+        <v>93.499228722084553</v>
       </c>
       <c r="U70" s="52">
-        <v>94.110649187189935</v>
+        <v>94.12570636367758</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -20099,25 +20085,25 @@
         <v>0.05</v>
       </c>
       <c r="D71" s="52">
-        <v>59.650727068755003</v>
+        <v>59.602153294497008</v>
       </c>
       <c r="E71" s="52">
-        <v>61.665895799855548</v>
+        <v>61.627452557953625</v>
       </c>
       <c r="F71" s="52">
-        <v>64.101360430180023</v>
+        <v>64.075160606339736</v>
       </c>
       <c r="G71" s="99">
-        <v>67.114731921937448</v>
+        <v>67.10368073400393</v>
       </c>
       <c r="H71" s="52">
-        <v>70.953684644313341</v>
+        <v>70.961932403493904</v>
       </c>
       <c r="I71" s="52">
-        <v>76.031009212616965</v>
+        <v>76.064781385722611</v>
       </c>
       <c r="J71" s="52">
-        <v>83.0897287344049</v>
+        <v>83.158986068333235</v>
       </c>
       <c r="M71" s="104"/>
       <c r="N71" s="51">
@@ -20125,25 +20111,25 @@
         <v>0.05</v>
       </c>
       <c r="O71" s="52">
-        <v>63.987843010969989</v>
+        <v>63.961072519338693</v>
       </c>
       <c r="P71" s="52">
-        <v>65.327938258527482</v>
+        <v>65.307904611338074</v>
       </c>
       <c r="Q71" s="52">
-        <v>66.333009694195596</v>
+        <v>66.318028680337619</v>
       </c>
       <c r="R71" s="99">
-        <v>67.114731921937448</v>
+        <v>67.10368073400393</v>
       </c>
       <c r="S71" s="52">
-        <v>67.740109704130944</v>
+        <v>67.732202376936968</v>
       </c>
       <c r="T71" s="52">
-        <v>68.251782435016537</v>
+        <v>68.246447357518548</v>
       </c>
       <c r="U71" s="52">
-        <v>68.678176377421195</v>
+        <v>68.674984841336538</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -20153,25 +20139,25 @@
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="D72" s="99">
-        <v>48.509319421414197</v>
+        <v>48.468720427375928</v>
       </c>
       <c r="E72" s="99">
-        <v>49.54310985170207</v>
+        <v>49.508720544524614</v>
       </c>
       <c r="F72" s="99">
-        <v>50.744328525856268</v>
+        <v>50.717154599668348</v>
       </c>
       <c r="G72" s="99">
-        <v>52.163203917036704</v>
+        <v>52.144552774205657</v>
       </c>
       <c r="H72" s="99">
-        <v>53.87228826425212</v>
+        <v>53.863903107934377</v>
       </c>
       <c r="I72" s="99">
-        <v>55.980409926015632</v>
+        <v>55.984687660551302</v>
       </c>
       <c r="J72" s="99">
-        <v>58.658584894276395</v>
+        <v>58.678949668722808</v>
       </c>
       <c r="M72" s="104"/>
       <c r="N72" s="51">
@@ -20179,25 +20165,25 @@
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="O72" s="99">
-        <v>49.881915118771211</v>
+        <v>49.84956091905233</v>
       </c>
       <c r="P72" s="99">
-        <v>50.859610318027855</v>
+        <v>50.833128856975193</v>
       </c>
       <c r="Q72" s="99">
-        <v>51.592881717470334</v>
+        <v>51.570804810417322</v>
       </c>
       <c r="R72" s="99">
-        <v>52.163203917036704</v>
+        <v>52.144552774205657</v>
       </c>
       <c r="S72" s="99">
-        <v>52.619461676689816</v>
+        <v>52.603551145236317</v>
       </c>
       <c r="T72" s="99">
-        <v>52.992763480042342</v>
+        <v>52.979095266988679</v>
       </c>
       <c r="U72" s="99">
-        <v>53.303848316169464</v>
+        <v>53.292048701782299</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -20206,50 +20192,50 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D73" s="52">
-        <v>40.32066982843795</v>
+        <v>40.286358415325054</v>
       </c>
       <c r="E73" s="52">
-        <v>40.843933323559106</v>
+        <v>40.813273263722976</v>
       </c>
       <c r="F73" s="52">
-        <v>41.431840136882556</v>
+        <v>41.405282513943476</v>
       </c>
       <c r="G73" s="99">
-        <v>42.100551097958885</v>
+        <v>42.078659766442186</v>
       </c>
       <c r="H73" s="52">
-        <v>42.872103701629776</v>
+        <v>42.855596294567725</v>
       </c>
       <c r="I73" s="52">
-        <v>43.777350440673601</v>
+        <v>43.767159881008148</v>
       </c>
       <c r="J73" s="52">
-        <v>44.860856026881322</v>
+        <v>44.85822621186837</v>
       </c>
       <c r="M73" s="104"/>
       <c r="N73" s="51">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O73" s="52">
-        <v>40.365338663387313</v>
+        <v>40.3313389511639</v>
       </c>
       <c r="P73" s="52">
-        <v>41.109001135346567</v>
+        <v>41.080190729140313</v>
       </c>
       <c r="Q73" s="52">
-        <v>41.666747989315994</v>
+        <v>41.641829562622618</v>
       </c>
       <c r="R73" s="99">
-        <v>42.100551097958885</v>
+        <v>42.078659766442186</v>
       </c>
       <c r="S73" s="52">
-        <v>42.447593584873204</v>
+        <v>42.42812392949785</v>
       </c>
       <c r="T73" s="52">
-        <v>42.731537437803105</v>
+        <v>42.71404915381612</v>
       </c>
       <c r="U73" s="52">
-        <v>42.968157315244667</v>
+        <v>42.952320174081329</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -20259,25 +20245,25 @@
         <v>0.08</v>
       </c>
       <c r="D74" s="52">
-        <v>34.044346863235091</v>
+        <v>34.015188681838524</v>
       </c>
       <c r="E74" s="52">
-        <v>34.288076713077693</v>
+        <v>34.260854051489495</v>
       </c>
       <c r="F74" s="52">
-        <v>34.551748096089234</v>
+        <v>34.526619315020994</v>
       </c>
       <c r="G74" s="99">
-        <v>34.839634197948776</v>
+        <v>34.816791592550288</v>
       </c>
       <c r="H74" s="52">
-        <v>35.157323030698166</v>
+        <v>35.137003271923028</v>
       </c>
       <c r="I74" s="52">
-        <v>35.512265277059861</v>
+        <v>35.494764203600056</v>
       </c>
       <c r="J74" s="52">
-        <v>35.914620958928126</v>
+        <v>35.900315092755271</v>
       </c>
       <c r="M74" s="104"/>
       <c r="N74" s="51">
@@ -20285,25 +20271,25 @@
         <v>0.08</v>
       </c>
       <c r="O74" s="52">
-        <v>33.480919418144389</v>
+        <v>33.447286918229786</v>
       </c>
       <c r="P74" s="52">
-        <v>34.063225752346277</v>
+        <v>34.034217492938573</v>
       </c>
       <c r="Q74" s="52">
-        <v>34.499955502997686</v>
+        <v>34.474415423970164</v>
       </c>
       <c r="R74" s="99">
-        <v>34.839634197948776</v>
+        <v>34.816791592550288</v>
       </c>
       <c r="S74" s="52">
-        <v>35.11137715390965</v>
+        <v>35.09069252741439</v>
       </c>
       <c r="T74" s="52">
-        <v>35.333712299695826</v>
+        <v>35.314793292303207</v>
       </c>
       <c r="U74" s="52">
-        <v>35.518991587850962</v>
+        <v>35.501543929710543</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -20313,25 +20299,25 @@
         <v>0.09</v>
       </c>
       <c r="D75" s="52">
-        <v>29.07782401776949</v>
+        <v>29.053010105818107</v>
       </c>
       <c r="E75" s="52">
-        <v>29.163921294364268</v>
+        <v>29.139873346209761</v>
       </c>
       <c r="F75" s="52">
-        <v>29.250018570959046</v>
+        <v>29.226736586601412</v>
       </c>
       <c r="G75" s="99">
-        <v>29.336115847553817</v>
+        <v>29.313599826993062</v>
       </c>
       <c r="H75" s="52">
-        <v>29.422213124148595</v>
+        <v>29.40046306738472</v>
       </c>
       <c r="I75" s="52">
-        <v>29.508310400743373</v>
+        <v>29.487326307776378</v>
       </c>
       <c r="J75" s="52">
-        <v>29.594407677338143</v>
+        <v>29.574189548168022</v>
       </c>
       <c r="M75" s="104"/>
       <c r="N75" s="51">
@@ -20339,25 +20325,25 @@
         <v>0.09</v>
       </c>
       <c r="O75" s="52">
-        <v>28.249137730544764</v>
+        <v>28.216951417048453</v>
       </c>
       <c r="P75" s="52">
-        <v>28.714985494977213</v>
+        <v>28.686943592739002</v>
       </c>
       <c r="Q75" s="52">
-        <v>29.064371318301557</v>
+        <v>29.039437724506907</v>
       </c>
       <c r="R75" s="99">
-        <v>29.336115847553817</v>
+        <v>29.313599826993062</v>
       </c>
       <c r="S75" s="52">
-        <v>29.553511470955627</v>
+        <v>29.532929508981987</v>
       </c>
       <c r="T75" s="52">
-        <v>29.73138061737529</v>
+        <v>29.712381066972924</v>
       </c>
       <c r="U75" s="52">
-        <v>29.879604906058347</v>
+        <v>29.861924031965373</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -20367,25 +20353,25 @@
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="D76" s="52">
-        <v>25.047971933547572</v>
+        <v>25.02689887695897</v>
       </c>
       <c r="E76" s="52">
-        <v>25.0442203902256</v>
+        <v>25.023110403804434</v>
       </c>
       <c r="F76" s="52">
-        <v>25.031781062368523</v>
+        <v>25.010548624397284</v>
       </c>
       <c r="G76" s="99">
-        <v>25.009205985887164</v>
+        <v>24.98775132102875</v>
       </c>
       <c r="H76" s="52">
-        <v>24.974706499259593</v>
+        <v>24.952912224764468</v>
       </c>
       <c r="I76" s="52">
-        <v>24.926046775583401</v>
+        <v>24.903773499436504</v>
       </c>
       <c r="J76" s="52">
-        <v>24.860394767448845</v>
+        <v>24.837475219232086</v>
       </c>
       <c r="M76" s="105"/>
       <c r="N76" s="51">
@@ -20393,25 +20379,25 @@
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="O76" s="52">
-        <v>24.1250922763418</v>
+        <v>24.094934480942676</v>
       </c>
       <c r="P76" s="52">
-        <v>24.503998151861243</v>
+        <v>24.477570269550998</v>
       </c>
       <c r="Q76" s="52">
-        <v>24.788177558500827</v>
+        <v>24.764547111007229</v>
       </c>
       <c r="R76" s="99">
-        <v>25.009205985887164</v>
+        <v>24.98775132102875</v>
       </c>
       <c r="S76" s="52">
-        <v>25.186028727796245</v>
+        <v>25.166314689045965</v>
       </c>
       <c r="T76" s="52">
-        <v>25.330701880267295</v>
+        <v>25.312411990150952</v>
       </c>
       <c r="U76" s="52">
-        <v>25.451262840659847</v>
+        <v>25.434159741071788</v>
       </c>
     </row>
   </sheetData>

--- a/BTI.xlsx
+++ b/BTI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D9265D-DC74-4AAF-9E41-215CD5280831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717A849B-36BA-4331-BCF6-9DB0B499E6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="4680" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{398237C1-CA6F-4F70-A6D1-46181DBC5386}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{398237C1-CA6F-4F70-A6D1-46181DBC5386}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="388">
   <si>
     <t>IR</t>
   </si>
@@ -1331,6 +1331,9 @@
   </si>
   <si>
     <t>% of Rev</t>
+  </si>
+  <si>
+    <t>27-05-25: Sale of stake in ITC -&gt; 313 million shares for ca. 1.5 billion USD -&gt; no impact on guidance</t>
   </si>
 </sst>
 </file>
@@ -1828,6 +1831,7 @@
     </xf>
     <xf numFmtId="167" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1846,7 +1850,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2478,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A3225F-ECB2-4048-8E18-3B54811707AA}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,6 +3052,11 @@
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>382</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0570F6-5B7C-4679-A452-2E0FF744AECA}">
   <dimension ref="A1:AP210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -8061,97 +8069,97 @@
       <c r="B60" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="106"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106">
+      <c r="C60" s="100"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="100">
         <f t="shared" si="66"/>
         <v>0.12550607287449389</v>
       </c>
-      <c r="F60" s="106">
+      <c r="F60" s="100">
         <f t="shared" si="69"/>
         <v>-9.0909090909090939E-2</v>
       </c>
-      <c r="G60" s="106"/>
-      <c r="H60" s="106"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="100"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="106">
+      <c r="J60" s="100"/>
+      <c r="K60" s="100">
         <f>K29/J29-1</f>
         <v>-6.2057118316512727E-2</v>
       </c>
-      <c r="L60" s="106">
+      <c r="L60" s="100">
         <f>L29/K29-1</f>
         <v>0.12568681318681318</v>
       </c>
-      <c r="M60" s="106">
+      <c r="M60" s="100">
         <f>M29/L29-1</f>
         <v>0.37563555013219441</v>
       </c>
-      <c r="N60" s="106">
+      <c r="N60" s="100">
         <f>N29/M29-1</f>
         <v>0.20697811945594324</v>
       </c>
-      <c r="O60" s="106">
+      <c r="O60" s="100">
         <f t="shared" si="73"/>
         <v>5.6549077249714141E-2</v>
       </c>
-      <c r="P60" s="106">
+      <c r="P60" s="100">
         <f t="shared" si="73"/>
         <v>-3.9030799551725837E-3</v>
       </c>
-      <c r="Q60" s="106">
+      <c r="Q60" s="100">
         <f t="shared" si="73"/>
         <v>-3.5692116697703113E-3</v>
       </c>
-      <c r="R60" s="106">
+      <c r="R60" s="100">
         <f t="shared" si="73"/>
         <v>7.6740383117894329E-2</v>
       </c>
-      <c r="S60" s="106">
+      <c r="S60" s="100">
         <f t="shared" si="73"/>
         <v>-1.3451455433013959E-2</v>
       </c>
-      <c r="T60" s="106">
+      <c r="T60" s="100">
         <f t="shared" si="73"/>
         <v>-5.190045083018735E-2</v>
       </c>
-      <c r="U60" s="106">
+      <c r="U60" s="100">
         <f t="shared" ref="U60:AC60" si="74">U29/T29-1</f>
         <v>2.0666486256626371E-4</v>
       </c>
-      <c r="V60" s="106">
+      <c r="V60" s="100">
         <f t="shared" si="74"/>
         <v>6.5032132146281008E-4</v>
       </c>
-      <c r="W60" s="106">
+      <c r="W60" s="100">
         <f t="shared" si="74"/>
         <v>1.1089420414018836E-3</v>
       </c>
-      <c r="X60" s="106">
+      <c r="X60" s="100">
         <f t="shared" si="74"/>
         <v>1.5826168384620587E-3</v>
       </c>
-      <c r="Y60" s="106">
+      <c r="Y60" s="100">
         <f t="shared" si="74"/>
         <v>2.0713969538483923E-3</v>
       </c>
-      <c r="Z60" s="106">
+      <c r="Z60" s="100">
         <f t="shared" si="74"/>
         <v>2.5752922422408453E-3</v>
       </c>
-      <c r="AA60" s="106">
+      <c r="AA60" s="100">
         <f t="shared" si="74"/>
         <v>3.0942684570276491E-3</v>
       </c>
-      <c r="AB60" s="106">
+      <c r="AB60" s="100">
         <f t="shared" si="74"/>
         <v>-1.1021390747152027E-2</v>
       </c>
-      <c r="AC60" s="106">
+      <c r="AC60" s="100">
         <f t="shared" si="74"/>
         <v>-7.0654739659491428E-3</v>
       </c>
-      <c r="AD60" s="106">
+      <c r="AD60" s="100">
         <f t="shared" ref="AD60" si="75">AD29/AC29-1</f>
         <v>-6.5992798357306093E-3</v>
       </c>
@@ -18015,14 +18023,14 @@
       </c>
       <c r="E4" s="60">
         <f ca="1">+TODAY()</f>
-        <v>45795</v>
+        <v>45805</v>
       </c>
       <c r="G4" t="s">
         <v>153</v>
       </c>
       <c r="J4" s="64">
         <f ca="1">V62</f>
-        <v>42.078659766442186</v>
+        <v>42.072221071934507</v>
       </c>
       <c r="L4" t="s">
         <v>370</v>
@@ -18044,7 +18052,7 @@
       </c>
       <c r="J5" s="65">
         <f ca="1">J4/J3-1</f>
-        <v>9.3236159169711286E-2</v>
+        <v>9.3068876901390096E-2</v>
       </c>
       <c r="L5" t="s">
         <v>155</v>
@@ -19646,43 +19654,43 @@
       <c r="L52" s="93"/>
       <c r="M52" s="93">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>5543.4826673742</v>
+        <v>5304.856621863335</v>
       </c>
       <c r="N52" s="93">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>8338.336250047767</v>
+        <v>8354.0221121894156</v>
       </c>
       <c r="O52" s="93">
         <f t="shared" ref="O52:U52" ca="1" si="19">O51/(1+$E$18)^O53</f>
-        <v>7772.1182080443978</v>
+        <v>7786.7389154738066</v>
       </c>
       <c r="P52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>7247.1239793726527</v>
+        <v>7260.7570812595222</v>
       </c>
       <c r="Q52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>6760.2637937691725</v>
+        <v>6772.9810268874262</v>
       </c>
       <c r="R52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>6308.6809896254208</v>
+        <v>6320.5487168711707</v>
       </c>
       <c r="S52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>5889.7344292027301</v>
+        <v>5900.8140450321916</v>
       </c>
       <c r="T52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>5420.6861877267556</v>
+        <v>5430.8834421554593</v>
       </c>
       <c r="U52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>5008.4291656568284</v>
+        <v>5017.8508928554947</v>
       </c>
       <c r="V52" s="94">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>4629.2044916650466</v>
+        <v>4637.9128312311495</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -19691,43 +19699,43 @@
       </c>
       <c r="M53" s="21">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.61944444444444446</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="N53" s="21">
         <f ca="1">M53+1</f>
-        <v>1.6194444444444445</v>
+        <v>1.5916666666666668</v>
       </c>
       <c r="O53" s="21">
         <f ca="1">N53+1</f>
-        <v>2.6194444444444445</v>
+        <v>2.5916666666666668</v>
       </c>
       <c r="P53" s="21">
         <f t="shared" ref="P53:V53" ca="1" si="20">O53+1</f>
-        <v>3.6194444444444445</v>
+        <v>3.5916666666666668</v>
       </c>
       <c r="Q53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>4.6194444444444445</v>
+        <v>4.5916666666666668</v>
       </c>
       <c r="R53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>5.6194444444444445</v>
+        <v>5.5916666666666668</v>
       </c>
       <c r="S53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>6.6194444444444445</v>
+        <v>6.5916666666666668</v>
       </c>
       <c r="T53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>7.6194444444444445</v>
+        <v>7.5916666666666668</v>
       </c>
       <c r="U53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>8.6194444444444436</v>
+        <v>8.5916666666666668</v>
       </c>
       <c r="V53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>9.6194444444444436</v>
+        <v>9.5916666666666668</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -19740,7 +19748,7 @@
       <c r="Q54" s="20"/>
       <c r="V54" s="78">
         <f ca="1">SUM(M52:V52)</f>
-        <v>62918.060162484981</v>
+        <v>62787.365685818972</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -19784,7 +19792,7 @@
       <c r="U56" s="46"/>
       <c r="V56" s="95">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>61897.09256041803</v>
+        <v>62013.531767444016</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -19812,7 +19820,7 @@
       <c r="U57" s="48"/>
       <c r="V57" s="96">
         <f ca="1">V54+V56</f>
-        <v>124815.152722903</v>
+        <v>124800.89745326299</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
@@ -19866,7 +19874,7 @@
       <c r="Q60" s="20"/>
       <c r="V60" s="97">
         <f ca="1">V57+V58-V59</f>
-        <v>93162.152722903003</v>
+        <v>93147.897453262995</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -19903,7 +19911,7 @@
       </c>
       <c r="V62" s="97">
         <f ca="1">V60/V61</f>
-        <v>42.078659766442186</v>
+        <v>42.072221071934507</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -19936,35 +19944,35 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B68" s="49"/>
-      <c r="C68" s="100" t="s">
+      <c r="C68" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="100"/>
-      <c r="E68" s="100"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="100"/>
-      <c r="I68" s="100"/>
-      <c r="J68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="102"/>
       <c r="M68" s="49"/>
-      <c r="N68" s="102" t="s">
+      <c r="N68" s="103" t="s">
         <v>380</v>
       </c>
-      <c r="O68" s="102"/>
-      <c r="P68" s="102"/>
-      <c r="Q68" s="102"/>
-      <c r="R68" s="102"/>
-      <c r="S68" s="102"/>
-      <c r="T68" s="102"/>
-      <c r="U68" s="103"/>
+      <c r="O68" s="103"/>
+      <c r="P68" s="103"/>
+      <c r="Q68" s="103"/>
+      <c r="R68" s="103"/>
+      <c r="S68" s="103"/>
+      <c r="T68" s="103"/>
+      <c r="U68" s="104"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B69" s="104" t="s">
+      <c r="B69" s="105" t="s">
         <v>166</v>
       </c>
       <c r="C69" s="50">
         <f ca="1">+J4</f>
-        <v>42.078659766442186</v>
+        <v>42.072221071934507</v>
       </c>
       <c r="D69" s="98">
         <v>-5.0000000000000001E-3</v>
@@ -19987,12 +19995,12 @@
       <c r="J69" s="98">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M69" s="104" t="s">
+      <c r="M69" s="105" t="s">
         <v>166</v>
       </c>
       <c r="N69" s="50">
         <f ca="1">+J4</f>
-        <v>42.078659766442186</v>
+        <v>42.072221071934507</v>
       </c>
       <c r="O69" s="98">
         <f t="shared" ref="O69:P69" si="21">+P69-1%</f>
@@ -20023,381 +20031,381 @@
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B70" s="104"/>
+      <c r="B70" s="105"/>
       <c r="C70" s="51">
         <f>+C71-1%</f>
         <v>0.04</v>
       </c>
       <c r="D70" s="52">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>75.650474088447169</v>
+        <v>75.63412236470262</v>
       </c>
       <c r="E70" s="52">
-        <v>79.729126104891151</v>
+        <v>79.717220348145375</v>
       </c>
       <c r="F70" s="52">
-        <v>84.934118561351497</v>
+        <v>84.927886547939806</v>
       </c>
       <c r="G70" s="99">
-        <v>91.828621677836466</v>
+        <v>91.829905072261781</v>
       </c>
       <c r="H70" s="52">
-        <v>101.42634185036076</v>
+        <v>101.43808731582781</v>
       </c>
       <c r="I70" s="52">
-        <v>115.75469187095393</v>
+        <v>115.78205606807097</v>
       </c>
       <c r="J70" s="52">
-        <v>139.54430158768477</v>
-      </c>
-      <c r="M70" s="104"/>
+        <v>139.59759783766827</v>
+      </c>
+      <c r="M70" s="105"/>
       <c r="N70" s="51">
         <f>+N71-1%</f>
         <v>0.04</v>
       </c>
       <c r="O70" s="52">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>87.234452306154211</v>
+        <v>87.230727789796532</v>
       </c>
       <c r="P70" s="52">
-        <v>89.203382036875212</v>
+        <v>89.201803767995941</v>
       </c>
       <c r="Q70" s="52">
-        <v>90.680079334915916</v>
+        <v>90.680110751645486</v>
       </c>
       <c r="R70" s="99">
-        <v>91.828621677836466</v>
+        <v>91.829905072261781</v>
       </c>
       <c r="S70" s="52">
-        <v>92.747455552172923</v>
+        <v>92.749740528754842</v>
       </c>
       <c r="T70" s="52">
-        <v>93.499228722084553</v>
+        <v>93.502333174976428</v>
       </c>
       <c r="U70" s="52">
-        <v>94.12570636367758</v>
+        <v>94.129493713494412</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B71" s="104"/>
+      <c r="B71" s="105"/>
       <c r="C71" s="51">
         <f>+C72-1%</f>
         <v>0.05</v>
       </c>
       <c r="D71" s="52">
-        <v>59.602153294497008</v>
+        <v>59.588621552934313</v>
       </c>
       <c r="E71" s="52">
-        <v>61.627452557953625</v>
+        <v>61.616667529577434</v>
       </c>
       <c r="F71" s="52">
-        <v>64.075160606339736</v>
+        <v>64.067695162429189</v>
       </c>
       <c r="G71" s="99">
-        <v>67.10368073400393</v>
+        <v>67.100322572567805</v>
       </c>
       <c r="H71" s="52">
-        <v>70.961932403493904</v>
+        <v>70.963806807401937</v>
       </c>
       <c r="I71" s="52">
-        <v>76.064781385722611</v>
+        <v>76.073576279279351</v>
       </c>
       <c r="J71" s="52">
-        <v>83.158986068333235</v>
-      </c>
-      <c r="M71" s="104"/>
+        <v>83.177402130425961</v>
+      </c>
+      <c r="M71" s="105"/>
       <c r="N71" s="51">
         <f>+N72-1%</f>
         <v>0.05</v>
       </c>
       <c r="O71" s="52">
-        <v>63.961072519338693</v>
+        <v>63.953452349033562</v>
       </c>
       <c r="P71" s="52">
-        <v>65.307904611338074</v>
+        <v>65.302111016262529</v>
       </c>
       <c r="Q71" s="52">
-        <v>66.318028680337619</v>
+        <v>66.313605016684264</v>
       </c>
       <c r="R71" s="99">
-        <v>67.10368073400393</v>
+        <v>67.100322572567805</v>
       </c>
       <c r="S71" s="52">
-        <v>67.732202376936968</v>
+        <v>67.729696617274669</v>
       </c>
       <c r="T71" s="52">
-        <v>68.246447357518548</v>
+        <v>68.244639017489362</v>
       </c>
       <c r="U71" s="52">
-        <v>68.674984841336538</v>
+        <v>68.67375768433493</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B72" s="104"/>
+      <c r="B72" s="105"/>
       <c r="C72" s="51">
         <f>+C73-1%</f>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="D72" s="99">
-        <v>48.468720427375928</v>
+        <v>48.457276326277785</v>
       </c>
       <c r="E72" s="99">
-        <v>49.508720544524614</v>
+        <v>49.498961130661947</v>
       </c>
       <c r="F72" s="99">
-        <v>50.717154599668348</v>
+        <v>50.709352717727114</v>
       </c>
       <c r="G72" s="99">
-        <v>52.144552774205657</v>
+        <v>52.139063122277619</v>
       </c>
       <c r="H72" s="99">
-        <v>53.863903107934377</v>
+        <v>53.861198616808529</v>
       </c>
       <c r="I72" s="99">
-        <v>55.984687660551302</v>
+        <v>55.985418610062517</v>
       </c>
       <c r="J72" s="99">
-        <v>58.678949668722808</v>
-      </c>
-      <c r="M72" s="104"/>
+        <v>58.684045030063757</v>
+      </c>
+      <c r="M72" s="105"/>
       <c r="N72" s="51">
         <f>+N73-1%</f>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="O72" s="99">
-        <v>49.84956091905233</v>
+        <v>49.840353629577777</v>
       </c>
       <c r="P72" s="99">
-        <v>50.833128856975193</v>
+        <v>50.825514840734861</v>
       </c>
       <c r="Q72" s="99">
-        <v>51.570804810417322</v>
+        <v>51.564385749102655</v>
       </c>
       <c r="R72" s="99">
-        <v>52.144552774205657</v>
+        <v>52.139063122277619</v>
       </c>
       <c r="S72" s="99">
-        <v>52.603551145236317</v>
+        <v>52.598805020817586</v>
       </c>
       <c r="T72" s="99">
-        <v>52.979095266988679</v>
+        <v>52.974957483259388</v>
       </c>
       <c r="U72" s="99">
-        <v>53.292048701782299</v>
+        <v>53.288417868627533</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B73" s="104"/>
+      <c r="B73" s="105"/>
       <c r="C73" s="51">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D73" s="52">
-        <v>40.286358415325054</v>
+        <v>40.276548089946793</v>
       </c>
       <c r="E73" s="52">
-        <v>40.813273263722976</v>
+        <v>40.804454156907326</v>
       </c>
       <c r="F73" s="52">
-        <v>41.405282513943476</v>
+        <v>41.397577079592821</v>
       </c>
       <c r="G73" s="99">
-        <v>42.078659766442186</v>
+        <v>42.072221071934507</v>
       </c>
       <c r="H73" s="52">
-        <v>42.855596294567725</v>
+        <v>42.850619152929525</v>
       </c>
       <c r="I73" s="52">
-        <v>43.767159881008148</v>
+        <v>43.76389754917389</v>
       </c>
       <c r="J73" s="52">
-        <v>44.85822621186837</v>
-      </c>
-      <c r="M73" s="104"/>
+        <v>44.857016365750709</v>
+      </c>
+      <c r="M73" s="105"/>
       <c r="N73" s="51">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O73" s="52">
-        <v>40.3313389511639</v>
+        <v>40.321613242004396</v>
       </c>
       <c r="P73" s="52">
-        <v>41.080190729140313</v>
+        <v>41.071873740545875</v>
       </c>
       <c r="Q73" s="52">
-        <v>41.641829562622618</v>
+        <v>41.634569114451978</v>
       </c>
       <c r="R73" s="99">
-        <v>42.078659766442186</v>
+        <v>42.072221071934507</v>
       </c>
       <c r="S73" s="52">
-        <v>42.42812392949785</v>
+        <v>42.422342637920529</v>
       </c>
       <c r="T73" s="52">
-        <v>42.71404915381612</v>
+        <v>42.70880573736364</v>
       </c>
       <c r="U73" s="52">
-        <v>42.952320174081329</v>
+        <v>42.947524986899552</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="104"/>
+      <c r="B74" s="105"/>
       <c r="C74" s="51">
         <f>+C73+1%</f>
         <v>0.08</v>
       </c>
       <c r="D74" s="52">
-        <v>34.015188681838524</v>
+        <v>34.006707527603133</v>
       </c>
       <c r="E74" s="52">
-        <v>34.260854051489495</v>
+        <v>34.252898644099197</v>
       </c>
       <c r="F74" s="52">
-        <v>34.526619315020994</v>
+        <v>34.519232670126755</v>
       </c>
       <c r="G74" s="99">
-        <v>34.816791592550288</v>
+        <v>34.810025943442561</v>
       </c>
       <c r="H74" s="52">
-        <v>35.137003271923028</v>
+        <v>35.130922905728518</v>
       </c>
       <c r="I74" s="52">
-        <v>35.494764203600056</v>
+        <v>35.489449479227162</v>
       </c>
       <c r="J74" s="52">
-        <v>35.900315092755271</v>
-      </c>
-      <c r="M74" s="104"/>
+        <v>35.89586828517831</v>
+      </c>
+      <c r="M74" s="105"/>
       <c r="N74" s="51">
         <f>+N73+1%</f>
         <v>0.08</v>
       </c>
       <c r="O74" s="52">
-        <v>33.447286918229786</v>
+        <v>33.437590401157685</v>
       </c>
       <c r="P74" s="52">
-        <v>34.034217492938573</v>
+        <v>34.025777062136918</v>
       </c>
       <c r="Q74" s="52">
-        <v>34.474415423970164</v>
+        <v>34.466917057871349</v>
       </c>
       <c r="R74" s="99">
-        <v>34.816791592550288</v>
+        <v>34.810025943442561</v>
       </c>
       <c r="S74" s="52">
-        <v>35.09069252741439</v>
+        <v>35.084513051899542</v>
       </c>
       <c r="T74" s="52">
-        <v>35.314793292303207</v>
+        <v>35.309093413364337</v>
       </c>
       <c r="U74" s="52">
-        <v>35.501543929710543</v>
+        <v>35.496243714584999</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B75" s="104"/>
+      <c r="B75" s="105"/>
       <c r="C75" s="51">
         <f>+C74+1%</f>
         <v>0.09</v>
       </c>
       <c r="D75" s="52">
-        <v>29.053010105818107</v>
+        <v>29.045641333241388</v>
       </c>
       <c r="E75" s="52">
-        <v>29.139873346209761</v>
+        <v>29.132712758099572</v>
       </c>
       <c r="F75" s="52">
-        <v>29.226736586601412</v>
+        <v>29.219784182957746</v>
       </c>
       <c r="G75" s="99">
-        <v>29.313599826993062</v>
+        <v>29.306855607815915</v>
       </c>
       <c r="H75" s="52">
-        <v>29.40046306738472</v>
+        <v>29.3939270326741</v>
       </c>
       <c r="I75" s="52">
-        <v>29.487326307776378</v>
+        <v>29.480998457532284</v>
       </c>
       <c r="J75" s="52">
-        <v>29.574189548168022</v>
-      </c>
-      <c r="M75" s="104"/>
+        <v>29.568069882390457</v>
+      </c>
+      <c r="M75" s="105"/>
       <c r="N75" s="51">
         <f>+N74+1%</f>
         <v>0.09</v>
       </c>
       <c r="O75" s="52">
-        <v>28.216951417048453</v>
+        <v>28.207578868981429</v>
       </c>
       <c r="P75" s="52">
-        <v>28.686943592739002</v>
+        <v>28.678697471339067</v>
       </c>
       <c r="Q75" s="52">
-        <v>29.039437724506907</v>
+        <v>29.0320364231073</v>
       </c>
       <c r="R75" s="99">
-        <v>29.313599826993062</v>
+        <v>29.306855607815915</v>
       </c>
       <c r="S75" s="52">
-        <v>29.532929508981987</v>
+        <v>29.526710955582828</v>
       </c>
       <c r="T75" s="52">
-        <v>29.712381066972924</v>
+        <v>29.706592603755741</v>
       </c>
       <c r="U75" s="52">
-        <v>29.861924031965373</v>
+        <v>29.856493977233171</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B76" s="105"/>
+      <c r="B76" s="106"/>
       <c r="C76" s="51">
         <f>+C75+1%</f>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="D76" s="52">
-        <v>25.02689887695897</v>
+        <v>25.020481143212546</v>
       </c>
       <c r="E76" s="52">
-        <v>25.023110403804434</v>
+        <v>25.016682626767448</v>
       </c>
       <c r="F76" s="52">
-        <v>25.010548624397284</v>
+        <v>25.004087545923166</v>
       </c>
       <c r="G76" s="99">
-        <v>24.98775132102875</v>
+        <v>24.981229806613172</v>
       </c>
       <c r="H76" s="52">
-        <v>24.952912224764468</v>
+        <v>24.94629835146117</v>
       </c>
       <c r="I76" s="52">
-        <v>24.903773499436504</v>
+        <v>24.897029358746774</v>
       </c>
       <c r="J76" s="52">
-        <v>24.837475219232086</v>
-      </c>
-      <c r="M76" s="105"/>
+        <v>24.830555320957508</v>
+      </c>
+      <c r="M76" s="106"/>
       <c r="N76" s="51">
         <f>+N75+1%</f>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="O76" s="52">
-        <v>24.094934480942676</v>
+        <v>24.086046097717748</v>
       </c>
       <c r="P76" s="52">
-        <v>24.477570269550998</v>
+        <v>24.469696258672933</v>
       </c>
       <c r="Q76" s="52">
-        <v>24.764547111007229</v>
+        <v>24.757433879389318</v>
       </c>
       <c r="R76" s="99">
-        <v>24.98775132102875</v>
+        <v>24.981229806613172</v>
       </c>
       <c r="S76" s="52">
-        <v>25.166314689045965</v>
+        <v>25.160266548392258</v>
       </c>
       <c r="T76" s="52">
-        <v>25.312411990150952</v>
+        <v>25.306751155302418</v>
       </c>
       <c r="U76" s="52">
-        <v>25.434159741071788</v>
+        <v>25.428821661060883</v>
       </c>
     </row>
   </sheetData>

--- a/BTI.xlsx
+++ b/BTI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717A849B-36BA-4331-BCF6-9DB0B499E6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625EBCE1-871E-43DF-B931-67D753E854B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{398237C1-CA6F-4F70-A6D1-46181DBC5386}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{398237C1-CA6F-4F70-A6D1-46181DBC5386}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="389">
   <si>
     <t>IR</t>
   </si>
@@ -943,9 +943,6 @@
     <t>Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Regional </t>
-  </si>
-  <si>
     <t>CEO</t>
   </si>
   <si>
@@ -1334,6 +1331,12 @@
   </si>
   <si>
     <t>27-05-25: Sale of stake in ITC -&gt; 313 million shares for ca. 1.5 billion USD -&gt; no impact on guidance</t>
+  </si>
+  <si>
+    <t>BATS.L</t>
+  </si>
+  <si>
+    <t>03-06-25: H1 on track to slightly beat expectations -&gt; around 1-2% rev growth</t>
   </si>
 </sst>
 </file>
@@ -2164,6 +2167,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2481,10 +2488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A3225F-ECB2-4048-8E18-3B54811707AA}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A50" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2506,7 +2513,7 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H2">
         <v>38.49</v>
@@ -2517,7 +2524,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="3">
-        <v>30.75</v>
+        <v>33.164999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2525,7 +2532,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>387</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" t="s">
@@ -2535,7 +2542,7 @@
         <v>2214</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2551,7 +2558,7 @@
       </c>
       <c r="H5" s="78">
         <f>+H3*H4</f>
-        <v>68080.5</v>
+        <v>73427.31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2568,7 +2575,7 @@
         <v>5297</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2580,10 +2587,13 @@
         <v>36950</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
@@ -2592,7 +2602,7 @@
       </c>
       <c r="H8" s="78">
         <f>H5-H6+H7</f>
-        <v>99733.5</v>
+        <v>105080.31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2600,13 +2610,13 @@
         <v>117</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>118</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2634,7 +2644,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E11" s="15"/>
       <c r="G11" t="s">
@@ -2664,7 +2674,7 @@
         <v>0.02</v>
       </c>
       <c r="D13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E13" s="15"/>
     </row>
@@ -2701,7 +2711,7 @@
         <v>204</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2716,133 +2726,132 @@
       </c>
       <c r="E17" s="18"/>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>257</v>
+      <c r="B20" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="70">
+        <f>1775/4258</f>
+        <v>0.41686237670267734</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="68" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="E21" t="s">
-        <v>258</v>
-      </c>
-      <c r="F21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="C22" s="70">
-        <f>1775/4258</f>
-        <v>0.41686237670267734</v>
-      </c>
-      <c r="E22" t="s">
-        <v>259</v>
-      </c>
-      <c r="F22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B21" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C21" s="71">
         <f>1473/4258</f>
         <v>0.345937059652419</v>
       </c>
-      <c r="E23" t="s">
-        <v>262</v>
-      </c>
-      <c r="F23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="E21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C22" s="74">
         <f>1010/4258</f>
         <v>0.23720056364490372</v>
       </c>
+      <c r="E22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" s="72">
+        <f>SUM(C20:C22)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="72">
-        <f>SUM(C22:C24)</f>
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>284</v>
-      </c>
-      <c r="F25" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
+        <v>265</v>
+      </c>
+      <c r="F26" t="s">
         <v>266</v>
-      </c>
-      <c r="F26" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E29" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" t="s">
         <v>270</v>
-      </c>
-      <c r="F29" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2853,80 +2862,80 @@
         <v>255</v>
       </c>
       <c r="E30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E32" t="s">
+        <v>273</v>
+      </c>
+      <c r="F32" t="s">
         <v>274</v>
-      </c>
-      <c r="F32" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E33" t="s">
+        <v>275</v>
+      </c>
+      <c r="F33" t="s">
         <v>276</v>
-      </c>
-      <c r="F33" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F34" t="s">
         <v>278</v>
-      </c>
-      <c r="F34" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3008,7 +3017,7 @@
         <v>221</v>
       </c>
       <c r="E47" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3018,45 +3027,50 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>387</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3093,32 +3107,32 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3128,87 +3142,87 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -3218,53 +3232,53 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" t="s">
         <v>328</v>
-      </c>
-      <c r="C37" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" t="s">
         <v>330</v>
-      </c>
-      <c r="C38" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3281,11 +3295,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0570F6-5B7C-4679-A452-2E0FF744AECA}">
   <dimension ref="A1:AP210"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3320,22 +3334,22 @@
         <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="J2" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>8</v>
@@ -3386,7 +3400,7 @@
         <v>233</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -4412,7 +4426,7 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
@@ -4537,7 +4551,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
@@ -4607,7 +4621,7 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
@@ -4686,7 +4700,7 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
@@ -7458,7 +7472,7 @@
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="58"/>
@@ -7527,7 +7541,7 @@
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="58"/>
@@ -7599,7 +7613,7 @@
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="58"/>
@@ -13076,7 +13090,7 @@
     </row>
     <row r="131" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C131" s="78">
         <v>0</v>
@@ -13226,7 +13240,7 @@
     </row>
     <row r="133" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C133" s="78">
         <v>-855</v>
@@ -13628,7 +13642,7 @@
     </row>
     <row r="139" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C139" s="78">
         <v>0</v>
@@ -14500,7 +14514,7 @@
     </row>
     <row r="152" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C152" s="78">
         <v>3337</v>
@@ -14577,7 +14591,7 @@
     </row>
     <row r="153" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C153" s="78">
         <f>C152+C151</f>
@@ -16074,16 +16088,16 @@
       </c>
       <c r="C2" s="76"/>
       <c r="D2" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F2" s="76" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H2" s="76">
         <v>18</v>
@@ -16124,7 +16138,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -16538,7 +16552,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -16836,7 +16850,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P20" s="62"/>
     </row>
@@ -17193,7 +17207,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N28" s="20"/>
     </row>
@@ -17234,7 +17248,7 @@
       </c>
       <c r="N29" s="20">
         <f>Main!H3</f>
-        <v>30.75</v>
+        <v>33.164999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -17334,7 +17348,7 @@
       </c>
       <c r="N31" s="78">
         <f>N30*N29</f>
-        <v>68080.5</v>
+        <v>73427.31</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -17434,7 +17448,7 @@
       </c>
       <c r="N33" s="85">
         <f>N31+N32</f>
-        <v>99733.5</v>
+        <v>105080.31</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
@@ -17447,7 +17461,7 @@
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
@@ -17503,11 +17517,11 @@
       </c>
       <c r="N36" s="52">
         <f>N31/Model!T43</f>
-        <v>21.402232002514932</v>
+        <v>23.083090223200252</v>
       </c>
       <c r="P36" s="52">
         <f>AVERAGE(N36,C36:L36)</f>
-        <v>15.535034934733542</v>
+        <v>15.703120756802075</v>
       </c>
       <c r="Q36" s="52">
         <f>MEDIAN(N36,C36:L36)</f>
@@ -17609,7 +17623,7 @@
       </c>
       <c r="M38" s="52">
         <f>N31/Model!S92</f>
-        <v>1.2861393433332073</v>
+        <v>1.3871483356632788</v>
       </c>
       <c r="N38" s="52">
         <f>O31/Model!T92</f>
@@ -17626,7 +17640,7 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P39" s="52"/>
       <c r="Q39" s="52"/>
@@ -17691,11 +17705,11 @@
       </c>
       <c r="N41" s="52">
         <f>N33/(Model!T38+Model!T110)</f>
-        <v>17.08643138598595</v>
+        <v>18.002451601850264</v>
       </c>
       <c r="P41" s="52">
         <f>AVERAGE(C41:N41)</f>
-        <v>15.203017184884176</v>
+        <v>15.28629174996275</v>
       </c>
       <c r="Q41" s="52">
         <f>MEDIAN(C41:N41)</f>
@@ -17749,11 +17763,11 @@
       </c>
       <c r="N42" s="52">
         <f>N33/Model!T38</f>
-        <v>36.452302631578945</v>
+        <v>38.406546052631576</v>
       </c>
       <c r="P42" s="52">
         <f t="shared" ref="P42:P44" si="22">AVERAGE(C42:N42)</f>
-        <v>17.463233370222568</v>
+        <v>17.640891863045535</v>
       </c>
       <c r="Q42" s="52">
         <f t="shared" ref="Q42:Q44" si="23">MEDIAN(C42:N42)</f>
@@ -17766,16 +17780,16 @@
       </c>
       <c r="C43" s="52"/>
       <c r="D43" s="77" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E43" s="77" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F43" s="77" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G43" s="77" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H43" s="52" t="e">
         <f>H33/#REF!</f>
@@ -17858,11 +17872,11 @@
       </c>
       <c r="N44" s="52">
         <f>N33/Model!T29</f>
-        <v>3.8556268604786021</v>
+        <v>4.0623307689333901</v>
       </c>
       <c r="P44" s="52">
         <f t="shared" si="22"/>
-        <v>5.6797944599385088</v>
+        <v>5.6985857243434896</v>
       </c>
       <c r="Q44" s="52">
         <f t="shared" si="23"/>
@@ -17916,7 +17930,7 @@
       </c>
       <c r="N46" s="63">
         <f>(-1*Model!T143)/N31</f>
-        <v>7.6571118014703177E-2</v>
+        <v>7.099538305298124E-2</v>
       </c>
       <c r="P46" s="66">
         <f>AVERAGE(C46:M46)</f>
@@ -18023,17 +18037,17 @@
       </c>
       <c r="E4" s="60">
         <f ca="1">+TODAY()</f>
-        <v>45805</v>
+        <v>45811</v>
       </c>
       <c r="G4" t="s">
         <v>153</v>
       </c>
       <c r="J4" s="64">
         <f ca="1">V62</f>
-        <v>42.072221071934507</v>
+        <v>42.068917878260137</v>
       </c>
       <c r="L4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O4" s="88">
         <f>+J15+O15+T15</f>
@@ -18052,7 +18066,7 @@
       </c>
       <c r="J5" s="65">
         <f ca="1">J4/J3-1</f>
-        <v>9.3068876901390096E-2</v>
+        <v>9.2983057372308053E-2</v>
       </c>
       <c r="L5" t="s">
         <v>155</v>
@@ -18197,7 +18211,7 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J13" s="31"/>
       <c r="O13" s="31"/>
@@ -18211,35 +18225,35 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J14" s="31"/>
       <c r="L14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O14" s="31"/>
       <c r="Q14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E15" s="26">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J15" s="31"/>
       <c r="L15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O15" s="31"/>
       <c r="Q15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T15" s="31"/>
     </row>
@@ -18304,26 +18318,26 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E20" s="31">
         <f>CHOOSE(E15,J20,O20,T20)</f>
         <v>0.09</v>
       </c>
       <c r="G20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J20" s="31">
         <v>0.08</v>
       </c>
       <c r="L20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O20" s="31">
         <v>0.09</v>
       </c>
       <c r="Q20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="T20" s="31">
         <v>0.1</v>
@@ -19179,7 +19193,7 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G42" s="78">
         <f>Model!O110</f>
@@ -19654,43 +19668,43 @@
       <c r="L52" s="93"/>
       <c r="M52" s="93">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>5304.856621863335</v>
+        <v>5185.1997325391694</v>
       </c>
       <c r="N52" s="93">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>8354.0221121894156</v>
+        <v>8361.8761052324135</v>
       </c>
       <c r="O52" s="93">
         <f t="shared" ref="O52:U52" ca="1" si="19">O51/(1+$E$18)^O53</f>
-        <v>7786.7389154738066</v>
+        <v>7794.0595799930616</v>
       </c>
       <c r="P52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>7260.7570812595222</v>
+        <v>7267.5832465290523</v>
       </c>
       <c r="Q52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>6772.9810268874262</v>
+        <v>6779.3486118843484</v>
       </c>
       <c r="R52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>6320.5487168711707</v>
+        <v>6326.490949843932</v>
       </c>
       <c r="S52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>5900.8140450321916</v>
+        <v>5906.361666505456</v>
       </c>
       <c r="T52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>5430.8834421554593</v>
+        <v>5435.9892606700869</v>
       </c>
       <c r="U52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>5017.8508928554947</v>
+        <v>5022.5684008383605</v>
       </c>
       <c r="V52" s="94">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>4637.9128312311495</v>
+        <v>4642.2731423030309</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -19699,43 +19713,43 @@
       </c>
       <c r="M53" s="21">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.59166666666666667</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="N53" s="21">
         <f ca="1">M53+1</f>
-        <v>1.5916666666666668</v>
+        <v>1.5777777777777777</v>
       </c>
       <c r="O53" s="21">
         <f ca="1">N53+1</f>
-        <v>2.5916666666666668</v>
+        <v>2.5777777777777775</v>
       </c>
       <c r="P53" s="21">
         <f t="shared" ref="P53:V53" ca="1" si="20">O53+1</f>
-        <v>3.5916666666666668</v>
+        <v>3.5777777777777775</v>
       </c>
       <c r="Q53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>4.5916666666666668</v>
+        <v>4.5777777777777775</v>
       </c>
       <c r="R53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>5.5916666666666668</v>
+        <v>5.5777777777777775</v>
       </c>
       <c r="S53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>6.5916666666666668</v>
+        <v>6.5777777777777775</v>
       </c>
       <c r="T53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>7.5916666666666668</v>
+        <v>7.5777777777777775</v>
       </c>
       <c r="U53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>8.5916666666666668</v>
+        <v>8.5777777777777775</v>
       </c>
       <c r="V53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>9.5916666666666668</v>
+        <v>9.5777777777777775</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -19748,7 +19762,7 @@
       <c r="Q54" s="20"/>
       <c r="V54" s="78">
         <f ca="1">SUM(M52:V52)</f>
-        <v>62787.365685818972</v>
+        <v>62721.750696338917</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -19764,7 +19778,7 @@
         <v>118665.88069707189</v>
       </c>
       <c r="X55" s="59" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
@@ -19792,7 +19806,7 @@
       <c r="U56" s="46"/>
       <c r="V56" s="95">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>62013.531767444016</v>
+        <v>62071.833486129028</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -19820,12 +19834,12 @@
       <c r="U57" s="48"/>
       <c r="V57" s="96">
         <f ca="1">V54+V56</f>
-        <v>124800.89745326299</v>
+        <v>124793.58418246795</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
@@ -19838,7 +19852,7 @@
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -19874,7 +19888,7 @@
       <c r="Q60" s="20"/>
       <c r="V60" s="97">
         <f ca="1">V57+V58-V59</f>
-        <v>93147.897453262995</v>
+        <v>93140.584182467952</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -19911,7 +19925,7 @@
       </c>
       <c r="V62" s="97">
         <f ca="1">V60/V61</f>
-        <v>42.072221071934507</v>
+        <v>42.068917878260137</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -19956,7 +19970,7 @@
       <c r="J68" s="102"/>
       <c r="M68" s="49"/>
       <c r="N68" s="103" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O68" s="103"/>
       <c r="P68" s="103"/>
@@ -19972,7 +19986,7 @@
       </c>
       <c r="C69" s="50">
         <f ca="1">+J4</f>
-        <v>42.072221071934507</v>
+        <v>42.068917878260137</v>
       </c>
       <c r="D69" s="98">
         <v>-5.0000000000000001E-3</v>
@@ -20000,7 +20014,7 @@
       </c>
       <c r="N69" s="50">
         <f ca="1">+J4</f>
-        <v>42.072221071934507</v>
+        <v>42.068917878260137</v>
       </c>
       <c r="O69" s="98">
         <f t="shared" ref="O69:P69" si="21">+P69-1%</f>
@@ -20038,25 +20052,25 @@
       </c>
       <c r="D70" s="52">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>75.63412236470262</v>
+        <v>75.625893073659967</v>
       </c>
       <c r="E70" s="52">
-        <v>79.717220348145375</v>
+        <v>79.711215857657663</v>
       </c>
       <c r="F70" s="52">
-        <v>84.927886547939806</v>
+        <v>84.924721247963802</v>
       </c>
       <c r="G70" s="99">
-        <v>91.829905072261781</v>
+        <v>91.83050054773264</v>
       </c>
       <c r="H70" s="52">
-        <v>101.43808731582781</v>
+        <v>101.44391810264172</v>
       </c>
       <c r="I70" s="52">
-        <v>115.78205606807097</v>
+        <v>115.79570260404633</v>
       </c>
       <c r="J70" s="52">
-        <v>139.59759783766827</v>
+        <v>139.62422099844181</v>
       </c>
       <c r="M70" s="105"/>
       <c r="N70" s="51">
@@ -20065,25 +20079,25 @@
       </c>
       <c r="O70" s="52">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>87.230727789796532</v>
+        <v>87.228817263155307</v>
       </c>
       <c r="P70" s="52">
-        <v>89.201803767995941</v>
+        <v>89.200967242259878</v>
       </c>
       <c r="Q70" s="52">
-        <v>90.680110751645486</v>
+        <v>90.680079726588303</v>
       </c>
       <c r="R70" s="99">
-        <v>91.829905072261781</v>
+        <v>91.83050054773264</v>
       </c>
       <c r="S70" s="52">
-        <v>92.749740528754842</v>
+        <v>92.750837204648107</v>
       </c>
       <c r="T70" s="52">
-        <v>93.502333174976428</v>
+        <v>93.503839923942579</v>
       </c>
       <c r="U70" s="52">
-        <v>94.129493713494412</v>
+        <v>94.1313421900213</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -20093,25 +20107,25 @@
         <v>0.05</v>
       </c>
       <c r="D71" s="52">
-        <v>59.588621552934313</v>
+        <v>59.58179097568604</v>
       </c>
       <c r="E71" s="52">
-        <v>61.616667529577434</v>
+        <v>61.611211705517682</v>
       </c>
       <c r="F71" s="52">
-        <v>64.067695162429189</v>
+        <v>64.063900818479937</v>
       </c>
       <c r="G71" s="99">
-        <v>67.100322572567805</v>
+        <v>67.098583958246806</v>
       </c>
       <c r="H71" s="52">
-        <v>70.963806807401937</v>
+        <v>70.964687136305983</v>
       </c>
       <c r="I71" s="52">
-        <v>76.073576279279351</v>
+        <v>76.0779203718036</v>
       </c>
       <c r="J71" s="52">
-        <v>83.177402130425961</v>
+        <v>83.186561699202713</v>
       </c>
       <c r="M71" s="105"/>
       <c r="N71" s="51">
@@ -20119,25 +20133,25 @@
         <v>0.05</v>
       </c>
       <c r="O71" s="52">
-        <v>63.953452349033562</v>
+        <v>63.949580563214766</v>
       </c>
       <c r="P71" s="52">
-        <v>65.302111016262529</v>
+        <v>65.299153446799934</v>
       </c>
       <c r="Q71" s="52">
-        <v>66.313605016684264</v>
+        <v>66.311333109488814</v>
       </c>
       <c r="R71" s="99">
-        <v>67.100322572567805</v>
+        <v>67.098583958246806</v>
       </c>
       <c r="S71" s="52">
-        <v>67.729696617274669</v>
+        <v>67.728384637253242</v>
       </c>
       <c r="T71" s="52">
-        <v>68.244639017489362</v>
+        <v>68.243676101894849</v>
       </c>
       <c r="U71" s="52">
-        <v>68.67375768433493</v>
+        <v>68.673085655762847</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -20147,25 +20161,25 @@
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="D72" s="99">
-        <v>48.457276326277785</v>
+        <v>48.451478648669799</v>
       </c>
       <c r="E72" s="99">
-        <v>49.498961130661947</v>
+        <v>49.494006819774469</v>
       </c>
       <c r="F72" s="99">
-        <v>50.709352717727114</v>
+        <v>50.705378361600431</v>
       </c>
       <c r="G72" s="99">
-        <v>52.139063122277619</v>
+        <v>52.136246285364095</v>
       </c>
       <c r="H72" s="99">
-        <v>53.861198616808529</v>
+        <v>53.859776051711364</v>
       </c>
       <c r="I72" s="99">
-        <v>55.985418610062517</v>
+        <v>55.985715851611069</v>
       </c>
       <c r="J72" s="99">
-        <v>58.684045030063757</v>
+        <v>58.686527128014248</v>
       </c>
       <c r="M72" s="105"/>
       <c r="N72" s="51">
@@ -20173,25 +20187,25 @@
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="O72" s="99">
-        <v>49.840353629577777</v>
+        <v>49.835675716186913</v>
       </c>
       <c r="P72" s="99">
-        <v>50.825514840734861</v>
+        <v>50.821634531548561</v>
       </c>
       <c r="Q72" s="99">
-        <v>51.564385749102655</v>
+        <v>51.561103643069799</v>
       </c>
       <c r="R72" s="99">
-        <v>52.139063122277619</v>
+        <v>52.136246285364095</v>
       </c>
       <c r="S72" s="99">
-        <v>52.598805020817586</v>
+        <v>52.596360399199533</v>
       </c>
       <c r="T72" s="99">
-        <v>52.974957483259388</v>
+        <v>52.972817401428514</v>
       </c>
       <c r="U72" s="99">
-        <v>53.288417868627533</v>
+        <v>53.286531569952672</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -20200,50 +20214,50 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D73" s="52">
-        <v>40.276548089946793</v>
+        <v>40.271556703098092</v>
       </c>
       <c r="E73" s="52">
-        <v>40.804454156907326</v>
+        <v>40.799959078366363</v>
       </c>
       <c r="F73" s="52">
-        <v>41.397577079592821</v>
+        <v>41.393639622667621</v>
       </c>
       <c r="G73" s="99">
-        <v>42.072221071934507</v>
+        <v>42.068917878260137</v>
       </c>
       <c r="H73" s="52">
-        <v>42.850619152929525</v>
+        <v>42.848047766405145</v>
       </c>
       <c r="I73" s="52">
-        <v>43.76389754917389</v>
+        <v>43.762184776868409</v>
       </c>
       <c r="J73" s="52">
-        <v>44.857016365750709</v>
+        <v>44.856331283755971</v>
       </c>
       <c r="M73" s="105"/>
       <c r="N73" s="51">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O73" s="52">
-        <v>40.321613242004396</v>
+        <v>40.316664222938073</v>
       </c>
       <c r="P73" s="52">
-        <v>41.071873740545875</v>
+        <v>41.067630075218958</v>
       </c>
       <c r="Q73" s="52">
-        <v>41.634569114451978</v>
+        <v>41.630854464429618</v>
       </c>
       <c r="R73" s="99">
-        <v>42.072221071934507</v>
+        <v>42.068917878260137</v>
       </c>
       <c r="S73" s="52">
-        <v>42.422342637920529</v>
+        <v>42.41936860932455</v>
       </c>
       <c r="T73" s="52">
-        <v>42.70880573736364</v>
+        <v>42.706101025649986</v>
       </c>
       <c r="U73" s="52">
-        <v>42.947524986899552</v>
+        <v>42.94504470592117</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -20253,25 +20267,25 @@
         <v>0.08</v>
       </c>
       <c r="D74" s="52">
-        <v>34.006707527603133</v>
+        <v>34.00237042828509</v>
       </c>
       <c r="E74" s="52">
-        <v>34.252898644099197</v>
+        <v>34.248824839983598</v>
       </c>
       <c r="F74" s="52">
-        <v>34.519232670126755</v>
+        <v>34.515443703548335</v>
       </c>
       <c r="G74" s="99">
-        <v>34.810025943442561</v>
+        <v>34.806547972950654</v>
       </c>
       <c r="H74" s="52">
-        <v>35.130922905728518</v>
+        <v>35.127788126460764</v>
       </c>
       <c r="I74" s="52">
-        <v>35.489449479227162</v>
+        <v>35.486698135105613</v>
       </c>
       <c r="J74" s="52">
-        <v>35.89586828517831</v>
+        <v>35.893551595740121</v>
       </c>
       <c r="M74" s="105"/>
       <c r="N74" s="51">
@@ -20279,25 +20293,25 @@
         <v>0.08</v>
       </c>
       <c r="O74" s="52">
-        <v>33.437590401157685</v>
+        <v>33.432644645397644</v>
       </c>
       <c r="P74" s="52">
-        <v>34.025777062136918</v>
+        <v>34.021460357206081</v>
       </c>
       <c r="Q74" s="52">
-        <v>34.466917057871349</v>
+        <v>34.463072141062405</v>
       </c>
       <c r="R74" s="99">
-        <v>34.810025943442561</v>
+        <v>34.806547972950654</v>
       </c>
       <c r="S74" s="52">
-        <v>35.084513051899542</v>
+        <v>35.081328638461258</v>
       </c>
       <c r="T74" s="52">
-        <v>35.309093413364337</v>
+        <v>35.306149182969925</v>
       </c>
       <c r="U74" s="52">
-        <v>35.496243714584999</v>
+        <v>35.493499636727158</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -20307,25 +20321,25 @@
         <v>0.09</v>
       </c>
       <c r="D75" s="52">
-        <v>29.045641333241388</v>
+        <v>29.041850406304452</v>
       </c>
       <c r="E75" s="52">
-        <v>29.132712758099572</v>
+        <v>29.129026110429024</v>
       </c>
       <c r="F75" s="52">
-        <v>29.219784182957746</v>
+        <v>29.216201814553582</v>
       </c>
       <c r="G75" s="99">
-        <v>29.306855607815915</v>
+        <v>29.303377518678143</v>
       </c>
       <c r="H75" s="52">
-        <v>29.3939270326741</v>
+        <v>29.390553222802716</v>
       </c>
       <c r="I75" s="52">
-        <v>29.480998457532284</v>
+        <v>29.477728926927281</v>
       </c>
       <c r="J75" s="52">
-        <v>29.568069882390457</v>
+        <v>29.564904631051832</v>
       </c>
       <c r="M75" s="105"/>
       <c r="N75" s="51">
@@ -20333,25 +20347,25 @@
         <v>0.09</v>
       </c>
       <c r="O75" s="52">
-        <v>28.207578868981429</v>
+        <v>28.20278425410552</v>
       </c>
       <c r="P75" s="52">
-        <v>28.678697471339067</v>
+        <v>28.674467081779508</v>
       </c>
       <c r="Q75" s="52">
-        <v>29.0320364231073</v>
+        <v>29.028229202534988</v>
       </c>
       <c r="R75" s="99">
-        <v>29.306855607815915</v>
+        <v>29.303377518678143</v>
       </c>
       <c r="S75" s="52">
-        <v>29.526710955582828</v>
+        <v>29.523496171592672</v>
       </c>
       <c r="T75" s="52">
-        <v>29.706592603755741</v>
+        <v>29.703593251250009</v>
       </c>
       <c r="U75" s="52">
-        <v>29.856493977233171</v>
+        <v>29.853674150964459</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -20361,25 +20375,25 @@
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="D76" s="52">
-        <v>25.020481143212546</v>
+        <v>25.017155980575843</v>
       </c>
       <c r="E76" s="52">
-        <v>25.016682626767448</v>
+        <v>25.013352432505535</v>
       </c>
       <c r="F76" s="52">
-        <v>25.004087545923166</v>
+        <v>25.000740667851353</v>
       </c>
       <c r="G76" s="99">
-        <v>24.981229806613172</v>
+        <v>24.977852650515977</v>
       </c>
       <c r="H76" s="52">
-        <v>24.94629835146117</v>
+        <v>24.942874924143918</v>
       </c>
       <c r="I76" s="52">
-        <v>24.897029358746774</v>
+        <v>24.893540668290793</v>
       </c>
       <c r="J76" s="52">
-        <v>24.830555320957508</v>
+        <v>24.826978577060373</v>
       </c>
       <c r="M76" s="106"/>
       <c r="N76" s="51">
@@ -20387,25 +20401,25 @@
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="O76" s="52">
-        <v>24.086046097717748</v>
+        <v>24.08148315527972</v>
       </c>
       <c r="P76" s="52">
-        <v>24.469696258672933</v>
+        <v>24.465641510380973</v>
       </c>
       <c r="Q76" s="52">
-        <v>24.757433879389318</v>
+        <v>24.753760276706913</v>
       </c>
       <c r="R76" s="99">
-        <v>24.981229806613172</v>
+        <v>24.977852650515977</v>
       </c>
       <c r="S76" s="52">
-        <v>25.160266548392258</v>
+        <v>25.15712654956323</v>
       </c>
       <c r="T76" s="52">
-        <v>25.306751155302418</v>
+        <v>25.303805194238254</v>
       </c>
       <c r="U76" s="52">
-        <v>25.428821661060883</v>
+        <v>25.42603739813411</v>
       </c>
     </row>
   </sheetData>

--- a/BTI.xlsx
+++ b/BTI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625EBCE1-871E-43DF-B931-67D753E854B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5E0E27-0883-4673-B8E9-9BF710AC0866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="2" xr2:uid="{398237C1-CA6F-4F70-A6D1-46181DBC5386}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{398237C1-CA6F-4F70-A6D1-46181DBC5386}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <author>Oscar Settje</author>
   </authors>
   <commentList>
-    <comment ref="L117" authorId="0" shapeId="0" xr:uid="{ED1FC5F7-3C64-480E-95FE-8F2F69DA3A2D}">
+    <comment ref="L116" authorId="0" shapeId="0" xr:uid="{ED1FC5F7-3C64-480E-95FE-8F2F69DA3A2D}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M117" authorId="0" shapeId="0" xr:uid="{3719B623-9703-44C6-9593-4DBB01F875C6}">
+    <comment ref="M116" authorId="0" shapeId="0" xr:uid="{3719B623-9703-44C6-9593-4DBB01F875C6}">
       <text>
         <r>
           <rPr>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O117" authorId="0" shapeId="0" xr:uid="{5D86C013-7492-4AD7-8273-8915D93DCBE2}">
+    <comment ref="O116" authorId="0" shapeId="0" xr:uid="{5D86C013-7492-4AD7-8273-8915D93DCBE2}">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M130" authorId="0" shapeId="0" xr:uid="{EAC50067-D359-4F4C-AFE4-F00440DDDFE6}">
+    <comment ref="M129" authorId="0" shapeId="0" xr:uid="{EAC50067-D359-4F4C-AFE4-F00440DDDFE6}">
       <text>
         <r>
           <rPr>
@@ -1252,9 +1252,6 @@
     <t>AME Revenue</t>
   </si>
   <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>Sale of Subsidaries &amp; share in associate</t>
   </si>
   <si>
@@ -1337,6 +1334,9 @@
   </si>
   <si>
     <t>03-06-25: H1 on track to slightly beat expectations -&gt; around 1-2% rev growth</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
@@ -2066,16 +2066,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>606405</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601642</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>134938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22205</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17442</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2090,8 +2090,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5311755" y="130175"/>
-          <a:ext cx="25400" cy="11566525"/>
+          <a:off x="5916592" y="134938"/>
+          <a:ext cx="25400" cy="12138025"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2165,10 +2165,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2490,8 +2486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A3225F-ECB2-4048-8E18-3B54811707AA}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,7 +2509,7 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H2">
         <v>38.49</v>
@@ -2524,7 +2520,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="3">
-        <v>33.164999999999999</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2532,17 +2528,17 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="78">
-        <v>2214</v>
+        <v>2194</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2558,7 +2554,7 @@
       </c>
       <c r="H5" s="78">
         <f>+H3*H4</f>
-        <v>73427.31</v>
+        <v>89295.8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2572,10 +2568,10 @@
         <v>3</v>
       </c>
       <c r="H6" s="78">
-        <v>5297</v>
+        <v>4404</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2583,11 +2579,11 @@
         <v>4</v>
       </c>
       <c r="H7" s="78">
-        <f>32638+4312</f>
-        <v>36950</v>
+        <f>31904+3304</f>
+        <v>35208</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2602,7 +2598,7 @@
       </c>
       <c r="H8" s="78">
         <f>H5-H6+H7</f>
-        <v>105080.31</v>
+        <v>120099.8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2610,7 +2606,7 @@
         <v>117</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>118</v>
@@ -2820,7 +2816,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E27" t="s">
         <v>282</v>
@@ -2834,7 +2830,7 @@
         <v>335</v>
       </c>
       <c r="D28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E28" t="s">
         <v>281</v>
@@ -2845,7 +2841,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E29" t="s">
         <v>269</v>
@@ -3060,17 +3056,17 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3293,13 +3289,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0570F6-5B7C-4679-A452-2E0FF744AECA}">
-  <dimension ref="A1:AP210"/>
+  <dimension ref="A1:AP209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,10 +3330,10 @@
         <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>364</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>339</v>
@@ -3400,7 +3396,7 @@
         <v>233</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -3667,7 +3663,9 @@
         <v>26.4</v>
       </c>
       <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
+      <c r="G6" s="82">
+        <v>30.5</v>
+      </c>
       <c r="H6" s="82"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78"/>
@@ -3942,7 +3940,9 @@
         <f>+T10-E10</f>
         <v>0.3261</v>
       </c>
-      <c r="G10" s="83"/>
+      <c r="G10" s="83">
+        <v>0.253</v>
+      </c>
       <c r="H10" s="83"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4011,7 +4011,9 @@
         <f>+T11-E11</f>
         <v>10.999999999999998</v>
       </c>
-      <c r="G11" s="83"/>
+      <c r="G11" s="83">
+        <v>10.1</v>
+      </c>
       <c r="H11" s="83"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4080,7 +4082,9 @@
         <f>+T12-E12</f>
         <v>4.7780000000000005</v>
       </c>
-      <c r="G12" s="83"/>
+      <c r="G12" s="83">
+        <v>5</v>
+      </c>
       <c r="H12" s="83"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4149,7 +4153,9 @@
         <f>+T13-E13</f>
         <v>2.9999999999999996</v>
       </c>
-      <c r="G13" s="83"/>
+      <c r="G13" s="83">
+        <v>2.9</v>
+      </c>
       <c r="H13" s="83"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -4218,7 +4224,9 @@
         <f>+T14-E14</f>
         <v>262</v>
       </c>
-      <c r="G14" s="83"/>
+      <c r="G14" s="83">
+        <v>234.1</v>
+      </c>
       <c r="H14" s="83"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -4278,7 +4286,7 @@
         <v>315.96699999999998</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" ref="D15:F15" si="6">SUM(D10:D14)</f>
+        <f t="shared" ref="D15:G15" si="6">SUM(D10:D14)</f>
         <v>290.34700000000004</v>
       </c>
       <c r="E15" s="7">
@@ -4289,7 +4297,10 @@
         <f t="shared" si="6"/>
         <v>281.10410000000002</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="7">
+        <f t="shared" si="6"/>
+        <v>252.35300000000001</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="3"/>
       <c r="J15" s="7">
@@ -4555,12 +4566,16 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
+      <c r="E19" s="78">
+        <v>5378</v>
+      </c>
       <c r="F19" s="82">
         <f t="shared" ref="F19:F32" si="24">+T19-E19</f>
-        <v>11278</v>
-      </c>
-      <c r="G19" s="78"/>
+        <v>5900</v>
+      </c>
+      <c r="G19" s="78">
+        <v>5432</v>
+      </c>
       <c r="H19" s="78"/>
       <c r="I19" s="78"/>
       <c r="J19" s="78">
@@ -4625,12 +4640,16 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
+      <c r="E20" s="78">
+        <v>4376</v>
+      </c>
       <c r="F20" s="82">
         <f t="shared" si="24"/>
-        <v>9241</v>
-      </c>
-      <c r="G20" s="78"/>
+        <v>4865</v>
+      </c>
+      <c r="G20" s="78">
+        <v>4281</v>
+      </c>
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
       <c r="J20" s="78">
@@ -4700,16 +4719,20 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
+      <c r="E21" s="78">
+        <v>2586</v>
+      </c>
       <c r="F21" s="82">
         <f t="shared" si="24"/>
-        <v>5348</v>
-      </c>
-      <c r="G21" s="78"/>
+        <v>2762</v>
+      </c>
+      <c r="G21" s="78">
+        <v>2356</v>
+      </c>
       <c r="H21" s="78"/>
       <c r="I21" s="78"/>
       <c r="J21" s="78">
@@ -4786,7 +4809,9 @@
         <f t="shared" si="24"/>
         <v>852</v>
       </c>
-      <c r="G22" s="78"/>
+      <c r="G22" s="78">
+        <v>737</v>
+      </c>
       <c r="H22" s="78"/>
       <c r="I22" s="78"/>
       <c r="J22" s="78"/>
@@ -4855,7 +4880,9 @@
         <f t="shared" si="24"/>
         <v>480</v>
       </c>
-      <c r="G23" s="78"/>
+      <c r="G23" s="78">
+        <v>444</v>
+      </c>
       <c r="H23" s="78"/>
       <c r="I23" s="78"/>
       <c r="J23" s="78"/>
@@ -4924,7 +4951,9 @@
         <f t="shared" si="24"/>
         <v>449</v>
       </c>
-      <c r="G24" s="78"/>
+      <c r="G24" s="78">
+        <v>470</v>
+      </c>
       <c r="H24" s="78"/>
       <c r="I24" s="78"/>
       <c r="J24" s="78"/>
@@ -4993,7 +5022,9 @@
         <f t="shared" si="24"/>
         <v>537</v>
       </c>
-      <c r="G25" s="78"/>
+      <c r="G25" s="78">
+        <v>542</v>
+      </c>
       <c r="H25" s="78"/>
       <c r="I25" s="78"/>
       <c r="J25" s="78"/>
@@ -5064,7 +5095,9 @@
         <f t="shared" si="24"/>
         <v>2318</v>
       </c>
-      <c r="G26" s="78"/>
+      <c r="G26" s="78">
+        <v>2193</v>
+      </c>
       <c r="H26" s="78"/>
       <c r="I26" s="78"/>
       <c r="J26" s="78"/>
@@ -5170,7 +5203,9 @@
         <f t="shared" si="24"/>
         <v>10829</v>
       </c>
-      <c r="G27" s="78"/>
+      <c r="G27" s="78">
+        <v>9515</v>
+      </c>
       <c r="H27" s="78"/>
       <c r="I27" s="78"/>
       <c r="J27" s="78"/>
@@ -5269,7 +5304,9 @@
         <f t="shared" si="24"/>
         <v>380</v>
       </c>
-      <c r="G28" s="78"/>
+      <c r="G28" s="78">
+        <v>361</v>
+      </c>
       <c r="H28" s="78"/>
       <c r="I28" s="78"/>
       <c r="J28" s="78"/>
@@ -5368,7 +5405,9 @@
         <f t="shared" si="24"/>
         <v>13527</v>
       </c>
-      <c r="G29" s="80"/>
+      <c r="G29" s="80">
+        <v>12069</v>
+      </c>
       <c r="H29" s="80"/>
       <c r="I29" s="80"/>
       <c r="J29" s="80">
@@ -5476,7 +5515,9 @@
         <f t="shared" si="24"/>
         <v>2261</v>
       </c>
-      <c r="G30" s="78"/>
+      <c r="G30" s="78">
+        <v>2166</v>
+      </c>
       <c r="H30" s="78"/>
       <c r="I30" s="78"/>
       <c r="J30" s="78">
@@ -5583,7 +5624,9 @@
         <f t="shared" si="24"/>
         <v>-11</v>
       </c>
-      <c r="G31" s="78"/>
+      <c r="G31" s="78">
+        <v>185</v>
+      </c>
       <c r="H31" s="78"/>
       <c r="I31" s="78"/>
       <c r="J31" s="78">
@@ -5690,7 +5733,9 @@
         <f t="shared" si="24"/>
         <v>1456</v>
       </c>
-      <c r="G32" s="78"/>
+      <c r="G32" s="78">
+        <v>1463</v>
+      </c>
       <c r="H32" s="78"/>
       <c r="I32" s="78"/>
       <c r="J32" s="78">
@@ -5800,7 +5845,10 @@
         <f>F29-F30+F31-F32</f>
         <v>9799</v>
       </c>
-      <c r="G33" s="78"/>
+      <c r="G33" s="78">
+        <f>G29-G30+G31-G32</f>
+        <v>8625</v>
+      </c>
       <c r="H33" s="78"/>
       <c r="I33" s="78"/>
       <c r="J33" s="78">
@@ -5918,7 +5966,9 @@
         <f>+T34-E34</f>
         <v>1481</v>
       </c>
-      <c r="G34" s="78"/>
+      <c r="G34" s="78">
+        <v>1192</v>
+      </c>
       <c r="H34" s="78"/>
       <c r="I34" s="78"/>
       <c r="J34" s="78">
@@ -6025,7 +6075,9 @@
         <f>+T35-E35</f>
         <v>117</v>
       </c>
-      <c r="G35" s="78"/>
+      <c r="G35" s="78">
+        <v>54</v>
+      </c>
       <c r="H35" s="78"/>
       <c r="I35" s="78"/>
       <c r="J35" s="78">
@@ -6132,7 +6184,9 @@
         <f>+T36-E36</f>
         <v>6</v>
       </c>
-      <c r="G36" s="78"/>
+      <c r="G36" s="78">
+        <v>5</v>
+      </c>
       <c r="H36" s="78"/>
       <c r="I36" s="78"/>
       <c r="J36" s="78">
@@ -6239,7 +6293,9 @@
         <f>+T37-E37</f>
         <v>9951</v>
       </c>
-      <c r="G37" s="78"/>
+      <c r="G37" s="78">
+        <v>2413</v>
+      </c>
       <c r="H37" s="78"/>
       <c r="I37" s="78"/>
       <c r="J37" s="78">
@@ -6348,7 +6404,10 @@
         <f>F33-F34+F35-F36-F37</f>
         <v>-1522</v>
       </c>
-      <c r="G38" s="78"/>
+      <c r="G38" s="78">
+        <f>G33-G34+G35-G36-G37</f>
+        <v>5069</v>
+      </c>
       <c r="H38" s="78"/>
       <c r="I38" s="78"/>
       <c r="J38" s="78">
@@ -6466,7 +6525,9 @@
         <f>+T39-E39</f>
         <v>-793</v>
       </c>
-      <c r="G39" s="78"/>
+      <c r="G39" s="78">
+        <v>-969</v>
+      </c>
       <c r="H39" s="78"/>
       <c r="I39" s="78"/>
       <c r="J39" s="78">
@@ -6573,7 +6634,9 @@
         <f>+T40-E40</f>
         <v>253</v>
       </c>
-      <c r="G40" s="78"/>
+      <c r="G40" s="78">
+        <v>1474</v>
+      </c>
       <c r="H40" s="78"/>
       <c r="I40" s="78"/>
       <c r="J40" s="78">
@@ -6679,10 +6742,13 @@
         <v>5600</v>
       </c>
       <c r="F41" s="78">
-        <f t="shared" ref="F41" si="49">F38+SUM(F39:F40)</f>
+        <f t="shared" ref="F41:G41" si="49">F38+SUM(F39:F40)</f>
         <v>-2062</v>
       </c>
-      <c r="G41" s="78"/>
+      <c r="G41" s="78">
+        <f t="shared" si="49"/>
+        <v>5574</v>
+      </c>
       <c r="H41" s="78"/>
       <c r="I41" s="78"/>
       <c r="J41" s="78">
@@ -6800,7 +6866,9 @@
         <f>+T42-E42</f>
         <v>-684</v>
       </c>
-      <c r="G42" s="78"/>
+      <c r="G42" s="78">
+        <v>1009</v>
+      </c>
       <c r="H42" s="78"/>
       <c r="I42" s="78"/>
       <c r="J42" s="78">
@@ -6909,7 +6977,10 @@
         <f>F41-F42</f>
         <v>-1378</v>
       </c>
-      <c r="G43" s="78"/>
+      <c r="G43" s="78">
+        <f>G41-G42</f>
+        <v>4565</v>
+      </c>
       <c r="H43" s="78"/>
       <c r="I43" s="78"/>
       <c r="J43" s="78">
@@ -7027,7 +7098,9 @@
         <f>+T44-E44</f>
         <v>46</v>
       </c>
-      <c r="G44" s="78"/>
+      <c r="G44" s="78">
+        <v>53</v>
+      </c>
       <c r="H44" s="78"/>
       <c r="I44" s="78"/>
       <c r="J44" s="78">
@@ -7106,7 +7179,10 @@
         <f>F43-F44</f>
         <v>-1424</v>
       </c>
-      <c r="G45" s="78"/>
+      <c r="G45" s="78">
+        <f>G43-G44</f>
+        <v>4512</v>
+      </c>
       <c r="H45" s="78"/>
       <c r="I45" s="78"/>
       <c r="J45" s="78">
@@ -7236,7 +7312,10 @@
         <f>+F45/F48</f>
         <v>-0.64317976513098463</v>
       </c>
-      <c r="G47" s="81"/>
+      <c r="G47" s="81">
+        <f>+G45/G48</f>
+        <v>2.056517775752051</v>
+      </c>
       <c r="H47" s="81"/>
       <c r="I47" s="3"/>
       <c r="J47" s="81">
@@ -7325,7 +7404,9 @@
         <f>+T48</f>
         <v>2214</v>
       </c>
-      <c r="G48" s="78"/>
+      <c r="G48" s="78">
+        <v>2194</v>
+      </c>
       <c r="H48" s="78"/>
       <c r="I48" s="3"/>
       <c r="J48" s="78">
@@ -7472,7 +7553,7 @@
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="58"/>
@@ -7484,7 +7565,10 @@
         <f>+F19/D19-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="3"/>
+      <c r="G51" s="58">
+        <f>+G19/E19-1</f>
+        <v>1.0040907400520549E-2</v>
+      </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="86" t="s">
@@ -7541,7 +7625,7 @@
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="58"/>
@@ -7550,10 +7634,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F52" s="58" t="e">
-        <f t="shared" ref="F52:F60" si="69">+F20/D20-1</f>
+        <f t="shared" ref="F52:G60" si="69">+F20/D20-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G52" s="3"/>
+      <c r="G52" s="58">
+        <f t="shared" si="69"/>
+        <v>-2.1709323583181006E-2</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="86" t="s">
@@ -7613,7 +7700,7 @@
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="58"/>
@@ -7625,7 +7712,10 @@
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G53" s="3"/>
+      <c r="G53" s="58">
+        <f t="shared" si="69"/>
+        <v>-8.89404485692189E-2</v>
+      </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="86" t="s">
@@ -7697,7 +7787,10 @@
         <f t="shared" si="69"/>
         <v>-9.9365750528541241E-2</v>
       </c>
-      <c r="G54" s="3"/>
+      <c r="G54" s="58">
+        <f t="shared" si="69"/>
+        <v>-0.15189873417721522</v>
+      </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="86" t="s">
@@ -7765,7 +7858,10 @@
         <f t="shared" si="69"/>
         <v>7.623318385650224E-2</v>
       </c>
-      <c r="G55" s="3"/>
+      <c r="G55" s="58">
+        <f t="shared" si="69"/>
+        <v>6.8027210884353817E-3</v>
+      </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="86" t="s">
@@ -7833,7 +7929,10 @@
         <f t="shared" si="69"/>
         <v>0.5016722408026757</v>
       </c>
-      <c r="G56" s="3"/>
+      <c r="G56" s="58">
+        <f t="shared" si="69"/>
+        <v>0.37829912023460421</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="86" t="s">
@@ -7901,7 +8000,10 @@
         <f t="shared" si="69"/>
         <v>-9.2905405405405372E-2</v>
       </c>
-      <c r="G57" s="3"/>
+      <c r="G57" s="58">
+        <f t="shared" si="69"/>
+        <v>-2.3423423423423406E-2</v>
+      </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="86" t="s">
@@ -7969,7 +8071,10 @@
         <f t="shared" si="69"/>
         <v>1.5330705212439844E-2</v>
       </c>
-      <c r="G58" s="3"/>
+      <c r="G58" s="58">
+        <f t="shared" si="69"/>
+        <v>-5.8930190389845372E-3</v>
+      </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="86" t="s">
@@ -8036,7 +8141,10 @@
         <f t="shared" si="69"/>
         <v>-2.8004667444574083E-2</v>
       </c>
-      <c r="G59" s="3"/>
+      <c r="G59" s="58">
+        <f t="shared" si="69"/>
+        <v>-3.4598214285714302E-2</v>
+      </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="86" t="s">
@@ -8093,7 +8201,10 @@
         <f t="shared" si="69"/>
         <v>-9.0909090909090939E-2</v>
       </c>
-      <c r="G60" s="100"/>
+      <c r="G60" s="100">
+        <f t="shared" si="69"/>
+        <v>0.29856115107913661</v>
+      </c>
       <c r="H60" s="100"/>
       <c r="I60" s="7"/>
       <c r="J60" s="100"/>
@@ -8198,7 +8309,10 @@
         <f>F33/F29</f>
         <v>0.72440304576033121</v>
       </c>
-      <c r="G61" s="8"/>
+      <c r="G61" s="8">
+        <f>G33/G29</f>
+        <v>0.71464081531195622</v>
+      </c>
       <c r="H61" s="8"/>
       <c r="I61" s="3"/>
       <c r="J61" s="8">
@@ -8306,7 +8420,10 @@
         <f>F38/F29</f>
         <v>-0.11251570932209655</v>
       </c>
-      <c r="G62" s="8"/>
+      <c r="G62" s="8">
+        <f>G38/G29</f>
+        <v>0.42000165713812249</v>
+      </c>
       <c r="H62" s="8"/>
       <c r="I62" s="3"/>
       <c r="J62" s="8">
@@ -8414,7 +8531,10 @@
         <f>F43/F29</f>
         <v>-0.10187033340725955</v>
       </c>
-      <c r="G63" s="8"/>
+      <c r="G63" s="8">
+        <f>G43/G29</f>
+        <v>0.3782417764520673</v>
+      </c>
       <c r="H63" s="8"/>
       <c r="I63" s="3"/>
       <c r="J63" s="8">
@@ -8522,7 +8642,10 @@
         <f>F42/F41</f>
         <v>0.3317167798254122</v>
       </c>
-      <c r="G64" s="8"/>
+      <c r="G64" s="8">
+        <f>G42/G41</f>
+        <v>0.18101901686401148</v>
+      </c>
       <c r="H64" s="8"/>
       <c r="I64" s="3"/>
       <c r="J64" s="8">
@@ -8647,7 +8770,9 @@
         <v>94700</v>
       </c>
       <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
+      <c r="G66" s="78">
+        <v>86223</v>
+      </c>
       <c r="H66" s="78"/>
       <c r="I66" s="78"/>
       <c r="J66" s="78">
@@ -8714,7 +8839,9 @@
         <v>4427</v>
       </c>
       <c r="F67" s="78"/>
-      <c r="G67" s="78"/>
+      <c r="G67" s="78">
+        <v>4159</v>
+      </c>
       <c r="H67" s="78"/>
       <c r="I67" s="78"/>
       <c r="J67" s="78">
@@ -8781,7 +8908,9 @@
         <v>1937</v>
       </c>
       <c r="F68" s="78"/>
-      <c r="G68" s="78"/>
+      <c r="G68" s="78">
+        <v>1533</v>
+      </c>
       <c r="H68" s="78"/>
       <c r="I68" s="78"/>
       <c r="J68" s="78">
@@ -8848,7 +8977,9 @@
         <v>940</v>
       </c>
       <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
+      <c r="G69" s="78">
+        <v>841</v>
+      </c>
       <c r="H69" s="78"/>
       <c r="I69" s="78"/>
       <c r="J69" s="78">
@@ -8915,7 +9046,9 @@
         <v>953</v>
       </c>
       <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
+      <c r="G70" s="78">
+        <v>2434</v>
+      </c>
       <c r="H70" s="78"/>
       <c r="I70" s="78"/>
       <c r="J70" s="78">
@@ -8982,7 +9115,9 @@
         <v>318</v>
       </c>
       <c r="F71" s="78"/>
-      <c r="G71" s="78"/>
+      <c r="G71" s="78">
+        <v>283</v>
+      </c>
       <c r="H71" s="78"/>
       <c r="I71" s="78"/>
       <c r="J71" s="78">
@@ -9049,7 +9184,9 @@
         <v>122</v>
       </c>
       <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
+      <c r="G72" s="78">
+        <v>737</v>
+      </c>
       <c r="H72" s="78"/>
       <c r="I72" s="78"/>
       <c r="J72" s="78">
@@ -9116,7 +9253,9 @@
         <v>100</v>
       </c>
       <c r="F73" s="78"/>
-      <c r="G73" s="78"/>
+      <c r="G73" s="78">
+        <v>141</v>
+      </c>
       <c r="H73" s="78"/>
       <c r="I73" s="78"/>
       <c r="J73" s="78">
@@ -9173,7 +9312,7 @@
         <v>63</v>
       </c>
       <c r="C74" s="78">
-        <f t="shared" ref="C74:F74" si="85">SUM(C66:C73)</f>
+        <f t="shared" ref="C74:G74" si="85">SUM(C66:C73)</f>
         <v>130980</v>
       </c>
       <c r="D74" s="78">
@@ -9188,7 +9327,10 @@
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="G74" s="78"/>
+      <c r="G74" s="78">
+        <f t="shared" si="85"/>
+        <v>96351</v>
+      </c>
       <c r="H74" s="78"/>
       <c r="I74" s="78"/>
       <c r="J74" s="78">
@@ -9266,7 +9408,9 @@
         <v>5334</v>
       </c>
       <c r="F75" s="78"/>
-      <c r="G75" s="78"/>
+      <c r="G75" s="78">
+        <v>5088</v>
+      </c>
       <c r="H75" s="78"/>
       <c r="I75" s="78"/>
       <c r="J75" s="78">
@@ -9333,7 +9477,9 @@
         <v>100</v>
       </c>
       <c r="F76" s="78"/>
-      <c r="G76" s="78"/>
+      <c r="G76" s="78">
+        <v>108</v>
+      </c>
       <c r="H76" s="78"/>
       <c r="I76" s="78"/>
       <c r="J76" s="78">
@@ -9400,7 +9546,9 @@
         <v>3637</v>
       </c>
       <c r="F77" s="78"/>
-      <c r="G77" s="78"/>
+      <c r="G77" s="78">
+        <v>3475</v>
+      </c>
       <c r="H77" s="78"/>
       <c r="I77" s="78"/>
       <c r="J77" s="78">
@@ -9467,7 +9615,9 @@
         <v>696</v>
       </c>
       <c r="F78" s="78"/>
-      <c r="G78" s="78"/>
+      <c r="G78" s="78">
+        <v>489</v>
+      </c>
       <c r="H78" s="78"/>
       <c r="I78" s="78"/>
       <c r="J78" s="78">
@@ -9534,7 +9684,9 @@
         <v>159</v>
       </c>
       <c r="F79" s="78"/>
-      <c r="G79" s="78"/>
+      <c r="G79" s="78">
+        <v>302</v>
+      </c>
       <c r="H79" s="78"/>
       <c r="I79" s="78"/>
       <c r="J79" s="78">
@@ -9601,7 +9753,9 @@
         <v>5934</v>
       </c>
       <c r="F80" s="78"/>
-      <c r="G80" s="78"/>
+      <c r="G80" s="78">
+        <v>4404</v>
+      </c>
       <c r="H80" s="78"/>
       <c r="I80" s="78"/>
       <c r="J80" s="78">
@@ -9668,7 +9822,9 @@
         <v>12</v>
       </c>
       <c r="F81" s="78"/>
-      <c r="G81" s="78"/>
+      <c r="G81" s="78">
+        <v>9</v>
+      </c>
       <c r="H81" s="78"/>
       <c r="I81" s="78"/>
       <c r="J81" s="78">
@@ -9725,7 +9881,7 @@
         <v>61</v>
       </c>
       <c r="C82" s="78">
-        <f t="shared" ref="C82:F82" si="89">SUM(C75:C81)</f>
+        <f t="shared" ref="C82:G82" si="89">SUM(C75:C81)</f>
         <v>15092</v>
       </c>
       <c r="D82" s="78">
@@ -9740,7 +9896,10 @@
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="G82" s="78"/>
+      <c r="G82" s="78">
+        <f t="shared" si="89"/>
+        <v>13875</v>
+      </c>
       <c r="H82" s="78"/>
       <c r="I82" s="78"/>
       <c r="J82" s="78">
@@ -9823,7 +9982,10 @@
         <f>F82+F74</f>
         <v>0</v>
       </c>
-      <c r="G83" s="80"/>
+      <c r="G83" s="80">
+        <f>G82+G74</f>
+        <v>110226</v>
+      </c>
       <c r="H83" s="80"/>
       <c r="I83" s="78"/>
       <c r="J83" s="80">
@@ -9887,24 +10049,58 @@
       <c r="AI83" s="78"/>
     </row>
     <row r="84" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C84" s="78"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="78"/>
+      <c r="B84" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="78">
+        <v>614</v>
+      </c>
+      <c r="D84" s="78">
+        <f t="shared" ref="D84:D90" si="93">S84</f>
+        <v>614</v>
+      </c>
+      <c r="E84" s="78">
+        <v>589</v>
+      </c>
       <c r="F84" s="78"/>
-      <c r="G84" s="78"/>
+      <c r="G84" s="78">
+        <v>581</v>
+      </c>
       <c r="H84" s="78"/>
       <c r="I84" s="78"/>
-      <c r="J84" s="78"/>
-      <c r="K84" s="78"/>
-      <c r="L84" s="78"/>
-      <c r="M84" s="78"/>
-      <c r="N84" s="78"/>
-      <c r="O84" s="78"/>
-      <c r="P84" s="78"/>
-      <c r="Q84" s="78"/>
-      <c r="R84" s="78"/>
-      <c r="S84" s="78"/>
-      <c r="T84" s="78"/>
+      <c r="J84" s="78">
+        <v>507</v>
+      </c>
+      <c r="K84" s="78">
+        <v>507</v>
+      </c>
+      <c r="L84" s="78">
+        <v>507</v>
+      </c>
+      <c r="M84" s="78">
+        <v>614</v>
+      </c>
+      <c r="N84" s="78">
+        <v>614</v>
+      </c>
+      <c r="O84" s="78">
+        <v>614</v>
+      </c>
+      <c r="P84" s="78">
+        <v>614</v>
+      </c>
+      <c r="Q84" s="78">
+        <v>614</v>
+      </c>
+      <c r="R84" s="78">
+        <v>614</v>
+      </c>
+      <c r="S84" s="78">
+        <v>614</v>
+      </c>
+      <c r="T84" s="78">
+        <v>585</v>
+      </c>
       <c r="U84" s="78"/>
       <c r="V84" s="78"/>
       <c r="W84" s="78"/>
@@ -9923,54 +10119,56 @@
     </row>
     <row r="85" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C85" s="78">
-        <v>614</v>
+        <v>26629</v>
       </c>
       <c r="D85" s="78">
-        <f t="shared" ref="D85:D91" si="93">S85</f>
-        <v>614</v>
+        <f t="shared" si="93"/>
+        <v>26630</v>
       </c>
       <c r="E85" s="78">
-        <v>589</v>
+        <v>26659</v>
       </c>
       <c r="F85" s="78"/>
-      <c r="G85" s="78"/>
+      <c r="G85" s="78">
+        <v>26671</v>
+      </c>
       <c r="H85" s="78"/>
       <c r="I85" s="78"/>
       <c r="J85" s="78">
-        <v>507</v>
+        <v>3923</v>
       </c>
       <c r="K85" s="78">
-        <v>507</v>
+        <v>3927</v>
       </c>
       <c r="L85" s="78">
-        <v>507</v>
+        <v>3931</v>
       </c>
       <c r="M85" s="78">
-        <v>614</v>
+        <v>26602</v>
       </c>
       <c r="N85" s="78">
-        <v>614</v>
+        <v>26606</v>
       </c>
       <c r="O85" s="78">
-        <v>614</v>
+        <v>26609</v>
       </c>
       <c r="P85" s="78">
-        <v>614</v>
+        <v>26618</v>
       </c>
       <c r="Q85" s="78">
-        <v>614</v>
+        <v>26622</v>
       </c>
       <c r="R85" s="78">
-        <v>614</v>
+        <v>26628</v>
       </c>
       <c r="S85" s="78">
-        <v>614</v>
+        <v>26630</v>
       </c>
       <c r="T85" s="78">
-        <v>585</v>
+        <v>26665</v>
       </c>
       <c r="U85" s="78"/>
       <c r="V85" s="78"/>
@@ -9990,54 +10188,56 @@
     </row>
     <row r="86" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C86" s="78">
-        <v>26629</v>
+        <v>-1721</v>
       </c>
       <c r="D86" s="78">
         <f t="shared" si="93"/>
-        <v>26630</v>
+        <v>-894</v>
       </c>
       <c r="E86" s="78">
-        <v>26659</v>
+        <v>-847</v>
       </c>
       <c r="F86" s="78"/>
-      <c r="G86" s="78"/>
+      <c r="G86" s="78">
+        <v>-5057</v>
+      </c>
       <c r="H86" s="78"/>
       <c r="I86" s="78"/>
       <c r="J86" s="78">
-        <v>3923</v>
+        <v>-498</v>
       </c>
       <c r="K86" s="78">
-        <v>3927</v>
+        <v>-1294</v>
       </c>
       <c r="L86" s="78">
-        <v>3931</v>
+        <v>413</v>
       </c>
       <c r="M86" s="78">
-        <v>26602</v>
+        <v>-3395</v>
       </c>
       <c r="N86" s="78">
-        <v>26606</v>
+        <v>-333</v>
       </c>
       <c r="O86" s="78">
-        <v>26609</v>
+        <v>-3555</v>
       </c>
       <c r="P86" s="78">
-        <v>26618</v>
+        <v>-6600</v>
       </c>
       <c r="Q86" s="78">
-        <v>26622</v>
+        <v>-6032</v>
       </c>
       <c r="R86" s="78">
-        <v>26628</v>
+        <v>2655</v>
       </c>
       <c r="S86" s="78">
-        <v>26630</v>
+        <v>-894</v>
       </c>
       <c r="T86" s="78">
-        <v>26665</v>
+        <v>-902</v>
       </c>
       <c r="U86" s="78"/>
       <c r="V86" s="78"/>
@@ -10057,54 +10257,56 @@
     </row>
     <row r="87" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C87" s="78">
-        <v>-1721</v>
+        <v>45591</v>
       </c>
       <c r="D87" s="78">
         <f t="shared" si="93"/>
-        <v>-894</v>
+        <v>24531</v>
       </c>
       <c r="E87" s="78">
-        <v>-847</v>
+        <v>26025</v>
       </c>
       <c r="F87" s="78"/>
-      <c r="G87" s="78"/>
+      <c r="G87" s="78">
+        <v>22994</v>
+      </c>
       <c r="H87" s="78"/>
       <c r="I87" s="78"/>
       <c r="J87" s="78">
-        <v>-498</v>
+        <v>1578</v>
       </c>
       <c r="K87" s="78">
-        <v>-1294</v>
+        <v>1754</v>
       </c>
       <c r="L87" s="78">
-        <v>413</v>
+        <v>3331</v>
       </c>
       <c r="M87" s="78">
-        <v>-3395</v>
+        <v>36983</v>
       </c>
       <c r="N87" s="78">
-        <v>-333</v>
+        <v>38557</v>
       </c>
       <c r="O87" s="78">
-        <v>-3555</v>
+        <v>40234</v>
       </c>
       <c r="P87" s="78">
-        <v>-6600</v>
+        <v>42041</v>
       </c>
       <c r="Q87" s="78">
-        <v>-6032</v>
+        <v>44212</v>
       </c>
       <c r="R87" s="78">
-        <v>2655</v>
+        <v>44081</v>
       </c>
       <c r="S87" s="78">
-        <v>-894</v>
+        <v>24531</v>
       </c>
       <c r="T87" s="78">
-        <v>-902</v>
+        <v>21610</v>
       </c>
       <c r="U87" s="78"/>
       <c r="V87" s="78"/>
@@ -10124,54 +10326,56 @@
     </row>
     <row r="88" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C88" s="78">
-        <v>45591</v>
+        <v>-500</v>
       </c>
       <c r="D88" s="78">
         <f t="shared" si="93"/>
-        <v>24531</v>
+        <v>0</v>
       </c>
       <c r="E88" s="78">
-        <v>26025</v>
+        <v>0</v>
       </c>
       <c r="F88" s="78"/>
-      <c r="G88" s="78"/>
+      <c r="G88" s="78">
+        <v>0</v>
+      </c>
       <c r="H88" s="78"/>
       <c r="I88" s="78"/>
       <c r="J88" s="78">
-        <v>1578</v>
+        <v>0</v>
       </c>
       <c r="K88" s="78">
-        <v>1754</v>
+        <v>0</v>
       </c>
       <c r="L88" s="78">
-        <v>3331</v>
+        <v>0</v>
       </c>
       <c r="M88" s="78">
-        <v>36983</v>
+        <v>0</v>
       </c>
       <c r="N88" s="78">
-        <v>38557</v>
+        <v>0</v>
       </c>
       <c r="O88" s="78">
-        <v>40234</v>
+        <v>0</v>
       </c>
       <c r="P88" s="78">
-        <v>42041</v>
+        <v>0</v>
       </c>
       <c r="Q88" s="78">
-        <v>44212</v>
+        <v>0</v>
       </c>
       <c r="R88" s="78">
-        <v>44081</v>
+        <v>-295</v>
       </c>
       <c r="S88" s="78">
-        <v>24531</v>
+        <v>0</v>
       </c>
       <c r="T88" s="78">
-        <v>21610</v>
+        <v>0</v>
       </c>
       <c r="U88" s="78"/>
       <c r="V88" s="78"/>
@@ -10191,20 +10395,22 @@
     </row>
     <row r="89" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C89" s="78">
-        <v>-500</v>
+        <v>1685</v>
       </c>
       <c r="D89" s="78">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="E89" s="78">
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="F89" s="78"/>
-      <c r="G89" s="78"/>
+      <c r="G89" s="78">
+        <v>1685</v>
+      </c>
       <c r="H89" s="78"/>
       <c r="I89" s="78"/>
       <c r="J89" s="78">
@@ -10229,16 +10435,16 @@
         <v>0</v>
       </c>
       <c r="Q89" s="78">
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="R89" s="78">
-        <v>-295</v>
+        <v>1685</v>
       </c>
       <c r="S89" s="78">
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="T89" s="78">
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="U89" s="78"/>
       <c r="V89" s="78"/>
@@ -10258,54 +10464,56 @@
     </row>
     <row r="90" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C90" s="78">
-        <v>1685</v>
+        <v>330</v>
       </c>
       <c r="D90" s="78">
         <f t="shared" si="93"/>
-        <v>1685</v>
+        <v>368</v>
       </c>
       <c r="E90" s="78">
-        <v>1685</v>
+        <v>358</v>
       </c>
       <c r="F90" s="78"/>
-      <c r="G90" s="78"/>
+      <c r="G90" s="78">
+        <v>303</v>
+      </c>
       <c r="H90" s="78"/>
       <c r="I90" s="78"/>
       <c r="J90" s="78">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="K90" s="78">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="L90" s="78">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="M90" s="78">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="N90" s="78">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="O90" s="78">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="P90" s="78">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="Q90" s="78">
-        <v>1685</v>
+        <v>300</v>
       </c>
       <c r="R90" s="78">
-        <v>1685</v>
+        <v>342</v>
       </c>
       <c r="S90" s="78">
-        <v>1685</v>
+        <v>368</v>
       </c>
       <c r="T90" s="78">
-        <v>1685</v>
+        <v>352</v>
       </c>
       <c r="U90" s="78"/>
       <c r="V90" s="78"/>
@@ -10324,55 +10532,74 @@
       <c r="AI90" s="78"/>
     </row>
     <row r="91" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C91" s="78">
-        <v>330</v>
-      </c>
-      <c r="D91" s="78">
-        <f t="shared" si="93"/>
-        <v>368</v>
-      </c>
-      <c r="E91" s="78">
-        <v>358</v>
-      </c>
-      <c r="F91" s="78"/>
-      <c r="G91" s="78"/>
+      <c r="B91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C91" s="80">
+        <f t="shared" ref="C91:G91" si="94">SUM(C84:C90)</f>
+        <v>72628</v>
+      </c>
+      <c r="D91" s="80">
+        <f t="shared" si="94"/>
+        <v>52934</v>
+      </c>
+      <c r="E91" s="80">
+        <f t="shared" si="94"/>
+        <v>54469</v>
+      </c>
+      <c r="F91" s="80">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="80">
+        <f t="shared" si="94"/>
+        <v>47177</v>
+      </c>
       <c r="H91" s="78"/>
       <c r="I91" s="78"/>
-      <c r="J91" s="78">
-        <v>304</v>
-      </c>
-      <c r="K91" s="78">
-        <v>138</v>
-      </c>
-      <c r="L91" s="78">
-        <v>224</v>
-      </c>
-      <c r="M91" s="78">
-        <v>222</v>
-      </c>
-      <c r="N91" s="78">
-        <v>244</v>
-      </c>
-      <c r="O91" s="78">
-        <v>258</v>
-      </c>
-      <c r="P91" s="78">
-        <v>282</v>
-      </c>
-      <c r="Q91" s="78">
-        <v>300</v>
-      </c>
-      <c r="R91" s="78">
-        <v>342</v>
-      </c>
-      <c r="S91" s="78">
-        <v>368</v>
-      </c>
-      <c r="T91" s="78">
-        <v>352</v>
+      <c r="J91" s="80">
+        <f t="shared" ref="J91:M91" si="95">SUM(J84:J90)</f>
+        <v>5814</v>
+      </c>
+      <c r="K91" s="80">
+        <f t="shared" si="95"/>
+        <v>5032</v>
+      </c>
+      <c r="L91" s="80">
+        <f t="shared" si="95"/>
+        <v>8406</v>
+      </c>
+      <c r="M91" s="80">
+        <f t="shared" si="95"/>
+        <v>61026</v>
+      </c>
+      <c r="N91" s="80">
+        <f t="shared" ref="N91:R91" si="96">SUM(N84:N90)</f>
+        <v>65688</v>
+      </c>
+      <c r="O91" s="80">
+        <f t="shared" si="96"/>
+        <v>64160</v>
+      </c>
+      <c r="P91" s="80">
+        <f t="shared" si="96"/>
+        <v>62955</v>
+      </c>
+      <c r="Q91" s="80">
+        <f t="shared" si="96"/>
+        <v>67401</v>
+      </c>
+      <c r="R91" s="80">
+        <f t="shared" si="96"/>
+        <v>75710</v>
+      </c>
+      <c r="S91" s="80">
+        <f>SUM(S84:S90)</f>
+        <v>52934</v>
+      </c>
+      <c r="T91" s="80">
+        <f>SUM(T84:T90)</f>
+        <v>49995</v>
       </c>
       <c r="U91" s="78"/>
       <c r="V91" s="78"/>
@@ -10392,70 +10619,56 @@
     </row>
     <row r="92" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C92" s="78">
-        <f t="shared" ref="C92:F92" si="94">SUM(C85:C91)</f>
-        <v>72628</v>
+        <v>37140</v>
       </c>
       <c r="D92" s="78">
-        <f t="shared" si="94"/>
-        <v>52934</v>
+        <f t="shared" ref="D92:D97" si="97">S92</f>
+        <v>35406</v>
       </c>
       <c r="E92" s="78">
-        <f t="shared" si="94"/>
-        <v>54469</v>
-      </c>
-      <c r="F92" s="78">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="78"/>
+        <v>32852</v>
+      </c>
+      <c r="F92" s="78"/>
+      <c r="G92" s="78">
+        <v>31904</v>
+      </c>
       <c r="H92" s="78"/>
       <c r="I92" s="78"/>
       <c r="J92" s="78">
-        <f t="shared" ref="J92:M92" si="95">SUM(J85:J91)</f>
-        <v>5814</v>
+        <v>9779</v>
       </c>
       <c r="K92" s="78">
-        <f t="shared" si="95"/>
-        <v>5032</v>
+        <v>14806</v>
       </c>
       <c r="L92" s="78">
-        <f t="shared" si="95"/>
-        <v>8406</v>
+        <v>16488</v>
       </c>
       <c r="M92" s="78">
-        <f t="shared" si="95"/>
-        <v>61026</v>
+        <v>44027</v>
       </c>
       <c r="N92" s="78">
-        <f t="shared" ref="N92:R92" si="96">SUM(N85:N91)</f>
-        <v>65688</v>
+        <v>43284</v>
       </c>
       <c r="O92" s="78">
-        <f t="shared" si="96"/>
-        <v>64160</v>
+        <v>37804</v>
       </c>
       <c r="P92" s="78">
-        <f t="shared" si="96"/>
-        <v>62955</v>
+        <v>39927</v>
       </c>
       <c r="Q92" s="78">
-        <f t="shared" si="96"/>
-        <v>67401</v>
+        <v>35666</v>
       </c>
       <c r="R92" s="78">
-        <f t="shared" si="96"/>
-        <v>75710</v>
+        <v>38726</v>
       </c>
       <c r="S92" s="78">
-        <f>SUM(S85:S91)</f>
-        <v>52934</v>
+        <v>35406</v>
       </c>
       <c r="T92" s="78">
-        <f>SUM(T85:T91)</f>
-        <v>49995</v>
+        <v>32638</v>
       </c>
       <c r="U92" s="78"/>
       <c r="V92" s="78"/>
@@ -10475,54 +10688,56 @@
     </row>
     <row r="93" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C93" s="78">
-        <v>37140</v>
+        <v>881</v>
       </c>
       <c r="D93" s="78">
-        <f t="shared" ref="D93:D98" si="97">S93</f>
-        <v>35406</v>
+        <f t="shared" si="97"/>
+        <v>881</v>
       </c>
       <c r="E93" s="78">
-        <v>32852</v>
+        <v>852</v>
       </c>
       <c r="F93" s="78"/>
-      <c r="G93" s="78"/>
+      <c r="G93" s="78">
+        <v>769</v>
+      </c>
       <c r="H93" s="78"/>
       <c r="I93" s="78"/>
       <c r="J93" s="78">
-        <v>9779</v>
+        <v>781</v>
       </c>
       <c r="K93" s="78">
-        <v>14806</v>
+        <v>653</v>
       </c>
       <c r="L93" s="78">
-        <v>16488</v>
+        <v>826</v>
       </c>
       <c r="M93" s="78">
-        <v>44027</v>
+        <v>1821</v>
       </c>
       <c r="N93" s="78">
-        <v>43284</v>
+        <v>1665</v>
       </c>
       <c r="O93" s="78">
-        <v>37804</v>
+        <v>1459</v>
       </c>
       <c r="P93" s="78">
-        <v>39927</v>
+        <v>1524</v>
       </c>
       <c r="Q93" s="78">
-        <v>35666</v>
+        <v>1239</v>
       </c>
       <c r="R93" s="78">
-        <v>38726</v>
+        <v>949</v>
       </c>
       <c r="S93" s="78">
-        <v>35406</v>
+        <v>881</v>
       </c>
       <c r="T93" s="78">
-        <v>32638</v>
+        <v>820</v>
       </c>
       <c r="U93" s="78"/>
       <c r="V93" s="78"/>
@@ -10542,54 +10757,56 @@
     </row>
     <row r="94" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C94" s="78">
-        <v>881</v>
+        <v>17389</v>
       </c>
       <c r="D94" s="78">
         <f t="shared" si="97"/>
-        <v>881</v>
+        <v>12192</v>
       </c>
       <c r="E94" s="78">
-        <v>852</v>
+        <v>11878</v>
       </c>
       <c r="F94" s="78"/>
-      <c r="G94" s="78"/>
+      <c r="G94" s="78">
+        <v>10432</v>
+      </c>
       <c r="H94" s="78"/>
       <c r="I94" s="78"/>
       <c r="J94" s="78">
-        <v>781</v>
+        <v>495</v>
       </c>
       <c r="K94" s="78">
-        <v>653</v>
+        <v>563</v>
       </c>
       <c r="L94" s="78">
-        <v>826</v>
+        <v>652</v>
       </c>
       <c r="M94" s="78">
-        <v>1821</v>
+        <v>17129</v>
       </c>
       <c r="N94" s="78">
-        <v>1665</v>
+        <v>17776</v>
       </c>
       <c r="O94" s="78">
-        <v>1459</v>
+        <v>17050</v>
       </c>
       <c r="P94" s="78">
-        <v>1524</v>
+        <v>16314</v>
       </c>
       <c r="Q94" s="78">
-        <v>1239</v>
+        <v>16462</v>
       </c>
       <c r="R94" s="78">
-        <v>949</v>
+        <v>18428</v>
       </c>
       <c r="S94" s="78">
-        <v>881</v>
+        <v>12192</v>
       </c>
       <c r="T94" s="78">
-        <v>820</v>
+        <v>11679</v>
       </c>
       <c r="U94" s="78"/>
       <c r="V94" s="78"/>
@@ -10609,54 +10826,56 @@
     </row>
     <row r="95" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C95" s="78">
-        <v>17389</v>
+        <v>469</v>
       </c>
       <c r="D95" s="78">
         <f t="shared" si="97"/>
-        <v>12192</v>
+        <v>531</v>
       </c>
       <c r="E95" s="78">
-        <v>11878</v>
+        <v>271</v>
       </c>
       <c r="F95" s="78"/>
-      <c r="G95" s="78"/>
+      <c r="G95" s="78">
+        <v>3212</v>
+      </c>
       <c r="H95" s="78"/>
       <c r="I95" s="78"/>
       <c r="J95" s="78">
-        <v>495</v>
+        <v>278</v>
       </c>
       <c r="K95" s="78">
-        <v>563</v>
+        <v>296</v>
       </c>
       <c r="L95" s="78">
-        <v>652</v>
+        <v>386</v>
       </c>
       <c r="M95" s="78">
-        <v>17129</v>
+        <v>354</v>
       </c>
       <c r="N95" s="78">
-        <v>17776</v>
+        <v>331</v>
       </c>
       <c r="O95" s="78">
-        <v>17050</v>
+        <v>388</v>
       </c>
       <c r="P95" s="78">
-        <v>16314</v>
+        <v>387</v>
       </c>
       <c r="Q95" s="78">
-        <v>16462</v>
+        <v>392</v>
       </c>
       <c r="R95" s="78">
-        <v>18428</v>
+        <v>434</v>
       </c>
       <c r="S95" s="78">
-        <v>12192</v>
+        <v>531</v>
       </c>
       <c r="T95" s="78">
-        <v>11679</v>
+        <v>4071</v>
       </c>
       <c r="U95" s="78"/>
       <c r="V95" s="78"/>
@@ -10676,54 +10895,56 @@
     </row>
     <row r="96" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C96" s="78">
-        <v>469</v>
+        <v>944</v>
       </c>
       <c r="D96" s="78">
         <f t="shared" si="97"/>
-        <v>531</v>
+        <v>893</v>
       </c>
       <c r="E96" s="78">
-        <v>271</v>
+        <v>788</v>
       </c>
       <c r="F96" s="78"/>
-      <c r="G96" s="78"/>
+      <c r="G96" s="78">
+        <v>586</v>
+      </c>
       <c r="H96" s="78"/>
       <c r="I96" s="78"/>
       <c r="J96" s="78">
-        <v>278</v>
+        <v>128</v>
       </c>
       <c r="K96" s="78">
-        <v>296</v>
+        <v>1029</v>
       </c>
       <c r="L96" s="78">
-        <v>386</v>
+        <v>1040</v>
       </c>
       <c r="M96" s="78">
-        <v>354</v>
+        <v>1058</v>
       </c>
       <c r="N96" s="78">
-        <v>331</v>
+        <v>1055</v>
       </c>
       <c r="O96" s="78">
-        <v>388</v>
+        <v>1034</v>
       </c>
       <c r="P96" s="78">
-        <v>387</v>
+        <v>1064</v>
       </c>
       <c r="Q96" s="78">
-        <v>392</v>
+        <v>982</v>
       </c>
       <c r="R96" s="78">
-        <v>434</v>
+        <v>944</v>
       </c>
       <c r="S96" s="78">
-        <v>531</v>
+        <v>893</v>
       </c>
       <c r="T96" s="78">
-        <v>4071</v>
+        <v>685</v>
       </c>
       <c r="U96" s="78"/>
       <c r="V96" s="78"/>
@@ -10743,54 +10964,56 @@
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C97" s="78">
-        <v>944</v>
+        <v>430</v>
       </c>
       <c r="D97" s="78">
         <f t="shared" si="97"/>
-        <v>893</v>
+        <v>206</v>
       </c>
       <c r="E97" s="78">
-        <v>788</v>
+        <v>217</v>
       </c>
       <c r="F97" s="78"/>
-      <c r="G97" s="78"/>
+      <c r="G97" s="78">
+        <v>150</v>
+      </c>
       <c r="H97" s="78"/>
       <c r="I97" s="78"/>
       <c r="J97" s="78">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K97" s="78">
-        <v>1029</v>
+        <v>130</v>
       </c>
       <c r="L97" s="78">
-        <v>1040</v>
+        <v>119</v>
       </c>
       <c r="M97" s="78">
-        <v>1058</v>
+        <v>79</v>
       </c>
       <c r="N97" s="78">
-        <v>1055</v>
+        <v>214</v>
       </c>
       <c r="O97" s="78">
-        <v>1034</v>
+        <v>287</v>
       </c>
       <c r="P97" s="78">
-        <v>1064</v>
+        <v>41</v>
       </c>
       <c r="Q97" s="78">
-        <v>982</v>
+        <v>79</v>
       </c>
       <c r="R97" s="78">
-        <v>944</v>
+        <v>502</v>
       </c>
       <c r="S97" s="78">
-        <v>893</v>
+        <v>206</v>
       </c>
       <c r="T97" s="78">
-        <v>685</v>
+        <v>268</v>
       </c>
       <c r="U97" s="78"/>
       <c r="V97" s="78"/>
@@ -10810,54 +11033,73 @@
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C98" s="78">
-        <v>430</v>
+        <f t="shared" ref="C98:G98" si="98">SUM(C92:C97)</f>
+        <v>57253</v>
       </c>
       <c r="D98" s="78">
-        <f t="shared" si="97"/>
-        <v>206</v>
+        <f t="shared" si="98"/>
+        <v>50109</v>
       </c>
       <c r="E98" s="78">
-        <v>217</v>
-      </c>
-      <c r="F98" s="78"/>
-      <c r="G98" s="78"/>
+        <f t="shared" si="98"/>
+        <v>46858</v>
+      </c>
+      <c r="F98" s="78">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="78">
+        <f t="shared" si="98"/>
+        <v>47053</v>
+      </c>
       <c r="H98" s="78"/>
       <c r="I98" s="78"/>
       <c r="J98" s="78">
-        <v>123</v>
+        <f t="shared" ref="J98:M98" si="99">SUM(J92:J97)</f>
+        <v>11584</v>
       </c>
       <c r="K98" s="78">
-        <v>130</v>
+        <f t="shared" si="99"/>
+        <v>17477</v>
       </c>
       <c r="L98" s="78">
-        <v>119</v>
+        <f t="shared" si="99"/>
+        <v>19511</v>
       </c>
       <c r="M98" s="78">
-        <v>79</v>
+        <f t="shared" si="99"/>
+        <v>64468</v>
       </c>
       <c r="N98" s="78">
-        <v>214</v>
+        <f t="shared" ref="N98:R98" si="100">SUM(N92:N97)</f>
+        <v>64325</v>
       </c>
       <c r="O98" s="78">
-        <v>287</v>
+        <f t="shared" si="100"/>
+        <v>58022</v>
       </c>
       <c r="P98" s="78">
-        <v>41</v>
+        <f t="shared" si="100"/>
+        <v>59257</v>
       </c>
       <c r="Q98" s="78">
-        <v>79</v>
+        <f t="shared" si="100"/>
+        <v>54820</v>
       </c>
       <c r="R98" s="78">
-        <v>502</v>
+        <f t="shared" si="100"/>
+        <v>59983</v>
       </c>
       <c r="S98" s="78">
-        <v>206</v>
+        <f>SUM(S92:S97)</f>
+        <v>50109</v>
       </c>
       <c r="T98" s="78">
-        <v>268</v>
+        <f>SUM(T92:T97)</f>
+        <v>50161</v>
       </c>
       <c r="U98" s="78"/>
       <c r="V98" s="78"/>
@@ -10877,70 +11119,56 @@
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C99" s="78">
-        <f t="shared" ref="C99:F99" si="98">SUM(C93:C98)</f>
-        <v>57253</v>
+        <v>5029</v>
       </c>
       <c r="D99" s="78">
-        <f t="shared" si="98"/>
-        <v>50109</v>
+        <f t="shared" ref="D99:D104" si="101">S99</f>
+        <v>4324</v>
       </c>
       <c r="E99" s="78">
-        <f t="shared" si="98"/>
-        <v>46858</v>
-      </c>
-      <c r="F99" s="78">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="78"/>
+        <v>7306</v>
+      </c>
+      <c r="F99" s="78"/>
+      <c r="G99" s="78">
+        <v>3304</v>
+      </c>
       <c r="H99" s="78"/>
       <c r="I99" s="78"/>
       <c r="J99" s="78">
-        <f t="shared" ref="J99:M99" si="99">SUM(J93:J98)</f>
-        <v>11584</v>
+        <v>2479</v>
       </c>
       <c r="K99" s="78">
-        <f t="shared" si="99"/>
-        <v>17477</v>
+        <v>2195</v>
       </c>
       <c r="L99" s="78">
-        <f t="shared" si="99"/>
-        <v>19511</v>
+        <v>3007</v>
       </c>
       <c r="M99" s="78">
-        <f t="shared" si="99"/>
-        <v>64468</v>
+        <v>5423</v>
       </c>
       <c r="N99" s="78">
-        <f t="shared" ref="N99:R99" si="100">SUM(N93:N98)</f>
-        <v>64325</v>
+        <v>4225</v>
       </c>
       <c r="O99" s="78">
-        <f t="shared" si="100"/>
-        <v>58022</v>
+        <v>7562</v>
       </c>
       <c r="P99" s="78">
-        <f t="shared" si="100"/>
-        <v>59257</v>
+        <v>4041</v>
       </c>
       <c r="Q99" s="78">
-        <f t="shared" si="100"/>
-        <v>54820</v>
+        <v>3992</v>
       </c>
       <c r="R99" s="78">
-        <f t="shared" si="100"/>
-        <v>59983</v>
+        <v>4413</v>
       </c>
       <c r="S99" s="78">
-        <f>SUM(S93:S98)</f>
-        <v>50109</v>
+        <v>4324</v>
       </c>
       <c r="T99" s="78">
-        <f>SUM(T93:T98)</f>
-        <v>50161</v>
+        <v>4312</v>
       </c>
       <c r="U99" s="78"/>
       <c r="V99" s="78"/>
@@ -10960,54 +11188,56 @@
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C100" s="78">
-        <v>5029</v>
+        <v>905</v>
       </c>
       <c r="D100" s="78">
-        <f t="shared" ref="D100:D105" si="101">S100</f>
-        <v>4324</v>
+        <f t="shared" si="101"/>
+        <v>992</v>
       </c>
       <c r="E100" s="78">
-        <v>7306</v>
+        <v>1184</v>
       </c>
       <c r="F100" s="78"/>
-      <c r="G100" s="78"/>
+      <c r="G100" s="78">
+        <v>1172</v>
+      </c>
       <c r="H100" s="78"/>
       <c r="I100" s="78"/>
       <c r="J100" s="78">
-        <v>2479</v>
+        <v>430</v>
       </c>
       <c r="K100" s="78">
-        <v>2195</v>
+        <v>414</v>
       </c>
       <c r="L100" s="78">
-        <v>3007</v>
+        <v>558</v>
       </c>
       <c r="M100" s="78">
-        <v>5423</v>
+        <v>720</v>
       </c>
       <c r="N100" s="78">
-        <v>4225</v>
+        <v>853</v>
       </c>
       <c r="O100" s="78">
-        <v>7562</v>
+        <v>683</v>
       </c>
       <c r="P100" s="78">
-        <v>4041</v>
+        <v>868</v>
       </c>
       <c r="Q100" s="78">
-        <v>3992</v>
+        <v>879</v>
       </c>
       <c r="R100" s="78">
-        <v>4413</v>
+        <v>1049</v>
       </c>
       <c r="S100" s="78">
-        <v>4324</v>
+        <v>992</v>
       </c>
       <c r="T100" s="78">
-        <v>4312</v>
+        <v>1681</v>
       </c>
       <c r="U100" s="78"/>
       <c r="V100" s="78"/>
@@ -11027,54 +11257,56 @@
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C101" s="78">
-        <v>905</v>
+        <v>483</v>
       </c>
       <c r="D101" s="78">
         <f t="shared" si="101"/>
-        <v>992</v>
+        <v>468</v>
       </c>
       <c r="E101" s="78">
-        <v>1184</v>
+        <v>416</v>
       </c>
       <c r="F101" s="78"/>
-      <c r="G101" s="78"/>
+      <c r="G101" s="78">
+        <v>3089</v>
+      </c>
       <c r="H101" s="78"/>
       <c r="I101" s="78"/>
       <c r="J101" s="78">
-        <v>430</v>
+        <v>210</v>
       </c>
       <c r="K101" s="78">
-        <v>414</v>
+        <v>273</v>
       </c>
       <c r="L101" s="78">
-        <v>558</v>
+        <v>407</v>
       </c>
       <c r="M101" s="78">
-        <v>720</v>
+        <v>399</v>
       </c>
       <c r="N101" s="78">
-        <v>853</v>
+        <v>318</v>
       </c>
       <c r="O101" s="78">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="P101" s="78">
-        <v>868</v>
+        <v>598</v>
       </c>
       <c r="Q101" s="78">
-        <v>879</v>
+        <v>461</v>
       </c>
       <c r="R101" s="78">
-        <v>1049</v>
+        <v>1087</v>
       </c>
       <c r="S101" s="78">
-        <v>992</v>
+        <v>468</v>
       </c>
       <c r="T101" s="78">
-        <v>1681</v>
+        <v>3044</v>
       </c>
       <c r="U101" s="78"/>
       <c r="V101" s="78"/>
@@ -11094,54 +11326,56 @@
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C102" s="78">
-        <v>483</v>
+        <v>9217</v>
       </c>
       <c r="D102" s="78">
         <f t="shared" si="101"/>
-        <v>468</v>
+        <v>9700</v>
       </c>
       <c r="E102" s="78">
-        <v>416</v>
+        <v>9017</v>
       </c>
       <c r="F102" s="78"/>
-      <c r="G102" s="78"/>
+      <c r="G102" s="78">
+        <v>8243</v>
+      </c>
       <c r="H102" s="78"/>
       <c r="I102" s="78"/>
       <c r="J102" s="78">
-        <v>210</v>
+        <v>5524</v>
       </c>
       <c r="K102" s="78">
-        <v>273</v>
+        <v>5937</v>
       </c>
       <c r="L102" s="78">
-        <v>407</v>
+        <v>7335</v>
       </c>
       <c r="M102" s="78">
-        <v>399</v>
+        <v>8847</v>
       </c>
       <c r="N102" s="78">
-        <v>318</v>
+        <v>10631</v>
       </c>
       <c r="O102" s="78">
-        <v>670</v>
+        <v>9727</v>
       </c>
       <c r="P102" s="78">
-        <v>598</v>
+        <v>9693</v>
       </c>
       <c r="Q102" s="78">
-        <v>461</v>
+        <v>9577</v>
       </c>
       <c r="R102" s="78">
-        <v>1087</v>
+        <v>10449</v>
       </c>
       <c r="S102" s="78">
-        <v>468</v>
+        <v>9700</v>
       </c>
       <c r="T102" s="78">
-        <v>3044</v>
+        <v>9550</v>
       </c>
       <c r="U102" s="78"/>
       <c r="V102" s="78"/>
@@ -11161,54 +11395,56 @@
     </row>
     <row r="103" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C103" s="78">
-        <v>9217</v>
+        <v>251</v>
       </c>
       <c r="D103" s="78">
         <f t="shared" si="101"/>
-        <v>9700</v>
+        <v>189</v>
       </c>
       <c r="E103" s="78">
-        <v>9017</v>
+        <v>119</v>
       </c>
       <c r="F103" s="78"/>
-      <c r="G103" s="78"/>
+      <c r="G103" s="78">
+        <v>188</v>
+      </c>
       <c r="H103" s="78"/>
       <c r="I103" s="78"/>
       <c r="J103" s="78">
-        <v>5524</v>
+        <v>126</v>
       </c>
       <c r="K103" s="78">
-        <v>5937</v>
+        <v>187</v>
       </c>
       <c r="L103" s="78">
-        <v>7335</v>
+        <v>549</v>
       </c>
       <c r="M103" s="78">
-        <v>8847</v>
+        <v>155</v>
       </c>
       <c r="N103" s="78">
-        <v>10631</v>
+        <v>302</v>
       </c>
       <c r="O103" s="78">
-        <v>9727</v>
+        <v>181</v>
       </c>
       <c r="P103" s="78">
-        <v>9693</v>
+        <v>278</v>
       </c>
       <c r="Q103" s="78">
-        <v>9577</v>
+        <v>235</v>
       </c>
       <c r="R103" s="78">
-        <v>10449</v>
+        <v>427</v>
       </c>
       <c r="S103" s="78">
-        <v>9700</v>
+        <v>189</v>
       </c>
       <c r="T103" s="78">
-        <v>9550</v>
+        <v>156</v>
       </c>
       <c r="U103" s="78"/>
       <c r="V103" s="78"/>
@@ -11228,54 +11464,56 @@
     </row>
     <row r="104" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C104" s="78">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="D104" s="78">
         <f t="shared" si="101"/>
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="E104" s="78">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="F104" s="78"/>
-      <c r="G104" s="78"/>
+      <c r="G104" s="78">
+        <v>0</v>
+      </c>
       <c r="H104" s="78"/>
       <c r="I104" s="78"/>
       <c r="J104" s="78">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="K104" s="78">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="L104" s="78">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="M104" s="78">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="N104" s="78">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="O104" s="78">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="P104" s="78">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="Q104" s="78">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="R104" s="78">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="S104" s="78">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="T104" s="78">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="U104" s="78"/>
       <c r="V104" s="78"/>
@@ -11295,54 +11533,73 @@
     </row>
     <row r="105" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C105" s="78">
-        <v>306</v>
+        <f t="shared" ref="C105:G105" si="102">SUM(C99:C104)</f>
+        <v>16191</v>
       </c>
       <c r="D105" s="78">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
+        <v>15673</v>
+      </c>
+      <c r="E105" s="78">
+        <f t="shared" si="102"/>
+        <v>18042</v>
+      </c>
+      <c r="F105" s="78">
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="E105" s="78">
-        <v>0</v>
-      </c>
-      <c r="F105" s="78"/>
-      <c r="G105" s="78"/>
+      <c r="G105" s="78">
+        <f t="shared" si="102"/>
+        <v>15996</v>
+      </c>
       <c r="H105" s="78"/>
       <c r="I105" s="78"/>
       <c r="J105" s="78">
-        <v>0</v>
+        <f t="shared" ref="J105:M105" si="103">SUM(J99:J104)</f>
+        <v>8769</v>
       </c>
       <c r="K105" s="78">
-        <v>0</v>
+        <f t="shared" si="103"/>
+        <v>9006</v>
       </c>
       <c r="L105" s="78">
-        <v>0</v>
+        <f t="shared" si="103"/>
+        <v>11856</v>
       </c>
       <c r="M105" s="78">
-        <v>0</v>
+        <f t="shared" si="103"/>
+        <v>15544</v>
       </c>
       <c r="N105" s="78">
-        <v>0</v>
+        <f t="shared" ref="N105:R105" si="104">SUM(N99:N104)</f>
+        <v>16329</v>
       </c>
       <c r="O105" s="78">
-        <v>0</v>
+        <f t="shared" si="104"/>
+        <v>18823</v>
       </c>
       <c r="P105" s="78">
-        <v>0</v>
+        <f t="shared" si="104"/>
+        <v>15478</v>
       </c>
       <c r="Q105" s="78">
-        <v>0</v>
+        <f t="shared" si="104"/>
+        <v>15144</v>
       </c>
       <c r="R105" s="78">
-        <v>428</v>
+        <f t="shared" si="104"/>
+        <v>17853</v>
       </c>
       <c r="S105" s="78">
-        <v>0</v>
+        <f>SUM(S99:S104)</f>
+        <v>15673</v>
       </c>
       <c r="T105" s="78">
-        <v>0</v>
+        <f>SUM(T99:T104)</f>
+        <v>18743</v>
       </c>
       <c r="U105" s="78"/>
       <c r="V105" s="78"/>
@@ -11361,71 +11618,74 @@
       <c r="AI105" s="78"/>
     </row>
     <row r="106" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>78</v>
-      </c>
-      <c r="C106" s="78">
-        <f t="shared" ref="C106:F106" si="102">SUM(C100:C105)</f>
-        <v>16191</v>
-      </c>
-      <c r="D106" s="78">
-        <f t="shared" si="102"/>
-        <v>15673</v>
-      </c>
-      <c r="E106" s="78">
-        <f t="shared" si="102"/>
-        <v>18042</v>
-      </c>
-      <c r="F106" s="78">
-        <f t="shared" si="102"/>
+      <c r="B106" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="80">
+        <f>C105+C98+C91</f>
+        <v>146072</v>
+      </c>
+      <c r="D106" s="80">
+        <f>D105+D98+D91</f>
+        <v>118716</v>
+      </c>
+      <c r="E106" s="80">
+        <f>E105+E98+E91</f>
+        <v>119369</v>
+      </c>
+      <c r="F106" s="80">
+        <f>F105+F98+F91</f>
         <v>0</v>
       </c>
-      <c r="G106" s="78"/>
-      <c r="H106" s="78"/>
+      <c r="G106" s="80">
+        <f>G105+G98+G91</f>
+        <v>110226</v>
+      </c>
+      <c r="H106" s="80"/>
       <c r="I106" s="78"/>
-      <c r="J106" s="78">
-        <f t="shared" ref="J106:M106" si="103">SUM(J100:J105)</f>
-        <v>8769</v>
-      </c>
-      <c r="K106" s="78">
-        <f t="shared" si="103"/>
-        <v>9006</v>
-      </c>
-      <c r="L106" s="78">
-        <f t="shared" si="103"/>
-        <v>11856</v>
-      </c>
-      <c r="M106" s="78">
-        <f t="shared" si="103"/>
-        <v>15544</v>
-      </c>
-      <c r="N106" s="78">
-        <f t="shared" ref="N106:R106" si="104">SUM(N100:N105)</f>
-        <v>16329</v>
-      </c>
-      <c r="O106" s="78">
-        <f t="shared" si="104"/>
-        <v>18823</v>
-      </c>
-      <c r="P106" s="78">
-        <f t="shared" si="104"/>
-        <v>15478</v>
-      </c>
-      <c r="Q106" s="78">
-        <f t="shared" si="104"/>
-        <v>15144</v>
-      </c>
-      <c r="R106" s="78">
-        <f t="shared" si="104"/>
-        <v>17853</v>
-      </c>
-      <c r="S106" s="78">
-        <f>SUM(S100:S105)</f>
-        <v>15673</v>
-      </c>
-      <c r="T106" s="78">
-        <f>SUM(T100:T105)</f>
-        <v>18743</v>
+      <c r="J106" s="80">
+        <f t="shared" ref="J106:T106" si="105">J105+J98+J91</f>
+        <v>26167</v>
+      </c>
+      <c r="K106" s="80">
+        <f t="shared" si="105"/>
+        <v>31515</v>
+      </c>
+      <c r="L106" s="80">
+        <f t="shared" si="105"/>
+        <v>39773</v>
+      </c>
+      <c r="M106" s="80">
+        <f t="shared" si="105"/>
+        <v>141038</v>
+      </c>
+      <c r="N106" s="80">
+        <f t="shared" si="105"/>
+        <v>146342</v>
+      </c>
+      <c r="O106" s="80">
+        <f t="shared" si="105"/>
+        <v>141005</v>
+      </c>
+      <c r="P106" s="80">
+        <f t="shared" si="105"/>
+        <v>137690</v>
+      </c>
+      <c r="Q106" s="80">
+        <f t="shared" si="105"/>
+        <v>137365</v>
+      </c>
+      <c r="R106" s="80">
+        <f t="shared" si="105"/>
+        <v>153546</v>
+      </c>
+      <c r="S106" s="80">
+        <f t="shared" si="105"/>
+        <v>118716</v>
+      </c>
+      <c r="T106" s="80">
+        <f t="shared" si="105"/>
+        <v>118899</v>
       </c>
       <c r="U106" s="78"/>
       <c r="V106" s="78"/>
@@ -11444,72 +11704,24 @@
       <c r="AI106" s="78"/>
     </row>
     <row r="107" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C107" s="80">
-        <f>C106+C99+C92</f>
-        <v>146072</v>
-      </c>
-      <c r="D107" s="80">
-        <f>D106+D99+D92</f>
-        <v>118716</v>
-      </c>
-      <c r="E107" s="80">
-        <f>E106+E99+E92</f>
-        <v>119369</v>
-      </c>
-      <c r="F107" s="80">
-        <f>F106+F99+F92</f>
-        <v>0</v>
-      </c>
-      <c r="G107" s="80"/>
-      <c r="H107" s="80"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="78"/>
       <c r="I107" s="78"/>
-      <c r="J107" s="80">
-        <f t="shared" ref="J107:T107" si="105">J106+J99+J92</f>
-        <v>26167</v>
-      </c>
-      <c r="K107" s="80">
-        <f t="shared" si="105"/>
-        <v>31515</v>
-      </c>
-      <c r="L107" s="80">
-        <f t="shared" si="105"/>
-        <v>39773</v>
-      </c>
-      <c r="M107" s="80">
-        <f t="shared" si="105"/>
-        <v>141038</v>
-      </c>
-      <c r="N107" s="80">
-        <f t="shared" si="105"/>
-        <v>146342</v>
-      </c>
-      <c r="O107" s="80">
-        <f t="shared" si="105"/>
-        <v>141005</v>
-      </c>
-      <c r="P107" s="80">
-        <f t="shared" si="105"/>
-        <v>137690</v>
-      </c>
-      <c r="Q107" s="80">
-        <f t="shared" si="105"/>
-        <v>137365</v>
-      </c>
-      <c r="R107" s="80">
-        <f t="shared" si="105"/>
-        <v>153546</v>
-      </c>
-      <c r="S107" s="80">
-        <f t="shared" si="105"/>
-        <v>118716</v>
-      </c>
-      <c r="T107" s="80">
-        <f t="shared" si="105"/>
-        <v>118899</v>
-      </c>
+      <c r="J107" s="78"/>
+      <c r="K107" s="78"/>
+      <c r="L107" s="78"/>
+      <c r="M107" s="78"/>
+      <c r="N107" s="78"/>
+      <c r="O107" s="78"/>
+      <c r="P107" s="78"/>
+      <c r="Q107" s="78"/>
+      <c r="R107" s="78"/>
+      <c r="S107" s="78"/>
+      <c r="T107" s="78"/>
       <c r="U107" s="78"/>
       <c r="V107" s="78"/>
       <c r="W107" s="78"/>
@@ -11527,24 +11739,77 @@
       <c r="AI107" s="78"/>
     </row>
     <row r="108" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C108" s="78"/>
-      <c r="D108" s="78"/>
-      <c r="E108" s="78"/>
-      <c r="F108" s="78"/>
-      <c r="G108" s="78"/>
+      <c r="A108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108" s="78">
+        <f>C38</f>
+        <v>5935</v>
+      </c>
+      <c r="D108" s="78">
+        <f>D38</f>
+        <v>-21686</v>
+      </c>
+      <c r="E108" s="78">
+        <f>E38</f>
+        <v>4258</v>
+      </c>
+      <c r="F108" s="78">
+        <f>F38</f>
+        <v>-1522</v>
+      </c>
+      <c r="G108" s="78">
+        <v>5069</v>
+      </c>
       <c r="H108" s="78"/>
       <c r="I108" s="78"/>
-      <c r="J108" s="78"/>
-      <c r="K108" s="78"/>
-      <c r="L108" s="78"/>
-      <c r="M108" s="78"/>
-      <c r="N108" s="78"/>
-      <c r="O108" s="78"/>
-      <c r="P108" s="78"/>
-      <c r="Q108" s="78"/>
-      <c r="R108" s="78"/>
-      <c r="S108" s="78"/>
-      <c r="T108" s="78"/>
+      <c r="J108" s="78">
+        <f>J38</f>
+        <v>4546</v>
+      </c>
+      <c r="K108" s="78">
+        <f>K38</f>
+        <v>4557</v>
+      </c>
+      <c r="L108" s="78">
+        <f>L38</f>
+        <v>4655</v>
+      </c>
+      <c r="M108" s="78">
+        <f>M38</f>
+        <v>6476</v>
+      </c>
+      <c r="N108" s="78">
+        <f>N38</f>
+        <v>9313</v>
+      </c>
+      <c r="O108" s="78">
+        <f>O38</f>
+        <v>9016</v>
+      </c>
+      <c r="P108" s="78">
+        <f>P38</f>
+        <v>9962</v>
+      </c>
+      <c r="Q108" s="78">
+        <f>Q38</f>
+        <v>10234</v>
+      </c>
+      <c r="R108" s="78">
+        <f>R38</f>
+        <v>10523</v>
+      </c>
+      <c r="S108" s="78">
+        <f>S38</f>
+        <v>-15751</v>
+      </c>
+      <c r="T108" s="78">
+        <f>T38</f>
+        <v>2736</v>
+      </c>
       <c r="U108" s="78"/>
       <c r="V108" s="78"/>
       <c r="W108" s="78"/>
@@ -11562,74 +11827,57 @@
       <c r="AI108" s="78"/>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="B109" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C109" s="78">
-        <f>C38</f>
-        <v>5935</v>
+        <v>480</v>
       </c>
       <c r="D109" s="78">
-        <f>D38</f>
-        <v>-21686</v>
+        <f t="shared" ref="D109:D116" si="106">S109-C109</f>
+        <v>28134</v>
       </c>
       <c r="E109" s="78">
-        <f>E38</f>
-        <v>4258</v>
-      </c>
-      <c r="F109" s="78">
-        <f>F38</f>
-        <v>-1522</v>
-      </c>
-      <c r="G109" s="78"/>
+        <v>1620</v>
+      </c>
+      <c r="F109" s="78"/>
+      <c r="G109" s="78">
+        <v>1192</v>
+      </c>
       <c r="H109" s="78"/>
       <c r="I109" s="78"/>
       <c r="J109" s="78">
-        <f t="shared" ref="J109:T109" si="106">J38</f>
-        <v>4546</v>
+        <v>523</v>
       </c>
       <c r="K109" s="78">
-        <f t="shared" si="106"/>
-        <v>4557</v>
+        <v>428</v>
       </c>
       <c r="L109" s="78">
-        <f t="shared" si="106"/>
-        <v>4655</v>
+        <v>607</v>
       </c>
       <c r="M109" s="78">
-        <f t="shared" si="106"/>
-        <v>6476</v>
+        <v>902</v>
       </c>
       <c r="N109" s="78">
-        <f t="shared" si="106"/>
-        <v>9313</v>
+        <v>1038</v>
       </c>
       <c r="O109" s="78">
-        <f t="shared" si="106"/>
-        <v>9016</v>
+        <v>1512</v>
       </c>
       <c r="P109" s="78">
-        <f t="shared" si="106"/>
-        <v>9962</v>
+        <v>1450</v>
       </c>
       <c r="Q109" s="78">
-        <f t="shared" si="106"/>
-        <v>10234</v>
+        <v>1076</v>
       </c>
       <c r="R109" s="78">
-        <f t="shared" si="106"/>
-        <v>10523</v>
+        <v>1305</v>
       </c>
       <c r="S109" s="78">
-        <f t="shared" si="106"/>
-        <v>-15751</v>
+        <v>28614</v>
       </c>
       <c r="T109" s="78">
-        <f t="shared" si="106"/>
-        <v>2736</v>
+        <v>3101</v>
       </c>
       <c r="U109" s="78"/>
       <c r="V109" s="78"/>
@@ -11649,54 +11897,56 @@
     </row>
     <row r="110" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C110" s="78">
-        <v>480</v>
+        <v>-357</v>
       </c>
       <c r="D110" s="78">
-        <f t="shared" ref="D110:D117" si="107">S110-C110</f>
-        <v>28134</v>
+        <f t="shared" si="106"/>
+        <v>622</v>
       </c>
       <c r="E110" s="78">
-        <v>1620</v>
+        <v>-606</v>
       </c>
       <c r="F110" s="78"/>
-      <c r="G110" s="78"/>
+      <c r="G110" s="78">
+        <v>-696</v>
+      </c>
       <c r="H110" s="78"/>
       <c r="I110" s="78"/>
       <c r="J110" s="78">
-        <v>523</v>
+        <v>-405</v>
       </c>
       <c r="K110" s="78">
-        <v>428</v>
+        <v>-520</v>
       </c>
       <c r="L110" s="78">
-        <v>607</v>
+        <v>-638</v>
       </c>
       <c r="M110" s="78">
-        <v>902</v>
+        <v>1409</v>
       </c>
       <c r="N110" s="78">
-        <v>1038</v>
+        <v>-192</v>
       </c>
       <c r="O110" s="78">
-        <v>1512</v>
+        <v>-371</v>
       </c>
       <c r="P110" s="78">
-        <v>1450</v>
+        <v>-144</v>
       </c>
       <c r="Q110" s="78">
-        <v>1076</v>
+        <v>433</v>
       </c>
       <c r="R110" s="78">
-        <v>1305</v>
+        <v>-246</v>
       </c>
       <c r="S110" s="78">
-        <v>28614</v>
+        <v>265</v>
       </c>
       <c r="T110" s="78">
-        <v>3101</v>
+        <v>35</v>
       </c>
       <c r="U110" s="78"/>
       <c r="V110" s="78"/>
@@ -11716,54 +11966,56 @@
     </row>
     <row r="111" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C111" s="78">
-        <v>-357</v>
+        <v>-425</v>
       </c>
       <c r="D111" s="78">
-        <f t="shared" si="107"/>
-        <v>622</v>
+        <f t="shared" si="106"/>
+        <v>-62</v>
       </c>
       <c r="E111" s="78">
-        <v>-606</v>
+        <v>-268</v>
       </c>
       <c r="F111" s="78"/>
-      <c r="G111" s="78"/>
+      <c r="G111" s="78">
+        <v>-1</v>
+      </c>
       <c r="H111" s="78"/>
       <c r="I111" s="78"/>
       <c r="J111" s="78">
-        <v>-405</v>
+        <v>-36</v>
       </c>
       <c r="K111" s="78">
-        <v>-520</v>
+        <v>-508</v>
       </c>
       <c r="L111" s="78">
-        <v>-638</v>
+        <v>87</v>
       </c>
       <c r="M111" s="78">
-        <v>1409</v>
+        <v>-732</v>
       </c>
       <c r="N111" s="78">
-        <v>-192</v>
+        <v>502</v>
       </c>
       <c r="O111" s="78">
-        <v>-371</v>
+        <v>-699</v>
       </c>
       <c r="P111" s="78">
-        <v>-144</v>
+        <v>300</v>
       </c>
       <c r="Q111" s="78">
-        <v>433</v>
+        <v>-393</v>
       </c>
       <c r="R111" s="78">
-        <v>-246</v>
+        <v>-42</v>
       </c>
       <c r="S111" s="78">
-        <v>265</v>
+        <v>-487</v>
       </c>
       <c r="T111" s="78">
-        <v>35</v>
+        <v>-269</v>
       </c>
       <c r="U111" s="78"/>
       <c r="V111" s="78"/>
@@ -11783,54 +12035,56 @@
     </row>
     <row r="112" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C112" s="78">
-        <v>-425</v>
+        <v>-897</v>
       </c>
       <c r="D112" s="78">
-        <f t="shared" si="107"/>
-        <v>-62</v>
+        <f t="shared" si="106"/>
+        <v>610</v>
       </c>
       <c r="E112" s="78">
-        <v>-268</v>
+        <v>-868</v>
       </c>
       <c r="F112" s="78"/>
-      <c r="G112" s="78"/>
+      <c r="G112" s="78">
+        <v>-633</v>
+      </c>
       <c r="H112" s="78"/>
       <c r="I112" s="78"/>
       <c r="J112" s="78">
+        <v>0</v>
+      </c>
+      <c r="K112" s="78">
+        <v>-55</v>
+      </c>
+      <c r="L112" s="78">
+        <v>0</v>
+      </c>
+      <c r="M112" s="78">
+        <v>-934</v>
+      </c>
+      <c r="N112" s="78">
+        <v>1364</v>
+      </c>
+      <c r="O112" s="78">
+        <v>-124</v>
+      </c>
+      <c r="P112" s="78">
+        <v>369</v>
+      </c>
+      <c r="Q112" s="78">
         <v>-36</v>
       </c>
-      <c r="K112" s="78">
-        <v>-508</v>
-      </c>
-      <c r="L112" s="78">
-        <v>87</v>
-      </c>
-      <c r="M112" s="78">
-        <v>-732</v>
-      </c>
-      <c r="N112" s="78">
-        <v>502</v>
-      </c>
-      <c r="O112" s="78">
-        <v>-699</v>
-      </c>
-      <c r="P112" s="78">
-        <v>300</v>
-      </c>
-      <c r="Q112" s="78">
-        <v>-393</v>
-      </c>
       <c r="R112" s="78">
-        <v>-42</v>
+        <v>-145</v>
       </c>
       <c r="S112" s="78">
-        <v>-487</v>
+        <v>-287</v>
       </c>
       <c r="T112" s="78">
-        <v>-269</v>
+        <v>-294</v>
       </c>
       <c r="U112" s="78"/>
       <c r="V112" s="78"/>
@@ -11850,54 +12104,56 @@
     </row>
     <row r="113" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C113" s="78">
-        <v>-897</v>
+        <v>347</v>
       </c>
       <c r="D113" s="78">
-        <f t="shared" si="107"/>
-        <v>610</v>
+        <f t="shared" si="106"/>
+        <v>293</v>
       </c>
       <c r="E113" s="78">
-        <v>-868</v>
+        <v>321</v>
       </c>
       <c r="F113" s="78"/>
-      <c r="G113" s="78"/>
+      <c r="G113" s="78">
+        <v>-565</v>
+      </c>
       <c r="H113" s="78"/>
       <c r="I113" s="78"/>
       <c r="J113" s="78">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="K113" s="78">
-        <v>-55</v>
+        <v>732</v>
       </c>
       <c r="L113" s="78">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="M113" s="78">
-        <v>-934</v>
+        <v>-749</v>
       </c>
       <c r="N113" s="78">
-        <v>1364</v>
+        <v>123</v>
       </c>
       <c r="O113" s="78">
-        <v>-124</v>
+        <v>730</v>
       </c>
       <c r="P113" s="78">
-        <v>369</v>
+        <v>-320</v>
       </c>
       <c r="Q113" s="78">
-        <v>-36</v>
+        <v>183</v>
       </c>
       <c r="R113" s="78">
-        <v>-145</v>
+        <v>3</v>
       </c>
       <c r="S113" s="78">
-        <v>-287</v>
+        <v>640</v>
       </c>
       <c r="T113" s="78">
-        <v>-294</v>
+        <v>58</v>
       </c>
       <c r="U113" s="78"/>
       <c r="V113" s="78"/>
@@ -11917,54 +12173,56 @@
     </row>
     <row r="114" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C114" s="78">
-        <v>347</v>
+        <v>-55</v>
       </c>
       <c r="D114" s="78">
-        <f t="shared" si="107"/>
-        <v>293</v>
+        <f t="shared" si="106"/>
+        <v>-56</v>
       </c>
       <c r="E114" s="78">
-        <v>321</v>
+        <v>-17</v>
       </c>
       <c r="F114" s="78"/>
-      <c r="G114" s="78"/>
+      <c r="G114" s="78">
+        <v>-27</v>
+      </c>
       <c r="H114" s="78"/>
       <c r="I114" s="78"/>
       <c r="J114" s="78">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="K114" s="78">
-        <v>732</v>
+        <v>963</v>
       </c>
       <c r="L114" s="78">
-        <v>428</v>
+        <v>-145</v>
       </c>
       <c r="M114" s="78">
-        <v>-749</v>
+        <v>-131</v>
       </c>
       <c r="N114" s="78">
-        <v>123</v>
+        <v>-100</v>
       </c>
       <c r="O114" s="78">
-        <v>730</v>
+        <v>-40</v>
       </c>
       <c r="P114" s="78">
-        <v>-320</v>
+        <v>-96</v>
       </c>
       <c r="Q114" s="78">
-        <v>183</v>
+        <v>-104</v>
       </c>
       <c r="R114" s="78">
-        <v>3</v>
+        <v>-110</v>
       </c>
       <c r="S114" s="78">
-        <v>640</v>
+        <v>-111</v>
       </c>
       <c r="T114" s="78">
-        <v>58</v>
+        <v>-76</v>
       </c>
       <c r="U114" s="78"/>
       <c r="V114" s="78"/>
@@ -11984,54 +12242,56 @@
     </row>
     <row r="115" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C115" s="78">
-        <v>-55</v>
+        <v>-535</v>
       </c>
       <c r="D115" s="78">
-        <f t="shared" si="107"/>
-        <v>-56</v>
+        <f t="shared" si="106"/>
+        <v>46</v>
       </c>
       <c r="E115" s="78">
-        <v>-17</v>
+        <v>-302</v>
       </c>
       <c r="F115" s="78"/>
-      <c r="G115" s="78"/>
+      <c r="G115" s="78">
+        <v>-634</v>
+      </c>
       <c r="H115" s="78"/>
       <c r="I115" s="78"/>
       <c r="J115" s="78">
+        <v>-170</v>
+      </c>
+      <c r="K115" s="78">
+        <v>-191</v>
+      </c>
+      <c r="L115" s="78">
+        <v>141</v>
+      </c>
+      <c r="M115" s="78">
+        <v>-78</v>
+      </c>
+      <c r="N115" s="78">
+        <v>-107</v>
+      </c>
+      <c r="O115" s="78">
+        <v>382</v>
+      </c>
+      <c r="P115" s="78">
         <v>0</v>
       </c>
-      <c r="K115" s="78">
-        <v>963</v>
-      </c>
-      <c r="L115" s="78">
+      <c r="Q115" s="78">
         <v>-145</v>
       </c>
-      <c r="M115" s="78">
-        <v>-131</v>
-      </c>
-      <c r="N115" s="78">
-        <v>-100</v>
-      </c>
-      <c r="O115" s="78">
-        <v>-40</v>
-      </c>
-      <c r="P115" s="78">
-        <v>-96</v>
-      </c>
-      <c r="Q115" s="78">
-        <v>-104</v>
-      </c>
       <c r="R115" s="78">
-        <v>-110</v>
+        <v>643</v>
       </c>
       <c r="S115" s="78">
-        <v>-111</v>
+        <v>-489</v>
       </c>
       <c r="T115" s="78">
-        <v>-76</v>
+        <v>6322</v>
       </c>
       <c r="U115" s="78"/>
       <c r="V115" s="78"/>
@@ -12051,54 +12311,57 @@
     </row>
     <row r="116" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C116" s="78">
-        <v>-535</v>
+        <v>0</v>
       </c>
       <c r="D116" s="78">
-        <f t="shared" si="107"/>
-        <v>46</v>
+        <f t="shared" si="106"/>
+        <v>0</v>
       </c>
       <c r="E116" s="78">
-        <v>-302</v>
+        <v>0</v>
       </c>
       <c r="F116" s="78"/>
-      <c r="G116" s="78"/>
+      <c r="G116" s="78">
+        <v>12</v>
+      </c>
       <c r="H116" s="78"/>
       <c r="I116" s="78"/>
       <c r="J116" s="78">
-        <v>-170</v>
+        <v>-76</v>
       </c>
       <c r="K116" s="78">
-        <v>-191</v>
+        <v>48</v>
       </c>
       <c r="L116" s="78">
-        <v>141</v>
+        <v>-242</v>
       </c>
       <c r="M116" s="78">
-        <v>-78</v>
+        <f>-130</f>
+        <v>-130</v>
       </c>
       <c r="N116" s="78">
-        <v>-107</v>
+        <v>0</v>
       </c>
       <c r="O116" s="78">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="P116" s="78">
         <v>0</v>
       </c>
       <c r="Q116" s="78">
-        <v>-145</v>
+        <v>0</v>
       </c>
       <c r="R116" s="78">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="S116" s="78">
-        <v>-489</v>
+        <v>0</v>
       </c>
       <c r="T116" s="78">
-        <v>6322</v>
+        <v>0</v>
       </c>
       <c r="U116" s="78"/>
       <c r="V116" s="78"/>
@@ -12117,56 +12380,74 @@
       <c r="AI116" s="78"/>
     </row>
     <row r="117" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>68</v>
-      </c>
-      <c r="C117" s="78">
-        <v>0</v>
-      </c>
-      <c r="D117" s="78">
+      <c r="B117" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C117" s="80">
+        <f t="shared" ref="C117:G117" si="107">SUM(C110:C116)</f>
+        <v>-1922</v>
+      </c>
+      <c r="D117" s="80">
+        <f t="shared" si="107"/>
+        <v>1453</v>
+      </c>
+      <c r="E117" s="80">
+        <f t="shared" si="107"/>
+        <v>-1740</v>
+      </c>
+      <c r="F117" s="80">
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="E117" s="78">
-        <v>0</v>
-      </c>
-      <c r="F117" s="78"/>
-      <c r="G117" s="78"/>
-      <c r="H117" s="78"/>
+      <c r="G117" s="80">
+        <f t="shared" si="107"/>
+        <v>-2544</v>
+      </c>
+      <c r="H117" s="80"/>
       <c r="I117" s="78"/>
-      <c r="J117" s="78">
-        <v>-76</v>
-      </c>
-      <c r="K117" s="78">
-        <v>48</v>
-      </c>
-      <c r="L117" s="78">
-        <v>-242</v>
-      </c>
-      <c r="M117" s="78">
-        <f>-130</f>
-        <v>-130</v>
-      </c>
-      <c r="N117" s="78">
-        <v>0</v>
-      </c>
-      <c r="O117" s="78">
-        <v>436</v>
-      </c>
-      <c r="P117" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q117" s="78">
-        <v>0</v>
-      </c>
-      <c r="R117" s="78">
-        <v>0</v>
-      </c>
-      <c r="S117" s="78">
-        <v>0</v>
-      </c>
-      <c r="T117" s="78">
-        <v>0</v>
+      <c r="J117" s="80">
+        <f t="shared" ref="J117:M117" si="108">SUM(J110:J116)</f>
+        <v>-484</v>
+      </c>
+      <c r="K117" s="80">
+        <f t="shared" si="108"/>
+        <v>469</v>
+      </c>
+      <c r="L117" s="80">
+        <f t="shared" si="108"/>
+        <v>-369</v>
+      </c>
+      <c r="M117" s="80">
+        <f t="shared" si="108"/>
+        <v>-1345</v>
+      </c>
+      <c r="N117" s="80">
+        <f>SUM(N110:N116)</f>
+        <v>1590</v>
+      </c>
+      <c r="O117" s="80">
+        <f>SUM(O110:O116)</f>
+        <v>314</v>
+      </c>
+      <c r="P117" s="80">
+        <f t="shared" ref="P117:T117" si="109">SUM(P110:P116)</f>
+        <v>109</v>
+      </c>
+      <c r="Q117" s="80">
+        <f t="shared" si="109"/>
+        <v>-62</v>
+      </c>
+      <c r="R117" s="80">
+        <f t="shared" si="109"/>
+        <v>103</v>
+      </c>
+      <c r="S117" s="80">
+        <f t="shared" si="109"/>
+        <v>-469</v>
+      </c>
+      <c r="T117" s="80">
+        <f t="shared" si="109"/>
+        <v>5776</v>
       </c>
       <c r="U117" s="78"/>
       <c r="V117" s="78"/>
@@ -12185,71 +12466,57 @@
       <c r="AI117" s="78"/>
     </row>
     <row r="118" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="80">
-        <f t="shared" ref="C118:F118" si="108">SUM(C111:C117)</f>
-        <v>-1922</v>
-      </c>
-      <c r="D118" s="80">
-        <f t="shared" si="108"/>
-        <v>1453</v>
-      </c>
-      <c r="E118" s="80">
-        <f t="shared" si="108"/>
-        <v>-1740</v>
-      </c>
-      <c r="F118" s="80">
-        <f t="shared" si="108"/>
+      <c r="B118" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" s="78">
+        <v>29</v>
+      </c>
+      <c r="D118" s="78">
+        <f>S118-C118</f>
+        <v>407</v>
+      </c>
+      <c r="E118" s="78">
+        <v>-16</v>
+      </c>
+      <c r="F118" s="78"/>
+      <c r="G118" s="78">
         <v>0</v>
       </c>
-      <c r="G118" s="80"/>
-      <c r="H118" s="80"/>
+      <c r="H118" s="78"/>
       <c r="I118" s="78"/>
-      <c r="J118" s="80">
-        <f t="shared" ref="J118:M118" si="109">SUM(J111:J117)</f>
-        <v>-484</v>
-      </c>
-      <c r="K118" s="80">
-        <f t="shared" si="109"/>
-        <v>469</v>
-      </c>
-      <c r="L118" s="80">
-        <f t="shared" si="109"/>
-        <v>-369</v>
-      </c>
-      <c r="M118" s="80">
-        <f t="shared" si="109"/>
-        <v>-1345</v>
-      </c>
-      <c r="N118" s="80">
-        <f>SUM(N111:N117)</f>
-        <v>1590</v>
-      </c>
-      <c r="O118" s="80">
-        <f>SUM(O111:O117)</f>
-        <v>314</v>
-      </c>
-      <c r="P118" s="80">
-        <f t="shared" ref="P118:T118" si="110">SUM(P111:P117)</f>
-        <v>109</v>
-      </c>
-      <c r="Q118" s="80">
-        <f t="shared" si="110"/>
-        <v>-62</v>
-      </c>
-      <c r="R118" s="80">
-        <f t="shared" si="110"/>
-        <v>103</v>
-      </c>
-      <c r="S118" s="80">
-        <f t="shared" si="110"/>
-        <v>-469</v>
-      </c>
-      <c r="T118" s="80">
-        <f t="shared" si="110"/>
-        <v>5776</v>
+      <c r="J118" s="78">
+        <v>49</v>
+      </c>
+      <c r="K118" s="78">
+        <v>-54</v>
+      </c>
+      <c r="L118" s="78">
+        <v>0</v>
+      </c>
+      <c r="M118" s="78">
+        <v>86</v>
+      </c>
+      <c r="N118" s="78">
+        <v>31</v>
+      </c>
+      <c r="O118" s="78">
+        <v>106</v>
+      </c>
+      <c r="P118" s="78">
+        <v>46</v>
+      </c>
+      <c r="Q118" s="78">
+        <v>430</v>
+      </c>
+      <c r="R118" s="78">
+        <v>606</v>
+      </c>
+      <c r="S118" s="78">
+        <v>436</v>
+      </c>
+      <c r="T118" s="78">
+        <v>-40</v>
       </c>
       <c r="U118" s="78"/>
       <c r="V118" s="78"/>
@@ -12269,54 +12536,56 @@
     </row>
     <row r="119" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C119" s="78">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="D119" s="78">
         <f>S119-C119</f>
-        <v>407</v>
+        <v>304</v>
       </c>
       <c r="E119" s="78">
-        <v>-16</v>
+        <v>196</v>
       </c>
       <c r="F119" s="78"/>
-      <c r="G119" s="78"/>
+      <c r="G119" s="78">
+        <v>168</v>
+      </c>
       <c r="H119" s="78"/>
       <c r="I119" s="78"/>
       <c r="J119" s="78">
-        <v>49</v>
+        <v>515</v>
       </c>
       <c r="K119" s="78">
-        <v>-54</v>
+        <v>593</v>
       </c>
       <c r="L119" s="78">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="M119" s="78">
-        <v>86</v>
+        <v>903</v>
       </c>
       <c r="N119" s="78">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="O119" s="78">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="P119" s="78">
-        <v>46</v>
+        <v>351</v>
       </c>
       <c r="Q119" s="78">
-        <v>430</v>
+        <v>353</v>
       </c>
       <c r="R119" s="78">
-        <v>606</v>
+        <v>394</v>
       </c>
       <c r="S119" s="78">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="T119" s="78">
-        <v>-40</v>
+        <v>406</v>
       </c>
       <c r="U119" s="78"/>
       <c r="V119" s="78"/>
@@ -12336,54 +12605,56 @@
     </row>
     <row r="120" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C120" s="78">
-        <v>202</v>
+        <v>-1349</v>
       </c>
       <c r="D120" s="78">
         <f>S120-C120</f>
-        <v>304</v>
+        <v>-1273</v>
       </c>
       <c r="E120" s="78">
-        <v>196</v>
+        <v>-1153</v>
       </c>
       <c r="F120" s="78"/>
-      <c r="G120" s="78"/>
+      <c r="G120" s="78">
+        <v>-1576</v>
+      </c>
       <c r="H120" s="78"/>
       <c r="I120" s="78"/>
       <c r="J120" s="78">
-        <v>515</v>
+        <v>-1433</v>
       </c>
       <c r="K120" s="78">
-        <v>593</v>
+        <v>-1273</v>
       </c>
       <c r="L120" s="78">
-        <v>962</v>
+        <v>-1245</v>
       </c>
       <c r="M120" s="78">
-        <v>903</v>
+        <v>-1675</v>
       </c>
       <c r="N120" s="78">
-        <v>214</v>
+        <v>-1891</v>
       </c>
       <c r="O120" s="78">
-        <v>252</v>
+        <v>-2204</v>
       </c>
       <c r="P120" s="78">
-        <v>351</v>
+        <v>-2132</v>
       </c>
       <c r="Q120" s="78">
-        <v>353</v>
+        <v>-2314</v>
       </c>
       <c r="R120" s="78">
-        <v>394</v>
+        <v>-2537</v>
       </c>
       <c r="S120" s="78">
-        <v>506</v>
+        <v>-2622</v>
       </c>
       <c r="T120" s="78">
-        <v>406</v>
+        <v>-1854</v>
       </c>
       <c r="U120" s="78"/>
       <c r="V120" s="78"/>
@@ -12402,55 +12673,74 @@
       <c r="AI120" s="78"/>
     </row>
     <row r="121" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>114</v>
-      </c>
-      <c r="C121" s="78">
-        <v>-1349</v>
-      </c>
-      <c r="D121" s="78">
-        <f>S121-C121</f>
-        <v>-1273</v>
-      </c>
-      <c r="E121" s="78">
-        <v>-1153</v>
-      </c>
-      <c r="F121" s="78"/>
-      <c r="G121" s="78"/>
-      <c r="H121" s="78"/>
+      <c r="B121" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C121" s="80">
+        <f t="shared" ref="C121:G121" si="110">C108+C109+C117+C118+C119+C120</f>
+        <v>3375</v>
+      </c>
+      <c r="D121" s="80">
+        <f t="shared" si="110"/>
+        <v>7339</v>
+      </c>
+      <c r="E121" s="80">
+        <f t="shared" si="110"/>
+        <v>3165</v>
+      </c>
+      <c r="F121" s="80">
+        <f t="shared" si="110"/>
+        <v>-1522</v>
+      </c>
+      <c r="G121" s="80">
+        <f t="shared" si="110"/>
+        <v>2309</v>
+      </c>
+      <c r="H121" s="80"/>
       <c r="I121" s="78"/>
-      <c r="J121" s="78">
-        <v>-1433</v>
-      </c>
-      <c r="K121" s="78">
-        <v>-1273</v>
-      </c>
-      <c r="L121" s="78">
-        <v>-1245</v>
-      </c>
-      <c r="M121" s="78">
-        <v>-1675</v>
-      </c>
-      <c r="N121" s="78">
-        <v>-1891</v>
-      </c>
-      <c r="O121" s="78">
-        <v>-2204</v>
-      </c>
-      <c r="P121" s="78">
-        <v>-2132</v>
-      </c>
-      <c r="Q121" s="78">
-        <v>-2314</v>
-      </c>
-      <c r="R121" s="78">
-        <v>-2537</v>
-      </c>
-      <c r="S121" s="78">
-        <v>-2622</v>
-      </c>
-      <c r="T121" s="78">
-        <v>-1854</v>
+      <c r="J121" s="80">
+        <f t="shared" ref="J121:M121" si="111">J108+J109+J117+J118+J119+J120</f>
+        <v>3716</v>
+      </c>
+      <c r="K121" s="80">
+        <f t="shared" si="111"/>
+        <v>4720</v>
+      </c>
+      <c r="L121" s="80">
+        <f t="shared" si="111"/>
+        <v>4610</v>
+      </c>
+      <c r="M121" s="80">
+        <f t="shared" si="111"/>
+        <v>5347</v>
+      </c>
+      <c r="N121" s="80">
+        <f>N108+N109+N117+N118+N119+N120</f>
+        <v>10295</v>
+      </c>
+      <c r="O121" s="80">
+        <f t="shared" ref="O121:R121" si="112">O108+O109+O117+O118+O119+O120</f>
+        <v>8996</v>
+      </c>
+      <c r="P121" s="80">
+        <f t="shared" si="112"/>
+        <v>9786</v>
+      </c>
+      <c r="Q121" s="80">
+        <f t="shared" si="112"/>
+        <v>9717</v>
+      </c>
+      <c r="R121" s="80">
+        <f t="shared" si="112"/>
+        <v>10394</v>
+      </c>
+      <c r="S121" s="80">
+        <f>S108+S109+S117+S118+S119+S120</f>
+        <v>10714</v>
+      </c>
+      <c r="T121" s="80">
+        <f>T108+T109+T117+T118+T119+T120</f>
+        <v>10125</v>
       </c>
       <c r="U121" s="78"/>
       <c r="V121" s="78"/>
@@ -12469,71 +12759,57 @@
       <c r="AI121" s="78"/>
     </row>
     <row r="122" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C122" s="80">
-        <f t="shared" ref="C122:F122" si="111">C109+C110+C118+C119+C120+C121</f>
-        <v>3375</v>
-      </c>
-      <c r="D122" s="80">
-        <f t="shared" si="111"/>
-        <v>7339</v>
-      </c>
-      <c r="E122" s="80">
-        <f t="shared" si="111"/>
-        <v>3165</v>
-      </c>
-      <c r="F122" s="80">
-        <f t="shared" si="111"/>
-        <v>-1522</v>
-      </c>
-      <c r="G122" s="80"/>
-      <c r="H122" s="80"/>
+      <c r="B122" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="78">
+        <v>78</v>
+      </c>
+      <c r="D122" s="78">
+        <f t="shared" ref="D122:D130" si="113">S122-C122</f>
+        <v>67</v>
+      </c>
+      <c r="E122" s="78">
+        <v>84</v>
+      </c>
+      <c r="F122" s="78"/>
+      <c r="G122" s="78">
+        <v>85</v>
+      </c>
+      <c r="H122" s="78"/>
       <c r="I122" s="78"/>
-      <c r="J122" s="80">
-        <f t="shared" ref="J122:M122" si="112">J109+J110+J118+J119+J120+J121</f>
-        <v>3716</v>
-      </c>
-      <c r="K122" s="80">
-        <f t="shared" si="112"/>
-        <v>4720</v>
-      </c>
-      <c r="L122" s="80">
-        <f t="shared" si="112"/>
-        <v>4610</v>
-      </c>
-      <c r="M122" s="80">
-        <f t="shared" si="112"/>
-        <v>5347</v>
-      </c>
-      <c r="N122" s="80">
-        <f>N109+N110+N118+N119+N120+N121</f>
-        <v>10295</v>
-      </c>
-      <c r="O122" s="80">
-        <f t="shared" ref="O122:R122" si="113">O109+O110+O118+O119+O120+O121</f>
-        <v>8996</v>
-      </c>
-      <c r="P122" s="80">
-        <f t="shared" si="113"/>
-        <v>9786</v>
-      </c>
-      <c r="Q122" s="80">
-        <f t="shared" si="113"/>
-        <v>9717</v>
-      </c>
-      <c r="R122" s="80">
-        <f t="shared" si="113"/>
-        <v>10394</v>
-      </c>
-      <c r="S122" s="80">
-        <f>S109+S110+S118+S119+S120+S121</f>
-        <v>10714</v>
-      </c>
-      <c r="T122" s="80">
-        <f>T109+T110+T118+T119+T120+T121</f>
-        <v>10125</v>
+      <c r="J122" s="78">
+        <v>63</v>
+      </c>
+      <c r="K122" s="78">
+        <v>64</v>
+      </c>
+      <c r="L122" s="78">
+        <v>62</v>
+      </c>
+      <c r="M122" s="78">
+        <v>83</v>
+      </c>
+      <c r="N122" s="78">
+        <v>52</v>
+      </c>
+      <c r="O122" s="78">
+        <v>80</v>
+      </c>
+      <c r="P122" s="78">
+        <v>48</v>
+      </c>
+      <c r="Q122" s="78">
+        <v>33</v>
+      </c>
+      <c r="R122" s="78">
+        <v>85</v>
+      </c>
+      <c r="S122" s="78">
+        <v>145</v>
+      </c>
+      <c r="T122" s="78">
+        <v>187</v>
       </c>
       <c r="U122" s="78"/>
       <c r="V122" s="78"/>
@@ -12553,54 +12829,56 @@
     </row>
     <row r="123" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C123" s="78">
-        <v>78</v>
+        <v>-110</v>
       </c>
       <c r="D123" s="78">
-        <f t="shared" ref="D123:D131" si="114">S123-C123</f>
-        <v>67</v>
+        <f t="shared" si="113"/>
+        <v>-350</v>
       </c>
       <c r="E123" s="78">
-        <v>84</v>
+        <v>-116</v>
       </c>
       <c r="F123" s="78"/>
-      <c r="G123" s="78"/>
+      <c r="G123" s="78">
+        <v>-103</v>
+      </c>
       <c r="H123" s="78"/>
       <c r="I123" s="78"/>
       <c r="J123" s="78">
-        <v>63</v>
+        <v>-529</v>
       </c>
       <c r="K123" s="78">
-        <v>64</v>
+        <v>-438</v>
       </c>
       <c r="L123" s="78">
-        <v>62</v>
+        <v>-586</v>
       </c>
       <c r="M123" s="78">
-        <v>83</v>
+        <v>-791</v>
       </c>
       <c r="N123" s="78">
-        <v>52</v>
+        <v>-758</v>
       </c>
       <c r="O123" s="78">
-        <v>80</v>
+        <v>-664</v>
       </c>
       <c r="P123" s="78">
-        <v>48</v>
+        <v>-511</v>
       </c>
       <c r="Q123" s="78">
-        <v>33</v>
+        <v>-527</v>
       </c>
       <c r="R123" s="78">
-        <v>85</v>
+        <v>-523</v>
       </c>
       <c r="S123" s="78">
-        <v>145</v>
+        <v>-460</v>
       </c>
       <c r="T123" s="78">
-        <v>187</v>
+        <v>-486</v>
       </c>
       <c r="U123" s="78"/>
       <c r="V123" s="78"/>
@@ -12620,54 +12898,56 @@
     </row>
     <row r="124" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C124" s="78">
-        <v>-110</v>
+        <v>22</v>
       </c>
       <c r="D124" s="78">
-        <f t="shared" si="114"/>
-        <v>-350</v>
+        <f t="shared" si="113"/>
+        <v>32</v>
       </c>
       <c r="E124" s="78">
-        <v>-116</v>
+        <v>50</v>
       </c>
       <c r="F124" s="78"/>
-      <c r="G124" s="78"/>
+      <c r="G124" s="78">
+        <v>21</v>
+      </c>
       <c r="H124" s="78"/>
       <c r="I124" s="78"/>
       <c r="J124" s="78">
-        <v>-529</v>
+        <v>62</v>
       </c>
       <c r="K124" s="78">
-        <v>-438</v>
+        <v>108</v>
       </c>
       <c r="L124" s="78">
-        <v>-586</v>
+        <v>93</v>
       </c>
       <c r="M124" s="78">
-        <v>-791</v>
+        <v>95</v>
       </c>
       <c r="N124" s="78">
-        <v>-758</v>
+        <v>38</v>
       </c>
       <c r="O124" s="78">
-        <v>-664</v>
+        <v>34</v>
       </c>
       <c r="P124" s="78">
-        <v>-511</v>
+        <v>44</v>
       </c>
       <c r="Q124" s="78">
-        <v>-527</v>
+        <v>31</v>
       </c>
       <c r="R124" s="78">
-        <v>-523</v>
+        <v>31</v>
       </c>
       <c r="S124" s="78">
-        <v>-460</v>
+        <v>54</v>
       </c>
       <c r="T124" s="78">
-        <v>-486</v>
+        <v>145</v>
       </c>
       <c r="U124" s="78"/>
       <c r="V124" s="78"/>
@@ -12687,54 +12967,56 @@
     </row>
     <row r="125" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C125" s="78">
-        <v>22</v>
+        <v>-21</v>
       </c>
       <c r="D125" s="78">
-        <f t="shared" si="114"/>
-        <v>32</v>
+        <f t="shared" si="113"/>
+        <v>-120</v>
       </c>
       <c r="E125" s="78">
-        <v>50</v>
+        <v>-31</v>
       </c>
       <c r="F125" s="78"/>
-      <c r="G125" s="78"/>
+      <c r="G125" s="78">
+        <v>-42</v>
+      </c>
       <c r="H125" s="78"/>
       <c r="I125" s="78"/>
       <c r="J125" s="78">
-        <v>62</v>
+        <v>-163</v>
       </c>
       <c r="K125" s="78">
-        <v>108</v>
+        <v>-118</v>
       </c>
       <c r="L125" s="78">
-        <v>93</v>
+        <v>-88</v>
       </c>
       <c r="M125" s="78">
-        <v>95</v>
+        <v>-187</v>
       </c>
       <c r="N125" s="78">
-        <v>38</v>
+        <v>-185</v>
       </c>
       <c r="O125" s="78">
-        <v>34</v>
+        <v>-151</v>
       </c>
       <c r="P125" s="78">
-        <v>44</v>
+        <v>-244</v>
       </c>
       <c r="Q125" s="78">
-        <v>31</v>
+        <v>-218</v>
       </c>
       <c r="R125" s="78">
-        <v>31</v>
+        <v>-133</v>
       </c>
       <c r="S125" s="78">
-        <v>54</v>
+        <v>-141</v>
       </c>
       <c r="T125" s="78">
-        <v>145</v>
+        <v>-122</v>
       </c>
       <c r="U125" s="78"/>
       <c r="V125" s="78"/>
@@ -12754,54 +13036,56 @@
     </row>
     <row r="126" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C126" s="78">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="D126" s="78">
-        <f t="shared" si="114"/>
-        <v>-120</v>
+        <f t="shared" si="113"/>
+        <v>27</v>
       </c>
       <c r="E126" s="78">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="F126" s="78"/>
-      <c r="G126" s="78"/>
+      <c r="G126" s="78">
+        <v>8</v>
+      </c>
       <c r="H126" s="78"/>
       <c r="I126" s="78"/>
       <c r="J126" s="78">
-        <v>-163</v>
+        <v>0</v>
       </c>
       <c r="K126" s="78">
-        <v>-118</v>
+        <v>0</v>
       </c>
       <c r="L126" s="78">
-        <v>-88</v>
+        <v>0</v>
       </c>
       <c r="M126" s="78">
-        <v>-187</v>
+        <v>0</v>
       </c>
       <c r="N126" s="78">
-        <v>-185</v>
+        <v>0</v>
       </c>
       <c r="O126" s="78">
-        <v>-151</v>
+        <v>0</v>
       </c>
       <c r="P126" s="78">
-        <v>-244</v>
+        <v>0</v>
       </c>
       <c r="Q126" s="78">
-        <v>-218</v>
+        <v>0</v>
       </c>
       <c r="R126" s="78">
-        <v>-133</v>
+        <v>3</v>
       </c>
       <c r="S126" s="78">
-        <v>-141</v>
+        <v>27</v>
       </c>
       <c r="T126" s="78">
-        <v>-122</v>
+        <v>39</v>
       </c>
       <c r="U126" s="78"/>
       <c r="V126" s="78"/>
@@ -12821,54 +13105,56 @@
     </row>
     <row r="127" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C127" s="78">
-        <v>0</v>
+        <v>-433</v>
       </c>
       <c r="D127" s="78">
-        <f t="shared" si="114"/>
-        <v>27</v>
+        <f t="shared" si="113"/>
+        <v>-15</v>
       </c>
       <c r="E127" s="78">
-        <v>0</v>
+        <v>-206</v>
       </c>
       <c r="F127" s="78"/>
-      <c r="G127" s="78"/>
+      <c r="G127" s="78">
+        <v>-59</v>
+      </c>
       <c r="H127" s="78"/>
       <c r="I127" s="78"/>
       <c r="J127" s="78">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="K127" s="78">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="L127" s="78">
-        <v>0</v>
+        <v>-109</v>
       </c>
       <c r="M127" s="78">
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="N127" s="78">
-        <v>0</v>
+        <v>-320</v>
       </c>
       <c r="O127" s="78">
-        <v>0</v>
+        <v>-191</v>
       </c>
       <c r="P127" s="78">
-        <v>0</v>
+        <v>-343</v>
       </c>
       <c r="Q127" s="78">
-        <v>0</v>
+        <v>-369</v>
       </c>
       <c r="R127" s="78">
-        <v>3</v>
+        <v>-257</v>
       </c>
       <c r="S127" s="78">
-        <v>27</v>
+        <v>-448</v>
       </c>
       <c r="T127" s="78">
-        <v>39</v>
+        <v>-216</v>
       </c>
       <c r="U127" s="78"/>
       <c r="V127" s="78"/>
@@ -12888,54 +13174,56 @@
     </row>
     <row r="128" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C128" s="78">
-        <v>-433</v>
+        <v>543</v>
       </c>
       <c r="D128" s="78">
-        <f t="shared" si="114"/>
-        <v>-15</v>
+        <f t="shared" si="113"/>
+        <v>-138</v>
       </c>
       <c r="E128" s="78">
-        <v>-206</v>
+        <v>99</v>
       </c>
       <c r="F128" s="78"/>
-      <c r="G128" s="78"/>
+      <c r="G128" s="78">
+        <v>73</v>
+      </c>
       <c r="H128" s="78"/>
       <c r="I128" s="78"/>
       <c r="J128" s="78">
-        <v>-31</v>
+        <v>34</v>
       </c>
       <c r="K128" s="78">
-        <v>-99</v>
+        <v>45</v>
       </c>
       <c r="L128" s="78">
-        <v>-109</v>
+        <v>22</v>
       </c>
       <c r="M128" s="78">
-        <v>-170</v>
+        <v>160</v>
       </c>
       <c r="N128" s="78">
-        <v>-320</v>
+        <v>167</v>
       </c>
       <c r="O128" s="78">
-        <v>-191</v>
+        <v>339</v>
       </c>
       <c r="P128" s="78">
-        <v>-343</v>
+        <v>184</v>
       </c>
       <c r="Q128" s="78">
-        <v>-369</v>
+        <v>141</v>
       </c>
       <c r="R128" s="78">
-        <v>-257</v>
+        <v>128</v>
       </c>
       <c r="S128" s="78">
-        <v>-448</v>
+        <v>405</v>
       </c>
       <c r="T128" s="78">
-        <v>-216</v>
+        <v>299</v>
       </c>
       <c r="U128" s="78"/>
       <c r="V128" s="78"/>
@@ -12955,54 +13243,57 @@
     </row>
     <row r="129" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C129" s="78">
-        <v>543</v>
+        <v>-38</v>
       </c>
       <c r="D129" s="78">
-        <f t="shared" si="114"/>
-        <v>-138</v>
+        <f t="shared" si="113"/>
+        <v>1</v>
       </c>
       <c r="E129" s="78">
-        <v>99</v>
+        <v>-24</v>
       </c>
       <c r="F129" s="78"/>
-      <c r="G129" s="78"/>
+      <c r="G129" s="78">
+        <v>-23</v>
+      </c>
       <c r="H129" s="78"/>
       <c r="I129" s="78"/>
       <c r="J129" s="78">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K129" s="78">
-        <v>45</v>
+        <v>-3015</v>
       </c>
       <c r="L129" s="78">
-        <v>22</v>
+        <v>-57</v>
       </c>
       <c r="M129" s="78">
-        <v>160</v>
+        <f>-77-17657</f>
+        <v>-17734</v>
       </c>
       <c r="N129" s="78">
-        <v>167</v>
+        <v>-32</v>
       </c>
       <c r="O129" s="78">
-        <v>339</v>
+        <v>-86</v>
       </c>
       <c r="P129" s="78">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="Q129" s="78">
-        <v>141</v>
+        <v>-133</v>
       </c>
       <c r="R129" s="78">
-        <v>128</v>
+        <v>-39</v>
       </c>
       <c r="S129" s="78">
-        <v>405</v>
+        <v>-37</v>
       </c>
       <c r="T129" s="78">
-        <v>299</v>
+        <v>-48</v>
       </c>
       <c r="U129" s="78"/>
       <c r="V129" s="78"/>
@@ -13022,55 +13313,56 @@
     </row>
     <row r="130" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>98</v>
+        <v>360</v>
       </c>
       <c r="C130" s="78">
-        <v>-38</v>
+        <v>0</v>
       </c>
       <c r="D130" s="78">
-        <f t="shared" si="114"/>
-        <v>1</v>
+        <f t="shared" si="113"/>
+        <v>159</v>
       </c>
       <c r="E130" s="78">
-        <v>-24</v>
+        <v>1577</v>
       </c>
       <c r="F130" s="78"/>
-      <c r="G130" s="78"/>
+      <c r="G130" s="78">
+        <v>1052</v>
+      </c>
       <c r="H130" s="78"/>
       <c r="I130" s="78"/>
       <c r="J130" s="78">
+        <v>94</v>
+      </c>
+      <c r="K130" s="78">
+        <v>-493</v>
+      </c>
+      <c r="L130" s="78">
+        <v>23</v>
+      </c>
+      <c r="M130" s="78">
         <v>0</v>
       </c>
-      <c r="K130" s="78">
-        <v>-3015</v>
-      </c>
-      <c r="L130" s="78">
-        <v>-57</v>
-      </c>
-      <c r="M130" s="78">
-        <f>-77-17657</f>
-        <v>-17734</v>
-      </c>
       <c r="N130" s="78">
-        <v>-32</v>
+        <v>17</v>
       </c>
       <c r="O130" s="78">
-        <v>-86</v>
+        <v>0</v>
       </c>
       <c r="P130" s="78">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Q130" s="78">
-        <v>-133</v>
+        <v>-98</v>
       </c>
       <c r="R130" s="78">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="S130" s="78">
-        <v>-37</v>
+        <v>159</v>
       </c>
       <c r="T130" s="78">
-        <v>-48</v>
+        <v>1577</v>
       </c>
       <c r="U130" s="78"/>
       <c r="V130" s="78"/>
@@ -13089,55 +13381,74 @@
       <c r="AI130" s="78"/>
     </row>
     <row r="131" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>361</v>
-      </c>
-      <c r="C131" s="78">
+      <c r="B131" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C131" s="80">
+        <f t="shared" ref="C131:G131" si="114">SUM(C122:C130)</f>
+        <v>41</v>
+      </c>
+      <c r="D131" s="80">
+        <f t="shared" si="114"/>
+        <v>-337</v>
+      </c>
+      <c r="E131" s="80">
+        <f t="shared" si="114"/>
+        <v>1433</v>
+      </c>
+      <c r="F131" s="80">
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="D131" s="78">
+      <c r="G131" s="80">
         <f t="shared" si="114"/>
-        <v>159</v>
-      </c>
-      <c r="E131" s="78">
-        <v>1577</v>
-      </c>
-      <c r="F131" s="78"/>
-      <c r="G131" s="78"/>
-      <c r="H131" s="78"/>
+        <v>1012</v>
+      </c>
+      <c r="H131" s="80"/>
       <c r="I131" s="78"/>
-      <c r="J131" s="78">
-        <v>94</v>
-      </c>
-      <c r="K131" s="78">
-        <v>-493</v>
-      </c>
-      <c r="L131" s="78">
-        <v>23</v>
-      </c>
-      <c r="M131" s="78">
-        <v>0</v>
-      </c>
-      <c r="N131" s="78">
-        <v>17</v>
-      </c>
-      <c r="O131" s="78">
-        <v>0</v>
-      </c>
-      <c r="P131" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q131" s="78">
-        <v>-98</v>
-      </c>
-      <c r="R131" s="78">
-        <v>0</v>
-      </c>
-      <c r="S131" s="78">
-        <v>159</v>
-      </c>
-      <c r="T131" s="78">
-        <v>1577</v>
+      <c r="J131" s="80">
+        <f t="shared" ref="J131:M131" si="115">SUM(J122:J130)</f>
+        <v>-470</v>
+      </c>
+      <c r="K131" s="80">
+        <f t="shared" si="115"/>
+        <v>-3946</v>
+      </c>
+      <c r="L131" s="80">
+        <f t="shared" si="115"/>
+        <v>-640</v>
+      </c>
+      <c r="M131" s="80">
+        <f t="shared" si="115"/>
+        <v>-18544</v>
+      </c>
+      <c r="N131" s="80">
+        <f t="shared" ref="N131:R131" si="116">SUM(N122:N130)</f>
+        <v>-1021</v>
+      </c>
+      <c r="O131" s="80">
+        <f t="shared" si="116"/>
+        <v>-639</v>
+      </c>
+      <c r="P131" s="80">
+        <f t="shared" si="116"/>
+        <v>-783</v>
+      </c>
+      <c r="Q131" s="80">
+        <f t="shared" si="116"/>
+        <v>-1140</v>
+      </c>
+      <c r="R131" s="80">
+        <f t="shared" si="116"/>
+        <v>-705</v>
+      </c>
+      <c r="S131" s="80">
+        <f>SUM(S122:S130)</f>
+        <v>-296</v>
+      </c>
+      <c r="T131" s="80">
+        <f>SUM(T122:T130)</f>
+        <v>1375</v>
       </c>
       <c r="U131" s="78"/>
       <c r="V131" s="78"/>
@@ -13156,71 +13467,57 @@
       <c r="AI131" s="78"/>
     </row>
     <row r="132" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B132" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C132" s="80">
-        <f t="shared" ref="C132:F132" si="115">SUM(C123:C131)</f>
-        <v>41</v>
-      </c>
-      <c r="D132" s="80">
-        <f t="shared" si="115"/>
-        <v>-337</v>
-      </c>
-      <c r="E132" s="80">
-        <f t="shared" si="115"/>
-        <v>1433</v>
-      </c>
-      <c r="F132" s="80">
-        <f t="shared" si="115"/>
-        <v>0</v>
-      </c>
-      <c r="G132" s="80"/>
-      <c r="H132" s="80"/>
+      <c r="B132" t="s">
+        <v>361</v>
+      </c>
+      <c r="C132" s="78">
+        <v>-855</v>
+      </c>
+      <c r="D132" s="78">
+        <f t="shared" ref="D132:D139" si="117">S132-C132</f>
+        <v>-827</v>
+      </c>
+      <c r="E132" s="78">
+        <v>-889</v>
+      </c>
+      <c r="F132" s="78"/>
+      <c r="G132" s="78">
+        <v>-879</v>
+      </c>
+      <c r="H132" s="78"/>
       <c r="I132" s="78"/>
-      <c r="J132" s="80">
-        <f t="shared" ref="J132:M132" si="116">SUM(J123:J131)</f>
-        <v>-470</v>
-      </c>
-      <c r="K132" s="80">
-        <f t="shared" si="116"/>
-        <v>-3946</v>
-      </c>
-      <c r="L132" s="80">
-        <f t="shared" si="116"/>
-        <v>-640</v>
-      </c>
-      <c r="M132" s="80">
-        <f t="shared" si="116"/>
-        <v>-18544</v>
-      </c>
-      <c r="N132" s="80">
-        <f t="shared" ref="N132:R132" si="117">SUM(N123:N131)</f>
-        <v>-1021</v>
-      </c>
-      <c r="O132" s="80">
-        <f t="shared" si="117"/>
-        <v>-639</v>
-      </c>
-      <c r="P132" s="80">
-        <f t="shared" si="117"/>
-        <v>-783</v>
-      </c>
-      <c r="Q132" s="80">
-        <f t="shared" si="117"/>
-        <v>-1140</v>
-      </c>
-      <c r="R132" s="80">
-        <f t="shared" si="117"/>
-        <v>-705</v>
-      </c>
-      <c r="S132" s="80">
-        <f>SUM(S123:S131)</f>
-        <v>-296</v>
-      </c>
-      <c r="T132" s="80">
-        <f>SUM(T123:T131)</f>
-        <v>1375</v>
+      <c r="J132" s="78">
+        <v>-571</v>
+      </c>
+      <c r="K132" s="78">
+        <v>-596</v>
+      </c>
+      <c r="L132" s="78">
+        <v>-641</v>
+      </c>
+      <c r="M132" s="78">
+        <v>-1114</v>
+      </c>
+      <c r="N132" s="78">
+        <v>-1557</v>
+      </c>
+      <c r="O132" s="78">
+        <v>-1601</v>
+      </c>
+      <c r="P132" s="78">
+        <v>-1737</v>
+      </c>
+      <c r="Q132" s="78">
+        <v>-1479</v>
+      </c>
+      <c r="R132" s="78">
+        <v>-1578</v>
+      </c>
+      <c r="S132" s="78">
+        <v>-1682</v>
+      </c>
+      <c r="T132" s="78">
+        <v>-1703</v>
       </c>
       <c r="U132" s="78"/>
       <c r="V132" s="78"/>
@@ -13240,54 +13537,56 @@
     </row>
     <row r="133" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>362</v>
+        <v>100</v>
       </c>
       <c r="C133" s="78">
-        <v>-855</v>
+        <v>-14</v>
       </c>
       <c r="D133" s="78">
-        <f t="shared" ref="D133:D140" si="118">S133-C133</f>
-        <v>-827</v>
+        <f t="shared" si="117"/>
+        <v>-16</v>
       </c>
       <c r="E133" s="78">
-        <v>-889</v>
+        <v>-18</v>
       </c>
       <c r="F133" s="78"/>
-      <c r="G133" s="78"/>
+      <c r="G133" s="78">
+        <v>-21</v>
+      </c>
       <c r="H133" s="78"/>
       <c r="I133" s="78"/>
       <c r="J133" s="78">
-        <v>-571</v>
+        <v>0</v>
       </c>
       <c r="K133" s="78">
-        <v>-596</v>
+        <v>-1</v>
       </c>
       <c r="L133" s="78">
-        <v>-641</v>
+        <v>0</v>
       </c>
       <c r="M133" s="78">
-        <v>-1114</v>
+        <v>0</v>
       </c>
       <c r="N133" s="78">
-        <v>-1557</v>
+        <v>-2</v>
       </c>
       <c r="O133" s="78">
-        <v>-1601</v>
+        <v>-32</v>
       </c>
       <c r="P133" s="78">
-        <v>-1737</v>
+        <v>-26</v>
       </c>
       <c r="Q133" s="78">
-        <v>-1479</v>
+        <v>-23</v>
       </c>
       <c r="R133" s="78">
-        <v>-1578</v>
+        <v>-25</v>
       </c>
       <c r="S133" s="78">
-        <v>-1682</v>
+        <v>-30</v>
       </c>
       <c r="T133" s="78">
-        <v>-1703</v>
+        <v>-37</v>
       </c>
       <c r="U133" s="78"/>
       <c r="V133" s="78"/>
@@ -13307,27 +13606,29 @@
     </row>
     <row r="134" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C134" s="78">
-        <v>-14</v>
+        <v>-80</v>
       </c>
       <c r="D134" s="78">
-        <f t="shared" si="118"/>
-        <v>-16</v>
+        <f t="shared" si="117"/>
+        <v>-82</v>
       </c>
       <c r="E134" s="78">
-        <v>-18</v>
+        <v>-83</v>
       </c>
       <c r="F134" s="78"/>
-      <c r="G134" s="78"/>
+      <c r="G134" s="78">
+        <v>-95</v>
+      </c>
       <c r="H134" s="78"/>
       <c r="I134" s="78"/>
       <c r="J134" s="78">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K134" s="78">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L134" s="78">
         <v>0</v>
@@ -13336,25 +13637,25 @@
         <v>0</v>
       </c>
       <c r="N134" s="78">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="O134" s="78">
-        <v>-32</v>
+        <v>-154</v>
       </c>
       <c r="P134" s="78">
-        <v>-26</v>
+        <v>-164</v>
       </c>
       <c r="Q134" s="78">
-        <v>-23</v>
+        <v>-154</v>
       </c>
       <c r="R134" s="78">
-        <v>-25</v>
+        <v>-161</v>
       </c>
       <c r="S134" s="78">
-        <v>-30</v>
+        <v>-162</v>
       </c>
       <c r="T134" s="78">
-        <v>-37</v>
+        <v>-165</v>
       </c>
       <c r="U134" s="78"/>
       <c r="V134" s="78"/>
@@ -13374,54 +13675,56 @@
     </row>
     <row r="135" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C135" s="78">
-        <v>-80</v>
+        <v>2054</v>
       </c>
       <c r="D135" s="78">
-        <f t="shared" si="118"/>
-        <v>-82</v>
+        <f t="shared" si="117"/>
+        <v>3080</v>
       </c>
       <c r="E135" s="78">
-        <v>-83</v>
+        <v>2370</v>
       </c>
       <c r="F135" s="78"/>
-      <c r="G135" s="78"/>
+      <c r="G135" s="78">
+        <v>3552</v>
+      </c>
       <c r="H135" s="78"/>
       <c r="I135" s="78"/>
       <c r="J135" s="78">
-        <v>-2</v>
+        <v>1967</v>
       </c>
       <c r="K135" s="78">
-        <v>-2</v>
+        <v>6931</v>
       </c>
       <c r="L135" s="78">
-        <v>0</v>
+        <v>3476</v>
       </c>
       <c r="M135" s="78">
-        <v>0</v>
+        <v>40937</v>
       </c>
       <c r="N135" s="78">
-        <v>-10</v>
+        <v>2111</v>
       </c>
       <c r="O135" s="78">
-        <v>-154</v>
+        <v>4247</v>
       </c>
       <c r="P135" s="78">
-        <v>-164</v>
+        <v>9826</v>
       </c>
       <c r="Q135" s="78">
-        <v>-154</v>
+        <v>978</v>
       </c>
       <c r="R135" s="78">
-        <v>-161</v>
+        <v>3267</v>
       </c>
       <c r="S135" s="78">
-        <v>-162</v>
+        <v>5134</v>
       </c>
       <c r="T135" s="78">
-        <v>-165</v>
+        <v>2404</v>
       </c>
       <c r="U135" s="78"/>
       <c r="V135" s="78"/>
@@ -13441,54 +13744,56 @@
     </row>
     <row r="136" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C136" s="78">
-        <v>2054</v>
+        <v>-1050</v>
       </c>
       <c r="D136" s="78">
-        <f t="shared" si="118"/>
-        <v>3080</v>
+        <f t="shared" si="117"/>
+        <v>-5719</v>
       </c>
       <c r="E136" s="78">
-        <v>2370</v>
+        <v>-1502</v>
       </c>
       <c r="F136" s="78"/>
-      <c r="G136" s="78"/>
+      <c r="G136" s="78">
+        <v>-3047</v>
+      </c>
       <c r="H136" s="78"/>
       <c r="I136" s="78"/>
       <c r="J136" s="78">
-        <v>1967</v>
+        <v>-1300</v>
       </c>
       <c r="K136" s="78">
-        <v>6931</v>
+        <v>-2028</v>
       </c>
       <c r="L136" s="78">
-        <v>3476</v>
+        <v>-3840</v>
       </c>
       <c r="M136" s="78">
-        <v>40937</v>
+        <v>-20827</v>
       </c>
       <c r="N136" s="78">
-        <v>2111</v>
+        <v>-5586</v>
       </c>
       <c r="O136" s="78">
-        <v>4247</v>
+        <v>-5640</v>
       </c>
       <c r="P136" s="78">
-        <v>9826</v>
+        <v>-10633</v>
       </c>
       <c r="Q136" s="78">
-        <v>978</v>
+        <v>-4843</v>
       </c>
       <c r="R136" s="78">
-        <v>3267</v>
+        <v>-3044</v>
       </c>
       <c r="S136" s="78">
-        <v>5134</v>
+        <v>-6769</v>
       </c>
       <c r="T136" s="78">
-        <v>2404</v>
+        <v>-4826</v>
       </c>
       <c r="U136" s="78"/>
       <c r="V136" s="78"/>
@@ -13508,54 +13813,56 @@
     </row>
     <row r="137" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C137" s="78">
-        <v>-1050</v>
+        <v>-429</v>
       </c>
       <c r="D137" s="78">
-        <f t="shared" si="118"/>
-        <v>-5719</v>
+        <f t="shared" si="117"/>
+        <v>-51</v>
       </c>
       <c r="E137" s="78">
-        <v>-1502</v>
+        <v>-115</v>
       </c>
       <c r="F137" s="78"/>
-      <c r="G137" s="78"/>
+      <c r="G137" s="78">
+        <v>-445</v>
+      </c>
       <c r="H137" s="78"/>
       <c r="I137" s="78"/>
       <c r="J137" s="78">
-        <v>-1300</v>
+        <v>244</v>
       </c>
       <c r="K137" s="78">
-        <v>-2028</v>
+        <v>201</v>
       </c>
       <c r="L137" s="78">
-        <v>-3840</v>
+        <v>-26</v>
       </c>
       <c r="M137" s="78">
-        <v>-20827</v>
+        <v>-406</v>
       </c>
       <c r="N137" s="78">
-        <v>-5586</v>
+        <v>49</v>
       </c>
       <c r="O137" s="78">
-        <v>-5640</v>
+        <v>-564</v>
       </c>
       <c r="P137" s="78">
-        <v>-10633</v>
+        <v>-283</v>
       </c>
       <c r="Q137" s="78">
-        <v>-4843</v>
+        <v>229</v>
       </c>
       <c r="R137" s="78">
-        <v>-3044</v>
+        <v>-117</v>
       </c>
       <c r="S137" s="78">
-        <v>-6769</v>
+        <v>-480</v>
       </c>
       <c r="T137" s="78">
-        <v>-4826</v>
+        <v>-128</v>
       </c>
       <c r="U137" s="78"/>
       <c r="V137" s="78"/>
@@ -13575,54 +13882,56 @@
     </row>
     <row r="138" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>104</v>
+        <v>340</v>
       </c>
       <c r="C138" s="78">
-        <v>-429</v>
+        <v>0</v>
       </c>
       <c r="D138" s="78">
-        <f t="shared" si="118"/>
-        <v>-51</v>
+        <f t="shared" si="117"/>
+        <v>0</v>
       </c>
       <c r="E138" s="78">
-        <v>-115</v>
+        <v>-366</v>
       </c>
       <c r="F138" s="78"/>
-      <c r="G138" s="78"/>
+      <c r="G138" s="78">
+        <v>-450</v>
+      </c>
       <c r="H138" s="78"/>
       <c r="I138" s="78"/>
       <c r="J138" s="78">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="K138" s="78">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L138" s="78">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="M138" s="78">
-        <v>-406</v>
+        <v>0</v>
       </c>
       <c r="N138" s="78">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="O138" s="78">
-        <v>-564</v>
+        <v>0</v>
       </c>
       <c r="P138" s="78">
-        <v>-283</v>
+        <v>0</v>
       </c>
       <c r="Q138" s="78">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="R138" s="78">
-        <v>-117</v>
+        <v>-2012</v>
       </c>
       <c r="S138" s="78">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="T138" s="78">
-        <v>-128</v>
+        <v>-698</v>
       </c>
       <c r="U138" s="78"/>
       <c r="V138" s="78"/>
@@ -13642,54 +13951,56 @@
     </row>
     <row r="139" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>340</v>
+        <v>105</v>
       </c>
       <c r="C139" s="78">
+        <v>-110</v>
+      </c>
+      <c r="D139" s="78">
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
-      <c r="D139" s="78">
-        <f t="shared" si="118"/>
-        <v>0</v>
-      </c>
       <c r="E139" s="78">
-        <v>-366</v>
+        <v>-93</v>
       </c>
       <c r="F139" s="78"/>
-      <c r="G139" s="78"/>
+      <c r="G139" s="78">
+        <v>-61</v>
+      </c>
       <c r="H139" s="78"/>
       <c r="I139" s="78"/>
       <c r="J139" s="78">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="K139" s="78">
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="L139" s="78">
-        <v>0</v>
+        <v>-64</v>
       </c>
       <c r="M139" s="78">
-        <v>0</v>
+        <v>-205</v>
       </c>
       <c r="N139" s="78">
-        <v>0</v>
+        <v>-139</v>
       </c>
       <c r="O139" s="78">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="P139" s="78">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="Q139" s="78">
-        <v>0</v>
+        <v>-82</v>
       </c>
       <c r="R139" s="78">
-        <v>-2012</v>
+        <v>-80</v>
       </c>
       <c r="S139" s="78">
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="T139" s="78">
-        <v>-698</v>
+        <v>-94</v>
       </c>
       <c r="U139" s="78"/>
       <c r="V139" s="78"/>
@@ -13709,54 +14020,55 @@
     </row>
     <row r="140" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C140" s="78">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="D140" s="78">
-        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="E140" s="78">
-        <v>-93</v>
+        <v>0</v>
       </c>
       <c r="F140" s="78"/>
-      <c r="G140" s="78"/>
+      <c r="G140" s="78">
+        <v>0</v>
+      </c>
       <c r="H140" s="78"/>
       <c r="I140" s="78"/>
       <c r="J140" s="78">
-        <v>-49</v>
+        <v>0</v>
       </c>
       <c r="K140" s="78">
-        <v>-46</v>
+        <v>0</v>
       </c>
       <c r="L140" s="78">
-        <v>-64</v>
+        <v>0</v>
       </c>
       <c r="M140" s="78">
-        <v>-205</v>
+        <v>0</v>
       </c>
       <c r="N140" s="78">
-        <v>-139</v>
+        <v>0</v>
       </c>
       <c r="O140" s="78">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="P140" s="78">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="Q140" s="78">
-        <v>-82</v>
+        <v>1681</v>
       </c>
       <c r="R140" s="78">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="S140" s="78">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="T140" s="78">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="U140" s="78"/>
       <c r="V140" s="78"/>
@@ -13776,7 +14088,7 @@
     </row>
     <row r="141" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C141" s="78">
         <v>0</v>
@@ -13788,7 +14100,9 @@
         <v>0</v>
       </c>
       <c r="F141" s="78"/>
-      <c r="G141" s="78"/>
+      <c r="G141" s="78">
+        <v>0</v>
+      </c>
       <c r="H141" s="78"/>
       <c r="I141" s="78"/>
       <c r="J141" s="78">
@@ -13813,16 +14127,16 @@
         <v>0</v>
       </c>
       <c r="Q141" s="78">
-        <v>1681</v>
+        <v>-6</v>
       </c>
       <c r="R141" s="78">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="S141" s="78">
-        <v>0</v>
+        <v>-59</v>
       </c>
       <c r="T141" s="78">
-        <v>0</v>
+        <v>-56</v>
       </c>
       <c r="U141" s="78"/>
       <c r="V141" s="78"/>
@@ -13842,53 +14156,56 @@
     </row>
     <row r="142" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C142" s="78">
-        <v>0</v>
+        <v>-2479</v>
       </c>
       <c r="D142" s="78">
-        <v>0</v>
+        <f>S142-C142</f>
+        <v>-2576</v>
       </c>
       <c r="E142" s="78">
-        <v>0</v>
+        <v>-2605</v>
       </c>
       <c r="F142" s="78"/>
-      <c r="G142" s="78"/>
+      <c r="G142" s="78">
+        <v>-2609</v>
+      </c>
       <c r="H142" s="78"/>
       <c r="I142" s="78"/>
       <c r="J142" s="78">
-        <v>0</v>
+        <v>-2712</v>
       </c>
       <c r="K142" s="78">
-        <v>0</v>
+        <v>-2770</v>
       </c>
       <c r="L142" s="78">
-        <v>0</v>
+        <v>-2910</v>
       </c>
       <c r="M142" s="78">
-        <v>0</v>
+        <v>-3465</v>
       </c>
       <c r="N142" s="78">
-        <v>0</v>
+        <v>-4347</v>
       </c>
       <c r="O142" s="78">
-        <v>0</v>
+        <v>-4598</v>
       </c>
       <c r="P142" s="78">
-        <v>0</v>
+        <v>-4745</v>
       </c>
       <c r="Q142" s="78">
-        <v>-6</v>
+        <v>-4904</v>
       </c>
       <c r="R142" s="78">
-        <v>-60</v>
+        <v>-4915</v>
       </c>
       <c r="S142" s="78">
-        <v>-59</v>
+        <v>-5055</v>
       </c>
       <c r="T142" s="78">
-        <v>-56</v>
+        <v>-5213</v>
       </c>
       <c r="U142" s="78"/>
       <c r="V142" s="78"/>
@@ -13908,54 +14225,56 @@
     </row>
     <row r="143" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C143" s="78">
-        <v>-2479</v>
+        <v>0</v>
       </c>
       <c r="D143" s="78">
         <f>S143-C143</f>
-        <v>-2576</v>
+        <v>0</v>
       </c>
       <c r="E143" s="78">
-        <v>-2605</v>
+        <v>0</v>
       </c>
       <c r="F143" s="78"/>
-      <c r="G143" s="78"/>
+      <c r="G143" s="78">
+        <v>0</v>
+      </c>
       <c r="H143" s="78"/>
       <c r="I143" s="78"/>
       <c r="J143" s="78">
-        <v>-2712</v>
+        <v>4</v>
       </c>
       <c r="K143" s="78">
-        <v>-2770</v>
+        <v>0</v>
       </c>
       <c r="L143" s="78">
-        <v>-2910</v>
+        <v>0</v>
       </c>
       <c r="M143" s="78">
-        <v>-3465</v>
+        <v>0</v>
       </c>
       <c r="N143" s="78">
-        <v>-4347</v>
+        <v>-11</v>
       </c>
       <c r="O143" s="78">
-        <v>-4598</v>
+        <v>20</v>
       </c>
       <c r="P143" s="78">
-        <v>-4745</v>
+        <v>17</v>
       </c>
       <c r="Q143" s="78">
-        <v>-4904</v>
+        <v>1</v>
       </c>
       <c r="R143" s="78">
-        <v>-4915</v>
+        <v>-1</v>
       </c>
       <c r="S143" s="78">
-        <v>-5055</v>
+        <v>0</v>
       </c>
       <c r="T143" s="78">
-        <v>-5213</v>
+        <v>0</v>
       </c>
       <c r="U143" s="78"/>
       <c r="V143" s="78"/>
@@ -13975,54 +14294,56 @@
     </row>
     <row r="144" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C144" s="78">
-        <v>0</v>
+        <v>-59</v>
       </c>
       <c r="D144" s="78">
         <f>S144-C144</f>
-        <v>0</v>
+        <v>-46</v>
       </c>
       <c r="E144" s="78">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="F144" s="78"/>
-      <c r="G144" s="78"/>
+      <c r="G144" s="78">
+        <v>-63</v>
+      </c>
       <c r="H144" s="78"/>
       <c r="I144" s="78"/>
       <c r="J144" s="78">
-        <v>4</v>
+        <v>-249</v>
       </c>
       <c r="K144" s="78">
-        <v>0</v>
+        <v>-235</v>
       </c>
       <c r="L144" s="78">
-        <v>0</v>
+        <v>-147</v>
       </c>
       <c r="M144" s="78">
-        <v>0</v>
+        <v>-167</v>
       </c>
       <c r="N144" s="78">
-        <v>-11</v>
+        <v>-142</v>
       </c>
       <c r="O144" s="78">
-        <v>20</v>
+        <v>-157</v>
       </c>
       <c r="P144" s="78">
-        <v>17</v>
+        <v>-136</v>
       </c>
       <c r="Q144" s="78">
-        <v>1</v>
+        <v>-150</v>
       </c>
       <c r="R144" s="78">
-        <v>-1</v>
+        <v>-158</v>
       </c>
       <c r="S144" s="78">
-        <v>0</v>
+        <v>-105</v>
       </c>
       <c r="T144" s="78">
-        <v>0</v>
+        <v>-121</v>
       </c>
       <c r="U144" s="78"/>
       <c r="V144" s="78"/>
@@ -14042,54 +14363,59 @@
     </row>
     <row r="145" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C145" s="78">
-        <v>-59</v>
+        <v>-1</v>
       </c>
       <c r="D145" s="78">
         <f>S145-C145</f>
-        <v>-46</v>
+        <v>5</v>
       </c>
       <c r="E145" s="78">
-        <v>-62</v>
+        <v>5</v>
       </c>
       <c r="F145" s="78"/>
-      <c r="G145" s="78"/>
+      <c r="G145" s="78">
+        <v>1</v>
+      </c>
       <c r="H145" s="78"/>
       <c r="I145" s="78"/>
       <c r="J145" s="78">
-        <v>-249</v>
+        <f>-4+4-800+1</f>
+        <v>-799</v>
       </c>
       <c r="K145" s="78">
-        <v>-235</v>
+        <f>-1677+4</f>
+        <v>-1673</v>
       </c>
       <c r="L145" s="78">
-        <v>-147</v>
+        <f>-7-70</f>
+        <v>-77</v>
       </c>
       <c r="M145" s="78">
-        <v>-167</v>
+        <v>6</v>
       </c>
       <c r="N145" s="78">
-        <v>-142</v>
+        <v>4</v>
       </c>
       <c r="O145" s="78">
-        <v>-157</v>
+        <v>3</v>
       </c>
       <c r="P145" s="78">
-        <v>-136</v>
+        <v>2</v>
       </c>
       <c r="Q145" s="78">
-        <v>-150</v>
+        <v>3</v>
       </c>
       <c r="R145" s="78">
-        <v>-158</v>
+        <v>6</v>
       </c>
       <c r="S145" s="78">
-        <v>-105</v>
+        <v>4</v>
       </c>
       <c r="T145" s="78">
-        <v>-121</v>
+        <v>5</v>
       </c>
       <c r="U145" s="78"/>
       <c r="V145" s="78"/>
@@ -14108,58 +14434,74 @@
       <c r="AI145" s="78"/>
     </row>
     <row r="146" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>68</v>
-      </c>
-      <c r="C146" s="78">
-        <v>-1</v>
-      </c>
-      <c r="D146" s="78">
-        <f>S146-C146</f>
-        <v>5</v>
-      </c>
-      <c r="E146" s="78">
-        <v>5</v>
-      </c>
-      <c r="F146" s="78"/>
-      <c r="G146" s="78"/>
-      <c r="H146" s="78"/>
+      <c r="B146" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C146" s="80">
+        <f t="shared" ref="C146:G146" si="118">SUM(C132:C145)</f>
+        <v>-3023</v>
+      </c>
+      <c r="D146" s="80">
+        <f t="shared" si="118"/>
+        <v>-6232</v>
+      </c>
+      <c r="E146" s="80">
+        <f t="shared" si="118"/>
+        <v>-3358</v>
+      </c>
+      <c r="F146" s="80">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="80">
+        <f t="shared" si="118"/>
+        <v>-4117</v>
+      </c>
+      <c r="H146" s="80"/>
       <c r="I146" s="78"/>
-      <c r="J146" s="78">
-        <f>-4+4-800+1</f>
-        <v>-799</v>
-      </c>
-      <c r="K146" s="78">
-        <f>-1677+4</f>
-        <v>-1673</v>
-      </c>
-      <c r="L146" s="78">
-        <f>-7-70</f>
-        <v>-77</v>
-      </c>
-      <c r="M146" s="78">
-        <v>6</v>
-      </c>
-      <c r="N146" s="78">
-        <v>4</v>
-      </c>
-      <c r="O146" s="78">
-        <v>3</v>
-      </c>
-      <c r="P146" s="78">
-        <v>2</v>
-      </c>
-      <c r="Q146" s="78">
-        <v>3</v>
-      </c>
-      <c r="R146" s="78">
-        <v>6</v>
-      </c>
-      <c r="S146" s="78">
-        <v>4</v>
-      </c>
-      <c r="T146" s="78">
-        <v>5</v>
+      <c r="J146" s="80">
+        <f t="shared" ref="J146:M146" si="119">SUM(J132:J145)</f>
+        <v>-3467</v>
+      </c>
+      <c r="K146" s="80">
+        <f t="shared" si="119"/>
+        <v>-219</v>
+      </c>
+      <c r="L146" s="80">
+        <f t="shared" si="119"/>
+        <v>-4229</v>
+      </c>
+      <c r="M146" s="80">
+        <f t="shared" si="119"/>
+        <v>14759</v>
+      </c>
+      <c r="N146" s="80">
+        <f t="shared" ref="N146:R146" si="120">SUM(N132:N145)</f>
+        <v>-9630</v>
+      </c>
+      <c r="O146" s="80">
+        <f t="shared" si="120"/>
+        <v>-8593</v>
+      </c>
+      <c r="P146" s="80">
+        <f>SUM(P132:P145)</f>
+        <v>-7897</v>
+      </c>
+      <c r="Q146" s="80">
+        <f t="shared" si="120"/>
+        <v>-8749</v>
+      </c>
+      <c r="R146" s="80">
+        <f t="shared" si="120"/>
+        <v>-8878</v>
+      </c>
+      <c r="S146" s="80">
+        <f>SUM(S132:S145)</f>
+        <v>-9314</v>
+      </c>
+      <c r="T146" s="80">
+        <f>SUM(T132:T145)</f>
+        <v>-10632</v>
       </c>
       <c r="U146" s="78"/>
       <c r="V146" s="78"/>
@@ -14178,72 +14520,24 @@
       <c r="AI146" s="78"/>
     </row>
     <row r="147" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B147" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C147" s="80">
-        <f t="shared" ref="C147:F147" si="119">SUM(C133:C146)</f>
-        <v>-3023</v>
-      </c>
-      <c r="D147" s="80">
-        <f t="shared" si="119"/>
-        <v>-6232</v>
-      </c>
-      <c r="E147" s="80">
-        <f t="shared" si="119"/>
-        <v>-3358</v>
-      </c>
-      <c r="F147" s="80">
-        <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="G147" s="80"/>
-      <c r="H147" s="80"/>
+      <c r="C147" s="78"/>
+      <c r="D147" s="78"/>
+      <c r="E147" s="78"/>
+      <c r="F147" s="78"/>
+      <c r="G147" s="78"/>
+      <c r="H147" s="78"/>
       <c r="I147" s="78"/>
-      <c r="J147" s="80">
-        <f t="shared" ref="J147:M147" si="120">SUM(J133:J146)</f>
-        <v>-3467</v>
-      </c>
-      <c r="K147" s="80">
-        <f t="shared" si="120"/>
-        <v>-219</v>
-      </c>
-      <c r="L147" s="80">
-        <f t="shared" si="120"/>
-        <v>-4229</v>
-      </c>
-      <c r="M147" s="80">
-        <f t="shared" si="120"/>
-        <v>14759</v>
-      </c>
-      <c r="N147" s="80">
-        <f t="shared" ref="N147:R147" si="121">SUM(N133:N146)</f>
-        <v>-9630</v>
-      </c>
-      <c r="O147" s="80">
-        <f t="shared" si="121"/>
-        <v>-8593</v>
-      </c>
-      <c r="P147" s="80">
-        <f>SUM(P133:P146)</f>
-        <v>-7897</v>
-      </c>
-      <c r="Q147" s="80">
-        <f t="shared" si="121"/>
-        <v>-8749</v>
-      </c>
-      <c r="R147" s="80">
-        <f t="shared" si="121"/>
-        <v>-8878</v>
-      </c>
-      <c r="S147" s="80">
-        <f>SUM(S133:S146)</f>
-        <v>-9314</v>
-      </c>
-      <c r="T147" s="80">
-        <f>SUM(T133:T146)</f>
-        <v>-10632</v>
-      </c>
+      <c r="J147" s="78"/>
+      <c r="K147" s="78"/>
+      <c r="L147" s="78"/>
+      <c r="M147" s="78"/>
+      <c r="N147" s="78"/>
+      <c r="O147" s="78"/>
+      <c r="P147" s="78"/>
+      <c r="Q147" s="78"/>
+      <c r="R147" s="78"/>
+      <c r="S147" s="78"/>
+      <c r="T147" s="78"/>
       <c r="U147" s="78"/>
       <c r="V147" s="78"/>
       <c r="W147" s="78"/>
@@ -14261,24 +14555,58 @@
       <c r="AI147" s="78"/>
     </row>
     <row r="148" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C148" s="78"/>
-      <c r="D148" s="78"/>
-      <c r="E148" s="78"/>
+      <c r="B148" t="s">
+        <v>111</v>
+      </c>
+      <c r="C148" s="78">
+        <v>4</v>
+      </c>
+      <c r="D148" s="78">
+        <f>S148-C148</f>
+        <v>364</v>
+      </c>
+      <c r="E148" s="78">
+        <v>0</v>
+      </c>
       <c r="F148" s="78"/>
-      <c r="G148" s="78"/>
+      <c r="G148" s="78">
+        <v>0</v>
+      </c>
       <c r="H148" s="78"/>
       <c r="I148" s="78"/>
-      <c r="J148" s="78"/>
-      <c r="K148" s="78"/>
-      <c r="L148" s="78"/>
-      <c r="M148" s="78"/>
-      <c r="N148" s="78"/>
-      <c r="O148" s="78"/>
-      <c r="P148" s="78"/>
-      <c r="Q148" s="78"/>
-      <c r="R148" s="78"/>
-      <c r="S148" s="78"/>
-      <c r="T148" s="78"/>
+      <c r="J148" s="78">
+        <v>0</v>
+      </c>
+      <c r="K148" s="78">
+        <v>0</v>
+      </c>
+      <c r="L148" s="78">
+        <v>0</v>
+      </c>
+      <c r="M148" s="78">
+        <v>0</v>
+      </c>
+      <c r="N148" s="78">
+        <v>0</v>
+      </c>
+      <c r="O148" s="78">
+        <v>0</v>
+      </c>
+      <c r="P148" s="78">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="78">
+        <v>0</v>
+      </c>
+      <c r="R148" s="78">
+        <v>-368</v>
+      </c>
+      <c r="S148" s="78">
+        <v>368</v>
+      </c>
+      <c r="T148" s="78">
+        <v>0</v>
+      </c>
       <c r="U148" s="78"/>
       <c r="V148" s="78"/>
       <c r="W148" s="78"/>
@@ -14297,54 +14625,56 @@
     </row>
     <row r="149" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C149" s="78">
-        <v>4</v>
+        <v>-171</v>
       </c>
       <c r="D149" s="78">
         <f>S149-C149</f>
-        <v>364</v>
+        <v>-121</v>
       </c>
       <c r="E149" s="78">
-        <v>0</v>
+        <v>-63</v>
       </c>
       <c r="F149" s="78"/>
-      <c r="G149" s="78"/>
+      <c r="G149" s="78">
+        <v>-144</v>
+      </c>
       <c r="H149" s="78"/>
       <c r="I149" s="78"/>
       <c r="J149" s="78">
-        <v>0</v>
+        <v>-63</v>
       </c>
       <c r="K149" s="78">
-        <v>0</v>
+        <v>-272</v>
       </c>
       <c r="L149" s="78">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M149" s="78">
-        <v>0</v>
+        <v>-391</v>
       </c>
       <c r="N149" s="78">
-        <v>0</v>
+        <v>-138</v>
       </c>
       <c r="O149" s="78">
-        <v>0</v>
+        <v>-57</v>
       </c>
       <c r="P149" s="78">
-        <v>0</v>
+        <v>-253</v>
       </c>
       <c r="Q149" s="78">
-        <v>0</v>
+        <v>-253</v>
       </c>
       <c r="R149" s="78">
-        <v>-368</v>
+        <v>431</v>
       </c>
       <c r="S149" s="78">
-        <v>368</v>
+        <v>-292</v>
       </c>
       <c r="T149" s="78">
-        <v>0</v>
+        <v>-281</v>
       </c>
       <c r="U149" s="78"/>
       <c r="V149" s="78"/>
@@ -14363,55 +14693,74 @@
       <c r="AI149" s="78"/>
     </row>
     <row r="150" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>112</v>
-      </c>
-      <c r="C150" s="78">
-        <v>-171</v>
-      </c>
-      <c r="D150" s="78">
-        <f>S150-C150</f>
-        <v>-121</v>
-      </c>
-      <c r="E150" s="78">
-        <v>-63</v>
-      </c>
-      <c r="F150" s="78"/>
-      <c r="G150" s="78"/>
-      <c r="H150" s="78"/>
+      <c r="B150" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C150" s="80">
+        <f t="shared" ref="C150:G150" si="121">SUM(C148:C149,C146,C131,C121)</f>
+        <v>226</v>
+      </c>
+      <c r="D150" s="80">
+        <f t="shared" si="121"/>
+        <v>1013</v>
+      </c>
+      <c r="E150" s="80">
+        <f t="shared" si="121"/>
+        <v>1177</v>
+      </c>
+      <c r="F150" s="80">
+        <f t="shared" si="121"/>
+        <v>-1522</v>
+      </c>
+      <c r="G150" s="80">
+        <f t="shared" si="121"/>
+        <v>-940</v>
+      </c>
+      <c r="H150" s="80"/>
       <c r="I150" s="78"/>
-      <c r="J150" s="78">
-        <v>-63</v>
-      </c>
-      <c r="K150" s="78">
-        <v>-272</v>
-      </c>
-      <c r="L150" s="78">
-        <v>180</v>
-      </c>
-      <c r="M150" s="78">
-        <v>-391</v>
-      </c>
-      <c r="N150" s="78">
-        <v>-138</v>
-      </c>
-      <c r="O150" s="78">
-        <v>-57</v>
-      </c>
-      <c r="P150" s="78">
-        <v>-253</v>
-      </c>
-      <c r="Q150" s="78">
-        <v>-253</v>
-      </c>
-      <c r="R150" s="78">
-        <v>431</v>
-      </c>
-      <c r="S150" s="78">
-        <v>-292</v>
-      </c>
-      <c r="T150" s="78">
-        <v>-281</v>
+      <c r="J150" s="80">
+        <f t="shared" ref="J150:R150" si="122">SUM(J148:J149,J146,J131,J121)</f>
+        <v>-284</v>
+      </c>
+      <c r="K150" s="80">
+        <f t="shared" si="122"/>
+        <v>283</v>
+      </c>
+      <c r="L150" s="80">
+        <f t="shared" si="122"/>
+        <v>-79</v>
+      </c>
+      <c r="M150" s="80">
+        <f t="shared" si="122"/>
+        <v>1171</v>
+      </c>
+      <c r="N150" s="80">
+        <f t="shared" si="122"/>
+        <v>-494</v>
+      </c>
+      <c r="O150" s="80">
+        <f t="shared" si="122"/>
+        <v>-293</v>
+      </c>
+      <c r="P150" s="80">
+        <f t="shared" si="122"/>
+        <v>853</v>
+      </c>
+      <c r="Q150" s="80">
+        <f t="shared" si="122"/>
+        <v>-425</v>
+      </c>
+      <c r="R150" s="80">
+        <f t="shared" si="122"/>
+        <v>874</v>
+      </c>
+      <c r="S150" s="80">
+        <f>S149+S148+S146+S131+S121</f>
+        <v>1180</v>
+      </c>
+      <c r="T150" s="80">
+        <f>T149+T148+T146+T131+T121</f>
+        <v>587</v>
       </c>
       <c r="U150" s="78"/>
       <c r="V150" s="78"/>
@@ -14430,71 +14779,67 @@
       <c r="AI150" s="78"/>
     </row>
     <row r="151" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B151" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C151" s="80">
-        <f t="shared" ref="C151:F151" si="122">SUM(C149:C150,C147,C132,C122)</f>
-        <v>226</v>
-      </c>
-      <c r="D151" s="80">
-        <f t="shared" si="122"/>
-        <v>1013</v>
-      </c>
-      <c r="E151" s="80">
-        <f t="shared" si="122"/>
-        <v>1177</v>
-      </c>
-      <c r="F151" s="80">
-        <f t="shared" si="122"/>
-        <v>-1522</v>
-      </c>
-      <c r="G151" s="80"/>
-      <c r="H151" s="80"/>
+      <c r="B151" t="s">
+        <v>316</v>
+      </c>
+      <c r="C151" s="78">
+        <v>3337</v>
+      </c>
+      <c r="D151" s="78">
+        <f>C152</f>
+        <v>3563</v>
+      </c>
+      <c r="E151" s="78">
+        <v>4517</v>
+      </c>
+      <c r="F151" s="78"/>
+      <c r="G151" s="78">
+        <v>5104</v>
+      </c>
+      <c r="H151" s="78"/>
       <c r="I151" s="78"/>
-      <c r="J151" s="80">
-        <f t="shared" ref="J151:R151" si="123">SUM(J149:J150,J147,J132,J122)</f>
-        <v>-284</v>
-      </c>
-      <c r="K151" s="80">
+      <c r="J151" s="78">
+        <f t="shared" ref="J151:R151" si="123">J152-J150</f>
+        <v>1652</v>
+      </c>
+      <c r="K151" s="78">
         <f t="shared" si="123"/>
-        <v>283</v>
-      </c>
-      <c r="L151" s="80">
+        <v>1368</v>
+      </c>
+      <c r="L151" s="78">
         <f t="shared" si="123"/>
-        <v>-79</v>
-      </c>
-      <c r="M151" s="80">
+        <v>1730</v>
+      </c>
+      <c r="M151" s="78">
         <f t="shared" si="123"/>
-        <v>1171</v>
-      </c>
-      <c r="N151" s="80">
+        <v>1651</v>
+      </c>
+      <c r="N151" s="78">
         <f t="shared" si="123"/>
-        <v>-494</v>
-      </c>
-      <c r="O151" s="80">
+        <v>2822</v>
+      </c>
+      <c r="O151" s="78">
         <f t="shared" si="123"/>
-        <v>-293</v>
-      </c>
-      <c r="P151" s="80">
+        <v>2328</v>
+      </c>
+      <c r="P151" s="78">
         <f t="shared" si="123"/>
-        <v>853</v>
-      </c>
-      <c r="Q151" s="80">
+        <v>2035</v>
+      </c>
+      <c r="Q151" s="78">
         <f t="shared" si="123"/>
-        <v>-425</v>
-      </c>
-      <c r="R151" s="80">
+        <v>2888</v>
+      </c>
+      <c r="R151" s="78">
         <f t="shared" si="123"/>
-        <v>874</v>
-      </c>
-      <c r="S151" s="80">
-        <f>S150+S149+S147+S132+S122</f>
-        <v>1180</v>
-      </c>
-      <c r="T151" s="80">
-        <f>T150+T149+T147+T132+T122</f>
-        <v>587</v>
+        <v>2463</v>
+      </c>
+      <c r="S151" s="78">
+        <v>3337</v>
+      </c>
+      <c r="T151" s="78">
+        <f>+S152</f>
+        <v>4517</v>
       </c>
       <c r="U151" s="78"/>
       <c r="V151" s="78"/>
@@ -14514,64 +14859,69 @@
     </row>
     <row r="152" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C152" s="78">
-        <v>3337</v>
+        <f>C151+C150</f>
+        <v>3563</v>
       </c>
       <c r="D152" s="78">
-        <f>C153</f>
-        <v>3563</v>
+        <f>D151+D150</f>
+        <v>4576</v>
       </c>
       <c r="E152" s="78">
-        <v>4517</v>
+        <f>E151+E150</f>
+        <v>5694</v>
       </c>
       <c r="F152" s="78"/>
-      <c r="G152" s="78"/>
+      <c r="G152" s="78">
+        <v>4164</v>
+      </c>
       <c r="H152" s="78"/>
       <c r="I152" s="78"/>
       <c r="J152" s="78">
-        <f t="shared" ref="J152:R152" si="124">J153-J151</f>
-        <v>1652</v>
+        <f>K151</f>
+        <v>1368</v>
       </c>
       <c r="K152" s="78">
-        <f t="shared" si="124"/>
-        <v>1368</v>
+        <f>L152</f>
+        <v>1651</v>
       </c>
       <c r="L152" s="78">
-        <f t="shared" si="124"/>
-        <v>1730</v>
+        <f t="shared" ref="L152:R152" si="124">M151</f>
+        <v>1651</v>
       </c>
       <c r="M152" s="78">
         <f t="shared" si="124"/>
-        <v>1651</v>
+        <v>2822</v>
       </c>
       <c r="N152" s="78">
         <f t="shared" si="124"/>
-        <v>2822</v>
+        <v>2328</v>
       </c>
       <c r="O152" s="78">
         <f t="shared" si="124"/>
-        <v>2328</v>
+        <v>2035</v>
       </c>
       <c r="P152" s="78">
         <f t="shared" si="124"/>
-        <v>2035</v>
+        <v>2888</v>
       </c>
       <c r="Q152" s="78">
         <f t="shared" si="124"/>
-        <v>2888</v>
+        <v>2463</v>
       </c>
       <c r="R152" s="78">
         <f t="shared" si="124"/>
-        <v>2463</v>
+        <v>3337</v>
       </c>
       <c r="S152" s="78">
-        <v>3337</v>
+        <f>S151+S150</f>
+        <v>4517</v>
       </c>
       <c r="T152" s="78">
-        <f>+S153</f>
-        <v>4517</v>
+        <f>+T150+T151</f>
+        <v>5104</v>
       </c>
       <c r="U152" s="78"/>
       <c r="V152" s="78"/>
@@ -14590,69 +14940,24 @@
       <c r="AI152" s="78"/>
     </row>
     <row r="153" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>315</v>
-      </c>
-      <c r="C153" s="78">
-        <f>C152+C151</f>
-        <v>3563</v>
-      </c>
-      <c r="D153" s="78">
-        <f>D152+D151</f>
-        <v>4576</v>
-      </c>
-      <c r="E153" s="78">
-        <f>E152+E151</f>
-        <v>5694</v>
-      </c>
+      <c r="C153" s="78"/>
+      <c r="D153" s="78"/>
+      <c r="E153" s="78"/>
       <c r="F153" s="78"/>
       <c r="G153" s="78"/>
       <c r="H153" s="78"/>
       <c r="I153" s="78"/>
-      <c r="J153" s="78">
-        <f>K152</f>
-        <v>1368</v>
-      </c>
-      <c r="K153" s="78">
-        <f>L153</f>
-        <v>1651</v>
-      </c>
-      <c r="L153" s="78">
-        <f t="shared" ref="L153:R153" si="125">M152</f>
-        <v>1651</v>
-      </c>
-      <c r="M153" s="78">
-        <f t="shared" si="125"/>
-        <v>2822</v>
-      </c>
-      <c r="N153" s="78">
-        <f t="shared" si="125"/>
-        <v>2328</v>
-      </c>
-      <c r="O153" s="78">
-        <f t="shared" si="125"/>
-        <v>2035</v>
-      </c>
-      <c r="P153" s="78">
-        <f t="shared" si="125"/>
-        <v>2888</v>
-      </c>
-      <c r="Q153" s="78">
-        <f t="shared" si="125"/>
-        <v>2463</v>
-      </c>
-      <c r="R153" s="78">
-        <f t="shared" si="125"/>
-        <v>3337</v>
-      </c>
-      <c r="S153" s="78">
-        <f>S152+S151</f>
-        <v>4517</v>
-      </c>
-      <c r="T153" s="78">
-        <f>+T151+T152</f>
-        <v>5104</v>
-      </c>
+      <c r="J153" s="78"/>
+      <c r="K153" s="78"/>
+      <c r="L153" s="78"/>
+      <c r="M153" s="78"/>
+      <c r="N153" s="78"/>
+      <c r="O153" s="78"/>
+      <c r="P153" s="78"/>
+      <c r="Q153" s="78"/>
+      <c r="R153" s="78"/>
+      <c r="S153" s="78"/>
+      <c r="T153" s="78"/>
       <c r="U153" s="78"/>
       <c r="V153" s="78"/>
       <c r="W153" s="78"/>
@@ -15195,39 +15500,24 @@
       <c r="AI168" s="78"/>
     </row>
     <row r="169" spans="3:35" x14ac:dyDescent="0.25">
-      <c r="C169" s="78"/>
-      <c r="D169" s="78"/>
-      <c r="E169" s="78"/>
-      <c r="F169" s="78"/>
-      <c r="G169" s="78"/>
-      <c r="H169" s="78"/>
-      <c r="I169" s="78"/>
-      <c r="J169" s="78"/>
-      <c r="K169" s="78"/>
-      <c r="L169" s="78"/>
-      <c r="M169" s="78"/>
-      <c r="N169" s="78"/>
-      <c r="O169" s="78"/>
-      <c r="P169" s="78"/>
-      <c r="Q169" s="78"/>
-      <c r="R169" s="78"/>
-      <c r="S169" s="78"/>
-      <c r="T169" s="78"/>
-      <c r="U169" s="78"/>
-      <c r="V169" s="78"/>
-      <c r="W169" s="78"/>
-      <c r="X169" s="78"/>
-      <c r="Y169" s="78"/>
-      <c r="Z169" s="78"/>
-      <c r="AA169" s="78"/>
-      <c r="AB169" s="78"/>
-      <c r="AC169" s="78"/>
-      <c r="AD169" s="78"/>
-      <c r="AE169" s="78"/>
-      <c r="AF169" s="78"/>
-      <c r="AG169" s="78"/>
-      <c r="AH169" s="78"/>
-      <c r="AI169" s="78"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="3"/>
+      <c r="T169" s="3"/>
     </row>
     <row r="170" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C170" s="3"/>
@@ -16028,26 +16318,6 @@
       <c r="R209" s="3"/>
       <c r="S209" s="3"/>
       <c r="T209" s="3"/>
-    </row>
-    <row r="210" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="J210" s="3"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="3"/>
-      <c r="M210" s="3"/>
-      <c r="N210" s="3"/>
-      <c r="O210" s="3"/>
-      <c r="P210" s="3"/>
-      <c r="Q210" s="3"/>
-      <c r="R210" s="3"/>
-      <c r="S210" s="3"/>
-      <c r="T210" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16147,47 +16417,47 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="e">
-        <f>Model!J43/AVERAGE(Model!J92,Model!#REF!)</f>
+        <f>Model!J43/AVERAGE(Model!J91,Model!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E4" s="8">
-        <f>Model!K43/AVERAGE(Model!K92,Model!J92)</f>
+        <f>Model!K43/AVERAGE(Model!K91,Model!J91)</f>
         <v>0.83385579937304077</v>
       </c>
       <c r="F4" s="8">
-        <f>Model!L43/AVERAGE(Model!L92,Model!K92)</f>
+        <f>Model!L43/AVERAGE(Model!L91,Model!K91)</f>
         <v>0.72019645780622121</v>
       </c>
       <c r="G4" s="8">
-        <f>Model!M43/AVERAGE(Model!M92,Model!L92)</f>
+        <f>Model!M43/AVERAGE(Model!M91,Model!L91)</f>
         <v>0.61867726696624037</v>
       </c>
       <c r="H4" s="8">
-        <f>Model!N43/AVERAGE(Model!N92,Model!M92)</f>
+        <f>Model!N43/AVERAGE(Model!N91,Model!M91)</f>
         <v>9.8016004545669777E-2</v>
       </c>
       <c r="I4" s="8">
-        <f>Model!O43/AVERAGE(Model!O92,Model!N92)</f>
+        <f>Model!O43/AVERAGE(Model!O91,Model!N91)</f>
         <v>9.0089951327706239E-2</v>
       </c>
       <c r="J4" s="8">
-        <f>Model!P43/AVERAGE(Model!P92,Model!O92)</f>
+        <f>Model!P43/AVERAGE(Model!P91,Model!O91)</f>
         <v>0.10327656059473705</v>
       </c>
       <c r="K4" s="8">
-        <f>Model!Q43/AVERAGE(Model!Q92,Model!P92)</f>
+        <f>Model!Q43/AVERAGE(Model!Q91,Model!P91)</f>
         <v>0.10699929424038786</v>
       </c>
       <c r="L4" s="8">
-        <f>Model!R43/AVERAGE(Model!R92,Model!Q92)</f>
+        <f>Model!R43/AVERAGE(Model!R91,Model!Q91)</f>
         <v>9.5673987324524326E-2</v>
       </c>
       <c r="M4" s="8">
-        <f>Model!S43/AVERAGE(Model!S92,Model!R92)</f>
+        <f>Model!S43/AVERAGE(Model!S91,Model!R91)</f>
         <v>-0.22059326513479058</v>
       </c>
       <c r="N4" s="8">
-        <f>Model!T43/AVERAGE(Model!T92,Model!S92)</f>
+        <f>Model!T43/AVERAGE(Model!T91,Model!S91)</f>
         <v>6.1809596906605521E-2</v>
       </c>
       <c r="P4" s="8" t="e">
@@ -16205,47 +16475,47 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="e">
-        <f>Model!J38/AVERAGE(Model!J74+Model!J75+Model!J76+Model!J77-Model!J103-Model!J97,Model!#REF!+Model!#REF!+Model!#REF!+Model!#REF!-Model!#REF!-Model!#REF!)</f>
+        <f>Model!J38/AVERAGE(Model!J74+Model!J75+Model!J76+Model!J77-Model!J102-Model!J96,Model!#REF!+Model!#REF!+Model!#REF!+Model!#REF!-Model!#REF!-Model!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E5" s="8">
-        <f>Model!K38/AVERAGE(Model!K74+Model!K75+Model!K76+Model!K77-Model!K103-Model!K97,Model!J74+Model!J75+Model!J76+Model!J77-Model!J97-Model!J103)</f>
+        <f>Model!K38/AVERAGE(Model!K74+Model!K75+Model!K76+Model!K77-Model!K102-Model!K96,Model!J74+Model!J75+Model!J76+Model!J77-Model!J96-Model!J102)</f>
         <v>0.22413496298846616</v>
       </c>
       <c r="F5" s="8">
-        <f>Model!L38/AVERAGE(Model!L74+Model!L75+Model!L76+Model!L77-Model!L103-Model!L97,Model!K74+Model!K75+Model!K76+Model!K77-Model!K97-Model!K103)</f>
+        <f>Model!L38/AVERAGE(Model!L74+Model!L75+Model!L76+Model!L77-Model!L102-Model!L96,Model!K74+Model!K75+Model!K76+Model!K77-Model!K96-Model!K102)</f>
         <v>0.18216682646212848</v>
       </c>
       <c r="G5" s="8">
-        <f>Model!M38/AVERAGE(Model!M74+Model!M75+Model!M76+Model!M77-Model!M103-Model!M97,Model!L74+Model!L75+Model!L76+Model!L77-Model!L97-Model!L103)</f>
+        <f>Model!M38/AVERAGE(Model!M74+Model!M75+Model!M76+Model!M77-Model!M102-Model!M96,Model!L74+Model!L75+Model!L76+Model!L77-Model!L96-Model!L102)</f>
         <v>8.2850910579610942E-2</v>
       </c>
       <c r="H5" s="8">
-        <f>Model!N38/AVERAGE(Model!N74+Model!N75+Model!N76+Model!N77-Model!N103-Model!N97,Model!M74+Model!M75+Model!M76+Model!M77-Model!M97-Model!M103)</f>
+        <f>Model!N38/AVERAGE(Model!N74+Model!N75+Model!N76+Model!N77-Model!N102-Model!N96,Model!M74+Model!M75+Model!M76+Model!M77-Model!M96-Model!M102)</f>
         <v>7.1849588791680172E-2</v>
       </c>
       <c r="I5" s="8">
-        <f>Model!O38/AVERAGE(Model!O74+Model!O75+Model!O76+Model!O77-Model!O103-Model!O97,Model!N74+Model!N75+Model!N76+Model!N77-Model!N97-Model!N103)</f>
+        <f>Model!O38/AVERAGE(Model!O74+Model!O75+Model!O76+Model!O77-Model!O102-Model!O96,Model!N74+Model!N75+Model!N76+Model!N77-Model!N96-Model!N102)</f>
         <v>6.9629417965718171E-2</v>
       </c>
       <c r="J5" s="8">
-        <f>Model!P38/AVERAGE(Model!P74+Model!P75+Model!P76+Model!P77-Model!P103-Model!P97,Model!O74+Model!O75+Model!O76+Model!O77-Model!O97-Model!O103)</f>
+        <f>Model!P38/AVERAGE(Model!P74+Model!P75+Model!P76+Model!P77-Model!P102-Model!P96,Model!O74+Model!O75+Model!O76+Model!O77-Model!O96-Model!O102)</f>
         <v>7.9569325633591328E-2</v>
       </c>
       <c r="K5" s="8">
-        <f>Model!Q38/AVERAGE(Model!Q74+Model!Q75+Model!Q76+Model!Q77-Model!Q103-Model!Q97,Model!P74+Model!P75+Model!P76+Model!P77-Model!P97-Model!P103)</f>
+        <f>Model!Q38/AVERAGE(Model!Q74+Model!Q75+Model!Q76+Model!Q77-Model!Q102-Model!Q96,Model!P74+Model!P75+Model!P76+Model!P77-Model!P96-Model!P102)</f>
         <v>8.304627431886881E-2</v>
       </c>
       <c r="L5" s="8">
-        <f>Model!R38/AVERAGE(Model!R74+Model!R75+Model!R76+Model!R77-Model!R103-Model!R97,Model!Q74+Model!Q75+Model!Q76+Model!Q77-Model!Q97-Model!Q103)</f>
+        <f>Model!R38/AVERAGE(Model!R74+Model!R75+Model!R76+Model!R77-Model!R102-Model!R96,Model!Q74+Model!Q75+Model!Q76+Model!Q77-Model!Q96-Model!Q102)</f>
         <v>8.0860006838867821E-2</v>
       </c>
       <c r="M5" s="8">
-        <f>Model!S38/AVERAGE(Model!S74+Model!S75+Model!S76+Model!S77-Model!S103-Model!S97,Model!R74+Model!R75+Model!R76+Model!R77-Model!R97-Model!R103)</f>
+        <f>Model!S38/AVERAGE(Model!S74+Model!S75+Model!S76+Model!S77-Model!S102-Model!S96,Model!R74+Model!R75+Model!R76+Model!R77-Model!R96-Model!R102)</f>
         <v>-0.13147801117700825</v>
       </c>
       <c r="N5" s="8">
-        <f>Model!T38/AVERAGE(Model!T74+Model!T75+Model!T76+Model!T77-Model!T103-Model!T97,Model!S74+Model!S75+Model!S76+Model!S77-Model!S97-Model!S103)</f>
+        <f>Model!T38/AVERAGE(Model!T74+Model!T75+Model!T76+Model!T77-Model!T102-Model!T96,Model!S74+Model!S75+Model!S76+Model!S77-Model!S96-Model!S102)</f>
         <v>2.6650432241568246E-2</v>
       </c>
       <c r="P5" s="8" t="e">
@@ -16263,47 +16533,47 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="e">
-        <f>(Model!J38*(1-Model!J64))/AVERAGE(Model!J92+Model!J93+Model!J100+Model!J104+Model!J98-Model!J80,Model!#REF!+Model!#REF!+Model!#REF!+Model!#REF!+Model!#REF!-Model!#REF!)</f>
+        <f>(Model!J38*(1-Model!J64))/AVERAGE(Model!J91+Model!J92+Model!J99+Model!J103+Model!J97-Model!J80,Model!#REF!+Model!#REF!+Model!#REF!+Model!#REF!+Model!#REF!-Model!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="E6" s="8">
-        <f>(Model!K38*(1-Model!K64))/AVERAGE(Model!K92+Model!K93+Model!K100+Model!K104+Model!K98-Model!K80,Model!J92+Model!J93+Model!J98+Model!J100+Model!J104-Model!J80)</f>
+        <f>(Model!K38*(1-Model!K64))/AVERAGE(Model!K91+Model!K92+Model!K99+Model!K103+Model!K97-Model!K80,Model!J91+Model!J92+Model!J97+Model!J99+Model!J103-Model!J80)</f>
         <v>0.19081127241673781</v>
       </c>
       <c r="F6" s="8">
-        <f>(Model!L38*(1-Model!L64))/AVERAGE(Model!L92+Model!L93+Model!L100+Model!L104+Model!L98-Model!L80,Model!K92+Model!K93+Model!K98+Model!K100+Model!K104-Model!K80)</f>
+        <f>(Model!L38*(1-Model!L64))/AVERAGE(Model!L91+Model!L92+Model!L99+Model!L103+Model!L97-Model!L80,Model!K91+Model!K92+Model!K97+Model!K99+Model!K103-Model!K80)</f>
         <v>0.15430239468782417</v>
       </c>
       <c r="G6" s="8">
-        <f>(Model!M38*(1-Model!M64))/AVERAGE(Model!M92+Model!M93+Model!M100+Model!M104+Model!M98-Model!M80,Model!L92+Model!L93+Model!L98+Model!L100+Model!L104-Model!L80)</f>
+        <f>(Model!M38*(1-Model!M64))/AVERAGE(Model!M91+Model!M92+Model!M99+Model!M103+Model!M97-Model!M80,Model!L91+Model!L92+Model!L97+Model!L99+Model!L103-Model!L80)</f>
         <v>7.0269498658253798E-2</v>
       </c>
       <c r="H6" s="8">
-        <f>(Model!N38*(1-Model!N64))/AVERAGE(Model!N92+Model!N93+Model!N100+Model!N104+Model!N98-Model!N80,Model!M92+Model!M93+Model!M98+Model!M100+Model!M104-Model!M80)</f>
+        <f>(Model!N38*(1-Model!N64))/AVERAGE(Model!N91+Model!N92+Model!N99+Model!N103+Model!N97-Model!N80,Model!M91+Model!M92+Model!M97+Model!M99+Model!M103-Model!M80)</f>
         <v>6.3381373948219105E-2</v>
       </c>
       <c r="I6" s="8">
-        <f>(Model!O38*(1-Model!O64))/AVERAGE(Model!O92+Model!O93+Model!O100+Model!O104+Model!O98-Model!O80,Model!N92+Model!N93+Model!N98+Model!N100+Model!N104-Model!N80)</f>
+        <f>(Model!O38*(1-Model!O64))/AVERAGE(Model!O91+Model!O92+Model!O99+Model!O103+Model!O97-Model!O80,Model!N91+Model!N92+Model!N97+Model!N99+Model!N103-Model!N80)</f>
         <v>6.0986092304235275E-2</v>
       </c>
       <c r="J6" s="8">
-        <f>(Model!P38*(1-Model!P64))/AVERAGE(Model!P92+Model!P93+Model!P100+Model!P104+Model!P98-Model!P80,Model!O92+Model!O93+Model!O98+Model!O100+Model!O104-Model!O80)</f>
+        <f>(Model!P38*(1-Model!P64))/AVERAGE(Model!P91+Model!P92+Model!P99+Model!P103+Model!P97-Model!P80,Model!O91+Model!O92+Model!O97+Model!O99+Model!O103-Model!O80)</f>
         <v>7.1280329315007898E-2</v>
       </c>
       <c r="K6" s="8">
-        <f>(Model!Q38*(1-Model!Q64))/AVERAGE(Model!Q92+Model!Q93+Model!Q100+Model!Q104+Model!Q98-Model!Q80,Model!P92+Model!P93+Model!P98+Model!P100+Model!P104-Model!P80)</f>
+        <f>(Model!Q38*(1-Model!Q64))/AVERAGE(Model!Q91+Model!Q92+Model!Q99+Model!Q103+Model!Q97-Model!Q80,Model!P91+Model!P92+Model!P97+Model!P99+Model!P103-Model!P80)</f>
         <v>7.4656202055359569E-2</v>
       </c>
       <c r="L6" s="8">
-        <f>(Model!R38*(1-Model!R64))/AVERAGE(Model!R92+Model!R93+Model!R100+Model!R104+Model!R98-Model!R80,Model!Q92+Model!Q93+Model!Q98+Model!Q100+Model!Q104-Model!Q80)</f>
+        <f>(Model!R38*(1-Model!R64))/AVERAGE(Model!R91+Model!R92+Model!R99+Model!R103+Model!R97-Model!R80,Model!Q91+Model!Q92+Model!Q97+Model!Q99+Model!Q103-Model!Q80)</f>
         <v>6.9954610738509046E-2</v>
       </c>
       <c r="M6" s="8">
-        <f>(Model!S38*(1-Model!S64))/AVERAGE(Model!S92+Model!S93+Model!S100+Model!S104+Model!S98-Model!S80,Model!R92+Model!R93+Model!R98+Model!R100+Model!R104-Model!R80)</f>
+        <f>(Model!S38*(1-Model!S64))/AVERAGE(Model!S91+Model!S92+Model!S99+Model!S103+Model!S97-Model!S80,Model!R91+Model!R92+Model!R97+Model!R99+Model!R103-Model!R80)</f>
         <v>-0.1279675053980972</v>
       </c>
       <c r="N6" s="8">
-        <f>(Model!T38*(1-Model!T64))/AVERAGE(Model!T92+Model!T93+Model!T100+Model!T104+Model!T98-Model!T80,Model!S92+Model!S93+Model!S98+Model!S100+Model!S104-Model!S80)</f>
+        <f>(Model!T38*(1-Model!T64))/AVERAGE(Model!T91+Model!T92+Model!T99+Model!T103+Model!T97-Model!T80,Model!S91+Model!S92+Model!S97+Model!S99+Model!S103-Model!S80)</f>
         <v>2.886016919578006E-2</v>
       </c>
       <c r="P6" s="8" t="e">
@@ -16321,47 +16591,47 @@
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8">
-        <f>1-(-1*((Model!J143+Model!J145))/Model!J43)</f>
+        <f>1-(-1*((Model!J142+Model!J144))/Model!J43)</f>
         <v>0.12732095490716178</v>
       </c>
       <c r="E7" s="8">
-        <f>1-(-1*((Model!K143+Model!K145))/Model!K43)</f>
+        <f>1-(-1*((Model!K142+Model!K144))/Model!K43)</f>
         <v>0.33547103051747018</v>
       </c>
       <c r="F7" s="8">
-        <f>1-(-1*((Model!L143+Model!L145))/Model!L43)</f>
+        <f>1-(-1*((Model!L142+Model!L144))/Model!L43)</f>
         <v>0.36825790452572849</v>
       </c>
       <c r="G7" s="8">
-        <f>1-(-1*((Model!M143+Model!M145))/Model!M43)</f>
+        <f>1-(-1*((Model!M142+Model!M144))/Model!M43)</f>
         <v>0.83089673153924948</v>
       </c>
       <c r="H7" s="8">
-        <f>1-(-1*((Model!N143+Model!N145))/Model!N43)</f>
+        <f>1-(-1*((Model!N142+Model!N144))/Model!N43)</f>
         <v>0.27713365539452495</v>
       </c>
       <c r="I7" s="8">
-        <f>1-(-1*((Model!O143+Model!O145))/Model!O43)</f>
+        <f>1-(-1*((Model!O142+Model!O144))/Model!O43)</f>
         <v>0.18704051974696534</v>
       </c>
       <c r="J7" s="8">
-        <f>1-(-1*((Model!P143+Model!P145))/Model!P43)</f>
+        <f>1-(-1*((Model!P142+Model!P144))/Model!P43)</f>
         <v>0.25639853747714803</v>
       </c>
       <c r="K7" s="8">
-        <f>1-(-1*((Model!Q143+Model!Q145))/Model!Q43)</f>
+        <f>1-(-1*((Model!Q142+Model!Q144))/Model!Q43)</f>
         <v>0.27530828792658446</v>
       </c>
       <c r="L7" s="8">
-        <f>1-(-1*((Model!R143+Model!R145))/Model!R43)</f>
+        <f>1-(-1*((Model!R142+Model!R144))/Model!R43)</f>
         <v>0.25898334794040312</v>
       </c>
       <c r="M7" s="8">
-        <f>1-(-1*((Model!S143+Model!S145))/Model!S43)</f>
+        <f>1-(-1*((Model!S142+Model!S144))/Model!S43)</f>
         <v>1.3636619916836987</v>
       </c>
       <c r="N7" s="8">
-        <f>1-(-1*((Model!T143+Model!T145))/Model!T43)</f>
+        <f>1-(-1*((Model!T142+Model!T144))/Model!T43)</f>
         <v>-0.67683118516189866</v>
       </c>
       <c r="P7" s="8">
@@ -16437,47 +16707,47 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8">
-        <f>(-1*(Model!J118-Model!J124))/(Model!J38*(1-Model!J64))</f>
+        <f>(-1*(Model!J117-Model!J123))/(Model!J38*(1-Model!J64))</f>
         <v>-1.4143660850883571E-2</v>
       </c>
       <c r="E9" s="8">
-        <f>(-1*(Model!K118-Model!K124))/(Model!K38*(1-Model!K64))</f>
+        <f>(-1*(Model!K117-Model!K123))/(Model!K38*(1-Model!K64))</f>
         <v>-0.2577060414270001</v>
       </c>
       <c r="F9" s="8">
-        <f>(-1*(Model!L118-Model!L124))/(Model!L38*(1-Model!L64))</f>
+        <f>(-1*(Model!L117-Model!L123))/(Model!L38*(1-Model!L64))</f>
         <v>-6.0161252480239659E-2</v>
       </c>
       <c r="G9" s="8">
-        <f>(-1*(Model!M118-Model!M124))/(Model!M38*(1-Model!M64))</f>
+        <f>(-1*(Model!M117-Model!M123))/(Model!M38*(1-Model!M64))</f>
         <v>0.11786062196397755</v>
       </c>
       <c r="H9" s="8">
-        <f>(-1*(Model!N118-Model!N124))/(Model!N38*(1-Model!N64))</f>
+        <f>(-1*(Model!N117-Model!N123))/(Model!N38*(1-Model!N64))</f>
         <v>-0.33904346131574087</v>
       </c>
       <c r="I9" s="8">
-        <f>(-1*(Model!O118-Model!O124))/(Model!O38*(1-Model!O64))</f>
+        <f>(-1*(Model!O117-Model!O123))/(Model!O38*(1-Model!O64))</f>
         <v>-0.14673361223443043</v>
       </c>
       <c r="J9" s="8">
-        <f>(-1*(Model!P118-Model!P124))/(Model!P38*(1-Model!P64))</f>
+        <f>(-1*(Model!P117-Model!P123))/(Model!P38*(1-Model!P64))</f>
         <v>-8.222347908034687E-2</v>
       </c>
       <c r="K9" s="8">
-        <f>(-1*(Model!Q118-Model!Q124))/(Model!Q38*(1-Model!Q64))</f>
+        <f>(-1*(Model!Q117-Model!Q123))/(Model!Q38*(1-Model!Q64))</f>
         <v>-5.9698481402685057E-2</v>
       </c>
       <c r="L9" s="8">
-        <f>(-1*(Model!R118-Model!R124))/(Model!R38*(1-Model!R64))</f>
+        <f>(-1*(Model!R117-Model!R123))/(Model!R38*(1-Model!R64))</f>
         <v>-8.1021472684140894E-2</v>
       </c>
       <c r="M9" s="8">
-        <f>(-1*(Model!S118-Model!S124))/(Model!S38*(1-Model!S64))</f>
+        <f>(-1*(Model!S117-Model!S123))/(Model!S38*(1-Model!S64))</f>
         <v>-6.870479881065782E-4</v>
       </c>
       <c r="N9" s="8">
-        <f>(-1*(Model!T118-Model!T124))/(Model!T38*(1-Model!T64))</f>
+        <f>(-1*(Model!T117-Model!T123))/(Model!T38*(1-Model!T64))</f>
         <v>-2.5456056703636909</v>
       </c>
       <c r="P9" s="8">
@@ -16561,47 +16831,47 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8">
-        <f>Model!J92/Model!J107</f>
+        <f>Model!J91/Model!J106</f>
         <v>0.2221882523789506</v>
       </c>
       <c r="E14" s="8">
-        <f>Model!K92/Model!K107</f>
+        <f>Model!K91/Model!K106</f>
         <v>0.15966999841345392</v>
       </c>
       <c r="F14" s="8">
-        <f>Model!L92/Model!L107</f>
+        <f>Model!L91/Model!L106</f>
         <v>0.21134940788977447</v>
       </c>
       <c r="G14" s="8">
-        <f>Model!M92/Model!M107</f>
+        <f>Model!M91/Model!M106</f>
         <v>0.43269189863724672</v>
       </c>
       <c r="H14" s="8">
-        <f>Model!N92/Model!N107</f>
+        <f>Model!N91/Model!N106</f>
         <v>0.44886635415670145</v>
       </c>
       <c r="I14" s="8">
-        <f>Model!O92/Model!O107</f>
+        <f>Model!O91/Model!O106</f>
         <v>0.45501932555583136</v>
       </c>
       <c r="J14" s="8">
-        <f>Model!P92/Model!P107</f>
+        <f>Model!P91/Model!P106</f>
         <v>0.45722274674994551</v>
       </c>
       <c r="K14" s="8">
-        <f>Model!Q92/Model!Q107</f>
+        <f>Model!Q91/Model!Q106</f>
         <v>0.49067084046154408</v>
       </c>
       <c r="L14" s="8">
-        <f>Model!R92/Model!R107</f>
+        <f>Model!R91/Model!R106</f>
         <v>0.49307699321376003</v>
       </c>
       <c r="M14" s="8">
-        <f>Model!S92/Model!S107</f>
+        <f>Model!S91/Model!S106</f>
         <v>0.44588766467872909</v>
       </c>
       <c r="N14" s="8">
-        <f>Model!T92/Model!T107</f>
+        <f>Model!T91/Model!T106</f>
         <v>0.42048293089092426</v>
       </c>
       <c r="P14" s="8">
@@ -16619,48 +16889,48 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8">
-        <f>D32/Model!J92</f>
+        <f>D32/Model!J91</f>
         <v>1.7901616787065704</v>
       </c>
       <c r="E15" s="8">
-        <f>E32/Model!K92</f>
+        <f>E32/Model!K91</f>
         <v>2.9844992050874404</v>
       </c>
       <c r="F15" s="8">
-        <f>F32/Model!L92</f>
+        <f>F32/Model!L91</f>
         <v>2.0547228170354508</v>
       </c>
       <c r="G15" s="8">
-        <f>G32/Model!M92</f>
+        <f>G32/Model!M91</f>
         <v>0.75630059318978793</v>
       </c>
       <c r="H15" s="8">
-        <f>H32/Model!N92</f>
+        <f>H32/Model!N91</f>
         <v>0.68356473023992204</v>
       </c>
       <c r="I15" s="8">
-        <f>I32/Model!O92</f>
+        <f>I32/Model!O91</f>
         <v>0.6676589775561097</v>
       </c>
       <c r="J15" s="8">
-        <f>J32/Model!P92</f>
+        <f>J32/Model!P91</f>
         <v>0.64849495671511392</v>
       </c>
       <c r="K15" s="8">
-        <f>K32/Model!Q92</f>
+        <f>K32/Model!Q91</f>
         <v>0.54652008130443164</v>
       </c>
       <c r="L15" s="8">
-        <f>L32/Model!R92</f>
+        <f>L32/Model!R91</f>
         <v>0.51414608374058912</v>
       </c>
       <c r="M15" s="8">
-        <f>M32/Model!S92</f>
+        <f>M32/Model!S91</f>
         <v>0.66227755317943104</v>
       </c>
       <c r="N15" s="8">
-        <f>N32/Model!T92</f>
-        <v>0.63312331233123309</v>
+        <f>N32/Model!T91</f>
+        <v>0.61614161416141611</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" ref="P15:P16" si="7">AVERAGE(C15:M15)</f>
@@ -16677,47 +16947,47 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8">
-        <f>Model!J38/((Model!J133+Model!J134)*-1)</f>
+        <f>Model!J38/((Model!J132+Model!J133)*-1)</f>
         <v>7.9614711033274954</v>
       </c>
       <c r="E16" s="8">
-        <f>Model!K38/((Model!K133+Model!K134)*-1)</f>
+        <f>Model!K38/((Model!K132+Model!K133)*-1)</f>
         <v>7.6331658291457289</v>
       </c>
       <c r="F16" s="8">
-        <f>Model!L38/((Model!L133+Model!L134)*-1)</f>
+        <f>Model!L38/((Model!L132+Model!L133)*-1)</f>
         <v>7.2620904836193452</v>
       </c>
       <c r="G16" s="8">
-        <f>Model!M38/((Model!M133+Model!M134)*-1)</f>
+        <f>Model!M38/((Model!M132+Model!M133)*-1)</f>
         <v>5.8132854578096946</v>
       </c>
       <c r="H16" s="8">
-        <f>Model!N38/((Model!N133+Model!N134)*-1)</f>
+        <f>Model!N38/((Model!N132+Model!N133)*-1)</f>
         <v>5.9737010904425913</v>
       </c>
       <c r="I16" s="8">
-        <f>Model!O38/((Model!O133+Model!O134)*-1)</f>
+        <f>Model!O38/((Model!O132+Model!O133)*-1)</f>
         <v>5.52112676056338</v>
       </c>
       <c r="J16" s="8">
-        <f>Model!P38/((Model!P133+Model!P134)*-1)</f>
+        <f>Model!P38/((Model!P132+Model!P133)*-1)</f>
         <v>5.6505955757231989</v>
       </c>
       <c r="K16" s="8">
-        <f>Model!Q38/((Model!Q133+Model!Q134)*-1)</f>
+        <f>Model!Q38/((Model!Q132+Model!Q133)*-1)</f>
         <v>6.8135818908122507</v>
       </c>
       <c r="L16" s="8">
-        <f>Model!R38/((Model!R133+Model!R134)*-1)</f>
+        <f>Model!R38/((Model!R132+Model!R133)*-1)</f>
         <v>6.5645664379288835</v>
       </c>
       <c r="M16" s="8">
-        <f>Model!S38/((Model!S133+Model!S134)*-1)</f>
+        <f>Model!S38/((Model!S132+Model!S133)*-1)</f>
         <v>-9.2003504672897201</v>
       </c>
       <c r="N16" s="8">
-        <f>Model!T38/((Model!T133+Model!T134)*-1)</f>
+        <f>Model!T38/((Model!T132+Model!T133)*-1)</f>
         <v>1.5724137931034483</v>
       </c>
       <c r="P16" s="8">
@@ -16735,48 +17005,48 @@
       </c>
       <c r="C17" s="62"/>
       <c r="D17" s="62">
-        <f>D32/(Model!J38+Model!J110)</f>
+        <f>D32/(Model!J38+Model!J109)</f>
         <v>2.0532649437758925</v>
       </c>
       <c r="E17" s="62">
-        <f>E32/(Model!K38+Model!K110)</f>
+        <f>E32/(Model!K38+Model!K109)</f>
         <v>3.0126379137412238</v>
       </c>
       <c r="F17" s="62">
-        <f>F32/(Model!L38+Model!L110)</f>
+        <f>F32/(Model!L38+Model!L109)</f>
         <v>3.282402128468263</v>
       </c>
       <c r="G17" s="62">
-        <f>G32/(Model!M38+Model!M110)</f>
+        <f>G32/(Model!M38+Model!M109)</f>
         <v>6.2556248305773918</v>
       </c>
       <c r="H17" s="62">
-        <f>H32/(Model!N38+Model!N110)</f>
+        <f>H32/(Model!N38+Model!N109)</f>
         <v>4.3379383634431452</v>
       </c>
       <c r="I17" s="62">
-        <f>I32/(Model!O38+Model!O110)</f>
+        <f>I32/(Model!O38+Model!O109)</f>
         <v>4.0688639817629175</v>
       </c>
       <c r="J17" s="62">
-        <f>J32/(Model!P38+Model!P110)</f>
+        <f>J32/(Model!P38+Model!P109)</f>
         <v>3.5774623203645284</v>
       </c>
       <c r="K17" s="62">
-        <f>K32/(Model!Q38+Model!Q110)</f>
+        <f>K32/(Model!Q38+Model!Q109)</f>
         <v>3.2569407603890363</v>
       </c>
       <c r="L17" s="62">
-        <f>L32/(Model!R38+Model!R110)</f>
+        <f>L32/(Model!R38+Model!R109)</f>
         <v>3.2910043963476499</v>
       </c>
       <c r="M17" s="62">
-        <f>M32/(Model!S38+Model!S110)</f>
+        <f>M32/(Model!S38+Model!S109)</f>
         <v>2.725413978076654</v>
       </c>
       <c r="N17" s="62">
-        <f>N32/(Model!T38+Model!T110)</f>
-        <v>5.4228199417508991</v>
+        <f>N32/(Model!T38+Model!T109)</f>
+        <v>5.2773685112215176</v>
       </c>
       <c r="P17" s="62">
         <f>AVERAGE(C17:M17)</f>
@@ -16918,47 +17188,47 @@
       </c>
       <c r="C22" s="52"/>
       <c r="D22" s="52">
-        <f>Model!J103/Model!J29*360</f>
+        <f>Model!J102/Model!J29*360</f>
         <v>142.34056259394458</v>
       </c>
       <c r="E22" s="52">
-        <f>Model!K103/Model!K29*360</f>
+        <f>Model!K102/Model!K29*360</f>
         <v>163.10439560439559</v>
       </c>
       <c r="F22" s="52">
-        <f>Model!L103/Model!L29*360</f>
+        <f>Model!L102/Model!L29*360</f>
         <v>179.01159243441123</v>
       </c>
       <c r="G22" s="52">
-        <f>Model!M103/Model!M29*360</f>
+        <f>Model!M102/Model!M29*360</f>
         <v>156.95446481371968</v>
       </c>
       <c r="H22" s="52">
-        <f>Model!N103/Model!N29*360</f>
+        <f>Model!N102/Model!N29*360</f>
         <v>156.26163645271927</v>
       </c>
       <c r="I22" s="52">
-        <f>Model!O103/Model!O29*360</f>
+        <f>Model!O102/Model!O29*360</f>
         <v>135.3217142636318</v>
       </c>
       <c r="J22" s="52">
-        <f>Model!P103/Model!P29*360</f>
+        <f>Model!P102/Model!P29*360</f>
         <v>135.37709497206706</v>
       </c>
       <c r="K22" s="52">
-        <f>Model!Q103/Model!Q29*360</f>
+        <f>Model!Q102/Model!Q29*360</f>
         <v>134.23610029590407</v>
       </c>
       <c r="L22" s="52">
-        <f>Model!R103/Model!R29*360</f>
+        <f>Model!R102/Model!R29*360</f>
         <v>136.02024950280239</v>
       </c>
       <c r="M22" s="52">
-        <f>Model!S103/Model!S29*360</f>
+        <f>Model!S102/Model!S29*360</f>
         <v>127.99178975919071</v>
       </c>
       <c r="N22" s="52">
-        <f>Model!T103/Model!T29*360</f>
+        <f>Model!T102/Model!T29*360</f>
         <v>132.91065836780453</v>
       </c>
       <c r="P22" s="62">
@@ -17248,7 +17518,7 @@
       </c>
       <c r="N29" s="20">
         <f>Main!H3</f>
-        <v>33.164999999999999</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -17298,7 +17568,7 @@
       </c>
       <c r="N30" s="20">
         <f>Main!H4</f>
-        <v>2214</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -17348,7 +17618,7 @@
       </c>
       <c r="N31" s="78">
         <f>N30*N29</f>
-        <v>73427.31</v>
+        <v>89295.8</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -17357,48 +17627,48 @@
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20">
-        <f>Model!J93+Model!J100-Model!J80-Model!J81</f>
+        <f>Model!J92+Model!J99-Model!J80-Model!J81</f>
         <v>10408</v>
       </c>
       <c r="E32" s="20">
-        <f>Model!K93+Model!K100-Model!K80-Model!K81</f>
+        <f>Model!K92+Model!K99-Model!K80-Model!K81</f>
         <v>15018</v>
       </c>
       <c r="F32" s="20">
-        <f>Model!L93+Model!L100-Model!L80-Model!L81</f>
+        <f>Model!L92+Model!L99-Model!L80-Model!L81</f>
         <v>17272</v>
       </c>
       <c r="G32" s="20">
-        <f>Model!M93+Model!M100-Model!M80-Model!M81</f>
+        <f>Model!M92+Model!M99-Model!M80-Model!M81</f>
         <v>46154</v>
       </c>
       <c r="H32" s="20">
-        <f>Model!N93+Model!N100-Model!N80-Model!N81</f>
+        <f>Model!N92+Model!N99-Model!N80-Model!N81</f>
         <v>44902</v>
       </c>
       <c r="I32" s="20">
-        <f>Model!O93+Model!O100-Model!O80-Model!O81</f>
+        <f>Model!O92+Model!O99-Model!O80-Model!O81</f>
         <v>42837</v>
       </c>
       <c r="J32" s="20">
-        <f>Model!P93+Model!P100-Model!P80-Model!P81</f>
+        <f>Model!P92+Model!P99-Model!P80-Model!P81</f>
         <v>40826</v>
       </c>
       <c r="K32" s="20">
-        <f>Model!Q93+Model!Q100-Model!Q80-Model!Q81</f>
+        <f>Model!Q92+Model!Q99-Model!Q80-Model!Q81</f>
         <v>36836</v>
       </c>
       <c r="L32" s="20">
-        <f>Model!R93+Model!R100-Model!R80-Model!R81</f>
+        <f>Model!R92+Model!R99-Model!R80-Model!R81</f>
         <v>38926</v>
       </c>
       <c r="M32" s="20">
-        <f>Model!S93+Model!S100-Model!S80-Model!S81</f>
+        <f>Model!S92+Model!S99-Model!S80-Model!S81</f>
         <v>35057</v>
       </c>
       <c r="N32" s="20">
         <f>Main!H7-Main!H6</f>
-        <v>31653</v>
+        <v>30804</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
@@ -17448,7 +17718,7 @@
       </c>
       <c r="N33" s="85">
         <f>N31+N32</f>
-        <v>105080.31</v>
+        <v>120099.8</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
@@ -17517,11 +17787,11 @@
       </c>
       <c r="N36" s="52">
         <f>N31/Model!T43</f>
-        <v>23.083090223200252</v>
+        <v>28.071612700408679</v>
       </c>
       <c r="P36" s="52">
         <f>AVERAGE(N36,C36:L36)</f>
-        <v>15.703120756802075</v>
+        <v>16.201973004522916</v>
       </c>
       <c r="Q36" s="52">
         <f>MEDIAN(N36,C36:L36)</f>
@@ -17572,11 +17842,11 @@
       </c>
       <c r="N37" s="52">
         <f>N32/Model!T44</f>
-        <v>280.11504424778764</v>
+        <v>272.60176991150445</v>
       </c>
       <c r="P37" s="52">
         <f t="shared" ref="P37:P38" si="20">AVERAGE(N37,C37:L37)</f>
-        <v>43.020211428624478</v>
+        <v>42.185403169037457</v>
       </c>
       <c r="Q37" s="52">
         <f t="shared" ref="Q37:Q38" si="21">MEDIAN(N37,C37:L37)</f>
@@ -17590,43 +17860,43 @@
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
       <c r="E38" s="52">
-        <f>F31/Model!K92</f>
+        <f>F31/Model!K91</f>
         <v>20.93677464228935</v>
       </c>
       <c r="F38" s="52">
-        <f>G31/Model!L92</f>
+        <f>G31/Model!L91</f>
         <v>16.289264810849392</v>
       </c>
       <c r="G38" s="52">
-        <f>H31/Model!M92</f>
+        <f>H31/Model!M91</f>
         <v>0.92821338445908308</v>
       </c>
       <c r="H38" s="52">
-        <f>I31/Model!N92</f>
+        <f>I31/Model!N91</f>
         <v>1.1387338631104615</v>
       </c>
       <c r="I38" s="52">
-        <f>J31/Model!O92</f>
+        <f>J31/Model!O91</f>
         <v>0.9847467269326684</v>
       </c>
       <c r="J38" s="52">
-        <f>K31/Model!P92</f>
+        <f>K31/Model!P91</f>
         <v>1.0120851401794932</v>
       </c>
       <c r="K38" s="52">
-        <f>L31/Model!Q92</f>
+        <f>L31/Model!Q91</f>
         <v>1.1186112965683002</v>
       </c>
       <c r="L38" s="52">
-        <f>M31/Model!R92</f>
+        <f>M31/Model!R91</f>
         <v>0.68686527539294673</v>
       </c>
       <c r="M38" s="52">
-        <f>N31/Model!S92</f>
-        <v>1.3871483356632788</v>
+        <f>N31/Model!S91</f>
+        <v>1.6869271167869422</v>
       </c>
       <c r="N38" s="52">
-        <f>O31/Model!T92</f>
+        <f>O31/Model!T91</f>
         <v>0</v>
       </c>
       <c r="P38" s="52">
@@ -17664,52 +17934,52 @@
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="52">
-        <f>D33/(Model!J38+Model!J110)</f>
+        <f>D33/(Model!J38+Model!J109)</f>
         <v>23.30783694884915</v>
       </c>
       <c r="E41" s="52">
-        <f>E33/(Model!K38+Model!K110)</f>
+        <f>E33/(Model!K38+Model!K109)</f>
         <v>23.298222668004012</v>
       </c>
       <c r="F41" s="52">
-        <f>F33/(Model!L38+Model!L110)</f>
+        <f>F33/(Model!L38+Model!L109)</f>
         <v>23.304038388445459</v>
       </c>
       <c r="G41" s="52">
-        <f>G33/(Model!M38+Model!M110)</f>
+        <f>G33/(Model!M38+Model!M109)</f>
         <v>24.81452426131743</v>
       </c>
       <c r="H41" s="52">
-        <f>H33/(Model!N38+Model!N110)</f>
+        <f>H33/(Model!N38+Model!N109)</f>
         <v>9.8103709786494058</v>
       </c>
       <c r="I41" s="52">
-        <f>I33/(Model!O38+Model!O110)</f>
+        <f>I33/(Model!O38+Model!O109)</f>
         <v>11.173836436170212</v>
       </c>
       <c r="J41" s="52">
-        <f>J33/(Model!P38+Model!P110)</f>
+        <f>J33/(Model!P38+Model!P109)</f>
         <v>9.113858219418157</v>
       </c>
       <c r="K41" s="52">
-        <f>K33/(Model!Q38+Model!Q110)</f>
+        <f>K33/(Model!Q38+Model!Q109)</f>
         <v>8.8905234305923972</v>
       </c>
       <c r="L41" s="52">
-        <f>L33/(Model!R38+Model!R110)</f>
+        <f>L33/(Model!R38+Model!R109)</f>
         <v>9.6653297260737236</v>
       </c>
       <c r="M41" s="52">
-        <f>M33/(Model!S38+Model!S110)</f>
+        <f>M33/(Model!S38+Model!S109)</f>
         <v>6.7682165902200113</v>
       </c>
       <c r="N41" s="52">
-        <f>N33/(Model!T38+Model!T110)</f>
-        <v>18.002451601850264</v>
+        <f>N33/(Model!T38+Model!T109)</f>
+        <v>20.575603906116157</v>
       </c>
       <c r="P41" s="52">
         <f>AVERAGE(C41:N41)</f>
-        <v>15.28629174996275</v>
+        <v>15.520214686714196</v>
       </c>
       <c r="Q41" s="52">
         <f>MEDIAN(C41:N41)</f>
@@ -17763,11 +18033,11 @@
       </c>
       <c r="N42" s="52">
         <f>N33/Model!T38</f>
-        <v>38.406546052631576</v>
+        <v>43.89612573099415</v>
       </c>
       <c r="P42" s="52">
         <f t="shared" ref="P42:P44" si="22">AVERAGE(C42:N42)</f>
-        <v>17.640891863045535</v>
+        <v>18.139944561078497</v>
       </c>
       <c r="Q42" s="52">
         <f t="shared" ref="Q42:Q44" si="23">MEDIAN(C42:N42)</f>
@@ -17872,15 +18142,15 @@
       </c>
       <c r="N44" s="52">
         <f>N33/Model!T29</f>
-        <v>4.0623307689333901</v>
+        <v>4.6429736730196778</v>
       </c>
       <c r="P44" s="52">
         <f t="shared" si="22"/>
-        <v>5.6985857243434896</v>
+        <v>5.7513714428967884</v>
       </c>
       <c r="Q44" s="52">
         <f t="shared" si="23"/>
-        <v>4.1461354728074467</v>
+        <v>4.5460505468176367</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
@@ -17889,48 +18159,48 @@
       </c>
       <c r="C46" s="63"/>
       <c r="D46" s="63">
-        <f>(-1*Model!J143)/D31</f>
+        <f>(-1*Model!J142)/D31</f>
         <v>2.5171843896254778E-2</v>
       </c>
       <c r="E46" s="63">
-        <f>(-1*Model!K143)/E31</f>
+        <f>(-1*Model!K142)/E31</f>
         <v>2.7392210169649749E-2</v>
       </c>
       <c r="F46" s="63">
-        <f>(-1*Model!L143)/F31</f>
+        <f>(-1*Model!L142)/F31</f>
         <v>2.7621202262660547E-2</v>
       </c>
       <c r="G46" s="63">
-        <f>(-1*Model!M143)/G31</f>
+        <f>(-1*Model!M142)/G31</f>
         <v>2.5305351238275188E-2</v>
       </c>
       <c r="H46" s="63">
-        <f>(-1*Model!N143)/H31</f>
+        <f>(-1*Model!N142)/H31</f>
         <v>7.6740903678426134E-2</v>
       </c>
       <c r="I46" s="63">
-        <f>(-1*Model!O143)/I31</f>
+        <f>(-1*Model!O142)/I31</f>
         <v>6.1469643180619551E-2</v>
       </c>
       <c r="J46" s="63">
-        <f>(-1*Model!P143)/J31</f>
+        <f>(-1*Model!P142)/J31</f>
         <v>7.510127593031804E-2</v>
       </c>
       <c r="K46" s="63">
-        <f>(-1*Model!Q143)/K31</f>
+        <f>(-1*Model!Q142)/K31</f>
         <v>7.6966756450752738E-2</v>
       </c>
       <c r="L46" s="63">
-        <f>(-1*Model!R143)/L31</f>
+        <f>(-1*Model!R142)/L31</f>
         <v>6.5189549723909321E-2</v>
       </c>
       <c r="M46" s="63">
-        <f>(-1*Model!S143)/M31</f>
+        <f>(-1*Model!S142)/M31</f>
         <v>9.7206734205636372E-2</v>
       </c>
       <c r="N46" s="63">
-        <f>(-1*Model!T143)/N31</f>
-        <v>7.099538305298124E-2</v>
+        <f>(-1*Model!T142)/N31</f>
+        <v>5.8379005507537864E-2</v>
       </c>
       <c r="P46" s="66">
         <f>AVERAGE(C46:M46)</f>
@@ -18037,17 +18307,17 @@
       </c>
       <c r="E4" s="60">
         <f ca="1">+TODAY()</f>
-        <v>45811</v>
+        <v>45869</v>
       </c>
       <c r="G4" t="s">
         <v>153</v>
       </c>
       <c r="J4" s="64">
         <f ca="1">V62</f>
-        <v>42.068917878260137</v>
+        <v>42.796547508828255</v>
       </c>
       <c r="L4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O4" s="88">
         <f>+J15+O15+T15</f>
@@ -18066,7 +18336,7 @@
       </c>
       <c r="J5" s="65">
         <f ca="1">J4/J3-1</f>
-        <v>9.2983057372308053E-2</v>
+        <v>0.11188743852502614</v>
       </c>
       <c r="L5" t="s">
         <v>155</v>
@@ -18211,7 +18481,7 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J13" s="31"/>
       <c r="O13" s="31"/>
@@ -18225,35 +18495,35 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J14" s="31"/>
       <c r="L14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="O14" s="31"/>
       <c r="Q14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E15" s="26">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J15" s="31"/>
       <c r="L15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O15" s="31"/>
       <c r="Q15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T15" s="31"/>
     </row>
@@ -18318,26 +18588,26 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E20" s="31">
         <f>CHOOSE(E15,J20,O20,T20)</f>
         <v>0.09</v>
       </c>
       <c r="G20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J20" s="31">
         <v>0.08</v>
       </c>
       <c r="L20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O20" s="31">
         <v>0.09</v>
       </c>
       <c r="Q20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T20" s="31">
         <v>0.1</v>
@@ -19193,30 +19463,30 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G42" s="78">
-        <f>Model!O110</f>
+        <f>Model!O109</f>
         <v>1512</v>
       </c>
       <c r="H42" s="78">
-        <f>Model!P110</f>
+        <f>Model!P109</f>
         <v>1450</v>
       </c>
       <c r="I42" s="78">
-        <f>Model!Q110</f>
+        <f>Model!Q109</f>
         <v>1076</v>
       </c>
       <c r="J42" s="78">
-        <f>Model!R110</f>
+        <f>Model!R109</f>
         <v>1305</v>
       </c>
       <c r="K42" s="78">
-        <f>Model!S110</f>
+        <f>Model!S109</f>
         <v>28614</v>
       </c>
       <c r="L42" s="78">
-        <f>Model!T110</f>
+        <f>Model!T109</f>
         <v>3101</v>
       </c>
       <c r="M42" s="78">
@@ -19328,27 +19598,27 @@
         <v>92</v>
       </c>
       <c r="G45" s="78">
-        <f>+Model!O124+Model!O125+Model!O126+Model!O127</f>
+        <f>+Model!O123+Model!O124+Model!O125+Model!O126</f>
         <v>-781</v>
       </c>
       <c r="H45" s="78">
-        <f>+Model!P124+Model!P125+Model!P126+Model!P127</f>
+        <f>+Model!P123+Model!P124+Model!P125+Model!P126</f>
         <v>-711</v>
       </c>
       <c r="I45" s="78">
-        <f>+Model!Q124+Model!Q125+Model!Q126+Model!Q127</f>
+        <f>+Model!Q123+Model!Q124+Model!Q125+Model!Q126</f>
         <v>-714</v>
       </c>
       <c r="J45" s="78">
-        <f>+Model!R124+Model!R125+Model!R126+Model!R127</f>
+        <f>+Model!R123+Model!R124+Model!R125+Model!R126</f>
         <v>-622</v>
       </c>
       <c r="K45" s="78">
-        <f>+Model!S124+Model!S125+Model!S126+Model!S127</f>
+        <f>+Model!S123+Model!S124+Model!S125+Model!S126</f>
         <v>-520</v>
       </c>
       <c r="L45" s="78">
-        <f>+Model!T124+Model!T125+Model!T126+Model!T127</f>
+        <f>+Model!T123+Model!T124+Model!T125+Model!T126</f>
         <v>-424</v>
       </c>
       <c r="M45" s="78">
@@ -19456,27 +19726,27 @@
         <v>88</v>
       </c>
       <c r="G48" s="78">
-        <f>+Model!O118</f>
+        <f>+Model!O117</f>
         <v>314</v>
       </c>
       <c r="H48" s="78">
-        <f>+Model!P118</f>
+        <f>+Model!P117</f>
         <v>109</v>
       </c>
       <c r="I48" s="78">
-        <f>+Model!Q118</f>
+        <f>+Model!Q117</f>
         <v>-62</v>
       </c>
       <c r="J48" s="78">
-        <f>+Model!R118</f>
+        <f>+Model!R117</f>
         <v>103</v>
       </c>
       <c r="K48" s="78">
-        <f>+Model!S118</f>
+        <f>+Model!S117</f>
         <v>-469</v>
       </c>
       <c r="L48" s="78">
-        <f>+Model!T118</f>
+        <f>+Model!T117</f>
         <v>5776</v>
       </c>
       <c r="M48" s="78">
@@ -19668,43 +19938,43 @@
       <c r="L52" s="93"/>
       <c r="M52" s="93">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>5185.1997325391694</v>
+        <v>3780.3104526474385</v>
       </c>
       <c r="N52" s="93">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>8361.8761052324135</v>
+        <v>8453.5238360119674</v>
       </c>
       <c r="O52" s="93">
         <f t="shared" ref="O52:U52" ca="1" si="19">O51/(1+$E$18)^O53</f>
-        <v>7794.0595799930616</v>
+        <v>7879.4839351350865</v>
       </c>
       <c r="P52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>7267.5832465290523</v>
+        <v>7347.2373222907217</v>
       </c>
       <c r="Q52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>6779.3486118843484</v>
+        <v>6853.651544458764</v>
       </c>
       <c r="R52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>6326.490949843932</v>
+        <v>6395.8304774874669</v>
       </c>
       <c r="S52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>5906.361666505456</v>
+        <v>5971.0964983884396</v>
       </c>
       <c r="T52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>5435.9892606700869</v>
+        <v>5495.5687227444751</v>
       </c>
       <c r="U52" s="93">
         <f t="shared" ca="1" si="19"/>
-        <v>5022.5684008383605</v>
+        <v>5077.6166927323156</v>
       </c>
       <c r="V52" s="94">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>4642.2731423030309</v>
+        <v>4693.1533268210369</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -19713,43 +19983,43 @@
       </c>
       <c r="M53" s="21">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.57777777777777772</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="N53" s="21">
         <f ca="1">M53+1</f>
-        <v>1.5777777777777777</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="O53" s="21">
         <f ca="1">N53+1</f>
-        <v>2.5777777777777775</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="P53" s="21">
         <f t="shared" ref="P53:V53" ca="1" si="20">O53+1</f>
-        <v>3.5777777777777775</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="Q53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>4.5777777777777775</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="R53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>5.5777777777777775</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="S53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>6.5777777777777775</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="T53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>7.5777777777777775</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="U53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>8.5777777777777775</v>
+        <v>8.4166666666666679</v>
       </c>
       <c r="V53" s="21">
         <f t="shared" ca="1" si="20"/>
-        <v>9.5777777777777775</v>
+        <v>9.4166666666666679</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -19762,7 +20032,7 @@
       <c r="Q54" s="20"/>
       <c r="V54" s="78">
         <f ca="1">SUM(M52:V52)</f>
-        <v>62721.750696338917</v>
+        <v>61947.472808717706</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -19778,7 +20048,7 @@
         <v>118665.88069707189</v>
       </c>
       <c r="X55" s="59" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
@@ -19806,7 +20076,7 @@
       <c r="U56" s="46"/>
       <c r="V56" s="95">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>62071.833486129028</v>
+        <v>62752.152425651489</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -19834,12 +20104,12 @@
       <c r="U57" s="48"/>
       <c r="V57" s="96">
         <f ca="1">V54+V56</f>
-        <v>124793.58418246795</v>
+        <v>124699.62523436919</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
@@ -19847,12 +20117,12 @@
       <c r="Q58" s="20"/>
       <c r="V58" s="97">
         <f>+Main!H6</f>
-        <v>5297</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -19875,7 +20145,7 @@
       <c r="U59" s="46"/>
       <c r="V59" s="95">
         <f>+Main!H7</f>
-        <v>36950</v>
+        <v>35208</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
@@ -19888,7 +20158,7 @@
       <c r="Q60" s="20"/>
       <c r="V60" s="97">
         <f ca="1">V57+V58-V59</f>
-        <v>93140.584182467952</v>
+        <v>93895.625234369189</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -19916,7 +20186,7 @@
       <c r="U61" s="46"/>
       <c r="V61" s="95">
         <f>+Main!H4</f>
-        <v>2214</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
@@ -19925,7 +20195,7 @@
       </c>
       <c r="V62" s="97">
         <f ca="1">V60/V61</f>
-        <v>42.068917878260137</v>
+        <v>42.796547508828255</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -19970,7 +20240,7 @@
       <c r="J68" s="102"/>
       <c r="M68" s="49"/>
       <c r="N68" s="103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O68" s="103"/>
       <c r="P68" s="103"/>
@@ -19986,7 +20256,7 @@
       </c>
       <c r="C69" s="50">
         <f ca="1">+J4</f>
-        <v>42.068917878260137</v>
+        <v>42.796547508828255</v>
       </c>
       <c r="D69" s="98">
         <v>-5.0000000000000001E-3</v>
@@ -20014,7 +20284,7 @@
       </c>
       <c r="N69" s="50">
         <f ca="1">+J4</f>
-        <v>42.068917878260137</v>
+        <v>42.796547508828255</v>
       </c>
       <c r="O69" s="98">
         <f t="shared" ref="O69:P69" si="21">+P69-1%</f>
@@ -20052,25 +20322,25 @@
       </c>
       <c r="D70" s="52">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>75.625893073659967</v>
+        <v>76.603275939194717</v>
       </c>
       <c r="E70" s="52">
-        <v>79.711215857657663</v>
+        <v>80.751972101783053</v>
       </c>
       <c r="F70" s="52">
-        <v>84.924721247963802</v>
+        <v>86.04635175058803</v>
       </c>
       <c r="G70" s="99">
-        <v>91.83050054773264</v>
+        <v>93.059256628717989</v>
       </c>
       <c r="H70" s="52">
-        <v>101.44391810264172</v>
+        <v>102.82180187376788</v>
       </c>
       <c r="I70" s="52">
-        <v>115.79570260404633</v>
+        <v>117.39621776092767</v>
       </c>
       <c r="J70" s="52">
-        <v>139.62422099844181</v>
+        <v>141.59437493230726</v>
       </c>
       <c r="M70" s="105"/>
       <c r="N70" s="51">
@@ -20079,25 +20349,25 @@
       </c>
       <c r="O70" s="52">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>87.228817263155307</v>
+        <v>88.386189947438183</v>
       </c>
       <c r="P70" s="52">
-        <v>89.200967242259878</v>
+        <v>90.388932810843841</v>
       </c>
       <c r="Q70" s="52">
-        <v>90.680079726588303</v>
+        <v>91.890989958398038</v>
       </c>
       <c r="R70" s="99">
-        <v>91.83050054773264</v>
+        <v>93.059256628717989</v>
       </c>
       <c r="S70" s="52">
-        <v>92.750837204648107</v>
+        <v>93.993869964973953</v>
       </c>
       <c r="T70" s="52">
-        <v>93.503839923942579</v>
+        <v>94.758553603728828</v>
       </c>
       <c r="U70" s="52">
-        <v>94.1313421900213</v>
+        <v>95.395789969357892</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -20107,25 +20377,25 @@
         <v>0.05</v>
       </c>
       <c r="D71" s="52">
-        <v>59.58179097568604</v>
+        <v>60.428731198930798</v>
       </c>
       <c r="E71" s="52">
-        <v>61.611211705517682</v>
+        <v>62.492813058679026</v>
       </c>
       <c r="F71" s="52">
-        <v>64.063900818479937</v>
+        <v>64.987392438523699</v>
       </c>
       <c r="G71" s="99">
-        <v>67.098583958246806</v>
+        <v>68.073905908501018</v>
       </c>
       <c r="H71" s="52">
-        <v>70.964687136305983</v>
+        <v>72.006039507239265</v>
       </c>
       <c r="I71" s="52">
-        <v>76.0779203718036</v>
+        <v>77.206603299118882</v>
       </c>
       <c r="J71" s="52">
-        <v>83.186561699202713</v>
+        <v>84.436655400024662</v>
       </c>
       <c r="M71" s="105"/>
       <c r="N71" s="51">
@@ -20133,25 +20403,25 @@
         <v>0.05</v>
       </c>
       <c r="O71" s="52">
-        <v>63.949580563214766</v>
+        <v>64.87111967081907</v>
       </c>
       <c r="P71" s="52">
-        <v>65.299153446799934</v>
+        <v>66.24374234411134</v>
       </c>
       <c r="Q71" s="52">
-        <v>66.311333109488814</v>
+        <v>67.273209349080545</v>
       </c>
       <c r="R71" s="99">
-        <v>67.098583958246806</v>
+        <v>68.073905908501018</v>
       </c>
       <c r="S71" s="52">
-        <v>67.728384637253242</v>
+        <v>68.714463156037439</v>
       </c>
       <c r="T71" s="52">
-        <v>68.243676101894849</v>
+        <v>69.23855544947628</v>
       </c>
       <c r="U71" s="52">
-        <v>68.673085655762847</v>
+        <v>69.675299027342007</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -20161,25 +20431,25 @@
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="D72" s="99">
-        <v>48.451478648669799</v>
+        <v>49.208503341488623</v>
       </c>
       <c r="E72" s="99">
-        <v>49.494006819774469</v>
+        <v>50.270457692519564</v>
       </c>
       <c r="F72" s="99">
-        <v>50.705378361600431</v>
+        <v>51.50440159467238</v>
       </c>
       <c r="G72" s="99">
-        <v>52.136246285364095</v>
+        <v>52.961931913283657</v>
       </c>
       <c r="H72" s="99">
-        <v>53.859776051711364</v>
+        <v>54.71757745383956</v>
       </c>
       <c r="I72" s="99">
-        <v>55.985715851611069</v>
+        <v>56.883131424569299</v>
       </c>
       <c r="J72" s="99">
-        <v>58.686527128014248</v>
+        <v>59.634268866975958</v>
       </c>
       <c r="M72" s="105"/>
       <c r="N72" s="51">
@@ -20187,25 +20457,25 @@
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="O72" s="99">
-        <v>49.835675716186913</v>
+        <v>50.618493152101117</v>
       </c>
       <c r="P72" s="99">
-        <v>50.821634531548561</v>
+        <v>51.622824049750783</v>
       </c>
       <c r="Q72" s="99">
-        <v>51.561103643069799</v>
+        <v>52.376072222988029</v>
       </c>
       <c r="R72" s="99">
-        <v>52.136246285364095</v>
+        <v>52.961931913283657</v>
       </c>
       <c r="S72" s="99">
-        <v>52.596360399199533</v>
+        <v>53.430619665520169</v>
       </c>
       <c r="T72" s="99">
-        <v>52.972817401428514</v>
+        <v>53.814091462804583</v>
       </c>
       <c r="U72" s="99">
-        <v>53.286531569952672</v>
+        <v>54.133651293874927</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -20214,50 +20484,50 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D73" s="52">
-        <v>40.271556703098092</v>
+        <v>40.962923011070679</v>
       </c>
       <c r="E73" s="52">
-        <v>40.799959078366363</v>
+        <v>41.501986363141718</v>
       </c>
       <c r="F73" s="52">
-        <v>41.393639622667621</v>
+        <v>42.107644927995665</v>
       </c>
       <c r="G73" s="99">
-        <v>42.068917878260137</v>
+        <v>42.796547508828255</v>
       </c>
       <c r="H73" s="52">
-        <v>42.848047766405145</v>
+        <v>43.591397019088213</v>
       </c>
       <c r="I73" s="52">
-        <v>43.762184776868409</v>
+        <v>44.523977537603756</v>
       </c>
       <c r="J73" s="52">
-        <v>44.856331283755971</v>
+        <v>45.64019940046002</v>
       </c>
       <c r="M73" s="105"/>
       <c r="N73" s="51">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O73" s="52">
-        <v>40.316664222938073</v>
+        <v>41.00894061429625</v>
       </c>
       <c r="P73" s="52">
-        <v>41.067630075218958</v>
+        <v>41.775057854809972</v>
       </c>
       <c r="Q73" s="52">
-        <v>41.630854464429618</v>
+        <v>42.349645785195257</v>
       </c>
       <c r="R73" s="99">
-        <v>42.068917878260137</v>
+        <v>42.796547508828255</v>
       </c>
       <c r="S73" s="52">
-        <v>42.41936860932455</v>
+        <v>43.15406888773466</v>
       </c>
       <c r="T73" s="52">
-        <v>42.706101025649986</v>
+        <v>43.446586379567172</v>
       </c>
       <c r="U73" s="52">
-        <v>42.94504470592117</v>
+        <v>43.690350956094264</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -20267,25 +20537,25 @@
         <v>0.08</v>
       </c>
       <c r="D74" s="52">
-        <v>34.00237042828509</v>
+        <v>34.643730416263317</v>
       </c>
       <c r="E74" s="52">
-        <v>34.248824839983598</v>
+        <v>34.895534360401797</v>
       </c>
       <c r="F74" s="52">
-        <v>34.515443703548335</v>
+        <v>35.167940445424335</v>
       </c>
       <c r="G74" s="99">
-        <v>34.806547972950654</v>
+        <v>35.465363415806081</v>
       </c>
       <c r="H74" s="52">
-        <v>35.127788126460764</v>
+        <v>35.793576398937638</v>
       </c>
       <c r="I74" s="52">
-        <v>35.486698135105613</v>
+        <v>36.160276898006451</v>
       </c>
       <c r="J74" s="52">
-        <v>35.893551595740121</v>
+        <v>36.575961508268108</v>
       </c>
       <c r="M74" s="105"/>
       <c r="N74" s="51">
@@ -20293,25 +20563,25 @@
         <v>0.08</v>
       </c>
       <c r="O74" s="52">
-        <v>33.432644645397644</v>
+        <v>34.061638181761367</v>
       </c>
       <c r="P74" s="52">
-        <v>34.021460357206081</v>
+        <v>34.663234710637681</v>
       </c>
       <c r="Q74" s="52">
-        <v>34.463072141062405</v>
+        <v>35.11443210729491</v>
       </c>
       <c r="R74" s="99">
-        <v>34.806547972950654</v>
+        <v>35.465363415806081</v>
       </c>
       <c r="S74" s="52">
-        <v>35.081328638461258</v>
+        <v>35.746108462615027</v>
       </c>
       <c r="T74" s="52">
-        <v>35.306149182969925</v>
+        <v>35.975808955458717</v>
       </c>
       <c r="U74" s="52">
-        <v>35.493499636727158</v>
+        <v>36.167226032828445</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -20321,25 +20591,25 @@
         <v>0.09</v>
       </c>
       <c r="D75" s="52">
-        <v>29.041850406304452</v>
+        <v>29.64388065396108</v>
       </c>
       <c r="E75" s="52">
-        <v>29.129026110429024</v>
+        <v>29.733080947153901</v>
       </c>
       <c r="F75" s="52">
-        <v>29.216201814553582</v>
+        <v>29.822281240346722</v>
       </c>
       <c r="G75" s="99">
-        <v>29.303377518678143</v>
+        <v>29.911481533539536</v>
       </c>
       <c r="H75" s="52">
-        <v>29.390553222802716</v>
+        <v>30.000681826732357</v>
       </c>
       <c r="I75" s="52">
-        <v>29.477728926927281</v>
+        <v>30.089882119925175</v>
       </c>
       <c r="J75" s="52">
-        <v>29.564904631051832</v>
+        <v>30.179082413117989</v>
       </c>
       <c r="M75" s="105"/>
       <c r="N75" s="51">
@@ -20347,25 +20617,25 @@
         <v>0.09</v>
       </c>
       <c r="O75" s="52">
-        <v>28.20278425410552</v>
+        <v>28.78532783198019</v>
       </c>
       <c r="P75" s="52">
-        <v>28.674467081779508</v>
+        <v>29.267965132648484</v>
       </c>
       <c r="Q75" s="52">
-        <v>29.028229202534988</v>
+        <v>29.6299431081497</v>
       </c>
       <c r="R75" s="99">
-        <v>29.303377518678143</v>
+        <v>29.911481533539536</v>
       </c>
       <c r="S75" s="52">
-        <v>29.523496171592672</v>
+        <v>30.136712273851408</v>
       </c>
       <c r="T75" s="52">
-        <v>29.703593251250009</v>
+        <v>30.320991970470203</v>
       </c>
       <c r="U75" s="52">
-        <v>29.853674150964459</v>
+        <v>30.474558384319209</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -20375,25 +20645,25 @@
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="D76" s="52">
-        <v>25.017155980575843</v>
+        <v>25.587457922960407</v>
       </c>
       <c r="E76" s="52">
-        <v>25.013352432505535</v>
+        <v>25.583560309879559</v>
       </c>
       <c r="F76" s="52">
-        <v>25.000740667851353</v>
+        <v>25.570636645453565</v>
       </c>
       <c r="G76" s="99">
-        <v>24.977852650515977</v>
+        <v>25.547182587791589</v>
       </c>
       <c r="H76" s="52">
-        <v>24.942874924143918</v>
+        <v>25.511339832204918</v>
       </c>
       <c r="I76" s="52">
-        <v>24.893540668290793</v>
+        <v>25.460785497832678</v>
       </c>
       <c r="J76" s="52">
-        <v>24.826978577060373</v>
+        <v>25.392577268917744</v>
       </c>
       <c r="M76" s="106"/>
       <c r="N76" s="51">
@@ -20401,25 +20671,25 @@
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="O76" s="52">
-        <v>24.08148315527972</v>
+        <v>24.628645105070508</v>
       </c>
       <c r="P76" s="52">
-        <v>24.465641510380973</v>
+        <v>25.022304026236686</v>
       </c>
       <c r="Q76" s="52">
-        <v>24.753760276706913</v>
+        <v>25.31754821711132</v>
       </c>
       <c r="R76" s="99">
-        <v>24.977852650515977</v>
+        <v>25.547182587791589</v>
       </c>
       <c r="S76" s="52">
-        <v>25.15712654956323</v>
+        <v>25.730890084335805</v>
       </c>
       <c r="T76" s="52">
-        <v>25.303805194238254</v>
+        <v>25.881196217871988</v>
       </c>
       <c r="U76" s="52">
-        <v>25.42603739813411</v>
+        <v>26.006451329152132</v>
       </c>
     </row>
   </sheetData>

--- a/BTI.xlsx
+++ b/BTI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227EED53-3352-4300-9C76-7FE48C72DB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0A84CB-AA9E-4D71-B232-F82CEB326492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="2" xr2:uid="{398237C1-CA6F-4F70-A6D1-46181DBC5386}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="2" xr2:uid="{398237C1-CA6F-4F70-A6D1-46181DBC5386}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1336,7 +1336,7 @@
     <t>03-06-25: H1 on track to slightly beat expectations -&gt; around 1-2% rev growth</t>
   </si>
   <si>
-    <t>Q225</t>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -1355,13 +1355,19 @@
     <numFmt numFmtId="172" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="173" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1682,175 +1688,179 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2114,16 +2124,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>17463</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2138,8 +2148,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13168313" y="195263"/>
-          <a:ext cx="12700" cy="11615737"/>
+          <a:off x="14382750" y="133351"/>
+          <a:ext cx="12700" cy="10358437"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2484,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A3225F-ECB2-4048-8E18-3B54811707AA}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="E1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2511,7 +2521,7 @@
         <v>383</v>
       </c>
       <c r="H2" s="2">
-        <v>38.49</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2519,7 +2529,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="3">
-        <v>40.700000000000003</v>
+        <v>43.76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2534,9 +2544,9 @@
         <v>1</v>
       </c>
       <c r="H4" s="5">
-        <v>2194</v>
-      </c>
-      <c r="I4" s="6" t="s">
+        <v>2187</v>
+      </c>
+      <c r="I4" s="107" t="s">
         <v>388</v>
       </c>
     </row>
@@ -2553,7 +2563,7 @@
       </c>
       <c r="H5" s="5">
         <f>+H3*H4</f>
-        <v>89295.8</v>
+        <v>95703.12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2567,9 +2577,9 @@
         <v>3</v>
       </c>
       <c r="H6" s="5">
-        <v>4404</v>
-      </c>
-      <c r="I6" s="6" t="s">
+        <v>3827</v>
+      </c>
+      <c r="I6" s="107" t="s">
         <v>388</v>
       </c>
     </row>
@@ -2578,10 +2588,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="5">
-        <f>31904+3304</f>
-        <v>35208</v>
-      </c>
-      <c r="I7" s="6" t="s">
+        <f>31708+3362</f>
+        <v>35070</v>
+      </c>
+      <c r="I7" s="107" t="s">
         <v>388</v>
       </c>
     </row>
@@ -2597,7 +2607,7 @@
       </c>
       <c r="H8" s="5">
         <f>H5-H6+H7</f>
-        <v>120099.8</v>
+        <v>126946.12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3292,10 +3302,10 @@
   <dimension ref="A1:AP209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3697,11 +3707,10 @@
         <v>24.729578999999998</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" ref="U6:AD6" si="4">U5*9%</f>
-        <v>25.471466370000002</v>
+        <v>35</v>
       </c>
       <c r="V6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="U6:AD6" si="4">V5*9%</f>
         <v>26.235610361100004</v>
       </c>
       <c r="W6" s="5">
@@ -3787,32 +3796,32 @@
         <v>182.93881994513535</v>
       </c>
       <c r="U7" s="5">
-        <f>T7*(1+1.5%)</f>
-        <v>185.68290224431237</v>
+        <f>SUM(U22:U25)/U6</f>
+        <v>133.25714285714287</v>
       </c>
       <c r="V7" s="5">
         <f t="shared" ref="V7:AA7" si="5">U7*(1+1.5%)</f>
-        <v>188.46814577797704</v>
+        <v>135.256</v>
       </c>
       <c r="W7" s="5">
         <f t="shared" si="5"/>
-        <v>191.29516796464668</v>
+        <v>137.28483999999997</v>
       </c>
       <c r="X7" s="5">
         <f t="shared" si="5"/>
-        <v>194.16459548411638</v>
+        <v>139.34411259999996</v>
       </c>
       <c r="Y7" s="5">
         <f t="shared" si="5"/>
-        <v>197.07706441637811</v>
+        <v>141.43427428899994</v>
       </c>
       <c r="Z7" s="5">
         <f t="shared" si="5"/>
-        <v>200.03322038262377</v>
+        <v>143.55578840333493</v>
       </c>
       <c r="AA7" s="5">
         <f t="shared" si="5"/>
-        <v>203.03371868836311</v>
+        <v>145.70912522938494</v>
       </c>
       <c r="AB7" s="5">
         <f>200</f>
@@ -3972,7 +3981,9 @@
       <c r="T10" s="3">
         <v>0.61609999999999998</v>
       </c>
-      <c r="U10" s="3"/>
+      <c r="U10" s="3">
+        <v>0.53800000000000003</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -4043,7 +4054,9 @@
       <c r="T11" s="3">
         <v>20.9</v>
       </c>
-      <c r="U11" s="3"/>
+      <c r="U11" s="3">
+        <v>20</v>
+      </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -4114,7 +4127,9 @@
       <c r="T12" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="U12" s="3"/>
+      <c r="U12" s="3">
+        <v>12.2</v>
+      </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -4185,7 +4200,9 @@
       <c r="T13" s="3">
         <v>6.1</v>
       </c>
-      <c r="U13" s="3"/>
+      <c r="U13" s="3">
+        <v>5.5</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -4256,7 +4273,9 @@
       <c r="T14" s="3">
         <v>518</v>
       </c>
-      <c r="U14" s="3"/>
+      <c r="U14" s="3">
+        <v>477</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -4347,7 +4366,7 @@
       </c>
       <c r="U15" s="40">
         <f t="shared" ref="U15" si="14">SUM(U10:U14)</f>
-        <v>0</v>
+        <v>515.23800000000006</v>
       </c>
       <c r="V15" s="40">
         <f t="shared" ref="V15" si="15">SUM(V10:V14)</f>
@@ -4613,7 +4632,9 @@
       <c r="T19" s="5">
         <v>11278</v>
       </c>
-      <c r="U19" s="5"/>
+      <c r="U19" s="5">
+        <v>11534</v>
+      </c>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
@@ -4696,7 +4717,9 @@
       <c r="T20" s="5">
         <v>9241</v>
       </c>
-      <c r="U20" s="5"/>
+      <c r="U20" s="5">
+        <v>9309</v>
+      </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -4770,7 +4793,9 @@
       <c r="T21" s="5">
         <v>5348</v>
       </c>
-      <c r="U21" s="5"/>
+      <c r="U21" s="5">
+        <v>4767</v>
+      </c>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -4841,7 +4866,9 @@
       <c r="T22" s="5">
         <v>1721</v>
       </c>
-      <c r="U22" s="5"/>
+      <c r="U22" s="5">
+        <v>1542</v>
+      </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
@@ -4912,7 +4939,9 @@
       <c r="T23" s="5">
         <v>921</v>
       </c>
-      <c r="U23" s="5"/>
+      <c r="U23" s="5">
+        <v>914</v>
+      </c>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
@@ -4983,7 +5012,9 @@
       <c r="T24" s="5">
         <v>790</v>
       </c>
-      <c r="U24" s="5"/>
+      <c r="U24" s="5">
+        <v>1165</v>
+      </c>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
@@ -5054,7 +5085,9 @@
       <c r="T25" s="5">
         <v>1092</v>
       </c>
-      <c r="U25" s="5"/>
+      <c r="U25" s="5">
+        <v>1043</v>
+      </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
@@ -5135,32 +5168,32 @@
         <v>4524</v>
       </c>
       <c r="U26" s="5">
-        <f t="shared" ref="U26:AC26" si="27">U7*U6</f>
-        <v>4729.6158000000005</v>
+        <f>3621+1043</f>
+        <v>4664</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" si="27"/>
-        <v>4944.5768381100006</v>
+        <f t="shared" ref="U26:AC26" si="27">V7*V6</f>
+        <v>3548.523715000942</v>
       </c>
       <c r="W26" s="5">
         <f t="shared" si="27"/>
-        <v>5169.3078554020994</v>
+        <v>3709.8041178477342</v>
       </c>
       <c r="X26" s="5">
         <f t="shared" si="27"/>
-        <v>5404.2528974301249</v>
+        <v>3878.4147150039139</v>
       </c>
       <c r="Y26" s="5">
         <f t="shared" si="27"/>
-        <v>5649.8761916183248</v>
+        <v>4054.6886638008414</v>
       </c>
       <c r="Z26" s="5">
         <f t="shared" si="27"/>
-        <v>5906.6630645273772</v>
+        <v>4238.9742635705898</v>
       </c>
       <c r="AA26" s="5">
         <f t="shared" si="27"/>
-        <v>6175.1209008101459</v>
+        <v>4431.6356438498724</v>
       </c>
       <c r="AB26" s="5">
         <f t="shared" si="27"/>
@@ -5236,44 +5269,43 @@
         <v>20685</v>
       </c>
       <c r="U27" s="5">
-        <f>T27*(1-1%)</f>
-        <v>20478.150000000001</v>
+        <v>20201</v>
       </c>
       <c r="V27" s="5">
         <f t="shared" ref="V27:AA27" si="30">U27*(1-1%)</f>
-        <v>20273.3685</v>
+        <v>19998.990000000002</v>
       </c>
       <c r="W27" s="5">
         <f t="shared" si="30"/>
-        <v>20070.634815000001</v>
+        <v>19799.000100000001</v>
       </c>
       <c r="X27" s="5">
         <f t="shared" si="30"/>
-        <v>19869.92846685</v>
+        <v>19601.010098999999</v>
       </c>
       <c r="Y27" s="5">
         <f t="shared" si="30"/>
-        <v>19671.229182181502</v>
+        <v>19404.99999801</v>
       </c>
       <c r="Z27" s="5">
         <f t="shared" si="30"/>
-        <v>19474.516890359686</v>
+        <v>19210.949998029901</v>
       </c>
       <c r="AA27" s="5">
         <f t="shared" si="30"/>
-        <v>19279.771721456087</v>
+        <v>19018.840498049602</v>
       </c>
       <c r="AB27" s="5">
         <f>AA27*(1-2%)</f>
-        <v>18894.176287026967</v>
+        <v>18638.46368808861</v>
       </c>
       <c r="AC27" s="5">
         <f>AB27*(1-2%)</f>
-        <v>18516.292761286426</v>
+        <v>18265.694414326837</v>
       </c>
       <c r="AD27" s="5">
         <f>AC27*(1-2%)</f>
-        <v>18145.966906060698</v>
+        <v>17900.380526040299</v>
       </c>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
@@ -5337,44 +5369,43 @@
         <v>658</v>
       </c>
       <c r="U28" s="5">
-        <f>T28*(1+1%)</f>
-        <v>664.58</v>
+        <v>756</v>
       </c>
       <c r="V28" s="5">
         <f t="shared" ref="V28:AD28" si="31">U28*(1+1%)</f>
-        <v>671.22580000000005</v>
+        <v>763.56000000000006</v>
       </c>
       <c r="W28" s="5">
         <f t="shared" si="31"/>
-        <v>677.93805800000007</v>
+        <v>771.19560000000001</v>
       </c>
       <c r="X28" s="5">
         <f t="shared" si="31"/>
-        <v>684.71743858000002</v>
+        <v>778.907556</v>
       </c>
       <c r="Y28" s="5">
         <f t="shared" si="31"/>
-        <v>691.56461296580005</v>
+        <v>786.69663156000001</v>
       </c>
       <c r="Z28" s="5">
         <f t="shared" si="31"/>
-        <v>698.48025909545811</v>
+        <v>794.56359787560007</v>
       </c>
       <c r="AA28" s="5">
         <f t="shared" si="31"/>
-        <v>705.4650616864127</v>
+        <v>802.50923385435613</v>
       </c>
       <c r="AB28" s="5">
         <f t="shared" si="31"/>
-        <v>712.51971230327683</v>
+        <v>810.5343261928997</v>
       </c>
       <c r="AC28" s="5">
         <f t="shared" si="31"/>
-        <v>719.6449094263096</v>
+        <v>818.63966945482866</v>
       </c>
       <c r="AD28" s="5">
         <f t="shared" si="31"/>
-        <v>726.84135852057273</v>
+        <v>826.82606614937697</v>
       </c>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
@@ -5447,44 +5478,43 @@
         <v>25867</v>
       </c>
       <c r="U29" s="41">
-        <f t="shared" ref="U29:AC29" si="32">SUM(U22:U28)</f>
-        <v>25872.345800000003</v>
+        <v>25610</v>
       </c>
       <c r="V29" s="41">
-        <f t="shared" si="32"/>
-        <v>25889.171138110003</v>
+        <f t="shared" ref="U29:AC29" si="32">SUM(V22:V28)</f>
+        <v>24311.073715000945</v>
       </c>
       <c r="W29" s="41">
         <f t="shared" si="32"/>
-        <v>25917.880728402102</v>
+        <v>24279.999817847733</v>
       </c>
       <c r="X29" s="41">
         <f t="shared" si="32"/>
-        <v>25958.898802860123</v>
+        <v>24258.332370003911</v>
       </c>
       <c r="Y29" s="41">
         <f t="shared" si="32"/>
-        <v>26012.669986765628</v>
+        <v>24246.38529337084</v>
       </c>
       <c r="Z29" s="41">
         <f t="shared" si="32"/>
-        <v>26079.660213982519</v>
+        <v>24244.487859476092</v>
       </c>
       <c r="AA29" s="41">
         <f t="shared" si="32"/>
-        <v>26160.357683952647</v>
+        <v>24252.985375753829</v>
       </c>
       <c r="AB29" s="41">
         <f t="shared" si="32"/>
-        <v>25872.034159832543</v>
+        <v>25714.33617478381</v>
       </c>
       <c r="AC29" s="41">
         <f t="shared" si="32"/>
-        <v>25689.235976030101</v>
+        <v>25537.632389099032</v>
       </c>
       <c r="AD29" s="41">
         <f t="shared" ref="AD29" si="33">SUM(AD22:AD28)</f>
-        <v>25519.70551905816</v>
+        <v>25374.103846666563</v>
       </c>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
@@ -5556,44 +5586,43 @@
         <v>4565</v>
       </c>
       <c r="U30" s="5">
-        <f>T30*(1-0.1%)</f>
-        <v>4560.4350000000004</v>
+        <v>4465</v>
       </c>
       <c r="V30" s="5">
         <f t="shared" ref="V30:AD30" si="34">U30*(1-0.1%)</f>
-        <v>4555.8745650000001</v>
+        <v>4460.5349999999999</v>
       </c>
       <c r="W30" s="5">
         <f t="shared" si="34"/>
-        <v>4551.3186904350005</v>
+        <v>4456.0744649999997</v>
       </c>
       <c r="X30" s="5">
         <f t="shared" si="34"/>
-        <v>4546.767371744565</v>
+        <v>4451.6183905349999</v>
       </c>
       <c r="Y30" s="5">
         <f t="shared" si="34"/>
-        <v>4542.2206043728202</v>
+        <v>4447.1667721444646</v>
       </c>
       <c r="Z30" s="5">
         <f t="shared" si="34"/>
-        <v>4537.678383768447</v>
+        <v>4442.7196053723201</v>
       </c>
       <c r="AA30" s="5">
         <f t="shared" si="34"/>
-        <v>4533.1407053846788</v>
+        <v>4438.276885766948</v>
       </c>
       <c r="AB30" s="5">
         <f t="shared" si="34"/>
-        <v>4528.6075646792942</v>
+        <v>4433.8386088811812</v>
       </c>
       <c r="AC30" s="5">
         <f t="shared" si="34"/>
-        <v>4524.0789571146152</v>
+        <v>4429.4047702723001</v>
       </c>
       <c r="AD30" s="5">
         <f t="shared" si="34"/>
-        <v>4519.5548781575008</v>
+        <v>4424.9753655020277</v>
       </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -5665,44 +5694,43 @@
         <v>129</v>
       </c>
       <c r="U31" s="5">
-        <f t="shared" ref="U31:AD34" si="35">T31*(1-0.1%)</f>
-        <v>128.87100000000001</v>
+        <v>239</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="35"/>
-        <v>128.74212900000001</v>
+        <f t="shared" ref="U31:AD34" si="35">U31*(1-0.1%)</f>
+        <v>238.761</v>
       </c>
       <c r="W31" s="5">
         <f t="shared" si="35"/>
-        <v>128.61338687100002</v>
+        <v>238.52223899999998</v>
       </c>
       <c r="X31" s="5">
         <f t="shared" si="35"/>
-        <v>128.48477348412902</v>
+        <v>238.28371676099999</v>
       </c>
       <c r="Y31" s="5">
         <f t="shared" si="35"/>
-        <v>128.35628871064489</v>
+        <v>238.04543304423899</v>
       </c>
       <c r="Z31" s="5">
         <f t="shared" si="35"/>
-        <v>128.22793242193424</v>
+        <v>237.80738761119474</v>
       </c>
       <c r="AA31" s="5">
         <f t="shared" si="35"/>
-        <v>128.09970448951231</v>
+        <v>237.56958022358356</v>
       </c>
       <c r="AB31" s="5">
         <f t="shared" si="35"/>
-        <v>127.97160478502279</v>
+        <v>237.33201064335998</v>
       </c>
       <c r="AC31" s="5">
         <f t="shared" si="35"/>
-        <v>127.84363318023777</v>
+        <v>237.09467863271661</v>
       </c>
       <c r="AD31" s="5">
         <f t="shared" si="35"/>
-        <v>127.71578954705754</v>
+        <v>236.85758395408388</v>
       </c>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
@@ -5774,44 +5802,43 @@
         <v>2831</v>
       </c>
       <c r="U32" s="5">
-        <f t="shared" si="35"/>
-        <v>2828.1689999999999</v>
+        <v>3125</v>
       </c>
       <c r="V32" s="5">
         <f t="shared" si="35"/>
-        <v>2825.340831</v>
+        <v>3121.875</v>
       </c>
       <c r="W32" s="5">
         <f t="shared" si="35"/>
-        <v>2822.5154901689998</v>
+        <v>3118.7531250000002</v>
       </c>
       <c r="X32" s="5">
         <f t="shared" si="35"/>
-        <v>2819.692974678831</v>
+        <v>3115.6343718750004</v>
       </c>
       <c r="Y32" s="5">
         <f t="shared" si="35"/>
-        <v>2816.8732817041523</v>
+        <v>3112.5187375031255</v>
       </c>
       <c r="Z32" s="5">
         <f t="shared" si="35"/>
-        <v>2814.0564084224479</v>
+        <v>3109.4062187656223</v>
       </c>
       <c r="AA32" s="5">
         <f t="shared" si="35"/>
-        <v>2811.2423520140255</v>
+        <v>3106.2968125468565</v>
       </c>
       <c r="AB32" s="5">
         <f t="shared" si="35"/>
-        <v>2808.4311096620113</v>
+        <v>3103.1905157343094</v>
       </c>
       <c r="AC32" s="5">
         <f t="shared" si="35"/>
-        <v>2805.6226785523495</v>
+        <v>3100.0873252185752</v>
       </c>
       <c r="AD32" s="5">
         <f t="shared" si="35"/>
-        <v>2802.817055873797</v>
+        <v>3096.9872378933565</v>
       </c>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
@@ -5899,43 +5926,43 @@
       </c>
       <c r="U33" s="5">
         <f t="shared" si="37"/>
-        <v>18612.612800000003</v>
+        <v>18259</v>
       </c>
       <c r="V33" s="5">
         <f t="shared" si="37"/>
-        <v>18636.697871110002</v>
+        <v>16967.424715000943</v>
       </c>
       <c r="W33" s="5">
         <f t="shared" si="37"/>
-        <v>18672.6599346691</v>
+        <v>16943.694466847737</v>
       </c>
       <c r="X33" s="5">
         <f t="shared" si="37"/>
-        <v>18720.923229920856</v>
+        <v>16929.363324354912</v>
       </c>
       <c r="Y33" s="5">
         <f t="shared" si="37"/>
-        <v>18781.932389399299</v>
+        <v>16924.745216767493</v>
       </c>
       <c r="Z33" s="5">
         <f t="shared" si="37"/>
-        <v>18856.153354213558</v>
+        <v>16930.169422949344</v>
       </c>
       <c r="AA33" s="5">
         <f t="shared" si="37"/>
-        <v>18944.074331043455</v>
+        <v>16945.981257663607</v>
       </c>
       <c r="AB33" s="5">
         <f t="shared" si="37"/>
-        <v>18662.967090276263</v>
+        <v>18414.639060811678</v>
       </c>
       <c r="AC33" s="5">
         <f t="shared" si="37"/>
-        <v>18487.377973543371</v>
+        <v>18245.234972240873</v>
       </c>
       <c r="AD33" s="5">
         <f t="shared" ref="AD33" si="38">AD29-AD30+AD31-AD32</f>
-        <v>18325.049374573919</v>
+        <v>18088.998827225259</v>
       </c>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
@@ -6007,44 +6034,43 @@
         <v>3101</v>
       </c>
       <c r="U34" s="5">
-        <f t="shared" si="35"/>
-        <v>3097.8989999999999</v>
+        <v>2547</v>
       </c>
       <c r="V34" s="5">
         <f t="shared" si="35"/>
-        <v>3094.801101</v>
+        <v>2544.453</v>
       </c>
       <c r="W34" s="5">
         <f t="shared" si="35"/>
-        <v>3091.706299899</v>
+        <v>2541.908547</v>
       </c>
       <c r="X34" s="5">
         <f t="shared" si="35"/>
-        <v>3088.6145935991008</v>
+        <v>2539.3666384530002</v>
       </c>
       <c r="Y34" s="5">
         <f t="shared" si="35"/>
-        <v>3085.5259790055015</v>
+        <v>2536.8272718145472</v>
       </c>
       <c r="Z34" s="5">
         <f t="shared" si="35"/>
-        <v>3082.440453026496</v>
+        <v>2534.2904445427325</v>
       </c>
       <c r="AA34" s="5">
         <f t="shared" si="35"/>
-        <v>3079.3580125734693</v>
+        <v>2531.7561540981897</v>
       </c>
       <c r="AB34" s="5">
         <f t="shared" si="35"/>
-        <v>3076.278654560896</v>
+        <v>2529.2243979440914</v>
       </c>
       <c r="AC34" s="5">
         <f t="shared" si="35"/>
-        <v>3073.202375906335</v>
+        <v>2526.6951735461471</v>
       </c>
       <c r="AD34" s="5">
         <f t="shared" si="35"/>
-        <v>3070.1291735304285</v>
+        <v>2524.1684783726009</v>
       </c>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
@@ -6116,44 +6142,43 @@
         <v>340</v>
       </c>
       <c r="U35" s="5">
-        <f t="shared" ref="U35:AD35" si="39">T35*(1-0.1%)</f>
-        <v>339.66</v>
+        <v>192</v>
       </c>
       <c r="V35" s="5">
-        <f t="shared" si="39"/>
-        <v>339.32034000000004</v>
+        <f t="shared" ref="U35:AD35" si="39">U35*(1-0.1%)</f>
+        <v>191.80799999999999</v>
       </c>
       <c r="W35" s="5">
         <f t="shared" si="39"/>
-        <v>338.98101966000007</v>
+        <v>191.61619199999998</v>
       </c>
       <c r="X35" s="5">
         <f t="shared" si="39"/>
-        <v>338.64203864034005</v>
+        <v>191.42457580799999</v>
       </c>
       <c r="Y35" s="5">
         <f t="shared" si="39"/>
-        <v>338.30339660169972</v>
+        <v>191.23315123219197</v>
       </c>
       <c r="Z35" s="5">
         <f t="shared" si="39"/>
-        <v>337.96509320509801</v>
+        <v>191.04191808095979</v>
       </c>
       <c r="AA35" s="5">
         <f t="shared" si="39"/>
-        <v>337.62712811189294</v>
+        <v>190.85087616287882</v>
       </c>
       <c r="AB35" s="5">
         <f t="shared" si="39"/>
-        <v>337.28950098378107</v>
+        <v>190.66002528671595</v>
       </c>
       <c r="AC35" s="5">
         <f t="shared" si="39"/>
-        <v>336.95221148279728</v>
+        <v>190.46936526142923</v>
       </c>
       <c r="AD35" s="5">
         <f t="shared" si="39"/>
-        <v>336.61525927131447</v>
+        <v>190.2788958961678</v>
       </c>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
@@ -6225,44 +6250,43 @@
         <v>10</v>
       </c>
       <c r="U36" s="5">
-        <f t="shared" ref="U36:AD36" si="40">T36*(1-0.1%)</f>
-        <v>9.99</v>
+        <v>12</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" si="40"/>
-        <v>9.98001</v>
+        <f t="shared" ref="U36:AD36" si="40">U36*(1-0.1%)</f>
+        <v>11.988</v>
       </c>
       <c r="W36" s="5">
         <f t="shared" si="40"/>
-        <v>9.9700299900000005</v>
+        <v>11.976011999999999</v>
       </c>
       <c r="X36" s="5">
         <f t="shared" si="40"/>
-        <v>9.9600599600099997</v>
+        <v>11.964035987999999</v>
       </c>
       <c r="Y36" s="5">
         <f t="shared" si="40"/>
-        <v>9.9500999000499899</v>
+        <v>11.952071952011998</v>
       </c>
       <c r="Z36" s="5">
         <f t="shared" si="40"/>
-        <v>9.9401498001499391</v>
+        <v>11.940119880059987</v>
       </c>
       <c r="AA36" s="5">
         <f t="shared" si="40"/>
-        <v>9.9302096503497896</v>
+        <v>11.928179760179926</v>
       </c>
       <c r="AB36" s="5">
         <f t="shared" si="40"/>
-        <v>9.9202794406994403</v>
+        <v>11.916251580419747</v>
       </c>
       <c r="AC36" s="5">
         <f t="shared" si="40"/>
-        <v>9.9103591612587412</v>
+        <v>11.904335328839327</v>
       </c>
       <c r="AD36" s="5">
         <f t="shared" si="40"/>
-        <v>9.9004488020974826</v>
+        <v>11.892430993510487</v>
       </c>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
@@ -6334,44 +6358,43 @@
         <v>13093</v>
       </c>
       <c r="U37" s="5">
-        <f t="shared" ref="U37:AD37" si="41">T37*(1-0.1%)</f>
-        <v>13079.906999999999</v>
+        <v>5895</v>
       </c>
       <c r="V37" s="5">
-        <f t="shared" si="41"/>
-        <v>13066.827093</v>
+        <f t="shared" ref="U37:AD37" si="41">U37*(1-0.1%)</f>
+        <v>5889.1049999999996</v>
       </c>
       <c r="W37" s="5">
         <f t="shared" si="41"/>
-        <v>13053.760265907</v>
+        <v>5883.2158949999994</v>
       </c>
       <c r="X37" s="5">
         <f t="shared" si="41"/>
-        <v>13040.706505641092</v>
+        <v>5877.3326791049994</v>
       </c>
       <c r="Y37" s="5">
         <f t="shared" si="41"/>
-        <v>13027.665799135451</v>
+        <v>5871.4553464258943</v>
       </c>
       <c r="Z37" s="5">
         <f t="shared" si="41"/>
-        <v>13014.638133336315</v>
+        <v>5865.5838910794682</v>
       </c>
       <c r="AA37" s="5">
         <f t="shared" si="41"/>
-        <v>13001.623495202979</v>
+        <v>5859.7183071883892</v>
       </c>
       <c r="AB37" s="5">
         <f t="shared" si="41"/>
-        <v>12988.621871707775</v>
+        <v>5853.8585888812004</v>
       </c>
       <c r="AC37" s="5">
         <f t="shared" si="41"/>
-        <v>12975.633249836068</v>
+        <v>5848.0047302923194</v>
       </c>
       <c r="AD37" s="5">
         <f t="shared" si="41"/>
-        <v>12962.657616586232</v>
+        <v>5842.1567255620275</v>
       </c>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
@@ -6457,44 +6480,44 @@
         <v>2736</v>
       </c>
       <c r="U38" s="5">
-        <f>39%*U29</f>
-        <v>10090.214862000001</v>
+        <f>U33-U34+U35-U36-U37</f>
+        <v>9997</v>
       </c>
       <c r="V38" s="5">
         <f t="shared" ref="V38:AD38" si="45">39%*V29</f>
-        <v>10096.776743862902</v>
+        <v>9481.3187488503681</v>
       </c>
       <c r="W38" s="5">
         <f t="shared" si="45"/>
-        <v>10107.97348407682</v>
+        <v>9469.1999289606156</v>
       </c>
       <c r="X38" s="5">
         <f t="shared" si="45"/>
-        <v>10123.970533115449</v>
+        <v>9460.7496243015248</v>
       </c>
       <c r="Y38" s="5">
         <f t="shared" si="45"/>
-        <v>10144.941294838596</v>
+        <v>9456.0902644146281</v>
       </c>
       <c r="Z38" s="5">
         <f t="shared" si="45"/>
-        <v>10171.067483453182</v>
+        <v>9455.3502651956769</v>
       </c>
       <c r="AA38" s="5">
         <f t="shared" si="45"/>
-        <v>10202.539496741532</v>
+        <v>9458.6642965439933</v>
       </c>
       <c r="AB38" s="5">
         <f t="shared" si="45"/>
-        <v>10090.093322334693</v>
+        <v>10028.591108165687</v>
       </c>
       <c r="AC38" s="5">
         <f t="shared" si="45"/>
-        <v>10018.802030651739</v>
+        <v>9959.6766317486235</v>
       </c>
       <c r="AD38" s="5">
         <f t="shared" si="45"/>
-        <v>9952.685152432683</v>
+        <v>9895.9005001999594</v>
       </c>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
@@ -6566,44 +6589,43 @@
         <v>-1098</v>
       </c>
       <c r="U39" s="5">
-        <f t="shared" ref="U39:AD39" si="46">T39*(1-0.1%)</f>
-        <v>-1096.902</v>
+        <v>-1819</v>
       </c>
       <c r="V39" s="5">
-        <f t="shared" si="46"/>
-        <v>-1095.805098</v>
+        <f t="shared" ref="U39:AD39" si="46">U39*(1-0.1%)</f>
+        <v>-1817.181</v>
       </c>
       <c r="W39" s="5">
         <f t="shared" si="46"/>
-        <v>-1094.709292902</v>
+        <v>-1815.3638190000001</v>
       </c>
       <c r="X39" s="5">
         <f t="shared" si="46"/>
-        <v>-1093.614583609098</v>
+        <v>-1813.5484551810002</v>
       </c>
       <c r="Y39" s="5">
         <f t="shared" si="46"/>
-        <v>-1092.520969025489</v>
+        <v>-1811.7349067258192</v>
       </c>
       <c r="Z39" s="5">
         <f t="shared" si="46"/>
-        <v>-1091.4284480564634</v>
+        <v>-1809.9231718190933</v>
       </c>
       <c r="AA39" s="5">
         <f t="shared" si="46"/>
-        <v>-1090.337019608407</v>
+        <v>-1808.1132486472743</v>
       </c>
       <c r="AB39" s="5">
         <f t="shared" si="46"/>
-        <v>-1089.2466825887986</v>
+        <v>-1806.305135398627</v>
       </c>
       <c r="AC39" s="5">
         <f t="shared" si="46"/>
-        <v>-1088.1574359062099</v>
+        <v>-1804.4988302632285</v>
       </c>
       <c r="AD39" s="5">
         <f t="shared" si="46"/>
-        <v>-1087.0692784703037</v>
+        <v>-1802.6943314329653</v>
       </c>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
@@ -6675,44 +6697,43 @@
         <v>1900</v>
       </c>
       <c r="U40" s="5">
-        <f t="shared" ref="U40:AD40" si="47">T40*(1-0.1%)</f>
-        <v>1898.1</v>
+        <v>1681</v>
       </c>
       <c r="V40" s="5">
-        <f t="shared" si="47"/>
-        <v>1896.2018999999998</v>
+        <f t="shared" ref="U40:AD40" si="47">U40*(1-0.1%)</f>
+        <v>1679.319</v>
       </c>
       <c r="W40" s="5">
         <f t="shared" si="47"/>
-        <v>1894.3056980999997</v>
+        <v>1677.6396809999999</v>
       </c>
       <c r="X40" s="5">
         <f t="shared" si="47"/>
-        <v>1892.4113924018998</v>
+        <v>1675.9620413189998</v>
       </c>
       <c r="Y40" s="5">
         <f t="shared" si="47"/>
-        <v>1890.5189810094978</v>
+        <v>1674.2860792776808</v>
       </c>
       <c r="Z40" s="5">
         <f t="shared" si="47"/>
-        <v>1888.6284620284882</v>
+        <v>1672.6117931984031</v>
       </c>
       <c r="AA40" s="5">
         <f t="shared" si="47"/>
-        <v>1886.7398335664598</v>
+        <v>1670.9391814052046</v>
       </c>
       <c r="AB40" s="5">
         <f t="shared" si="47"/>
-        <v>1884.8530937328933</v>
+        <v>1669.2682422237995</v>
       </c>
       <c r="AC40" s="5">
         <f t="shared" si="47"/>
-        <v>1882.9682406391603</v>
+        <v>1667.5989739815757</v>
       </c>
       <c r="AD40" s="5">
         <f t="shared" si="47"/>
-        <v>1881.0852723985211</v>
+        <v>1665.9313750075942</v>
       </c>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
@@ -6798,44 +6819,44 @@
         <v>3538</v>
       </c>
       <c r="U41" s="5">
-        <f t="shared" ref="U41:AC41" si="55">U38+SUM(U39:U40)</f>
-        <v>10891.412862000001</v>
+        <f>U38+SUM(U39:U40)</f>
+        <v>9859</v>
       </c>
       <c r="V41" s="5">
-        <f t="shared" si="55"/>
-        <v>10897.173545862901</v>
+        <f t="shared" ref="U41:AC41" si="55">V38+SUM(V39:V40)</f>
+        <v>9343.4567488503671</v>
       </c>
       <c r="W41" s="5">
         <f t="shared" si="55"/>
-        <v>10907.569889274819</v>
+        <v>9331.475790960616</v>
       </c>
       <c r="X41" s="5">
         <f t="shared" si="55"/>
-        <v>10922.767341908251</v>
+        <v>9323.1632104395248</v>
       </c>
       <c r="Y41" s="5">
         <f t="shared" si="55"/>
-        <v>10942.939306822605</v>
+        <v>9318.641436966489</v>
       </c>
       <c r="Z41" s="5">
         <f t="shared" si="55"/>
-        <v>10968.267497425208</v>
+        <v>9318.0388865749865</v>
       </c>
       <c r="AA41" s="5">
         <f t="shared" si="55"/>
-        <v>10998.942310699586</v>
+        <v>9321.490229301924</v>
       </c>
       <c r="AB41" s="5">
         <f t="shared" si="55"/>
-        <v>10885.699733478788</v>
+        <v>9891.5542149908597</v>
       </c>
       <c r="AC41" s="5">
         <f t="shared" si="55"/>
-        <v>10813.612835384689</v>
+        <v>9822.7767754669712</v>
       </c>
       <c r="AD41" s="5">
         <f t="shared" ref="AD41" si="56">AD38+SUM(AD39:AD40)</f>
-        <v>10746.7011463609</v>
+        <v>9759.1375437745883</v>
       </c>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
@@ -6907,44 +6928,43 @@
         <v>357</v>
       </c>
       <c r="U42" s="5">
-        <f t="shared" ref="U42:AD42" si="57">U41*U64</f>
-        <v>1851.5401865400004</v>
+        <v>2094</v>
       </c>
       <c r="V42" s="5">
-        <f t="shared" si="57"/>
-        <v>1889.5698928526274</v>
+        <f t="shared" ref="U42:AD42" si="57">V41*V64</f>
+        <v>2024.1913379383836</v>
       </c>
       <c r="W42" s="5">
         <f t="shared" si="57"/>
-        <v>1929.2000711762589</v>
+        <v>2062.0276663601685</v>
       </c>
       <c r="X42" s="5">
         <f t="shared" si="57"/>
-        <v>1970.5257745132017</v>
+        <v>2101.3946053925633</v>
       </c>
       <c r="Y42" s="5">
         <f t="shared" si="57"/>
-        <v>2013.6482032075928</v>
+        <v>2142.3829285502702</v>
       </c>
       <c r="Z42" s="5">
         <f t="shared" si="57"/>
-        <v>2058.6751100058459</v>
+        <v>2185.0892884615191</v>
       </c>
       <c r="AA42" s="5">
         <f t="shared" si="57"/>
-        <v>2105.7212319336454</v>
+        <v>2229.61660436188</v>
       </c>
       <c r="AB42" s="5">
         <f t="shared" si="57"/>
-        <v>2125.7220352507152</v>
+        <v>2413.29019692464</v>
       </c>
       <c r="AC42" s="5">
         <f t="shared" si="57"/>
-        <v>2153.8780565878474</v>
+        <v>2444.4404378985737</v>
       </c>
       <c r="AD42" s="5">
         <f t="shared" si="57"/>
-        <v>2183.3614551275341</v>
+        <v>2477.1756109545036</v>
       </c>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
@@ -7031,43 +7051,43 @@
       </c>
       <c r="U43" s="5">
         <f t="shared" si="60"/>
-        <v>9039.8726754600011</v>
+        <v>7765</v>
       </c>
       <c r="V43" s="5">
         <f t="shared" si="60"/>
-        <v>9007.6036530102738</v>
+        <v>7319.2654109119831</v>
       </c>
       <c r="W43" s="5">
         <f t="shared" si="60"/>
-        <v>8978.3698180985593</v>
+        <v>7269.448124600447</v>
       </c>
       <c r="X43" s="5">
         <f t="shared" si="60"/>
-        <v>8952.2415673950491</v>
+        <v>7221.768605046962</v>
       </c>
       <c r="Y43" s="5">
         <f t="shared" si="60"/>
-        <v>8929.2911036150126</v>
+        <v>7176.2585084162183</v>
       </c>
       <c r="Z43" s="5">
         <f t="shared" si="60"/>
-        <v>8909.5923874193613</v>
+        <v>7132.9495981134678</v>
       </c>
       <c r="AA43" s="5">
         <f t="shared" si="60"/>
-        <v>8893.2210787659405</v>
+        <v>7091.8736249400445</v>
       </c>
       <c r="AB43" s="5">
         <f t="shared" si="60"/>
-        <v>8759.9776982280728</v>
+        <v>7478.2640180662202</v>
       </c>
       <c r="AC43" s="5">
         <f t="shared" si="60"/>
-        <v>8659.7347787968411</v>
+        <v>7378.3363375683975</v>
       </c>
       <c r="AD43" s="5">
         <f t="shared" ref="AD43" si="61">AD41-AD42</f>
-        <v>8563.3396912333665</v>
+        <v>7281.9619328200843</v>
       </c>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
@@ -7138,7 +7158,9 @@
       <c r="T44" s="5">
         <v>113</v>
       </c>
-      <c r="U44" s="5"/>
+      <c r="U44" s="5">
+        <v>1</v>
+      </c>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
@@ -7231,7 +7253,10 @@
         <f>T43-T44</f>
         <v>3068</v>
       </c>
-      <c r="U45" s="5"/>
+      <c r="U45" s="5">
+        <f>U43-U44</f>
+        <v>7764</v>
+      </c>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
@@ -7324,7 +7349,7 @@
         <v>1.671</v>
       </c>
       <c r="K47" s="43">
-        <f t="shared" ref="K47:T47" si="64">+K45/K48</f>
+        <f t="shared" ref="K47:U47" si="64">+K45/K48</f>
         <v>2.3027375201288245</v>
       </c>
       <c r="L47" s="43">
@@ -7363,7 +7388,10 @@
         <f t="shared" si="64"/>
         <v>1.3857271906052393</v>
       </c>
-      <c r="U47" s="43"/>
+      <c r="U47" s="43">
+        <f t="shared" si="64"/>
+        <v>3.5500685871056241</v>
+      </c>
       <c r="V47" s="43"/>
       <c r="W47" s="43"/>
       <c r="X47" s="43"/>
@@ -7445,7 +7473,9 @@
       <c r="T48" s="5">
         <v>2214</v>
       </c>
-      <c r="U48" s="5"/>
+      <c r="U48" s="5">
+        <v>2187</v>
+      </c>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
@@ -7541,7 +7571,10 @@
         <f>T15/T17</f>
         <v>6.3582279207511666E-2</v>
       </c>
-      <c r="U50" s="3"/>
+      <c r="U50" s="44">
+        <f>U15/U17</f>
+        <v>5.8383556070040338E-2</v>
+      </c>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
@@ -7590,7 +7623,7 @@
         <v>1.2494669509594885</v>
       </c>
       <c r="O51" s="44">
-        <f t="shared" ref="O51:T53" si="68">O19/N19-1</f>
+        <f t="shared" ref="O51:U53" si="68">O19/N19-1</f>
         <v>9.2469720905739905E-2</v>
       </c>
       <c r="P51" s="44">
@@ -7613,7 +7646,10 @@
         <f t="shared" si="68"/>
         <v>-2.7087646652864006E-2</v>
       </c>
-      <c r="U51" s="3"/>
+      <c r="U51" s="44">
+        <f t="shared" si="68"/>
+        <v>2.2699060117042036E-2</v>
+      </c>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
@@ -7688,7 +7724,10 @@
         <f t="shared" si="68"/>
         <v>-5.3564113068414576E-2</v>
       </c>
-      <c r="U52" s="3"/>
+      <c r="U52" s="44">
+        <f t="shared" si="68"/>
+        <v>7.358510983659805E-3</v>
+      </c>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
@@ -7763,7 +7802,10 @@
         <f t="shared" si="68"/>
         <v>-7.7135461604831757E-2</v>
       </c>
-      <c r="U53" s="3"/>
+      <c r="U53" s="44">
+        <f t="shared" si="68"/>
+        <v>-0.1086387434554974</v>
+      </c>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
@@ -7811,7 +7853,7 @@
         <v>216</v>
       </c>
       <c r="O54" s="44">
-        <f t="shared" ref="O54:T57" si="72">O22/N22-1</f>
+        <f t="shared" ref="O54:U57" si="72">O22/N22-1</f>
         <v>0.26100628930817615</v>
       </c>
       <c r="P54" s="44">
@@ -7834,7 +7876,10 @@
         <f t="shared" si="72"/>
         <v>-5.0220750551876359E-2</v>
       </c>
-      <c r="U54" s="3"/>
+      <c r="U54" s="44">
+        <f t="shared" si="72"/>
+        <v>-0.10400929692039507</v>
+      </c>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
@@ -7905,7 +7950,10 @@
         <f t="shared" si="72"/>
         <v>-7.5301204819277157E-2</v>
       </c>
-      <c r="U55" s="3"/>
+      <c r="U55" s="44">
+        <f t="shared" si="72"/>
+        <v>-7.6004343105320338E-3</v>
+      </c>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
@@ -7976,7 +8024,10 @@
         <f t="shared" si="72"/>
         <v>0.46567717996289426</v>
       </c>
-      <c r="U56" s="3"/>
+      <c r="U56" s="44">
+        <f t="shared" si="72"/>
+        <v>0.47468354430379756</v>
+      </c>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
@@ -8047,7 +8098,10 @@
         <f t="shared" si="72"/>
         <v>-6.1049011177988E-2</v>
       </c>
-      <c r="U57" s="3"/>
+      <c r="U57" s="44">
+        <f t="shared" si="72"/>
+        <v>-4.4871794871794823E-2</v>
+      </c>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
@@ -8095,7 +8149,7 @@
         <v>216</v>
       </c>
       <c r="O58" s="44">
-        <f t="shared" ref="O58:T60" si="73">O27/N27-1</f>
+        <f t="shared" ref="O58:U60" si="73">O27/N27-1</f>
         <v>0.48806366047745353</v>
       </c>
       <c r="P58" s="44">
@@ -8118,7 +8172,10 @@
         <f t="shared" si="73"/>
         <v>-6.436584041975757E-2</v>
       </c>
-      <c r="U58" s="3"/>
+      <c r="U58" s="44">
+        <f t="shared" si="73"/>
+        <v>-2.3398598017887351E-2</v>
+      </c>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
@@ -8188,6 +8245,10 @@
         <f t="shared" si="73"/>
         <v>-1.0526315789473717E-2</v>
       </c>
+      <c r="U59" s="44">
+        <f t="shared" si="73"/>
+        <v>0.14893617021276606</v>
+      </c>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
@@ -8251,44 +8312,44 @@
         <v>-5.190045083018735E-2</v>
       </c>
       <c r="U60" s="46">
-        <f t="shared" ref="U60:AC60" si="74">U29/T29-1</f>
-        <v>2.0666486256626371E-4</v>
+        <f t="shared" si="73"/>
+        <v>-9.9354389763018913E-3</v>
       </c>
       <c r="V60" s="46">
-        <f t="shared" si="74"/>
-        <v>6.5032132146281008E-4</v>
+        <f t="shared" ref="U60:AC60" si="74">V29/U29-1</f>
+        <v>-5.0719495704765971E-2</v>
       </c>
       <c r="W60" s="46">
         <f t="shared" si="74"/>
-        <v>1.1089420414018836E-3</v>
+        <v>-1.278178722893597E-3</v>
       </c>
       <c r="X60" s="46">
         <f t="shared" si="74"/>
-        <v>1.5826168384620587E-3</v>
+        <v>-8.9239901179460901E-4</v>
       </c>
       <c r="Y60" s="46">
         <f t="shared" si="74"/>
-        <v>2.0713969538483923E-3</v>
+        <v>-4.9249373167314925E-4</v>
       </c>
       <c r="Z60" s="46">
         <f t="shared" si="74"/>
-        <v>2.5752922422408453E-3</v>
+        <v>-7.8256361589201795E-5</v>
       </c>
       <c r="AA60" s="46">
         <f t="shared" si="74"/>
-        <v>3.0942684570276491E-3</v>
+        <v>3.5049271104381496E-4</v>
       </c>
       <c r="AB60" s="46">
         <f t="shared" si="74"/>
-        <v>-1.1021390747152027E-2</v>
+        <v>6.0254470795620962E-2</v>
       </c>
       <c r="AC60" s="46">
         <f t="shared" si="74"/>
-        <v>-7.0654739659491428E-3</v>
+        <v>-6.8718004028452961E-3</v>
       </c>
       <c r="AD60" s="46">
         <f t="shared" ref="AD60" si="75">AD29/AC29-1</f>
-        <v>-6.5992798357306093E-3</v>
+        <v>-6.4034339574201571E-3</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.2">
@@ -8362,44 +8423,44 @@
         <v>0.71906289867398621</v>
       </c>
       <c r="U61" s="44">
-        <f t="shared" si="76"/>
-        <v>0.71940182555846943</v>
+        <f t="shared" ref="U61" si="77">U33/U29</f>
+        <v>0.71296368606013272</v>
       </c>
       <c r="V61" s="44">
         <f t="shared" si="76"/>
-        <v>0.71986460175528599</v>
+        <v>0.69792987812510054</v>
       </c>
       <c r="W61" s="44">
         <f t="shared" si="76"/>
-        <v>0.72045473664853588</v>
+        <v>0.69784574110222086</v>
       </c>
       <c r="X61" s="44">
         <f t="shared" si="76"/>
-        <v>0.72117555417482515</v>
+        <v>0.69787828223874659</v>
       </c>
       <c r="Y61" s="44">
         <f t="shared" si="76"/>
-        <v>0.72203016449118507</v>
+        <v>0.69803168645492308</v>
       </c>
       <c r="Z61" s="44">
         <f t="shared" si="76"/>
-        <v>0.7230214350762092</v>
+        <v>0.69831004561030952</v>
       </c>
       <c r="AA61" s="44">
         <f t="shared" si="76"/>
-        <v>0.72415196152551764</v>
+        <v>0.69871733294346627</v>
       </c>
       <c r="AB61" s="44">
         <f t="shared" si="76"/>
-        <v>0.72135677368775775</v>
+        <v>0.71612344707811604</v>
       </c>
       <c r="AC61" s="44">
         <f t="shared" si="76"/>
-        <v>0.71965464410048707</v>
+        <v>0.71444504698990874</v>
       </c>
       <c r="AD61" s="44">
-        <f t="shared" ref="AD61" si="77">AD33/AD29</f>
-        <v>0.71807448408402441</v>
+        <f t="shared" ref="AD61" si="78">AD33/AD29</f>
+        <v>0.71289212563073989</v>
       </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.2">
@@ -8429,87 +8490,87 @@
       <c r="H62" s="44"/>
       <c r="I62" s="3"/>
       <c r="J62" s="44">
-        <f t="shared" ref="J62:AC62" si="78">J38/J29</f>
+        <f t="shared" ref="J62:AC62" si="79">J38/J29</f>
         <v>0.32538830434471405</v>
       </c>
       <c r="K62" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.34775641025641024</v>
       </c>
       <c r="L62" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.31557182563893971</v>
       </c>
       <c r="M62" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.31914054799921149</v>
       </c>
       <c r="N62" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.38024661113833086</v>
       </c>
       <c r="O62" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.34841751362213547</v>
       </c>
       <c r="P62" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.38648355058969586</v>
       </c>
       <c r="Q62" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.39845818408347611</v>
       </c>
       <c r="R62" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.38050985355270295</v>
       </c>
       <c r="S62" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-0.57731920976432205</v>
       </c>
       <c r="T62" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0.1057718328372057</v>
       </c>
       <c r="U62" s="44">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="U62" si="80">U38/U29</f>
+        <v>0.39035532994923861</v>
+      </c>
+      <c r="V62" s="44">
+        <f t="shared" si="79"/>
         <v>0.39</v>
       </c>
-      <c r="V62" s="44">
-        <f t="shared" si="78"/>
+      <c r="W62" s="44">
+        <f t="shared" si="79"/>
         <v>0.39</v>
       </c>
-      <c r="W62" s="44">
-        <f t="shared" si="78"/>
+      <c r="X62" s="44">
+        <f t="shared" si="79"/>
+        <v>0.38999999999999996</v>
+      </c>
+      <c r="Y62" s="44">
+        <f t="shared" si="79"/>
         <v>0.39</v>
       </c>
-      <c r="X62" s="44">
-        <f t="shared" si="78"/>
+      <c r="Z62" s="44">
+        <f t="shared" si="79"/>
         <v>0.39</v>
       </c>
-      <c r="Y62" s="44">
-        <f t="shared" si="78"/>
+      <c r="AA62" s="44">
+        <f t="shared" si="79"/>
+        <v>0.39</v>
+      </c>
+      <c r="AB62" s="44">
+        <f t="shared" si="79"/>
+        <v>0.39</v>
+      </c>
+      <c r="AC62" s="44">
+        <f t="shared" si="79"/>
         <v>0.39000000000000007</v>
       </c>
-      <c r="Z62" s="44">
-        <f t="shared" si="78"/>
-        <v>0.38999999999999996</v>
-      </c>
-      <c r="AA62" s="44">
-        <f t="shared" si="78"/>
-        <v>0.39</v>
-      </c>
-      <c r="AB62" s="44">
-        <f t="shared" si="78"/>
-        <v>0.39</v>
-      </c>
-      <c r="AC62" s="44">
-        <f t="shared" si="78"/>
-        <v>0.39</v>
-      </c>
       <c r="AD62" s="44">
-        <f t="shared" ref="AD62" si="79">AD38/AD29</f>
+        <f t="shared" ref="AD62" si="81">AD38/AD29</f>
         <v>0.39</v>
       </c>
     </row>
@@ -8540,88 +8601,88 @@
       <c r="H63" s="44"/>
       <c r="I63" s="3"/>
       <c r="J63" s="44">
-        <f t="shared" ref="J63:AC63" si="80">J43/J29</f>
+        <f t="shared" ref="J63:AC63" si="82">J43/J29</f>
         <v>0.24286021043590295</v>
       </c>
       <c r="K63" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.34508547008547008</v>
       </c>
       <c r="L63" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.3280455562334757</v>
       </c>
       <c r="M63" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.0584466784939879</v>
       </c>
       <c r="N63" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.25355218030377263</v>
       </c>
       <c r="O63" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.22603083819608147</v>
       </c>
       <c r="P63" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.25465549348230915</v>
       </c>
       <c r="Q63" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.27153091418782122</v>
       </c>
       <c r="R63" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.24755017175917557</v>
       </c>
       <c r="S63" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>-0.52006744126379068</v>
       </c>
       <c r="T63" s="44">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.12297521939150269</v>
       </c>
       <c r="U63" s="44">
-        <f t="shared" si="80"/>
-        <v>0.34940290089428228</v>
+        <f t="shared" ref="U63" si="83">U43/U29</f>
+        <v>0.3032018742678641</v>
       </c>
       <c r="V63" s="44">
-        <f t="shared" si="80"/>
-        <v>0.34792939507247039</v>
+        <f t="shared" si="82"/>
+        <v>0.30106713906246318</v>
       </c>
       <c r="W63" s="44">
-        <f t="shared" si="80"/>
-        <v>0.34641604814006322</v>
+        <f t="shared" si="82"/>
+        <v>0.29940066635654683</v>
       </c>
       <c r="X63" s="44">
-        <f t="shared" si="80"/>
-        <v>0.34486214671050303</v>
+        <f t="shared" si="82"/>
+        <v>0.2977025994572024</v>
       </c>
       <c r="Y63" s="44">
-        <f t="shared" si="80"/>
-        <v>0.34326699674266176</v>
+        <f t="shared" si="82"/>
+        <v>0.29597230356552429</v>
       </c>
       <c r="Z63" s="44">
-        <f t="shared" si="80"/>
-        <v>0.34162992593908542</v>
+        <f t="shared" si="82"/>
+        <v>0.2942091266046486</v>
       </c>
       <c r="AA63" s="44">
-        <f t="shared" si="80"/>
-        <v>0.33995028608577638</v>
+        <f t="shared" si="82"/>
+        <v>0.29241239851774808</v>
       </c>
       <c r="AB63" s="44">
-        <f t="shared" si="80"/>
-        <v>0.33858867239083656</v>
+        <f t="shared" si="82"/>
+        <v>0.29082080778735453</v>
       </c>
       <c r="AC63" s="44">
-        <f t="shared" si="80"/>
-        <v>0.33709584772692325</v>
+        <f t="shared" si="82"/>
+        <v>0.28892014048717796</v>
       </c>
       <c r="AD63" s="44">
-        <f t="shared" ref="AD63" si="81">AD43/AD29</f>
-        <v>0.33555793521356464</v>
+        <f t="shared" ref="AD63" si="84">AD43/AD29</f>
+        <v>0.28698400451201461</v>
       </c>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.2">
@@ -8651,87 +8712,88 @@
       <c r="H64" s="44"/>
       <c r="I64" s="3"/>
       <c r="J64" s="44">
-        <f t="shared" ref="J64:T64" si="82">J42/J41</f>
+        <f t="shared" ref="J64:T64" si="85">J42/J41</f>
         <v>0.30012376237623761</v>
       </c>
       <c r="K64" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.22766865926558497</v>
       </c>
       <c r="L64" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.22514011208967175</v>
       </c>
       <c r="M64" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.27417120070291645</v>
       </c>
       <c r="N64" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.25637648185846007</v>
       </c>
       <c r="O64" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.26074317492416582</v>
       </c>
       <c r="P64" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.24308118081180813</v>
       </c>
       <c r="Q64" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.23889555822328931</v>
       </c>
       <c r="R64" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.26576576576576577</v>
       </c>
       <c r="S64" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.16833714319207549</v>
       </c>
       <c r="T64" s="44">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>0.10090446579988695</v>
       </c>
       <c r="U64" s="44">
-        <v>0.17</v>
+        <f t="shared" ref="U64" si="86">U42/U41</f>
+        <v>0.21239476620346892</v>
       </c>
       <c r="V64" s="44">
         <f>U64*(1+2%)</f>
-        <v>0.17340000000000003</v>
+        <v>0.2166426615275383</v>
       </c>
       <c r="W64" s="44">
-        <f t="shared" ref="W64:AD64" si="83">V64*(1+2%)</f>
-        <v>0.17686800000000003</v>
+        <f t="shared" ref="W64:AD64" si="87">V64*(1+2%)</f>
+        <v>0.22097551475808908</v>
       </c>
       <c r="X64" s="44">
-        <f t="shared" si="83"/>
-        <v>0.18040536000000004</v>
+        <f t="shared" si="87"/>
+        <v>0.22539502505325087</v>
       </c>
       <c r="Y64" s="44">
-        <f t="shared" si="83"/>
-        <v>0.18401346720000006</v>
+        <f t="shared" si="87"/>
+        <v>0.22990292555431591</v>
       </c>
       <c r="Z64" s="44">
-        <f t="shared" si="83"/>
-        <v>0.18769373654400007</v>
+        <f t="shared" si="87"/>
+        <v>0.23450098406540223</v>
       </c>
       <c r="AA64" s="44">
-        <f t="shared" si="83"/>
-        <v>0.19144761127488008</v>
+        <f t="shared" si="87"/>
+        <v>0.23919100374671029</v>
       </c>
       <c r="AB64" s="44">
-        <f t="shared" si="83"/>
-        <v>0.1952765635003777</v>
+        <f t="shared" si="87"/>
+        <v>0.24397482382164451</v>
       </c>
       <c r="AC64" s="44">
-        <f t="shared" si="83"/>
-        <v>0.19918209477038526</v>
+        <f t="shared" si="87"/>
+        <v>0.24885432029807741</v>
       </c>
       <c r="AD64" s="44">
-        <f t="shared" si="83"/>
-        <v>0.20316573666579296</v>
+        <f t="shared" si="87"/>
+        <v>0.25383140670403898</v>
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
@@ -8810,7 +8872,9 @@
       <c r="T66" s="5">
         <v>94276</v>
       </c>
-      <c r="U66" s="5"/>
+      <c r="U66" s="5">
+        <v>86934</v>
+      </c>
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
       <c r="X66" s="5"/>
@@ -8834,7 +8898,7 @@
         <v>4521</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" ref="D67:D73" si="84">S67</f>
+        <f t="shared" ref="D67:D73" si="88">S67</f>
         <v>4583</v>
       </c>
       <c r="E67" s="5">
@@ -8879,7 +8943,9 @@
       <c r="T67" s="5">
         <v>4379</v>
       </c>
-      <c r="U67" s="5"/>
+      <c r="U67" s="5">
+        <v>4483</v>
+      </c>
       <c r="V67" s="5"/>
       <c r="W67" s="5"/>
       <c r="X67" s="5"/>
@@ -8903,7 +8969,7 @@
         <v>2061</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>1970</v>
       </c>
       <c r="E68" s="5">
@@ -8948,7 +9014,9 @@
       <c r="T68" s="5">
         <v>1902</v>
       </c>
-      <c r="U68" s="5"/>
+      <c r="U68" s="5">
+        <v>1521</v>
+      </c>
       <c r="V68" s="5"/>
       <c r="W68" s="5"/>
       <c r="X68" s="5"/>
@@ -8972,7 +9040,7 @@
         <v>1027</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>956</v>
       </c>
       <c r="E69" s="5">
@@ -9017,7 +9085,9 @@
       <c r="T69" s="5">
         <v>937</v>
       </c>
-      <c r="U69" s="5"/>
+      <c r="U69" s="5">
+        <v>880</v>
+      </c>
       <c r="V69" s="5"/>
       <c r="W69" s="5"/>
       <c r="X69" s="5"/>
@@ -9041,7 +9111,7 @@
         <v>720</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>911</v>
       </c>
       <c r="E70" s="5">
@@ -9086,7 +9156,9 @@
       <c r="T70" s="5">
         <v>2573</v>
       </c>
-      <c r="U70" s="5"/>
+      <c r="U70" s="5">
+        <v>2032</v>
+      </c>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
       <c r="X70" s="5"/>
@@ -9110,7 +9182,7 @@
         <v>284</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>321</v>
       </c>
       <c r="E71" s="5">
@@ -9155,7 +9227,9 @@
       <c r="T71" s="5">
         <v>282</v>
       </c>
-      <c r="U71" s="5"/>
+      <c r="U71" s="5">
+        <v>288</v>
+      </c>
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
       <c r="X71" s="5"/>
@@ -9179,7 +9253,7 @@
         <v>111</v>
       </c>
       <c r="D72" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>118</v>
       </c>
       <c r="E72" s="5">
@@ -9224,7 +9298,9 @@
       <c r="T72" s="5">
         <v>146</v>
       </c>
-      <c r="U72" s="5"/>
+      <c r="U72" s="5">
+        <v>333</v>
+      </c>
       <c r="V72" s="5"/>
       <c r="W72" s="5"/>
       <c r="X72" s="5"/>
@@ -9248,7 +9324,7 @@
         <v>130</v>
       </c>
       <c r="D73" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>109</v>
       </c>
       <c r="E73" s="5">
@@ -9293,7 +9369,9 @@
       <c r="T73" s="5">
         <v>110</v>
       </c>
-      <c r="U73" s="5"/>
+      <c r="U73" s="5">
+        <v>135</v>
+      </c>
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
       <c r="X73" s="5"/>
@@ -9314,61 +9392,61 @@
         <v>63</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" ref="C74:G74" si="85">SUM(C66:C73)</f>
+        <f t="shared" ref="C74:G74" si="89">SUM(C66:C73)</f>
         <v>130980</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>104530</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>103497</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="G74" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>96351</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5">
-        <f t="shared" ref="J74:L74" si="86">SUM(J66:J73)</f>
+        <f t="shared" ref="J74:L74" si="90">SUM(J66:J73)</f>
         <v>17035</v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>21701</v>
       </c>
       <c r="L74" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>27414</v>
       </c>
       <c r="M74" s="5">
-        <f t="shared" ref="M74:R74" si="87">SUM(M66:M73)</f>
+        <f t="shared" ref="M74:R74" si="91">SUM(M66:M73)</f>
         <v>127072</v>
       </c>
       <c r="N74" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>133687</v>
       </c>
       <c r="O74" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>127731</v>
       </c>
       <c r="P74" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>124078</v>
       </c>
       <c r="Q74" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>124558</v>
       </c>
       <c r="R74" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>138137</v>
       </c>
       <c r="S74" s="5">
@@ -9379,7 +9457,10 @@
         <f>SUM(T66:T73)</f>
         <v>104605</v>
       </c>
-      <c r="U74" s="5"/>
+      <c r="U74" s="5">
+        <f>SUM(U66:U73)</f>
+        <v>96606</v>
+      </c>
       <c r="V74" s="5"/>
       <c r="W74" s="5"/>
       <c r="X74" s="5"/>
@@ -9403,7 +9484,7 @@
         <v>5634</v>
       </c>
       <c r="D75" s="5">
-        <f t="shared" ref="D75:D81" si="88">S75</f>
+        <f t="shared" ref="D75:D81" si="92">S75</f>
         <v>4938</v>
       </c>
       <c r="E75" s="5">
@@ -9448,7 +9529,9 @@
       <c r="T75" s="5">
         <v>4616</v>
       </c>
-      <c r="U75" s="5"/>
+      <c r="U75" s="5">
+        <v>4382</v>
+      </c>
       <c r="V75" s="5"/>
       <c r="W75" s="5"/>
       <c r="X75" s="5"/>
@@ -9472,7 +9555,7 @@
         <v>160</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>172</v>
       </c>
       <c r="E76" s="5">
@@ -9517,7 +9600,9 @@
       <c r="T76" s="5">
         <v>67</v>
       </c>
-      <c r="U76" s="5"/>
+      <c r="U76" s="5">
+        <v>470</v>
+      </c>
       <c r="V76" s="5"/>
       <c r="W76" s="5"/>
       <c r="X76" s="5"/>
@@ -9541,7 +9626,7 @@
         <v>4219</v>
       </c>
       <c r="D77" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>3621</v>
       </c>
       <c r="E77" s="5">
@@ -9586,7 +9671,9 @@
       <c r="T77" s="5">
         <v>3604</v>
       </c>
-      <c r="U77" s="5"/>
+      <c r="U77" s="5">
+        <v>3802</v>
+      </c>
       <c r="V77" s="5"/>
       <c r="W77" s="5"/>
       <c r="X77" s="5"/>
@@ -9610,7 +9697,7 @@
         <v>451</v>
       </c>
       <c r="D78" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>601</v>
       </c>
       <c r="E78" s="5">
@@ -9655,7 +9742,9 @@
       <c r="T78" s="5">
         <v>513</v>
       </c>
-      <c r="U78" s="5"/>
+      <c r="U78" s="5">
+        <v>16</v>
+      </c>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
@@ -9679,7 +9768,7 @@
         <v>413</v>
       </c>
       <c r="D79" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>181</v>
       </c>
       <c r="E79" s="5">
@@ -9724,7 +9813,9 @@
       <c r="T79" s="5">
         <v>186</v>
       </c>
-      <c r="U79" s="5"/>
+      <c r="U79" s="5">
+        <v>162</v>
+      </c>
       <c r="V79" s="5"/>
       <c r="W79" s="5"/>
       <c r="X79" s="5"/>
@@ -9748,7 +9839,7 @@
         <v>3681</v>
       </c>
       <c r="D80" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>4659</v>
       </c>
       <c r="E80" s="5">
@@ -9793,7 +9884,9 @@
       <c r="T80" s="5">
         <v>5297</v>
       </c>
-      <c r="U80" s="5"/>
+      <c r="U80" s="5">
+        <v>3827</v>
+      </c>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
       <c r="X80" s="5"/>
@@ -9817,7 +9910,7 @@
         <v>534</v>
       </c>
       <c r="D81" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>14</v>
       </c>
       <c r="E81" s="5">
@@ -9862,7 +9955,9 @@
       <c r="T81" s="5">
         <v>11</v>
       </c>
-      <c r="U81" s="5"/>
+      <c r="U81" s="5">
+        <v>25</v>
+      </c>
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
       <c r="X81" s="5"/>
@@ -9883,61 +9978,61 @@
         <v>61</v>
       </c>
       <c r="C82" s="5">
-        <f t="shared" ref="C82:G82" si="89">SUM(C75:C81)</f>
+        <f t="shared" ref="C82:G82" si="93">SUM(C75:C81)</f>
         <v>15092</v>
       </c>
       <c r="D82" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>14186</v>
       </c>
       <c r="E82" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>15872</v>
       </c>
       <c r="F82" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="G82" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>13875</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5">
-        <f t="shared" ref="J82:M82" si="90">SUM(J75:J81)</f>
+        <f t="shared" ref="J82:M82" si="94">SUM(J75:J81)</f>
         <v>9132</v>
       </c>
       <c r="K82" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>9814</v>
       </c>
       <c r="L82" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>12359</v>
       </c>
       <c r="M82" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>13966</v>
       </c>
       <c r="N82" s="5">
-        <f t="shared" ref="N82:R82" si="91">SUM(N75:N81)</f>
+        <f t="shared" ref="N82:R82" si="95">SUM(N75:N81)</f>
         <v>12655</v>
       </c>
       <c r="O82" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>13274</v>
       </c>
       <c r="P82" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>13612</v>
       </c>
       <c r="Q82" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>12807</v>
       </c>
       <c r="R82" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>15409</v>
       </c>
       <c r="S82" s="5">
@@ -9948,7 +10043,10 @@
         <f>SUM(T75:T81)</f>
         <v>14294</v>
       </c>
-      <c r="U82" s="5"/>
+      <c r="U82" s="5">
+        <f>SUM(U75:U81)</f>
+        <v>12684</v>
+      </c>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
       <c r="X82" s="5"/>
@@ -9991,50 +10089,53 @@
       <c r="H83" s="41"/>
       <c r="I83" s="5"/>
       <c r="J83" s="41">
-        <f t="shared" ref="J83:T83" si="92">J82+J74</f>
+        <f t="shared" ref="J83:U83" si="96">J82+J74</f>
         <v>26167</v>
       </c>
       <c r="K83" s="41">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>31515</v>
       </c>
       <c r="L83" s="41">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>39773</v>
       </c>
       <c r="M83" s="41">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>141038</v>
       </c>
       <c r="N83" s="41">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>146342</v>
       </c>
       <c r="O83" s="41">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>141005</v>
       </c>
       <c r="P83" s="41">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>137690</v>
       </c>
       <c r="Q83" s="41">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>137365</v>
       </c>
       <c r="R83" s="41">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>153546</v>
       </c>
       <c r="S83" s="41">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>118716</v>
       </c>
       <c r="T83" s="41">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>118899</v>
       </c>
-      <c r="U83" s="5"/>
+      <c r="U83" s="41">
+        <f t="shared" si="96"/>
+        <v>109290</v>
+      </c>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
       <c r="X83" s="5"/>
@@ -10058,7 +10159,7 @@
         <v>614</v>
       </c>
       <c r="D84" s="5">
-        <f t="shared" ref="D84:D90" si="93">S84</f>
+        <f t="shared" ref="D84:D90" si="97">S84</f>
         <v>614</v>
       </c>
       <c r="E84" s="5">
@@ -10103,7 +10204,9 @@
       <c r="T84" s="5">
         <v>585</v>
       </c>
-      <c r="U84" s="5"/>
+      <c r="U84" s="5">
+        <v>577</v>
+      </c>
       <c r="V84" s="5"/>
       <c r="W84" s="5"/>
       <c r="X84" s="5"/>
@@ -10127,7 +10230,7 @@
         <v>26629</v>
       </c>
       <c r="D85" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>26630</v>
       </c>
       <c r="E85" s="5">
@@ -10172,7 +10275,9 @@
       <c r="T85" s="5">
         <v>26665</v>
       </c>
-      <c r="U85" s="5"/>
+      <c r="U85" s="5">
+        <v>26675</v>
+      </c>
       <c r="V85" s="5"/>
       <c r="W85" s="5"/>
       <c r="X85" s="5"/>
@@ -10196,7 +10301,7 @@
         <v>-1721</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>-894</v>
       </c>
       <c r="E86" s="5">
@@ -10241,7 +10346,9 @@
       <c r="T86" s="5">
         <v>-902</v>
       </c>
-      <c r="U86" s="5"/>
+      <c r="U86" s="5">
+        <v>-4148</v>
+      </c>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
@@ -10265,7 +10372,7 @@
         <v>45591</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>24531</v>
       </c>
       <c r="E87" s="5">
@@ -10310,7 +10417,9 @@
       <c r="T87" s="5">
         <v>21610</v>
       </c>
-      <c r="U87" s="5"/>
+      <c r="U87" s="5">
+        <v>22929</v>
+      </c>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
@@ -10334,7 +10443,7 @@
         <v>-500</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="E88" s="5">
@@ -10379,7 +10488,9 @@
       <c r="T88" s="5">
         <v>0</v>
       </c>
-      <c r="U88" s="5"/>
+      <c r="U88" s="5">
+        <v>0</v>
+      </c>
       <c r="V88" s="5"/>
       <c r="W88" s="5"/>
       <c r="X88" s="5"/>
@@ -10403,7 +10514,7 @@
         <v>1685</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>1685</v>
       </c>
       <c r="E89" s="5">
@@ -10448,7 +10559,9 @@
       <c r="T89" s="5">
         <v>1685</v>
       </c>
-      <c r="U89" s="5"/>
+      <c r="U89" s="5">
+        <v>1893</v>
+      </c>
       <c r="V89" s="5"/>
       <c r="W89" s="5"/>
       <c r="X89" s="5"/>
@@ -10472,7 +10585,7 @@
         <v>330</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>368</v>
       </c>
       <c r="E90" s="5">
@@ -10517,7 +10630,9 @@
       <c r="T90" s="5">
         <v>352</v>
       </c>
-      <c r="U90" s="5"/>
+      <c r="U90" s="5">
+        <v>219</v>
+      </c>
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
@@ -10538,61 +10653,61 @@
         <v>70</v>
       </c>
       <c r="C91" s="41">
-        <f t="shared" ref="C91:G91" si="94">SUM(C84:C90)</f>
+        <f t="shared" ref="C91:G91" si="98">SUM(C84:C90)</f>
         <v>72628</v>
       </c>
       <c r="D91" s="41">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>52934</v>
       </c>
       <c r="E91" s="41">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>54469</v>
       </c>
       <c r="F91" s="41">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="G91" s="41">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>47177</v>
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="41">
-        <f t="shared" ref="J91:M91" si="95">SUM(J84:J90)</f>
+        <f t="shared" ref="J91:M91" si="99">SUM(J84:J90)</f>
         <v>5814</v>
       </c>
       <c r="K91" s="41">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>5032</v>
       </c>
       <c r="L91" s="41">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>8406</v>
       </c>
       <c r="M91" s="41">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>61026</v>
       </c>
       <c r="N91" s="41">
-        <f t="shared" ref="N91:R91" si="96">SUM(N84:N90)</f>
+        <f t="shared" ref="N91:R91" si="100">SUM(N84:N90)</f>
         <v>65688</v>
       </c>
       <c r="O91" s="41">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>64160</v>
       </c>
       <c r="P91" s="41">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>62955</v>
       </c>
       <c r="Q91" s="41">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>67401</v>
       </c>
       <c r="R91" s="41">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>75710</v>
       </c>
       <c r="S91" s="41">
@@ -10603,7 +10718,10 @@
         <f>SUM(T84:T90)</f>
         <v>49995</v>
       </c>
-      <c r="U91" s="5"/>
+      <c r="U91" s="41">
+        <f>SUM(U84:U90)</f>
+        <v>48145</v>
+      </c>
       <c r="V91" s="5"/>
       <c r="W91" s="5"/>
       <c r="X91" s="5"/>
@@ -10627,7 +10745,7 @@
         <v>37140</v>
       </c>
       <c r="D92" s="5">
-        <f t="shared" ref="D92:D97" si="97">S92</f>
+        <f t="shared" ref="D92:D97" si="101">S92</f>
         <v>35406</v>
       </c>
       <c r="E92" s="5">
@@ -10672,7 +10790,9 @@
       <c r="T92" s="5">
         <v>32638</v>
       </c>
-      <c r="U92" s="5"/>
+      <c r="U92" s="5">
+        <v>31708</v>
+      </c>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
@@ -10696,7 +10816,7 @@
         <v>881</v>
       </c>
       <c r="D93" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>881</v>
       </c>
       <c r="E93" s="5">
@@ -10741,7 +10861,9 @@
       <c r="T93" s="5">
         <v>820</v>
       </c>
-      <c r="U93" s="5"/>
+      <c r="U93" s="5">
+        <v>801</v>
+      </c>
       <c r="V93" s="5"/>
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
@@ -10765,7 +10887,7 @@
         <v>17389</v>
       </c>
       <c r="D94" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>12192</v>
       </c>
       <c r="E94" s="5">
@@ -10810,7 +10932,9 @@
       <c r="T94" s="5">
         <v>11679</v>
       </c>
-      <c r="U94" s="5"/>
+      <c r="U94" s="5">
+        <v>10343</v>
+      </c>
       <c r="V94" s="5"/>
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
@@ -10834,7 +10958,7 @@
         <v>469</v>
       </c>
       <c r="D95" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>531</v>
       </c>
       <c r="E95" s="5">
@@ -10879,7 +11003,9 @@
       <c r="T95" s="5">
         <v>4071</v>
       </c>
-      <c r="U95" s="5"/>
+      <c r="U95" s="5">
+        <v>3161</v>
+      </c>
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
       <c r="X95" s="5"/>
@@ -10903,7 +11029,7 @@
         <v>944</v>
       </c>
       <c r="D96" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>893</v>
       </c>
       <c r="E96" s="5">
@@ -10948,7 +11074,9 @@
       <c r="T96" s="5">
         <v>685</v>
       </c>
-      <c r="U96" s="5"/>
+      <c r="U96" s="5">
+        <v>484</v>
+      </c>
       <c r="V96" s="5"/>
       <c r="W96" s="5"/>
       <c r="X96" s="5"/>
@@ -10972,7 +11100,7 @@
         <v>430</v>
       </c>
       <c r="D97" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="101"/>
         <v>206</v>
       </c>
       <c r="E97" s="5">
@@ -11017,7 +11145,9 @@
       <c r="T97" s="5">
         <v>268</v>
       </c>
-      <c r="U97" s="5"/>
+      <c r="U97" s="5">
+        <v>124</v>
+      </c>
       <c r="V97" s="5"/>
       <c r="W97" s="5"/>
       <c r="X97" s="5"/>
@@ -11038,61 +11168,61 @@
         <v>76</v>
       </c>
       <c r="C98" s="5">
-        <f t="shared" ref="C98:G98" si="98">SUM(C92:C97)</f>
+        <f t="shared" ref="C98:G98" si="102">SUM(C92:C97)</f>
         <v>57253</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>50109</v>
       </c>
       <c r="E98" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>46858</v>
       </c>
       <c r="F98" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
       <c r="G98" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>47053</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5">
-        <f t="shared" ref="J98:M98" si="99">SUM(J92:J97)</f>
+        <f t="shared" ref="J98:M98" si="103">SUM(J92:J97)</f>
         <v>11584</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>17477</v>
       </c>
       <c r="L98" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>19511</v>
       </c>
       <c r="M98" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="103"/>
         <v>64468</v>
       </c>
       <c r="N98" s="5">
-        <f t="shared" ref="N98:R98" si="100">SUM(N92:N97)</f>
+        <f t="shared" ref="N98:R98" si="104">SUM(N92:N97)</f>
         <v>64325</v>
       </c>
       <c r="O98" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>58022</v>
       </c>
       <c r="P98" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>59257</v>
       </c>
       <c r="Q98" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>54820</v>
       </c>
       <c r="R98" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>59983</v>
       </c>
       <c r="S98" s="5">
@@ -11103,7 +11233,10 @@
         <f>SUM(T92:T97)</f>
         <v>50161</v>
       </c>
-      <c r="U98" s="5"/>
+      <c r="U98" s="5">
+        <f>SUM(U92:U97)</f>
+        <v>46621</v>
+      </c>
       <c r="V98" s="5"/>
       <c r="W98" s="5"/>
       <c r="X98" s="5"/>
@@ -11127,7 +11260,7 @@
         <v>5029</v>
       </c>
       <c r="D99" s="5">
-        <f t="shared" ref="D99:D104" si="101">S99</f>
+        <f t="shared" ref="D99:D104" si="105">S99</f>
         <v>4324</v>
       </c>
       <c r="E99" s="5">
@@ -11172,7 +11305,9 @@
       <c r="T99" s="5">
         <v>4312</v>
       </c>
-      <c r="U99" s="5"/>
+      <c r="U99" s="5">
+        <v>3362</v>
+      </c>
       <c r="V99" s="5"/>
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
@@ -11196,7 +11331,7 @@
         <v>905</v>
       </c>
       <c r="D100" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>992</v>
       </c>
       <c r="E100" s="5">
@@ -11241,7 +11376,9 @@
       <c r="T100" s="5">
         <v>1681</v>
       </c>
-      <c r="U100" s="5"/>
+      <c r="U100" s="5">
+        <v>1129</v>
+      </c>
       <c r="V100" s="5"/>
       <c r="W100" s="5"/>
       <c r="X100" s="5"/>
@@ -11265,7 +11402,7 @@
         <v>483</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>468</v>
       </c>
       <c r="E101" s="5">
@@ -11310,7 +11447,9 @@
       <c r="T101" s="5">
         <v>3044</v>
       </c>
-      <c r="U101" s="5"/>
+      <c r="U101" s="5">
+        <v>608</v>
+      </c>
       <c r="V101" s="5"/>
       <c r="W101" s="5"/>
       <c r="X101" s="5"/>
@@ -11334,7 +11473,7 @@
         <v>9217</v>
       </c>
       <c r="D102" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>9700</v>
       </c>
       <c r="E102" s="5">
@@ -11379,7 +11518,9 @@
       <c r="T102" s="5">
         <v>9550</v>
       </c>
-      <c r="U102" s="5"/>
+      <c r="U102" s="5">
+        <v>9328</v>
+      </c>
       <c r="V102" s="5"/>
       <c r="W102" s="5"/>
       <c r="X102" s="5"/>
@@ -11403,7 +11544,7 @@
         <v>251</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>189</v>
       </c>
       <c r="E103" s="5">
@@ -11448,7 +11589,9 @@
       <c r="T103" s="5">
         <v>156</v>
       </c>
-      <c r="U103" s="5"/>
+      <c r="U103" s="5">
+        <v>91</v>
+      </c>
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
       <c r="X103" s="5"/>
@@ -11472,7 +11615,7 @@
         <v>306</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="E104" s="5">
@@ -11517,7 +11660,9 @@
       <c r="T104" s="5">
         <v>0</v>
       </c>
-      <c r="U104" s="5"/>
+      <c r="U104" s="5">
+        <v>6</v>
+      </c>
       <c r="V104" s="5"/>
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
@@ -11538,61 +11683,61 @@
         <v>78</v>
       </c>
       <c r="C105" s="5">
-        <f t="shared" ref="C105:G105" si="102">SUM(C99:C104)</f>
+        <f t="shared" ref="C105:G105" si="106">SUM(C99:C104)</f>
         <v>16191</v>
       </c>
       <c r="D105" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>15673</v>
       </c>
       <c r="E105" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>18042</v>
       </c>
       <c r="F105" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="G105" s="5">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>15996</v>
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5">
-        <f t="shared" ref="J105:M105" si="103">SUM(J99:J104)</f>
+        <f t="shared" ref="J105:M105" si="107">SUM(J99:J104)</f>
         <v>8769</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>9006</v>
       </c>
       <c r="L105" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>11856</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>15544</v>
       </c>
       <c r="N105" s="5">
-        <f t="shared" ref="N105:R105" si="104">SUM(N99:N104)</f>
+        <f t="shared" ref="N105:R105" si="108">SUM(N99:N104)</f>
         <v>16329</v>
       </c>
       <c r="O105" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>18823</v>
       </c>
       <c r="P105" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>15478</v>
       </c>
       <c r="Q105" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>15144</v>
       </c>
       <c r="R105" s="5">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>17853</v>
       </c>
       <c r="S105" s="5">
@@ -11603,7 +11748,10 @@
         <f>SUM(T99:T104)</f>
         <v>18743</v>
       </c>
-      <c r="U105" s="5"/>
+      <c r="U105" s="5">
+        <f>SUM(U99:U104)</f>
+        <v>14524</v>
+      </c>
       <c r="V105" s="5"/>
       <c r="W105" s="5"/>
       <c r="X105" s="5"/>
@@ -11646,50 +11794,53 @@
       <c r="H106" s="41"/>
       <c r="I106" s="5"/>
       <c r="J106" s="41">
-        <f t="shared" ref="J106:T106" si="105">J105+J98+J91</f>
+        <f t="shared" ref="J106:U106" si="109">J105+J98+J91</f>
         <v>26167</v>
       </c>
       <c r="K106" s="41">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>31515</v>
       </c>
       <c r="L106" s="41">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>39773</v>
       </c>
       <c r="M106" s="41">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>141038</v>
       </c>
       <c r="N106" s="41">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>146342</v>
       </c>
       <c r="O106" s="41">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>141005</v>
       </c>
       <c r="P106" s="41">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>137690</v>
       </c>
       <c r="Q106" s="41">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>137365</v>
       </c>
       <c r="R106" s="41">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>153546</v>
       </c>
       <c r="S106" s="41">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>118716</v>
       </c>
       <c r="T106" s="41">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>118899</v>
       </c>
-      <c r="U106" s="5"/>
+      <c r="U106" s="41">
+        <f t="shared" si="109"/>
+        <v>109290</v>
+      </c>
       <c r="V106" s="5"/>
       <c r="W106" s="5"/>
       <c r="X106" s="5"/>
@@ -11769,50 +11920,52 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5">
-        <f t="shared" ref="J108:T108" si="106">J38</f>
+        <f t="shared" ref="J108:T108" si="110">J38</f>
         <v>4546</v>
       </c>
       <c r="K108" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>4557</v>
       </c>
       <c r="L108" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>4655</v>
       </c>
       <c r="M108" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6476</v>
       </c>
       <c r="N108" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>9313</v>
       </c>
       <c r="O108" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>9016</v>
       </c>
       <c r="P108" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>9962</v>
       </c>
       <c r="Q108" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>10234</v>
       </c>
       <c r="R108" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>10523</v>
       </c>
       <c r="S108" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>-15751</v>
       </c>
       <c r="T108" s="5">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>2736</v>
       </c>
-      <c r="U108" s="5"/>
+      <c r="U108" s="5">
+        <v>9997</v>
+      </c>
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
       <c r="X108" s="5"/>
@@ -11836,7 +11989,7 @@
         <v>480</v>
       </c>
       <c r="D109" s="5">
-        <f t="shared" ref="D109:D116" si="107">S109-C109</f>
+        <f t="shared" ref="D109:D116" si="111">S109-C109</f>
         <v>28134</v>
       </c>
       <c r="E109" s="5">
@@ -11881,7 +12034,9 @@
       <c r="T109" s="5">
         <v>3101</v>
       </c>
-      <c r="U109" s="5"/>
+      <c r="U109" s="5">
+        <v>2547</v>
+      </c>
       <c r="V109" s="5"/>
       <c r="W109" s="5"/>
       <c r="X109" s="5"/>
@@ -11905,7 +12060,7 @@
         <v>-357</v>
       </c>
       <c r="D110" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>622</v>
       </c>
       <c r="E110" s="5">
@@ -11950,7 +12105,9 @@
       <c r="T110" s="5">
         <v>35</v>
       </c>
-      <c r="U110" s="5"/>
+      <c r="U110" s="5">
+        <v>112</v>
+      </c>
       <c r="V110" s="5"/>
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
@@ -11974,7 +12131,7 @@
         <v>-425</v>
       </c>
       <c r="D111" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>-62</v>
       </c>
       <c r="E111" s="5">
@@ -12019,7 +12176,9 @@
       <c r="T111" s="5">
         <v>-269</v>
       </c>
-      <c r="U111" s="5"/>
+      <c r="U111" s="5">
+        <v>-295</v>
+      </c>
       <c r="V111" s="5"/>
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
@@ -12043,7 +12202,7 @@
         <v>-897</v>
       </c>
       <c r="D112" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>610</v>
       </c>
       <c r="E112" s="5">
@@ -12088,7 +12247,9 @@
       <c r="T112" s="5">
         <v>-294</v>
       </c>
-      <c r="U112" s="5"/>
+      <c r="U112" s="5">
+        <v>-79</v>
+      </c>
       <c r="V112" s="5"/>
       <c r="W112" s="5"/>
       <c r="X112" s="5"/>
@@ -12112,7 +12273,7 @@
         <v>347</v>
       </c>
       <c r="D113" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>293</v>
       </c>
       <c r="E113" s="5">
@@ -12157,7 +12318,9 @@
       <c r="T113" s="5">
         <v>58</v>
       </c>
-      <c r="U113" s="5"/>
+      <c r="U113" s="5">
+        <v>-207</v>
+      </c>
       <c r="V113" s="5"/>
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
@@ -12181,7 +12344,7 @@
         <v>-55</v>
       </c>
       <c r="D114" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>-56</v>
       </c>
       <c r="E114" s="5">
@@ -12226,7 +12389,9 @@
       <c r="T114" s="5">
         <v>-76</v>
       </c>
-      <c r="U114" s="5"/>
+      <c r="U114" s="5">
+        <v>-31</v>
+      </c>
       <c r="V114" s="5"/>
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
@@ -12250,7 +12415,7 @@
         <v>-535</v>
       </c>
       <c r="D115" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>46</v>
       </c>
       <c r="E115" s="5">
@@ -12295,7 +12460,9 @@
       <c r="T115" s="5">
         <v>6322</v>
       </c>
-      <c r="U115" s="5"/>
+      <c r="U115" s="5">
+        <v>-3409</v>
+      </c>
       <c r="V115" s="5"/>
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
@@ -12319,7 +12486,7 @@
         <v>0</v>
       </c>
       <c r="D116" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="E116" s="5">
@@ -12365,7 +12532,9 @@
       <c r="T116" s="5">
         <v>0</v>
       </c>
-      <c r="U116" s="5"/>
+      <c r="U116" s="5">
+        <v>0</v>
+      </c>
       <c r="V116" s="5"/>
       <c r="W116" s="5"/>
       <c r="X116" s="5"/>
@@ -12386,41 +12555,41 @@
         <v>88</v>
       </c>
       <c r="C117" s="41">
-        <f t="shared" ref="C117:G117" si="108">SUM(C110:C116)</f>
+        <f t="shared" ref="C117:G117" si="112">SUM(C110:C116)</f>
         <v>-1922</v>
       </c>
       <c r="D117" s="41">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>1453</v>
       </c>
       <c r="E117" s="41">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>-1740</v>
       </c>
       <c r="F117" s="41">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="G117" s="41">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>-2544</v>
       </c>
       <c r="H117" s="41"/>
       <c r="I117" s="5"/>
       <c r="J117" s="41">
-        <f t="shared" ref="J117:M117" si="109">SUM(J110:J116)</f>
+        <f t="shared" ref="J117:M117" si="113">SUM(J110:J116)</f>
         <v>-484</v>
       </c>
       <c r="K117" s="41">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>469</v>
       </c>
       <c r="L117" s="41">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>-369</v>
       </c>
       <c r="M117" s="41">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>-1345</v>
       </c>
       <c r="N117" s="41">
@@ -12432,26 +12601,29 @@
         <v>314</v>
       </c>
       <c r="P117" s="41">
-        <f t="shared" ref="P117:T117" si="110">SUM(P110:P116)</f>
+        <f t="shared" ref="P117:U117" si="114">SUM(P110:P116)</f>
         <v>109</v>
       </c>
       <c r="Q117" s="41">
-        <f t="shared" si="110"/>
+        <f t="shared" si="114"/>
         <v>-62</v>
       </c>
       <c r="R117" s="41">
-        <f t="shared" si="110"/>
+        <f t="shared" si="114"/>
         <v>103</v>
       </c>
       <c r="S117" s="41">
-        <f t="shared" si="110"/>
+        <f t="shared" si="114"/>
         <v>-469</v>
       </c>
       <c r="T117" s="41">
-        <f t="shared" si="110"/>
+        <f t="shared" si="114"/>
         <v>5776</v>
       </c>
-      <c r="U117" s="5"/>
+      <c r="U117" s="41">
+        <f t="shared" si="114"/>
+        <v>-3909</v>
+      </c>
       <c r="V117" s="5"/>
       <c r="W117" s="5"/>
       <c r="X117" s="5"/>
@@ -12520,7 +12692,9 @@
       <c r="T118" s="5">
         <v>-40</v>
       </c>
-      <c r="U118" s="5"/>
+      <c r="U118" s="5">
+        <v>264</v>
+      </c>
       <c r="V118" s="5"/>
       <c r="W118" s="5"/>
       <c r="X118" s="5"/>
@@ -12589,7 +12763,9 @@
       <c r="T119" s="5">
         <v>406</v>
       </c>
-      <c r="U119" s="5"/>
+      <c r="U119" s="5">
+        <v>369</v>
+      </c>
       <c r="V119" s="5"/>
       <c r="W119" s="5"/>
       <c r="X119" s="5"/>
@@ -12658,7 +12834,9 @@
       <c r="T120" s="5">
         <v>-1854</v>
       </c>
-      <c r="U120" s="5"/>
+      <c r="U120" s="5">
+        <v>-2926</v>
+      </c>
       <c r="V120" s="5"/>
       <c r="W120" s="5"/>
       <c r="X120" s="5"/>
@@ -12679,41 +12857,41 @@
         <v>89</v>
       </c>
       <c r="C121" s="41">
-        <f t="shared" ref="C121:G121" si="111">C108+C109+C117+C118+C119+C120</f>
+        <f t="shared" ref="C121:G121" si="115">C108+C109+C117+C118+C119+C120</f>
         <v>3375</v>
       </c>
       <c r="D121" s="41">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>7339</v>
       </c>
       <c r="E121" s="41">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>3165</v>
       </c>
       <c r="F121" s="41">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>-1522</v>
       </c>
       <c r="G121" s="41">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>2309</v>
       </c>
       <c r="H121" s="41"/>
       <c r="I121" s="5"/>
       <c r="J121" s="41">
-        <f t="shared" ref="J121:M121" si="112">J108+J109+J117+J118+J119+J120</f>
+        <f t="shared" ref="J121:M121" si="116">J108+J109+J117+J118+J119+J120</f>
         <v>3716</v>
       </c>
       <c r="K121" s="41">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>4720</v>
       </c>
       <c r="L121" s="41">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>4610</v>
       </c>
       <c r="M121" s="41">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>5347</v>
       </c>
       <c r="N121" s="41">
@@ -12721,19 +12899,19 @@
         <v>10295</v>
       </c>
       <c r="O121" s="41">
-        <f t="shared" ref="O121:R121" si="113">O108+O109+O117+O118+O119+O120</f>
+        <f t="shared" ref="O121:R121" si="117">O108+O109+O117+O118+O119+O120</f>
         <v>8996</v>
       </c>
       <c r="P121" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>9786</v>
       </c>
       <c r="Q121" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>9717</v>
       </c>
       <c r="R121" s="41">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>10394</v>
       </c>
       <c r="S121" s="41">
@@ -12744,7 +12922,10 @@
         <f>T108+T109+T117+T118+T119+T120</f>
         <v>10125</v>
       </c>
-      <c r="U121" s="5"/>
+      <c r="U121" s="41">
+        <f>U108+U109+U117+U118+U119+U120</f>
+        <v>6342</v>
+      </c>
       <c r="V121" s="5"/>
       <c r="W121" s="5"/>
       <c r="X121" s="5"/>
@@ -12768,7 +12949,7 @@
         <v>78</v>
       </c>
       <c r="D122" s="5">
-        <f t="shared" ref="D122:D130" si="114">S122-C122</f>
+        <f t="shared" ref="D122:D130" si="118">S122-C122</f>
         <v>67</v>
       </c>
       <c r="E122" s="5">
@@ -12813,7 +12994,9 @@
       <c r="T122" s="5">
         <v>187</v>
       </c>
-      <c r="U122" s="5"/>
+      <c r="U122" s="5">
+        <v>202</v>
+      </c>
       <c r="V122" s="5"/>
       <c r="W122" s="5"/>
       <c r="X122" s="5"/>
@@ -12837,7 +13020,7 @@
         <v>-110</v>
       </c>
       <c r="D123" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>-350</v>
       </c>
       <c r="E123" s="5">
@@ -12882,7 +13065,9 @@
       <c r="T123" s="5">
         <v>-486</v>
       </c>
-      <c r="U123" s="5"/>
+      <c r="U123" s="5">
+        <v>-551</v>
+      </c>
       <c r="V123" s="5"/>
       <c r="W123" s="5"/>
       <c r="X123" s="5"/>
@@ -12906,7 +13091,7 @@
         <v>22</v>
       </c>
       <c r="D124" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>32</v>
       </c>
       <c r="E124" s="5">
@@ -12951,7 +13136,9 @@
       <c r="T124" s="5">
         <v>145</v>
       </c>
-      <c r="U124" s="5"/>
+      <c r="U124" s="5">
+        <v>37</v>
+      </c>
       <c r="V124" s="5"/>
       <c r="W124" s="5"/>
       <c r="X124" s="5"/>
@@ -12975,7 +13162,7 @@
         <v>-21</v>
       </c>
       <c r="D125" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>-120</v>
       </c>
       <c r="E125" s="5">
@@ -13020,7 +13207,9 @@
       <c r="T125" s="5">
         <v>-122</v>
       </c>
-      <c r="U125" s="5"/>
+      <c r="U125" s="5">
+        <v>-153</v>
+      </c>
       <c r="V125" s="5"/>
       <c r="W125" s="5"/>
       <c r="X125" s="5"/>
@@ -13044,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="D126" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>27</v>
       </c>
       <c r="E126" s="5">
@@ -13089,7 +13278,9 @@
       <c r="T126" s="5">
         <v>39</v>
       </c>
-      <c r="U126" s="5"/>
+      <c r="U126" s="5">
+        <v>31</v>
+      </c>
       <c r="V126" s="5"/>
       <c r="W126" s="5"/>
       <c r="X126" s="5"/>
@@ -13113,7 +13304,7 @@
         <v>-433</v>
       </c>
       <c r="D127" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>-15</v>
       </c>
       <c r="E127" s="5">
@@ -13158,7 +13349,9 @@
       <c r="T127" s="5">
         <v>-216</v>
       </c>
-      <c r="U127" s="5"/>
+      <c r="U127" s="5">
+        <v>-54</v>
+      </c>
       <c r="V127" s="5"/>
       <c r="W127" s="5"/>
       <c r="X127" s="5"/>
@@ -13182,7 +13375,7 @@
         <v>543</v>
       </c>
       <c r="D128" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>-138</v>
       </c>
       <c r="E128" s="5">
@@ -13227,7 +13420,9 @@
       <c r="T128" s="5">
         <v>299</v>
       </c>
-      <c r="U128" s="5"/>
+      <c r="U128" s="5">
+        <v>848</v>
+      </c>
       <c r="V128" s="5"/>
       <c r="W128" s="5"/>
       <c r="X128" s="5"/>
@@ -13251,7 +13446,7 @@
         <v>-38</v>
       </c>
       <c r="D129" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>1</v>
       </c>
       <c r="E129" s="5">
@@ -13297,7 +13492,9 @@
       <c r="T129" s="5">
         <v>-48</v>
       </c>
-      <c r="U129" s="5"/>
+      <c r="U129" s="5">
+        <v>-29</v>
+      </c>
       <c r="V129" s="5"/>
       <c r="W129" s="5"/>
       <c r="X129" s="5"/>
@@ -13321,7 +13518,7 @@
         <v>0</v>
       </c>
       <c r="D130" s="5">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>159</v>
       </c>
       <c r="E130" s="5">
@@ -13366,7 +13563,10 @@
       <c r="T130" s="5">
         <v>1577</v>
       </c>
-      <c r="U130" s="5"/>
+      <c r="U130" s="5">
+        <f>1052+4</f>
+        <v>1056</v>
+      </c>
       <c r="V130" s="5"/>
       <c r="W130" s="5"/>
       <c r="X130" s="5"/>
@@ -13387,61 +13587,61 @@
         <v>99</v>
       </c>
       <c r="C131" s="41">
-        <f t="shared" ref="C131:G131" si="115">SUM(C122:C130)</f>
+        <f t="shared" ref="C131:G131" si="119">SUM(C122:C130)</f>
         <v>41</v>
       </c>
       <c r="D131" s="41">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>-337</v>
       </c>
       <c r="E131" s="41">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>1433</v>
       </c>
       <c r="F131" s="41">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="G131" s="41">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>1012</v>
       </c>
       <c r="H131" s="41"/>
       <c r="I131" s="5"/>
       <c r="J131" s="41">
-        <f t="shared" ref="J131:M131" si="116">SUM(J122:J130)</f>
+        <f t="shared" ref="J131:M131" si="120">SUM(J122:J130)</f>
         <v>-470</v>
       </c>
       <c r="K131" s="41">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>-3946</v>
       </c>
       <c r="L131" s="41">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>-640</v>
       </c>
       <c r="M131" s="41">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>-18544</v>
       </c>
       <c r="N131" s="41">
-        <f t="shared" ref="N131:R131" si="117">SUM(N122:N130)</f>
+        <f t="shared" ref="N131:R131" si="121">SUM(N122:N130)</f>
         <v>-1021</v>
       </c>
       <c r="O131" s="41">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>-639</v>
       </c>
       <c r="P131" s="41">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>-783</v>
       </c>
       <c r="Q131" s="41">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>-1140</v>
       </c>
       <c r="R131" s="41">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>-705</v>
       </c>
       <c r="S131" s="41">
@@ -13452,7 +13652,10 @@
         <f>SUM(T122:T130)</f>
         <v>1375</v>
       </c>
-      <c r="U131" s="5"/>
+      <c r="U131" s="41">
+        <f>SUM(U122:U130)</f>
+        <v>1387</v>
+      </c>
       <c r="V131" s="5"/>
       <c r="W131" s="5"/>
       <c r="X131" s="5"/>
@@ -13476,7 +13679,7 @@
         <v>-855</v>
       </c>
       <c r="D132" s="5">
-        <f t="shared" ref="D132:D139" si="118">S132-C132</f>
+        <f t="shared" ref="D132:D139" si="122">S132-C132</f>
         <v>-827</v>
       </c>
       <c r="E132" s="5">
@@ -13521,7 +13724,9 @@
       <c r="T132" s="5">
         <v>-1703</v>
       </c>
-      <c r="U132" s="5"/>
+      <c r="U132" s="5">
+        <v>-1631</v>
+      </c>
       <c r="V132" s="5"/>
       <c r="W132" s="5"/>
       <c r="X132" s="5"/>
@@ -13545,7 +13750,7 @@
         <v>-14</v>
       </c>
       <c r="D133" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>-16</v>
       </c>
       <c r="E133" s="5">
@@ -13590,7 +13795,9 @@
       <c r="T133" s="5">
         <v>-37</v>
       </c>
-      <c r="U133" s="5"/>
+      <c r="U133" s="5">
+        <v>-40</v>
+      </c>
       <c r="V133" s="5"/>
       <c r="W133" s="5"/>
       <c r="X133" s="5"/>
@@ -13614,7 +13821,7 @@
         <v>-80</v>
       </c>
       <c r="D134" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>-82</v>
       </c>
       <c r="E134" s="5">
@@ -13659,7 +13866,9 @@
       <c r="T134" s="5">
         <v>-165</v>
       </c>
-      <c r="U134" s="5"/>
+      <c r="U134" s="5">
+        <v>-177</v>
+      </c>
       <c r="V134" s="5"/>
       <c r="W134" s="5"/>
       <c r="X134" s="5"/>
@@ -13683,7 +13892,7 @@
         <v>2054</v>
       </c>
       <c r="D135" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>3080</v>
       </c>
       <c r="E135" s="5">
@@ -13728,7 +13937,9 @@
       <c r="T135" s="5">
         <v>2404</v>
       </c>
-      <c r="U135" s="5"/>
+      <c r="U135" s="5">
+        <v>3814</v>
+      </c>
       <c r="V135" s="5"/>
       <c r="W135" s="5"/>
       <c r="X135" s="5"/>
@@ -13752,7 +13963,7 @@
         <v>-1050</v>
       </c>
       <c r="D136" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>-5719</v>
       </c>
       <c r="E136" s="5">
@@ -13797,7 +14008,9 @@
       <c r="T136" s="5">
         <v>-4826</v>
       </c>
-      <c r="U136" s="5"/>
+      <c r="U136" s="5">
+        <v>-3932</v>
+      </c>
       <c r="V136" s="5"/>
       <c r="W136" s="5"/>
       <c r="X136" s="5"/>
@@ -13821,7 +14034,7 @@
         <v>-429</v>
       </c>
       <c r="D137" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>-51</v>
       </c>
       <c r="E137" s="5">
@@ -13866,7 +14079,9 @@
       <c r="T137" s="5">
         <v>-128</v>
       </c>
-      <c r="U137" s="5"/>
+      <c r="U137" s="5">
+        <v>-380</v>
+      </c>
       <c r="V137" s="5"/>
       <c r="W137" s="5"/>
       <c r="X137" s="5"/>
@@ -13890,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="D138" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="E138" s="5">
@@ -13935,7 +14150,9 @@
       <c r="T138" s="5">
         <v>-698</v>
       </c>
-      <c r="U138" s="5"/>
+      <c r="U138" s="5">
+        <v>-1112</v>
+      </c>
       <c r="V138" s="5"/>
       <c r="W138" s="5"/>
       <c r="X138" s="5"/>
@@ -13959,7 +14176,7 @@
         <v>-110</v>
       </c>
       <c r="D139" s="5">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="E139" s="5">
@@ -14004,7 +14221,9 @@
       <c r="T139" s="5">
         <v>-94</v>
       </c>
-      <c r="U139" s="5"/>
+      <c r="U139" s="5">
+        <v>-61</v>
+      </c>
       <c r="V139" s="5"/>
       <c r="W139" s="5"/>
       <c r="X139" s="5"/>
@@ -14072,7 +14291,10 @@
       <c r="T140" s="5">
         <v>0</v>
       </c>
-      <c r="U140" s="5"/>
+      <c r="U140" s="108">
+        <f>1050-883</f>
+        <v>167</v>
+      </c>
       <c r="V140" s="5"/>
       <c r="W140" s="5"/>
       <c r="X140" s="5"/>
@@ -14140,7 +14362,9 @@
       <c r="T141" s="5">
         <v>-56</v>
       </c>
-      <c r="U141" s="5"/>
+      <c r="U141" s="5">
+        <v>-54</v>
+      </c>
       <c r="V141" s="5"/>
       <c r="W141" s="5"/>
       <c r="X141" s="5"/>
@@ -14209,7 +14433,9 @@
       <c r="T142" s="5">
         <v>-5213</v>
       </c>
-      <c r="U142" s="5"/>
+      <c r="U142" s="5">
+        <v>-5238</v>
+      </c>
       <c r="V142" s="5"/>
       <c r="W142" s="5"/>
       <c r="X142" s="5"/>
@@ -14278,7 +14504,9 @@
       <c r="T143" s="5">
         <v>0</v>
       </c>
-      <c r="U143" s="5"/>
+      <c r="U143" s="5">
+        <v>-19</v>
+      </c>
       <c r="V143" s="5"/>
       <c r="W143" s="5"/>
       <c r="X143" s="5"/>
@@ -14347,7 +14575,9 @@
       <c r="T144" s="5">
         <v>-121</v>
       </c>
-      <c r="U144" s="5"/>
+      <c r="U144" s="5">
+        <v>-100</v>
+      </c>
       <c r="V144" s="5"/>
       <c r="W144" s="5"/>
       <c r="X144" s="5"/>
@@ -14419,7 +14649,9 @@
       <c r="T145" s="5">
         <v>5</v>
       </c>
-      <c r="U145" s="5"/>
+      <c r="U145" s="5">
+        <v>1</v>
+      </c>
       <c r="V145" s="5"/>
       <c r="W145" s="5"/>
       <c r="X145" s="5"/>
@@ -14440,49 +14672,49 @@
         <v>110</v>
       </c>
       <c r="C146" s="41">
-        <f t="shared" ref="C146:G146" si="119">SUM(C132:C145)</f>
+        <f t="shared" ref="C146:G146" si="123">SUM(C132:C145)</f>
         <v>-3023</v>
       </c>
       <c r="D146" s="41">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>-6232</v>
       </c>
       <c r="E146" s="41">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>-3358</v>
       </c>
       <c r="F146" s="41">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="G146" s="41">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>-4117</v>
       </c>
       <c r="H146" s="41"/>
       <c r="I146" s="5"/>
       <c r="J146" s="41">
-        <f t="shared" ref="J146:M146" si="120">SUM(J132:J145)</f>
+        <f t="shared" ref="J146:M146" si="124">SUM(J132:J145)</f>
         <v>-3467</v>
       </c>
       <c r="K146" s="41">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>-219</v>
       </c>
       <c r="L146" s="41">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>-4229</v>
       </c>
       <c r="M146" s="41">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>14759</v>
       </c>
       <c r="N146" s="41">
-        <f t="shared" ref="N146:R146" si="121">SUM(N132:N145)</f>
+        <f t="shared" ref="N146:R146" si="125">SUM(N132:N145)</f>
         <v>-9630</v>
       </c>
       <c r="O146" s="41">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>-8593</v>
       </c>
       <c r="P146" s="41">
@@ -14490,11 +14722,11 @@
         <v>-7897</v>
       </c>
       <c r="Q146" s="41">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>-8749</v>
       </c>
       <c r="R146" s="41">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>-8878</v>
       </c>
       <c r="S146" s="41">
@@ -14505,7 +14737,10 @@
         <f>SUM(T132:T145)</f>
         <v>-10632</v>
       </c>
-      <c r="U146" s="5"/>
+      <c r="U146" s="41">
+        <f>SUM(U132:U145)</f>
+        <v>-8762</v>
+      </c>
       <c r="V146" s="5"/>
       <c r="W146" s="5"/>
       <c r="X146" s="5"/>
@@ -14609,7 +14844,9 @@
       <c r="T148" s="5">
         <v>0</v>
       </c>
-      <c r="U148" s="5"/>
+      <c r="U148" s="5">
+        <v>-208</v>
+      </c>
       <c r="V148" s="5"/>
       <c r="W148" s="5"/>
       <c r="X148" s="5"/>
@@ -14678,7 +14915,9 @@
       <c r="T149" s="5">
         <v>-281</v>
       </c>
-      <c r="U149" s="5"/>
+      <c r="U149" s="5">
+        <v>-76</v>
+      </c>
       <c r="V149" s="5"/>
       <c r="W149" s="5"/>
       <c r="X149" s="5"/>
@@ -14699,61 +14938,61 @@
         <v>113</v>
       </c>
       <c r="C150" s="41">
-        <f t="shared" ref="C150:G150" si="122">SUM(C148:C149,C146,C131,C121)</f>
+        <f t="shared" ref="C150:G150" si="126">SUM(C148:C149,C146,C131,C121)</f>
         <v>226</v>
       </c>
       <c r="D150" s="41">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>1013</v>
       </c>
       <c r="E150" s="41">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>1177</v>
       </c>
       <c r="F150" s="41">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>-1522</v>
       </c>
       <c r="G150" s="41">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>-940</v>
       </c>
       <c r="H150" s="41"/>
       <c r="I150" s="5"/>
       <c r="J150" s="41">
-        <f t="shared" ref="J150:R150" si="123">SUM(J148:J149,J146,J131,J121)</f>
+        <f t="shared" ref="J150:R150" si="127">SUM(J148:J149,J146,J131,J121)</f>
         <v>-284</v>
       </c>
       <c r="K150" s="41">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>283</v>
       </c>
       <c r="L150" s="41">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>-79</v>
       </c>
       <c r="M150" s="41">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>1171</v>
       </c>
       <c r="N150" s="41">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>-494</v>
       </c>
       <c r="O150" s="41">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>-293</v>
       </c>
       <c r="P150" s="41">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>853</v>
       </c>
       <c r="Q150" s="41">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>-425</v>
       </c>
       <c r="R150" s="41">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>874</v>
       </c>
       <c r="S150" s="41">
@@ -14764,7 +15003,10 @@
         <f>T149+T148+T146+T131+T121</f>
         <v>587</v>
       </c>
-      <c r="U150" s="5"/>
+      <c r="U150" s="41">
+        <f>U149+U148+U146+U131+U121</f>
+        <v>-1317</v>
+      </c>
       <c r="V150" s="5"/>
       <c r="W150" s="5"/>
       <c r="X150" s="5"/>
@@ -14801,39 +15043,39 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5">
-        <f t="shared" ref="J151:R151" si="124">J152-J150</f>
+        <f t="shared" ref="J151:R151" si="128">J152-J150</f>
         <v>1652</v>
       </c>
       <c r="K151" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>1368</v>
       </c>
       <c r="L151" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>1730</v>
       </c>
       <c r="M151" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>1651</v>
       </c>
       <c r="N151" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>2822</v>
       </c>
       <c r="O151" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>2328</v>
       </c>
       <c r="P151" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>2035</v>
       </c>
       <c r="Q151" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>2888</v>
       </c>
       <c r="R151" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>2463</v>
       </c>
       <c r="S151" s="5">
@@ -14843,7 +15085,9 @@
         <f>+S152</f>
         <v>4517</v>
       </c>
-      <c r="U151" s="5"/>
+      <c r="U151" s="5">
+        <v>5104</v>
+      </c>
       <c r="V151" s="5"/>
       <c r="W151" s="5"/>
       <c r="X151" s="5"/>
@@ -14890,31 +15134,31 @@
         <v>1651</v>
       </c>
       <c r="L152" s="5">
-        <f t="shared" ref="L152:R152" si="125">M151</f>
+        <f t="shared" ref="L152:R152" si="129">M151</f>
         <v>1651</v>
       </c>
       <c r="M152" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>2822</v>
       </c>
       <c r="N152" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>2328</v>
       </c>
       <c r="O152" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>2035</v>
       </c>
       <c r="P152" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>2888</v>
       </c>
       <c r="Q152" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>2463</v>
       </c>
       <c r="R152" s="5">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>3337</v>
       </c>
       <c r="S152" s="5">
@@ -14925,7 +15169,10 @@
         <f>+T150+T151</f>
         <v>5104</v>
       </c>
-      <c r="U152" s="5"/>
+      <c r="U152" s="108">
+        <f>+U150+U151</f>
+        <v>3787</v>
+      </c>
       <c r="V152" s="5"/>
       <c r="W152" s="5"/>
       <c r="X152" s="5"/>
@@ -16933,7 +17180,7 @@
       </c>
       <c r="N15" s="44">
         <f>N32/Model!T91</f>
-        <v>0.61614161416141611</v>
+        <v>0.62492249224922491</v>
       </c>
       <c r="P15" s="44">
         <f t="shared" ref="P15:P16" si="7">AVERAGE(C15:M15)</f>
@@ -17049,7 +17296,7 @@
       </c>
       <c r="N17" s="48">
         <f>N32/(Model!T38+Model!T109)</f>
-        <v>5.2773685112215176</v>
+        <v>5.352578379304437</v>
       </c>
       <c r="P17" s="48">
         <f>AVERAGE(C17:M17)</f>
@@ -17521,7 +17768,7 @@
       </c>
       <c r="N29" s="51">
         <f>Main!H3</f>
-        <v>40.700000000000003</v>
+        <v>43.76</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -17571,7 +17818,7 @@
       </c>
       <c r="N30" s="51">
         <f>Main!H4</f>
-        <v>2194</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -17621,7 +17868,7 @@
       </c>
       <c r="N31" s="5">
         <f>N30*N29</f>
-        <v>89295.8</v>
+        <v>95703.12</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -17671,7 +17918,7 @@
       </c>
       <c r="N32" s="51">
         <f>Main!H7-Main!H6</f>
-        <v>30804</v>
+        <v>31243</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
@@ -17721,7 +17968,7 @@
       </c>
       <c r="N33" s="52">
         <f>N31+N32</f>
-        <v>120099.8</v>
+        <v>126946.12</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
@@ -17790,11 +18037,11 @@
       </c>
       <c r="N36" s="49">
         <f>N31/Model!T43</f>
-        <v>28.071612700408679</v>
+        <v>30.085859792518075</v>
       </c>
       <c r="P36" s="49">
         <f>AVERAGE(N36,C36:L36)</f>
-        <v>16.201973004522916</v>
+        <v>16.403397713733856</v>
       </c>
       <c r="Q36" s="49">
         <f>MEDIAN(N36,C36:L36)</f>
@@ -17845,11 +18092,11 @@
       </c>
       <c r="N37" s="49">
         <f>N32/Model!T44</f>
-        <v>272.60176991150445</v>
+        <v>276.48672566371681</v>
       </c>
       <c r="P37" s="49">
         <f t="shared" ref="P37:P38" si="20">AVERAGE(N37,C37:L37)</f>
-        <v>42.185403169037457</v>
+        <v>42.617064919283273</v>
       </c>
       <c r="Q37" s="49">
         <f t="shared" ref="Q37:Q38" si="21">MEDIAN(N37,C37:L37)</f>
@@ -17896,7 +18143,7 @@
       </c>
       <c r="M38" s="49">
         <f>N31/Model!S91</f>
-        <v>1.6869271167869422</v>
+        <v>1.8079706804700191</v>
       </c>
       <c r="N38" s="49">
         <f>O31/Model!T91</f>
@@ -17978,11 +18225,11 @@
       </c>
       <c r="N41" s="49">
         <f>N33/(Model!T38+Model!T109)</f>
-        <v>20.575603906116157</v>
+        <v>21.748521500770945</v>
       </c>
       <c r="P41" s="49">
         <f>AVERAGE(C41:N41)</f>
-        <v>15.520214686714196</v>
+        <v>15.626843558955541</v>
       </c>
       <c r="Q41" s="49">
         <f>MEDIAN(C41:N41)</f>
@@ -18036,11 +18283,11 @@
       </c>
       <c r="N42" s="49">
         <f>N33/Model!T38</f>
-        <v>43.89612573099415</v>
+        <v>46.398435672514616</v>
       </c>
       <c r="P42" s="49">
         <f t="shared" ref="P42:P44" si="22">AVERAGE(C42:N42)</f>
-        <v>18.139944561078497</v>
+        <v>18.367427283034903</v>
       </c>
       <c r="Q42" s="49">
         <f t="shared" ref="Q42:Q44" si="23">MEDIAN(C42:N42)</f>
@@ -18145,11 +18392,11 @@
       </c>
       <c r="N44" s="49">
         <f>N33/Model!T29</f>
-        <v>4.6429736730196778</v>
+        <v>4.9076475818610579</v>
       </c>
       <c r="P44" s="49">
         <f t="shared" si="22"/>
-        <v>5.7513714428967884</v>
+        <v>5.7754327073369138</v>
       </c>
       <c r="Q44" s="49">
         <f t="shared" si="23"/>
@@ -18203,7 +18450,7 @@
       </c>
       <c r="N46" s="54">
         <f>(-1*Model!T142)/N31</f>
-        <v>5.8379005507537864E-2</v>
+        <v>5.4470533458052361E-2</v>
       </c>
       <c r="P46" s="55">
         <f>AVERAGE(C46:M46)</f>
@@ -18299,14 +18546,14 @@
       </c>
       <c r="J3" s="59">
         <f>+Main!H2</f>
-        <v>38.49</v>
+        <v>60.8</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>151</v>
       </c>
       <c r="O3" s="59">
         <f>+J3</f>
-        <v>38.49</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
@@ -18315,14 +18562,14 @@
       </c>
       <c r="E4" s="60">
         <f ca="1">+TODAY()</f>
-        <v>45902</v>
+        <v>46065</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>153</v>
       </c>
       <c r="J4" s="61">
         <f ca="1">V62</f>
-        <v>42.770481626373751</v>
+        <v>37.897675602149882</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>368</v>
@@ -18344,7 +18591,7 @@
       </c>
       <c r="J5" s="64">
         <f ca="1">J4/J3-1</f>
-        <v>0.11121022671794623</v>
+        <v>-0.37668296706990323</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>155</v>
@@ -18726,43 +18973,43 @@
       </c>
       <c r="M25" s="5">
         <f ca="1">L25*(1+M26)</f>
-        <v>25872.345800000003</v>
+        <v>25610</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" ref="N25:V25" ca="1" si="1">M25*(1+N26)</f>
-        <v>25889.171138110003</v>
+        <v>24311.073715000945</v>
       </c>
       <c r="O25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>25917.880728402102</v>
+        <v>24279.999817847733</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>25958.898802860123</v>
+        <v>24258.332370003911</v>
       </c>
       <c r="Q25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>26012.669986765628</v>
+        <v>24246.38529337084</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>26079.660213982515</v>
+        <v>24244.487859476092</v>
       </c>
       <c r="S25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>26160.357683952639</v>
+        <v>24252.985375753829</v>
       </c>
       <c r="T25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>25872.034159832536</v>
+        <v>25714.33617478381</v>
       </c>
       <c r="U25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>25689.235976030093</v>
+        <v>25537.632389099032</v>
       </c>
       <c r="V25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>25519.705519058152</v>
+        <v>25374.103846666563</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -18793,43 +19040,43 @@
       </c>
       <c r="M26" s="74" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">OFFSET(M26,$E$11,,)</f>
-        <v>2.0666486256626371E-4</v>
+        <v>-9.9354389763018913E-3</v>
       </c>
       <c r="N26" s="74" cm="1">
         <f t="array" aca="1" ref="N26" ca="1">OFFSET(N26,$E$11,,)</f>
-        <v>6.5032132146281008E-4</v>
+        <v>-5.0719495704765971E-2</v>
       </c>
       <c r="O26" s="74" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">OFFSET(O26,$E$11,,)</f>
-        <v>1.1089420414018836E-3</v>
+        <v>-1.278178722893597E-3</v>
       </c>
       <c r="P26" s="74" cm="1">
         <f t="array" aca="1" ref="P26" ca="1">OFFSET(P26,$E$11,,)</f>
-        <v>1.5826168384620587E-3</v>
+        <v>-8.9239901179460901E-4</v>
       </c>
       <c r="Q26" s="74" cm="1">
         <f t="array" aca="1" ref="Q26" ca="1">OFFSET(Q26,$E$11,,)</f>
-        <v>2.0713969538483923E-3</v>
+        <v>-4.9249373167314925E-4</v>
       </c>
       <c r="R26" s="74" cm="1">
         <f t="array" aca="1" ref="R26" ca="1">OFFSET(R26,$E$11,,)</f>
-        <v>2.5752922422408453E-3</v>
+        <v>-7.8256361589201795E-5</v>
       </c>
       <c r="S26" s="74" cm="1">
         <f t="array" aca="1" ref="S26" ca="1">OFFSET(S26,$E$11,,)</f>
-        <v>3.0942684570276491E-3</v>
+        <v>3.5049271104381496E-4</v>
       </c>
       <c r="T26" s="74" cm="1">
         <f t="array" aca="1" ref="T26" ca="1">OFFSET(T26,$E$11,,)</f>
-        <v>-1.1021390747152027E-2</v>
+        <v>6.0254470795620962E-2</v>
       </c>
       <c r="U26" s="74" cm="1">
         <f t="array" aca="1" ref="U26" ca="1">OFFSET(U26,$E$11,,)</f>
-        <v>-7.0654739659491428E-3</v>
+        <v>-6.8718004028452961E-3</v>
       </c>
       <c r="V26" s="74" cm="1">
         <f t="array" aca="1" ref="V26" ca="1">OFFSET(V26,$E$11,,)</f>
-        <v>-6.5992798357306093E-3</v>
+        <v>-6.4034339574201571E-3</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -18843,43 +19090,43 @@
       <c r="L27" s="44"/>
       <c r="M27" s="75">
         <f>+M28-1%</f>
-        <v>-9.7933351374337365E-3</v>
+        <v>-1.9935438976301893E-2</v>
       </c>
       <c r="N27" s="75">
         <f t="shared" ref="N27:V27" si="3">+N28-1%</f>
-        <v>-9.3496786785371901E-3</v>
+        <v>-6.0719495704765973E-2</v>
       </c>
       <c r="O27" s="75">
         <f t="shared" si="3"/>
-        <v>-8.8910579585981166E-3</v>
+        <v>-1.1278178722893597E-2</v>
       </c>
       <c r="P27" s="75">
         <f t="shared" si="3"/>
-        <v>-8.4173831615379415E-3</v>
+        <v>-1.0892399011794609E-2</v>
       </c>
       <c r="Q27" s="75">
         <f t="shared" si="3"/>
-        <v>-7.9286030461516079E-3</v>
+        <v>-1.0492493731673149E-2</v>
       </c>
       <c r="R27" s="75">
         <f t="shared" si="3"/>
-        <v>-7.4247077577591549E-3</v>
+        <v>-1.0078256361589202E-2</v>
       </c>
       <c r="S27" s="75">
         <f t="shared" si="3"/>
-        <v>-6.9057315429723511E-3</v>
+        <v>-9.6495072889561852E-3</v>
       </c>
       <c r="T27" s="75">
         <f t="shared" si="3"/>
-        <v>-2.1021390747152029E-2</v>
+        <v>5.025447079562096E-2</v>
       </c>
       <c r="U27" s="75">
         <f t="shared" si="3"/>
-        <v>-1.7065473965949145E-2</v>
+        <v>-1.6871800402845298E-2</v>
       </c>
       <c r="V27" s="75">
         <f t="shared" si="3"/>
-        <v>-1.6599279835730611E-2</v>
+        <v>-1.6403433957420159E-2</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -18893,43 +19140,43 @@
       <c r="L28" s="44"/>
       <c r="M28" s="75">
         <f>+Model!U60</f>
-        <v>2.0666486256626371E-4</v>
+        <v>-9.9354389763018913E-3</v>
       </c>
       <c r="N28" s="75">
         <f>+Model!V60</f>
-        <v>6.5032132146281008E-4</v>
+        <v>-5.0719495704765971E-2</v>
       </c>
       <c r="O28" s="75">
         <f>+Model!W60</f>
-        <v>1.1089420414018836E-3</v>
+        <v>-1.278178722893597E-3</v>
       </c>
       <c r="P28" s="75">
         <f>+Model!X60</f>
-        <v>1.5826168384620587E-3</v>
+        <v>-8.9239901179460901E-4</v>
       </c>
       <c r="Q28" s="75">
         <f>+Model!Y60</f>
-        <v>2.0713969538483923E-3</v>
+        <v>-4.9249373167314925E-4</v>
       </c>
       <c r="R28" s="75">
         <f>+Model!Z60</f>
-        <v>2.5752922422408453E-3</v>
+        <v>-7.8256361589201795E-5</v>
       </c>
       <c r="S28" s="75">
         <f>+Model!AA60</f>
-        <v>3.0942684570276491E-3</v>
+        <v>3.5049271104381496E-4</v>
       </c>
       <c r="T28" s="75">
         <f>+Model!AB60</f>
-        <v>-1.1021390747152027E-2</v>
+        <v>6.0254470795620962E-2</v>
       </c>
       <c r="U28" s="75">
         <f>+Model!AC60</f>
-        <v>-7.0654739659491428E-3</v>
+        <v>-6.8718004028452961E-3</v>
       </c>
       <c r="V28" s="75">
         <f>+Model!AD60</f>
-        <v>-6.5992798357306093E-3</v>
+        <v>-6.4034339574201571E-3</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -18943,43 +19190,43 @@
       <c r="L29" s="44"/>
       <c r="M29" s="75">
         <f>+M28+1%</f>
-        <v>1.0206664862566264E-2</v>
+        <v>6.4561023698108885E-5</v>
       </c>
       <c r="N29" s="75">
         <f t="shared" ref="N29:V29" si="4">+N28+1%</f>
-        <v>1.065032132146281E-2</v>
+        <v>-4.0719495704765969E-2</v>
       </c>
       <c r="O29" s="75">
         <f t="shared" si="4"/>
-        <v>1.1108942041401884E-2</v>
+        <v>8.7218212771064032E-3</v>
       </c>
       <c r="P29" s="75">
         <f t="shared" si="4"/>
-        <v>1.1582616838462059E-2</v>
+        <v>9.1076009882053912E-3</v>
       </c>
       <c r="Q29" s="75">
         <f t="shared" si="4"/>
-        <v>1.2071396953848392E-2</v>
+        <v>9.507506268326851E-3</v>
       </c>
       <c r="R29" s="75">
         <f t="shared" si="4"/>
-        <v>1.2575292242240846E-2</v>
+        <v>9.9217436384107984E-3</v>
       </c>
       <c r="S29" s="75">
         <f t="shared" si="4"/>
-        <v>1.3094268457027649E-2</v>
+        <v>1.0350492711043815E-2</v>
       </c>
       <c r="T29" s="75">
         <f t="shared" si="4"/>
-        <v>-1.0213907471520265E-3</v>
+        <v>7.0254470795620957E-2</v>
       </c>
       <c r="U29" s="75">
         <f t="shared" si="4"/>
-        <v>2.9345260340508574E-3</v>
+        <v>3.1281995971547041E-3</v>
       </c>
       <c r="V29" s="75">
         <f t="shared" si="4"/>
-        <v>3.4007201642693909E-3</v>
+        <v>3.5965660425798431E-3</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
@@ -19012,43 +19259,43 @@
       </c>
       <c r="M31" s="5">
         <f ca="1">M32*M25</f>
-        <v>10090.214862000001</v>
+        <v>9997</v>
       </c>
       <c r="N31" s="5">
         <f t="shared" ref="N31:V31" ca="1" si="5">N32*N25</f>
-        <v>10096.776743862902</v>
+        <v>9481.3187488503681</v>
       </c>
       <c r="O31" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>10107.97348407682</v>
+        <v>9469.1999289606156</v>
       </c>
       <c r="P31" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>10123.970533115449</v>
+        <v>9460.7496243015248</v>
       </c>
       <c r="Q31" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>10144.941294838596</v>
+        <v>9456.0902644146281</v>
       </c>
       <c r="R31" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>10171.06748345318</v>
+        <v>9455.3502651956769</v>
       </c>
       <c r="S31" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>10202.53949674153</v>
+        <v>9458.6642965439933</v>
       </c>
       <c r="T31" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>10090.093322334689</v>
+        <v>10028.591108165687</v>
       </c>
       <c r="U31" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>10018.802030651737</v>
+        <v>9959.6766317486235</v>
       </c>
       <c r="V31" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>9952.6851524326794</v>
+        <v>9895.9005001999594</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
@@ -19081,7 +19328,7 @@
       </c>
       <c r="M32" s="74" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">OFFSET(M32,$E$12,,)</f>
-        <v>0.39</v>
+        <v>0.39035532994923861</v>
       </c>
       <c r="N32" s="74" cm="1">
         <f t="array" aca="1" ref="N32" ca="1">OFFSET(N32,$E$12,,)</f>
@@ -19093,15 +19340,15 @@
       </c>
       <c r="P32" s="74" cm="1">
         <f t="array" aca="1" ref="P32" ca="1">OFFSET(P32,$E$12,,)</f>
-        <v>0.39</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="Q32" s="74" cm="1">
         <f t="array" aca="1" ref="Q32" ca="1">OFFSET(Q32,$E$12,,)</f>
-        <v>0.39000000000000007</v>
+        <v>0.39</v>
       </c>
       <c r="R32" s="74" cm="1">
         <f t="array" aca="1" ref="R32" ca="1">OFFSET(R32,$E$12,,)</f>
-        <v>0.38999999999999996</v>
+        <v>0.39</v>
       </c>
       <c r="S32" s="74" cm="1">
         <f t="array" aca="1" ref="S32" ca="1">OFFSET(S32,$E$12,,)</f>
@@ -19113,7 +19360,7 @@
       </c>
       <c r="U32" s="74" cm="1">
         <f t="array" aca="1" ref="U32" ca="1">OFFSET(U32,$E$12,,)</f>
-        <v>0.39</v>
+        <v>0.39000000000000007</v>
       </c>
       <c r="V32" s="74" cm="1">
         <f t="array" aca="1" ref="V32" ca="1">OFFSET(V32,$E$12,,)</f>
@@ -19126,7 +19373,7 @@
       </c>
       <c r="M33" s="75">
         <f>+M34-2%</f>
-        <v>0.37</v>
+        <v>0.37035532994923859</v>
       </c>
       <c r="N33" s="75">
         <f t="shared" ref="N33:V33" si="7">+N34-2%</f>
@@ -19138,15 +19385,15 @@
       </c>
       <c r="P33" s="75">
         <f t="shared" si="7"/>
-        <v>0.37</v>
+        <v>0.36999999999999994</v>
       </c>
       <c r="Q33" s="75">
         <f t="shared" si="7"/>
-        <v>0.37000000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="R33" s="75">
         <f t="shared" si="7"/>
-        <v>0.36999999999999994</v>
+        <v>0.37</v>
       </c>
       <c r="S33" s="75">
         <f t="shared" si="7"/>
@@ -19158,7 +19405,7 @@
       </c>
       <c r="U33" s="75">
         <f t="shared" si="7"/>
-        <v>0.37</v>
+        <v>0.37000000000000005</v>
       </c>
       <c r="V33" s="75">
         <f t="shared" si="7"/>
@@ -19171,7 +19418,7 @@
       </c>
       <c r="M34" s="75">
         <f>+Model!U62</f>
-        <v>0.39</v>
+        <v>0.39035532994923861</v>
       </c>
       <c r="N34" s="75">
         <f>+Model!V62</f>
@@ -19183,15 +19430,15 @@
       </c>
       <c r="P34" s="75">
         <f>+Model!X62</f>
-        <v>0.39</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="Q34" s="75">
         <f>+Model!Y62</f>
-        <v>0.39000000000000007</v>
+        <v>0.39</v>
       </c>
       <c r="R34" s="75">
         <f>+Model!Z62</f>
-        <v>0.38999999999999996</v>
+        <v>0.39</v>
       </c>
       <c r="S34" s="75">
         <f>+Model!AA62</f>
@@ -19203,7 +19450,7 @@
       </c>
       <c r="U34" s="75">
         <f>+Model!AC62</f>
-        <v>0.39</v>
+        <v>0.39000000000000007</v>
       </c>
       <c r="V34" s="75">
         <f>+Model!AD62</f>
@@ -19216,7 +19463,7 @@
       </c>
       <c r="M35" s="75">
         <f>+M34+2%</f>
-        <v>0.41000000000000003</v>
+        <v>0.41035532994923862</v>
       </c>
       <c r="N35" s="75">
         <f t="shared" ref="N35:V35" si="8">+N34+2%</f>
@@ -19228,15 +19475,15 @@
       </c>
       <c r="P35" s="75">
         <f t="shared" si="8"/>
-        <v>0.41000000000000003</v>
+        <v>0.41</v>
       </c>
       <c r="Q35" s="75">
         <f t="shared" si="8"/>
-        <v>0.41000000000000009</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="R35" s="75">
         <f t="shared" si="8"/>
-        <v>0.41</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="S35" s="75">
         <f t="shared" si="8"/>
@@ -19248,7 +19495,7 @@
       </c>
       <c r="U35" s="75">
         <f t="shared" si="8"/>
-        <v>0.41000000000000003</v>
+        <v>0.41000000000000009</v>
       </c>
       <c r="V35" s="75">
         <f t="shared" si="8"/>
@@ -19285,43 +19532,43 @@
       </c>
       <c r="M37" s="5">
         <f ca="1">M38*M31</f>
-        <v>1715.3365265400002</v>
+        <v>2123.3104777360786</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" ref="N37:V37" ca="1" si="9">N38*N31</f>
-        <v>1750.7810873858275</v>
+        <v>2054.0581285418934</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1787.7770541816992</v>
+        <v>2092.4613286493327</v>
       </c>
       <c r="P37" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1826.418548656085</v>
+        <v>2132.405898591976</v>
       </c>
       <c r="Q37" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1866.8058222037082</v>
+        <v>2173.9828160946076</v>
       </c>
       <c r="R37" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1909.045660610507</v>
+        <v>2217.2889418714481</v>
       </c>
       <c r="S37" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1953.2518155887831</v>
+        <v>2262.4274071935292</v>
       </c>
       <c r="T37" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1970.3587493836269</v>
+        <v>2446.7237487940342</v>
       </c>
       <c r="U37" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>1995.5659755550025</v>
+        <v>2478.5085585824486</v>
       </c>
       <c r="V37" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2022.0446107966852</v>
+        <v>2511.8903445689584</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
@@ -19354,43 +19601,43 @@
       </c>
       <c r="M38" s="74">
         <f>+Model!U64</f>
-        <v>0.17</v>
+        <v>0.21239476620346892</v>
       </c>
       <c r="N38" s="74">
         <f>+Model!V64</f>
-        <v>0.17340000000000003</v>
+        <v>0.2166426615275383</v>
       </c>
       <c r="O38" s="74">
         <f>+Model!W64</f>
-        <v>0.17686800000000003</v>
+        <v>0.22097551475808908</v>
       </c>
       <c r="P38" s="74">
         <f>+Model!X64</f>
-        <v>0.18040536000000004</v>
+        <v>0.22539502505325087</v>
       </c>
       <c r="Q38" s="74">
         <f>+Model!Y64</f>
-        <v>0.18401346720000006</v>
+        <v>0.22990292555431591</v>
       </c>
       <c r="R38" s="74">
         <f>+Model!Z64</f>
-        <v>0.18769373654400007</v>
+        <v>0.23450098406540223</v>
       </c>
       <c r="S38" s="74">
         <f>+Model!AA64</f>
-        <v>0.19144761127488008</v>
+        <v>0.23919100374671029</v>
       </c>
       <c r="T38" s="74">
         <f>+Model!AB64</f>
-        <v>0.1952765635003777</v>
+        <v>0.24397482382164451</v>
       </c>
       <c r="U38" s="74">
         <f>+Model!AC64</f>
-        <v>0.19918209477038526</v>
+        <v>0.24885432029807741</v>
       </c>
       <c r="V38" s="74">
         <f>+Model!AD64</f>
-        <v>0.20316573666579296</v>
+        <v>0.25383140670403898</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
@@ -19430,43 +19677,43 @@
       </c>
       <c r="M40" s="78">
         <f t="shared" ca="1" si="11"/>
-        <v>8374.87833546</v>
+        <v>7873.6895222639214</v>
       </c>
       <c r="N40" s="78">
         <f t="shared" ca="1" si="11"/>
-        <v>8345.9956564770746</v>
+        <v>7427.2606203084742</v>
       </c>
       <c r="O40" s="78">
         <f t="shared" ca="1" si="11"/>
-        <v>8320.1964298951207</v>
+        <v>7376.7386003112824</v>
       </c>
       <c r="P40" s="78">
         <f t="shared" ca="1" si="11"/>
-        <v>8297.5519844593637</v>
+        <v>7328.3437257095484</v>
       </c>
       <c r="Q40" s="78">
         <f t="shared" ca="1" si="11"/>
-        <v>8278.1354726348873</v>
+        <v>7282.1074483200209</v>
       </c>
       <c r="R40" s="78">
         <f t="shared" ca="1" si="11"/>
-        <v>8262.0218228426729</v>
+        <v>7238.0613233242293</v>
       </c>
       <c r="S40" s="78">
         <f t="shared" ca="1" si="11"/>
-        <v>8249.2876811527476</v>
+        <v>7196.2368893504645</v>
       </c>
       <c r="T40" s="78">
         <f t="shared" ca="1" si="11"/>
-        <v>8119.7345729510625</v>
+        <v>7581.8673593716521</v>
       </c>
       <c r="U40" s="78">
         <f t="shared" ca="1" si="11"/>
-        <v>8023.2360550967351</v>
+        <v>7481.1680731661745</v>
       </c>
       <c r="V40" s="79">
         <f t="shared" ca="1" si="11"/>
-        <v>7930.6405416359939</v>
+        <v>7384.010155631001</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
@@ -19499,43 +19746,43 @@
       </c>
       <c r="M42" s="5">
         <f ca="1">M43*M25</f>
-        <v>1448.8513648000003</v>
+        <v>1434.16</v>
       </c>
       <c r="N42" s="5">
         <f t="shared" ref="N42:V42" ca="1" si="12">N43*N25</f>
-        <v>1449.7935837341602</v>
+        <v>1361.420128040053</v>
       </c>
       <c r="O42" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>1451.4013207905177</v>
+        <v>1359.6799897994731</v>
       </c>
       <c r="P42" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>1453.6983329601669</v>
+        <v>1358.466612720219</v>
       </c>
       <c r="Q42" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>1456.7095192588752</v>
+        <v>1357.7975764287671</v>
       </c>
       <c r="R42" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>1460.460971983021</v>
+        <v>1357.6913201306611</v>
       </c>
       <c r="S42" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>1464.9800303013478</v>
+        <v>1358.1671810422145</v>
       </c>
       <c r="T42" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>1448.8339129506221</v>
+        <v>1440.0028257878935</v>
       </c>
       <c r="U42" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>1438.5972146576853</v>
+        <v>1430.1074137895457</v>
       </c>
       <c r="V42" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>1429.1035090672565</v>
+        <v>1420.9498154133275</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
@@ -19631,43 +19878,43 @@
       </c>
       <c r="M45" s="5">
         <f ca="1">M46*M25</f>
-        <v>-517.4469160000001</v>
+        <v>-512.20000000000005</v>
       </c>
       <c r="N45" s="5">
         <f t="shared" ref="N45:V45" ca="1" si="14">N46*N25</f>
-        <v>-517.78342276220008</v>
+        <v>-486.22147430001888</v>
       </c>
       <c r="O45" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>-518.3576145680421</v>
+        <v>-485.59999635695465</v>
       </c>
       <c r="P45" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>-519.1779760572025</v>
+        <v>-485.1666474000782</v>
       </c>
       <c r="Q45" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>-520.25339973531254</v>
+        <v>-484.92770586741682</v>
       </c>
       <c r="R45" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>-521.59320427965031</v>
+        <v>-484.88975718952184</v>
       </c>
       <c r="S45" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>-523.20715367905279</v>
+        <v>-485.05970751507658</v>
       </c>
       <c r="T45" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>-517.44068319665075</v>
+        <v>-514.28672349567626</v>
       </c>
       <c r="U45" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>-513.78471952060193</v>
+        <v>-510.75264778198067</v>
       </c>
       <c r="V45" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>-510.39411038116305</v>
+        <v>-507.48207693333126</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.2">
@@ -19759,43 +20006,43 @@
       </c>
       <c r="M48" s="5">
         <f ca="1">M49*M25</f>
-        <v>25.872345800000005</v>
+        <v>25.61</v>
       </c>
       <c r="N48" s="5">
         <f t="shared" ref="N48:V48" ca="1" si="16">N49*N25</f>
-        <v>25.889171138110004</v>
+        <v>24.311073715000944</v>
       </c>
       <c r="O48" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>25.917880728402103</v>
+        <v>24.279999817847735</v>
       </c>
       <c r="P48" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>25.958898802860123</v>
+        <v>24.258332370003913</v>
       </c>
       <c r="Q48" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>26.01266998676563</v>
+        <v>24.246385293370842</v>
       </c>
       <c r="R48" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>26.079660213982518</v>
+        <v>24.244487859476092</v>
       </c>
       <c r="S48" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>26.16035768395264</v>
+        <v>24.252985375753831</v>
       </c>
       <c r="T48" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>25.872034159832538</v>
+        <v>25.71433617478381</v>
       </c>
       <c r="U48" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>25.689235976030094</v>
+        <v>25.537632389099031</v>
       </c>
       <c r="V48" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>25.519705519058153</v>
+        <v>25.374103846666564</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.2">
@@ -19891,43 +20138,43 @@
       </c>
       <c r="M51" s="84">
         <f ca="1">M40+M42+M45+M48</f>
-        <v>9332.1551300600004</v>
+        <v>8821.2595222639211</v>
       </c>
       <c r="N51" s="84">
         <f t="shared" ca="1" si="18"/>
-        <v>9303.8949885871425</v>
+        <v>8326.7703477635114</v>
       </c>
       <c r="O51" s="84">
         <f t="shared" ca="1" si="18"/>
-        <v>9279.1580168459986</v>
+        <v>8275.098593571649</v>
       </c>
       <c r="P51" s="84">
         <f t="shared" ca="1" si="18"/>
-        <v>9258.0312401651881</v>
+        <v>8225.9020233996944</v>
       </c>
       <c r="Q51" s="84">
         <f t="shared" ca="1" si="18"/>
-        <v>9240.6042621452143</v>
+        <v>8179.2237041747421</v>
       </c>
       <c r="R51" s="84">
         <f t="shared" ca="1" si="18"/>
-        <v>9226.9692507600248</v>
+        <v>8135.1073741248447</v>
       </c>
       <c r="S51" s="84">
         <f t="shared" ca="1" si="18"/>
-        <v>9217.2209154589946</v>
+        <v>8093.5973482533564</v>
       </c>
       <c r="T51" s="84">
         <f t="shared" ca="1" si="18"/>
-        <v>9076.9998368648648</v>
+        <v>8533.2977978386534</v>
       </c>
       <c r="U51" s="84">
         <f t="shared" ca="1" si="18"/>
-        <v>8973.7377862098492</v>
+        <v>8426.0604715628397</v>
       </c>
       <c r="V51" s="85">
         <f ca="1">V40+V42+V45+V48</f>
-        <v>8874.869645841145</v>
+        <v>8322.8519979576649</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.2">
@@ -19946,43 +20193,43 @@
       <c r="L52" s="88"/>
       <c r="M52" s="88">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>3016.5702192118015</v>
+        <v>1021.0553411936662</v>
       </c>
       <c r="N52" s="88">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>8502.919183157328</v>
+        <v>7720.8426542299248</v>
       </c>
       <c r="O52" s="88">
         <f t="shared" ref="O52:U52" ca="1" si="19">O51/(1+$E$18)^O53</f>
-        <v>7925.525071571501</v>
+        <v>7170.9635354607854</v>
       </c>
       <c r="P52" s="88">
         <f t="shared" ca="1" si="19"/>
-        <v>7390.1684531580495</v>
+        <v>6661.9917721365182</v>
       </c>
       <c r="Q52" s="88">
         <f t="shared" ca="1" si="19"/>
-        <v>6893.6985714523735</v>
+        <v>6190.8298550857371</v>
       </c>
       <c r="R52" s="88">
         <f t="shared" ca="1" si="19"/>
-        <v>6433.2023797671454</v>
+        <v>5754.6152685757152</v>
       </c>
       <c r="S52" s="88">
         <f t="shared" ca="1" si="19"/>
-        <v>6005.9866093170785</v>
+        <v>5350.7027019572015</v>
       </c>
       <c r="T52" s="88">
         <f t="shared" ca="1" si="19"/>
-        <v>5527.6802457125368</v>
+        <v>5272.3271535000604</v>
       </c>
       <c r="U52" s="88">
         <f t="shared" ca="1" si="19"/>
-        <v>5107.2860524069338</v>
+        <v>4865.4861735033273</v>
       </c>
       <c r="V52" s="89">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>4720.5762030418609</v>
+        <v>4491.4861543916386</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
@@ -19991,43 +20238,43 @@
       </c>
       <c r="M53" s="50">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.33055555555555555</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="N53" s="50">
         <f ca="1">M53+1</f>
-        <v>1.3305555555555555</v>
+        <v>1.1166666666666667</v>
       </c>
       <c r="O53" s="50">
         <f ca="1">N53+1</f>
-        <v>2.3305555555555557</v>
+        <v>2.1166666666666667</v>
       </c>
       <c r="P53" s="50">
         <f t="shared" ref="P53:V53" ca="1" si="20">O53+1</f>
-        <v>3.3305555555555557</v>
+        <v>3.1166666666666667</v>
       </c>
       <c r="Q53" s="50">
         <f t="shared" ca="1" si="20"/>
-        <v>4.3305555555555557</v>
+        <v>4.1166666666666671</v>
       </c>
       <c r="R53" s="50">
         <f t="shared" ca="1" si="20"/>
-        <v>5.3305555555555557</v>
+        <v>5.1166666666666671</v>
       </c>
       <c r="S53" s="50">
         <f t="shared" ca="1" si="20"/>
-        <v>6.3305555555555557</v>
+        <v>6.1166666666666671</v>
       </c>
       <c r="T53" s="50">
         <f t="shared" ca="1" si="20"/>
-        <v>7.3305555555555557</v>
+        <v>7.1166666666666671</v>
       </c>
       <c r="U53" s="50">
         <f t="shared" ca="1" si="20"/>
-        <v>8.3305555555555557</v>
+        <v>8.1166666666666671</v>
       </c>
       <c r="V53" s="50">
         <f t="shared" ca="1" si="20"/>
-        <v>9.3305555555555557</v>
+        <v>9.1166666666666671</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -20040,7 +20287,7 @@
       <c r="Q54" s="51"/>
       <c r="V54" s="5">
         <f ca="1">SUM(M52:V52)</f>
-        <v>61523.612988796609</v>
+        <v>54500.300610034574</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
@@ -20053,7 +20300,7 @@
       <c r="Q55" s="51"/>
       <c r="V55" s="5">
         <f ca="1">+(V40*(1+E19))*(1-(E19/E20))/(E18-E19)</f>
-        <v>118665.88069707189</v>
+        <v>110486.67047684903</v>
       </c>
       <c r="X55" s="35" t="s">
         <v>375</v>
@@ -20084,7 +20331,7 @@
       <c r="U56" s="90"/>
       <c r="V56" s="91">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>63118.823699467415</v>
+        <v>59624.915931867217</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
@@ -20112,7 +20359,7 @@
       <c r="U57" s="93"/>
       <c r="V57" s="94">
         <f ca="1">V54+V56</f>
-        <v>124642.43668826402</v>
+        <v>114125.21654190178</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
@@ -20125,7 +20372,7 @@
       <c r="Q58" s="51"/>
       <c r="V58" s="95">
         <f>+Main!H6</f>
-        <v>4404</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
@@ -20153,7 +20400,7 @@
       <c r="U59" s="90"/>
       <c r="V59" s="91">
         <f>+Main!H7</f>
-        <v>35208</v>
+        <v>35070</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
@@ -20166,7 +20413,7 @@
       <c r="Q60" s="51"/>
       <c r="V60" s="95">
         <f ca="1">V57+V58-V59</f>
-        <v>93838.436688264017</v>
+        <v>82882.216541901784</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
@@ -20194,7 +20441,7 @@
       <c r="U61" s="90"/>
       <c r="V61" s="91">
         <f>+Main!H4</f>
-        <v>2194</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
@@ -20203,7 +20450,7 @@
       </c>
       <c r="V62" s="95">
         <f ca="1">V60/V61</f>
-        <v>42.770481626373751</v>
+        <v>37.897675602149882</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -20236,468 +20483,468 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B68" s="96"/>
-      <c r="C68" s="97" t="s">
+      <c r="C68" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="97"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="97"/>
-      <c r="G68" s="97"/>
-      <c r="H68" s="97"/>
-      <c r="I68" s="97"/>
-      <c r="J68" s="98"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="102"/>
       <c r="M68" s="96"/>
-      <c r="N68" s="99" t="s">
+      <c r="N68" s="103" t="s">
         <v>378</v>
       </c>
-      <c r="O68" s="99"/>
-      <c r="P68" s="99"/>
-      <c r="Q68" s="99"/>
-      <c r="R68" s="99"/>
-      <c r="S68" s="99"/>
-      <c r="T68" s="99"/>
-      <c r="U68" s="100"/>
+      <c r="O68" s="103"/>
+      <c r="P68" s="103"/>
+      <c r="Q68" s="103"/>
+      <c r="R68" s="103"/>
+      <c r="S68" s="103"/>
+      <c r="T68" s="103"/>
+      <c r="U68" s="104"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="101" t="s">
+      <c r="B69" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="C69" s="102">
+      <c r="C69" s="97">
         <f ca="1">+J4</f>
-        <v>42.770481626373751</v>
-      </c>
-      <c r="D69" s="103">
+        <v>37.897675602149882</v>
+      </c>
+      <c r="D69" s="98">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E69" s="103">
+      <c r="E69" s="98">
         <v>0</v>
       </c>
-      <c r="F69" s="103">
+      <c r="F69" s="98">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G69" s="103">
+      <c r="G69" s="98">
         <v>0.01</v>
       </c>
-      <c r="H69" s="103">
+      <c r="H69" s="98">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I69" s="103">
+      <c r="I69" s="98">
         <v>0.02</v>
       </c>
-      <c r="J69" s="103">
+      <c r="J69" s="98">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M69" s="101" t="s">
+      <c r="M69" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="N69" s="102">
+      <c r="N69" s="97">
         <f ca="1">+J4</f>
-        <v>42.770481626373751</v>
-      </c>
-      <c r="O69" s="103">
+        <v>37.897675602149882</v>
+      </c>
+      <c r="O69" s="98">
         <f t="shared" ref="O69:P69" si="21">+P69-1%</f>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="P69" s="103">
+      <c r="P69" s="98">
         <f t="shared" si="21"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q69" s="103">
+      <c r="Q69" s="98">
         <f>+R69-1%</f>
         <v>0.08</v>
       </c>
-      <c r="R69" s="103">
+      <c r="R69" s="98">
         <v>0.09</v>
       </c>
-      <c r="S69" s="103">
+      <c r="S69" s="98">
         <f>+R69+1%</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="T69" s="103">
+      <c r="T69" s="98">
         <f t="shared" ref="T69:U69" si="22">+S69+1%</f>
         <v>0.10999999999999999</v>
       </c>
-      <c r="U69" s="103">
+      <c r="U69" s="98">
         <f t="shared" si="22"/>
         <v>0.11999999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="101"/>
-      <c r="C70" s="104">
+      <c r="B70" s="105"/>
+      <c r="C70" s="99">
         <f>+C71-1%</f>
         <v>0.04</v>
       </c>
       <c r="D70" s="49">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>76.548372201595313</v>
+        <v>69.302518568100098</v>
       </c>
       <c r="E70" s="49">
-        <v>80.711103605858369</v>
+        <v>73.223488312499171</v>
       </c>
       <c r="F70" s="49">
-        <v>86.023394399508973</v>
-      </c>
-      <c r="G70" s="105">
-        <v>93.060024277240984</v>
+        <v>78.227253737773182</v>
+      </c>
+      <c r="G70" s="100">
+        <v>84.855212684359628</v>
       </c>
       <c r="H70" s="49">
-        <v>102.85559668950309</v>
+        <v>94.081881265045936</v>
       </c>
       <c r="I70" s="49">
-        <v>117.47931853719307</v>
+        <v>107.85629170540702</v>
       </c>
       <c r="J70" s="49">
-        <v>141.75933925573858</v>
-      </c>
-      <c r="M70" s="101"/>
-      <c r="N70" s="104">
+        <v>130.7261858651176</v>
+      </c>
+      <c r="M70" s="105"/>
+      <c r="N70" s="99">
         <f>+N71-1%</f>
         <v>0.04</v>
       </c>
       <c r="O70" s="49">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>88.371148383219747</v>
+        <v>80.438655686021647</v>
       </c>
       <c r="P70" s="49">
-        <v>90.380666623514585</v>
+        <v>82.331465828166486</v>
       </c>
       <c r="Q70" s="49">
-        <v>91.887805303735661</v>
-      </c>
-      <c r="R70" s="105">
-        <v>93.060024277240984</v>
+        <v>83.751073434775137</v>
+      </c>
+      <c r="R70" s="100">
+        <v>84.855212684359628</v>
       </c>
       <c r="S70" s="49">
-        <v>93.997799456045229</v>
+        <v>85.738524084027233</v>
       </c>
       <c r="T70" s="49">
-        <v>94.765070056885051</v>
+        <v>86.46123341102799</v>
       </c>
       <c r="U70" s="49">
-        <v>95.404462224251589</v>
+        <v>87.063491183528626</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="101"/>
-      <c r="C71" s="104">
+      <c r="B71" s="105"/>
+      <c r="C71" s="99">
         <f>+C72-1%</f>
         <v>0.05</v>
       </c>
       <c r="D71" s="49">
-        <v>60.381848049260036</v>
+        <v>54.248087350816775</v>
       </c>
       <c r="E71" s="49">
-        <v>62.454620134108815</v>
+        <v>56.204477946385033</v>
       </c>
       <c r="F71" s="49">
-        <v>64.959702225480981</v>
-      </c>
-      <c r="G71" s="105">
-        <v>68.059210575822831</v>
+        <v>58.568905314213318</v>
+      </c>
+      <c r="G71" s="100">
+        <v>61.494383243899193</v>
       </c>
       <c r="H71" s="49">
-        <v>72.007899296121352</v>
+        <v>65.221361976238711</v>
       </c>
       <c r="I71" s="49">
-        <v>77.230358571354884</v>
+        <v>70.150591912558724</v>
       </c>
       <c r="J71" s="49">
-        <v>84.490850734484411</v>
-      </c>
-      <c r="M71" s="101"/>
-      <c r="N71" s="104">
+        <v>77.003423775247526</v>
+      </c>
+      <c r="M71" s="105"/>
+      <c r="N71" s="99">
         <f>+N72-1%</f>
         <v>0.05</v>
       </c>
       <c r="O71" s="49">
-        <v>64.84293992461194</v>
+        <v>58.458698953848454</v>
       </c>
       <c r="P71" s="49">
-        <v>66.221341632273763</v>
+        <v>59.759706506727355</v>
       </c>
       <c r="Q71" s="49">
-        <v>67.255142913020109</v>
-      </c>
-      <c r="R71" s="105">
-        <v>68.059210575822831</v>
+        <v>60.735462171386516</v>
+      </c>
+      <c r="R71" s="100">
+        <v>61.494383243899193</v>
       </c>
       <c r="S71" s="49">
-        <v>68.702464706065015</v>
+        <v>62.101520101909344</v>
       </c>
       <c r="T71" s="49">
-        <v>69.228763539899518</v>
+        <v>62.598268440281281</v>
       </c>
       <c r="U71" s="49">
-        <v>69.667345901428277</v>
+        <v>63.012225388924556</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="101"/>
-      <c r="C72" s="104">
+      <c r="B72" s="105"/>
+      <c r="C72" s="99">
         <f>+C73-1%</f>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="D72" s="105">
-        <v>49.167371760971818</v>
-      </c>
-      <c r="E72" s="105">
-        <v>50.234667965037083</v>
-      </c>
-      <c r="F72" s="105">
-        <v>51.474818863725588</v>
-      </c>
-      <c r="G72" s="105">
-        <v>52.939680865424322</v>
-      </c>
-      <c r="H72" s="105">
-        <v>54.704157671136684</v>
-      </c>
-      <c r="I72" s="105">
-        <v>56.880604832367794</v>
-      </c>
-      <c r="J72" s="105">
-        <v>59.645581072911412</v>
-      </c>
-      <c r="M72" s="101"/>
-      <c r="N72" s="104">
+      <c r="D72" s="100">
+        <v>43.812606675191368</v>
+      </c>
+      <c r="E72" s="100">
+        <v>44.822021010079496</v>
+      </c>
+      <c r="F72" s="100">
+        <v>45.994915741450647</v>
+      </c>
+      <c r="G72" s="100">
+        <v>47.380334988249736</v>
+      </c>
+      <c r="H72" s="100">
+        <v>49.049120255619421</v>
+      </c>
+      <c r="I72" s="100">
+        <v>51.107533801273625</v>
+      </c>
+      <c r="J72" s="100">
+        <v>53.72255917304863</v>
+      </c>
+      <c r="M72" s="105"/>
+      <c r="N72" s="99">
         <f>+N73-1%</f>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="O72" s="105">
-        <v>50.584454115949214</v>
-      </c>
-      <c r="P72" s="105">
-        <v>51.59383700858141</v>
-      </c>
-      <c r="Q72" s="105">
-        <v>52.350874178055548</v>
-      </c>
-      <c r="R72" s="105">
-        <v>52.939680865424322</v>
-      </c>
-      <c r="S72" s="105">
-        <v>53.41072621531935</v>
-      </c>
-      <c r="T72" s="105">
-        <v>53.796126956142537</v>
-      </c>
-      <c r="U72" s="105">
-        <v>54.117294240161868</v>
+      <c r="O72" s="100">
+        <v>45.152837472773925</v>
+      </c>
+      <c r="P72" s="100">
+        <v>46.107479265120716</v>
+      </c>
+      <c r="Q72" s="100">
+        <v>46.823460609380788</v>
+      </c>
+      <c r="R72" s="100">
+        <v>47.380334988249736</v>
+      </c>
+      <c r="S72" s="100">
+        <v>47.825834491344914</v>
+      </c>
+      <c r="T72" s="100">
+        <v>48.190334084786407</v>
+      </c>
+      <c r="U72" s="100">
+        <v>48.494083745987645</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="101"/>
-      <c r="C73" s="104">
+      <c r="B73" s="105"/>
+      <c r="C73" s="99">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D73" s="49">
-        <v>40.926142955407705</v>
+        <v>36.149852821004586</v>
       </c>
       <c r="E73" s="49">
-        <v>41.468356144390008</v>
+        <v>36.663691509559719</v>
       </c>
       <c r="F73" s="49">
-        <v>42.077553673070497</v>
-      </c>
-      <c r="G73" s="105">
-        <v>42.770481626373751</v>
+        <v>37.241009187493276</v>
+      </c>
+      <c r="G73" s="100">
+        <v>37.897675602149882</v>
       </c>
       <c r="H73" s="49">
-        <v>43.569975574651423</v>
+        <v>38.655331318090361</v>
       </c>
       <c r="I73" s="49">
-        <v>44.508005316395845</v>
+        <v>39.544273125699895</v>
       </c>
       <c r="J73" s="49">
-        <v>45.63074944942921</v>
-      </c>
-      <c r="M73" s="101"/>
-      <c r="N73" s="104">
+        <v>40.608263055534785</v>
+      </c>
+      <c r="M73" s="105"/>
+      <c r="N73" s="99">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O73" s="49">
-        <v>40.972429447150091</v>
+        <v>36.193717099295881</v>
       </c>
       <c r="P73" s="49">
-        <v>41.743023238245961</v>
+        <v>36.92398502909046</v>
       </c>
       <c r="Q73" s="49">
-        <v>42.32096858156784</v>
-      </c>
-      <c r="R73" s="105">
-        <v>42.770481626373751</v>
+        <v>37.47168597643639</v>
+      </c>
+      <c r="R73" s="100">
+        <v>37.897675602149882</v>
       </c>
       <c r="S73" s="49">
-        <v>43.130092062218488</v>
+        <v>38.238467302720679</v>
       </c>
       <c r="T73" s="49">
-        <v>43.424318782455096</v>
+        <v>38.51729687591498</v>
       </c>
       <c r="U73" s="49">
-        <v>43.669507715985588</v>
+        <v>38.749654853576885</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="101"/>
-      <c r="C74" s="104">
+      <c r="B74" s="105"/>
+      <c r="C74" s="99">
         <f>+C73+1%</f>
         <v>0.08</v>
       </c>
       <c r="D74" s="49">
-        <v>34.610367195097531</v>
+        <v>30.282272064967465</v>
       </c>
       <c r="E74" s="49">
-        <v>34.863845436350779</v>
+        <v>30.52296398688911</v>
       </c>
       <c r="F74" s="49">
-        <v>35.138062806433837</v>
-      </c>
-      <c r="G74" s="105">
-        <v>35.43746340438166</v>
+        <v>30.783348884240695</v>
+      </c>
+      <c r="G74" s="100">
+        <v>31.067646680328654</v>
       </c>
       <c r="H74" s="49">
-        <v>35.767858744316904</v>
+        <v>31.381375736399836</v>
       </c>
       <c r="I74" s="49">
-        <v>36.136997511736411</v>
+        <v>31.731893867450058</v>
       </c>
       <c r="J74" s="49">
-        <v>36.555446095954053</v>
-      </c>
-      <c r="M74" s="101"/>
-      <c r="N74" s="104">
+        <v>32.129234457564486</v>
+      </c>
+      <c r="M74" s="105"/>
+      <c r="N74" s="99">
         <f>+N73+1%</f>
         <v>0.08</v>
       </c>
       <c r="O74" s="49">
-        <v>34.024404507525091</v>
+        <v>29.725867362343418</v>
       </c>
       <c r="P74" s="49">
-        <v>34.630001177606488</v>
+        <v>30.300915641479953</v>
       </c>
       <c r="Q74" s="49">
-        <v>35.084198680167518</v>
-      </c>
-      <c r="R74" s="105">
-        <v>35.43746340438166</v>
+        <v>30.73220185083234</v>
+      </c>
+      <c r="R74" s="100">
+        <v>31.067646680328654</v>
       </c>
       <c r="S74" s="49">
-        <v>35.720075183752975</v>
+        <v>31.336002543925694</v>
       </c>
       <c r="T74" s="49">
-        <v>35.9513030032386</v>
+        <v>31.555566432323285</v>
       </c>
       <c r="U74" s="49">
-        <v>36.143992852809944</v>
+        <v>31.738536339321268</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B75" s="101"/>
-      <c r="C75" s="104">
+      <c r="B75" s="105"/>
+      <c r="C75" s="99">
         <f>+C74+1%</f>
         <v>0.09</v>
       </c>
       <c r="D75" s="49">
-        <v>29.613273052898883</v>
+        <v>25.643801392060521</v>
       </c>
       <c r="E75" s="49">
-        <v>29.703137750905174</v>
+        <v>25.729301387381419</v>
       </c>
       <c r="F75" s="49">
-        <v>29.793002448911466</v>
-      </c>
-      <c r="G75" s="105">
-        <v>29.88286714691775</v>
+        <v>25.814801382702306</v>
+      </c>
+      <c r="G75" s="100">
+        <v>25.900301378023201</v>
       </c>
       <c r="H75" s="49">
-        <v>29.972731844924041</v>
+        <v>25.985801373344099</v>
       </c>
       <c r="I75" s="49">
-        <v>30.06259654293034</v>
+        <v>26.071301368664994</v>
       </c>
       <c r="J75" s="49">
-        <v>30.152461240936617</v>
-      </c>
-      <c r="M75" s="101"/>
-      <c r="N75" s="104">
+        <v>26.156801363985881</v>
+      </c>
+      <c r="M75" s="105"/>
+      <c r="N75" s="99">
         <f>+N74+1%</f>
         <v>0.09</v>
       </c>
       <c r="O75" s="49">
-        <v>28.748325334588348</v>
+        <v>24.820863937096913</v>
       </c>
       <c r="P75" s="49">
-        <v>29.234557539872377</v>
+        <v>25.283479983208178</v>
       </c>
       <c r="Q75" s="49">
-        <v>29.599231693835396</v>
-      </c>
-      <c r="R75" s="105">
-        <v>29.88286714691775</v>
+        <v>25.63044201779163</v>
+      </c>
+      <c r="R75" s="100">
+        <v>25.900301378023201</v>
       </c>
       <c r="S75" s="49">
-        <v>30.109775509383635</v>
+        <v>26.116188866208461</v>
       </c>
       <c r="T75" s="49">
-        <v>30.295427805946623</v>
+        <v>26.292824083814583</v>
       </c>
       <c r="U75" s="49">
-        <v>30.450138053082448</v>
+        <v>26.440020098486347</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B76" s="106"/>
-      <c r="C76" s="104">
+      <c r="C76" s="99">
         <f>+C75+1%</f>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="D76" s="49">
-        <v>25.55911716329204</v>
+        <v>21.883932724516868</v>
       </c>
       <c r="E76" s="49">
-        <v>25.555187429835961</v>
+        <v>21.880186546686339</v>
       </c>
       <c r="F76" s="49">
-        <v>25.542157261007898</v>
-      </c>
-      <c r="G76" s="105">
-        <v>25.518509917579191</v>
+        <v>21.867765009669302</v>
+      </c>
+      <c r="G76" s="100">
+        <v>21.845222220268017</v>
       </c>
       <c r="H76" s="49">
-        <v>25.482371780502675</v>
+        <v>21.81077207512056</v>
       </c>
       <c r="I76" s="49">
-        <v>25.431400825969384</v>
+        <v>21.762181945024523</v>
       </c>
       <c r="J76" s="49">
-        <v>25.362630490487955</v>
+        <v>21.696623832990173</v>
       </c>
       <c r="M76" s="106"/>
-      <c r="N76" s="104">
+      <c r="N76" s="99">
         <f>+N75+1%</f>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="O76" s="49">
-        <v>24.592402733095909</v>
+        <v>20.962372978205543</v>
       </c>
       <c r="P76" s="49">
-        <v>24.989305812160179</v>
+        <v>21.340736939089464</v>
       </c>
       <c r="Q76" s="49">
-        <v>25.286983121458377</v>
-      </c>
-      <c r="R76" s="105">
-        <v>25.518509917579191</v>
+        <v>21.624509909752398</v>
+      </c>
+      <c r="R76" s="100">
+        <v>21.845222220268017</v>
       </c>
       <c r="S76" s="49">
-        <v>25.703731354475853</v>
+        <v>22.021792068680512</v>
       </c>
       <c r="T76" s="49">
-        <v>25.855276166482209</v>
+        <v>22.166258308290733</v>
       </c>
       <c r="U76" s="49">
-        <v>25.981563509820838</v>
+        <v>22.286646841299248</v>
       </c>
     </row>
   </sheetData>
